--- a/projects/cod/business_data/xlsx/records_NS.xlsx
+++ b/projects/cod/business_data/xlsx/records_NS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\projects\cod\business_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D07B80-6022-401B-837D-E161C38454F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F3E82D-65CF-4BB9-9E8E-6D9F03EE2BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3450,7 +3450,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/projects/cod/business_data/xlsx/records_NS.xlsx
+++ b/projects/cod/business_data/xlsx/records_NS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\projects\cod\business_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F3E82D-65CF-4BB9-9E8E-6D9F03EE2BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC5F4F6-1201-4F1A-887B-59669BE1CE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,10 +135,6 @@
 •	Small blue convex insets of glazed ceramic that decorate the dome</t>
   </si>
   <si>
-    <t>Mustafa al-Babi al-Halabi’s funerary enclosure is one of the largest and best maintained in the area under study. More than two-thirds of the rectangular plot is taken up by an open funerary enclosure arranged as a garden, while the section facing the Sultan Ahmad Street is a Neo-Mamluk building. The domed mausoleum is placed in the southern corner of the enclosure. The cubical block of the mausoleum is taller than the adjacent facades and topped with an elaborate fleur-de-lys crenellation resembling those of late Mamluk period in the reign of Sultan Qansuh al-Ghuri. The dome sits on a tall octagonal drum with no zone-of-transition visible from the outside, featuring double round-arch windows topped by an oculus in each of the eight sides, with knotted mouldings framing and floral “arabesque” motifs in the spandrels. The dome constructed of reinforced concrete is decorated with fleur-de-lys floral pattern in prefabricated plaster panels. The pattern is virtually identical with this on the dome of Amir Azrumuk (monument No. 87, AD 1504-5) (Index, s.v.), located about one kilometre to the south in the same area of the cemetery. The small blue convex insets of glazed ceramic decorating the dome are also present in the tomb of Azrumuk. (Williams, p. 279-80). The main façade adjacent to the mausoleum is tripartite, with two bays each featuring a single window flanking the central, slightly projecting part with the main entrance portal. The right (north) bay is slightly wider and protruding forwards compared to the left one. The entrance section is asymmetrical, with the entrance door set to the right of its axis, and a single engaged corner column to the left. The rectangular entrance door is set in a rectangular recess topped with a three-tiered muqarnas frieze. Above the door is a recessed long inscription panel with one line of text. The windows of the façade are identical with those of the mausoleum. They are rectangular, fitted with iron grilles, with marble lintels decorated with recessed panels, over which are segmental relieving arches with joggled voussoirs and set in a rectangular recess topped by a two-tiered muqarnas frieze with muqarnases grouped in pairs, a feature of many Mamluk-period buildings including the tomb of Amir Azrumuk. The section adjacent to the mausoleum in the side (south) elevation is identical with the corresponding bay of the front façade, while the rest of the enclosure is surrounded by a lower simple wall of rough stone._x000D_
-The entrance gate leads to a vestibule open to the sky, which on the back end opens to the garden with an arcade of three pointed arches on round columns with simple Mamluk-style capitals. A similar arcade of three arches faces the vestibule to the left, forming a portico in front of the mausoleum and the reception room that precedes it. To the right (north) of the vestibule, is a residential zone composed of two rooms and a toilet.</t>
-  </si>
-  <si>
     <t>(In all descriptions, the direction towards Mecca is called eastern, and other directions are named accordingly) The structure is in a generally good condition, and well-maintained. However, much of the decoration of the dome is missing, leaving exposed the concrete structure.</t>
   </si>
   <si>
@@ -160,9 +156,6 @@
     <t>01_IMG_2968s.jpg</t>
   </si>
   <si>
-    <t>Muhammad Tal‘at Pasha Harb funerary enclosure</t>
-  </si>
-  <si>
     <t>Funerary enclosure, with a residential unit for the doorman</t>
   </si>
   <si>
@@ -227,32 +220,10 @@
 •	A huge alabaster bathtub randomly thrown in the garden</t>
   </si>
   <si>
-    <t>The largest and most decorated funerary enclosure documented in this research is a one-story stone-built walled enclosure, with the main entrance in the formally designed elaborate eastern façade. The façade is articulated with engaged columns in two tiers, without an inter-story cornice. The main gate is flanked by two massive buttresses with engaged corner columns topped with Islamic-style geometric capitals in the lower story and panels of geometric pattern above, which --like the gate itself-- are framed in knotted mouldings. The gateway section is taller than the rest of the façade, topped with elaborate fleur-de-lys crenelations, and is the only section of the façade clearly based on Islamic architectural tradition. On both ends of the façade are flat projections framed with triple engaged columns, each with a tall pointed-arch window and a small rectangular marble-framed window above. The sections of the façade between the gateway and the side projections are each divided into three bays by engaged columns: round and with composite order capitals in the lower tier and semi-octagonal with simple geometric capitals in the upper tier. Each bay has a large rectangular window in the lower level with a marble lintel and a segmental relieving arch above it, over which is placed a smaller oval window in marble framing, those in the central bays having the oval window within a rectangular marble frame. (The façade therefore gives the impression of a double-storied building, while in fact behind it are single full-height halls.) _x000D_
-The round-arched main entrance leads into a long passage divided into two chambers by a gate in the middle, which is pointed-arched and fitted with extremely elaborate double-leaved wooden coffered door in Gothic Revival style, with an iron openwork in the arch over the lintel in Gothic tracery motifs. To the right side of the gateway is a huge hall with a mihrab in its shorter wall, originally divided into three aisles perpendicular to the main façade (and not related to its architectural divisions) by two rows of four columns each. The capitals are in Islamic style, decorated with muqarnases. The southern row of columns has largely collapsed, and the roof is missing. The hall is accessible from the first vestibule through a huge arched doorway flanked by two smaller doors, and also from the second vestibule through an arched gate placed in the middle of a façade with huge rectangular windows in two tiers._x000D_
-To the left of the gateway is a large room along the main façade, now used for storage purposes, and behind it, a set of smaller rooms, now much altered. The northern internal elevation of the first vestibule is decorated with stone medallions including the initials of Khedive Isma‘il (K.I.), the right one being a mirror image._x000D_
-In the southern lateral façade, the windows (of the huge three-aisled hall) are placed high and are double arched windows divided by piers with engaged colonettes and topped by an oculus in a fashion reminiscent of Mamluk fenestration. The windows of the northern lateral façade are huge, rectangular, placed low and fitted with iron grilles._x000D_
-The third gate leads from the second vestibule to a huge garden, currently including four free-standing residential buildings Three of them are constructed of red bricks, while the fourth imitates in stone the features of the enclosure’s façade. A luxurious ornate bathtub of a huge monolithic piece of alabaster, apparently dating back to Khedive Isma‘il’s era is randomly thrown in the garden.</t>
-  </si>
-  <si>
     <t>The general structural condition of the enclosure is poor_x000D_
 The roof of the huge prayer hall south of the gateway chamber has fallen, as has much of the southern row of columns in the hall.</t>
   </si>
   <si>
-    <t>Ibrahim Pasha, son of the ruler of Egypt and founder of the dynasty Muhammad ‘Ali Pasha built a palace known under the name The High Palace in 1820 in what is now known as Garden City. It hosted the first meeting of the Egyptian advisory council “Majlis al-Mashoura” on 2 December 1829. After ‘Abbas Hilmi I assumed power, he donated the High Palace and its appurtenances in 1848 to Isma'il Bey, later Khedive Isma'il, who later sold the palace to his mother Hoshiyar Hanim Qadin in 1863. Khedive Isma'il’s remodelling of the palace is evidenced by his initials (K.I. - Khedive Isma'il) carved in stone in the gateway, still existing on the current remnants located in the Desert of the Mamluks. Hoshiyar Hanim Qadin took good care of the building until it was returned to the Egyptian Government in 1880. It was subsequently sold in 1898 to “al-Dayra al-Sunnya”, who sold it finally to the real estate company Charles Bacchus. The company demolished the palace in 1906 and sold its ruins, luxurious furniture, precious antiques, and rare garden trees (Negm, 2002). One of the façades of the High Palace was purchased by Sheikh ‘Ali al-Waqad and rebuilt in the Desert of the Mamluks. (El Kadi and Bonnamy, 2007, the date 1870 in this publication is certainly mistaken.) Two photographs in the collection of the Musée Nicéphore Niépce in Chalon sur Saône in France show the street façade of the High Palace before the transfer, clearly showing architectural elements now in the façade of the al-Waqqad family funerary enclosure. It is evident, however, that after the transfer, these elements were put in a different order in a differently designed façade. The present façade is straight, while in the original one, the entrance gate was placed in a deep recess. Moreover, what used to be an external gate on a street is now a gate between the first and second open vestibules. The photographs with numbers MNN 96.33.222 and MNN 96.33.223 are available in the Museum’s online collection : https://www.open-museeniepce.com/accueil _x000D_
-_x000D_
-Sheikh ‘Ali al-Waqqad was a pioneer of the bamboo industry in Egypt. He opened a factory on Queen Nazli Street (currently Ramses), where French labourers processed bamboo imported from India. After a dispute over wages in 1920 the French workers left and the factory was threatened with closure. However, the sheikh insisted on continuing the operation of the factory and entrusted the task to his son Muhammad. He trained Egyptian workers who replaced the French, and that area in Ramses Street is still famous for the bamboo industry, with the most important businesses owned by the descendants of students of Muhammad ‘Ali al-Waqqad (Ahmad al-Waqad, 2018)._x000D_
-It appears that the façade and gateway that were transferred to the Desert of the Mamluks by al-Waqad family date to the times of Khedive Isma’il, judging from the style of their architecture. It uses Gothic Revival forms in a rather generic way, similar to other early Orientalist buildings in Cairo, such as the Gezira Palace (1869), and not the neo-Mamluk forms that were used after the work of the Comite de Conservation des Monuments de l’Art Arabe from 1882 on made the Mamluk architecture better known, resulting in such works as the al-Rifa’i Mosque (completed 1905, designed by Max Herz)._x000D_
-The date 1292 in the grille in the arch of the main gate translates to AD 1875. At that time, Khedive Isma‘il was in a precarious financial condition, and burdened with enormous debt, which forced him to sell in that year his shares in the Suez Canal for a fraction of their value (Thompson, p.248). The date is therefore unlikely to be of original construction. This is also suggested by the very crude execution of the plaque with the date, incompatible with the details of other metalwork in the building.</t>
-  </si>
-  <si>
-    <t>•	Grand, Pierre Bey, Plan général de la Ville du Caire, available online in the American University in Cairo’s Rare Books and Special Collections Digital Library_x000D_
-•	El Kadi, Galila and Bonnamy, Alain Architecture for The Dead: Cairo's Medieval Necropolis, American University in Cairo Press 2007, p. 206._x000D_
-•	Al Ahram Newspaper, 10 November 1948 (Special edition for the 100 anniversary of Ibrahim Pasha). _x000D_
-•	Interview with Ahmed al-Waqad, Al-Nahar TV, 4 May 2018. _x000D_
-•	Negm, Abdel Monsif قصور الأمراء والباشاوات في مدينة القاهرة في القرن التاسع عشر, Zahraa Al-Sharq Press in Cairo 2002, p.81 - 99._x000D_
-•	Thompson, Jason A History of Egypt, American University in Cairo Press 2008, p. 248</t>
-  </si>
-  <si>
     <t>03_DSC_9862s.jpg</t>
   </si>
   <si>
@@ -269,9 +240,6 @@
   </si>
   <si>
     <t>About 1948</t>
-  </si>
-  <si>
-    <t>date of Mahmud Fathi Pasha’s death. See also section "History"</t>
   </si>
   <si>
     <t>Hadeer Ahmad and Radwa al-Saeed</t>
@@ -286,12 +254,6 @@
     <t>The enclosure is in a good condition but lower parts of the walls are seriously damaged by moisture. The roof has recently been repaired and new drainage pipes installed. The relieving arches over doors and windows in the stone sections of the façade have recently been crudely filled in with mortar, which suggests that decorative ceramic tiles were recently stolen from them.</t>
   </si>
   <si>
-    <t>A small, apparently modern inscription plaque by the main entrance door gives the name of Mahmud Fahmi al-Nuqrashi Pasha, the Prime Minister. _x000D_
-Mahmud al-Nuqrashi was an Egyptian politician. After resigning in 1937 from the Wafd party then lead by Mustafa Nahas (whose likely heir he was considered), al-Nuqrashi founded with Ahmad Mahir in January 1938 the S‘adist Party which claimed to be the true heirs to Wafd’s founder S‘ad Zaghlul. Mahmud al-Nuqrashi held various ministerial posts in the 1930s and 40s, served as Prime Minister from February 1945 for one year, and then again from December 1946 until his death. On 8 December 1948 he outlawed the Muslim Brotherhood he was assassinated by its member Twenty days later. (Wucher King, p.491-2; Vatikiotis, p.364-7)._x000D_
-The date AH 1305 on a cenotaph inside corresponds to AD 1888. This seems too early for the front façade designed in historically accurate neo-Mamluk style, but does not seem improbable for the back and side facades and the back gateway. It is not impossible that the front façade is a later remodelling._x000D_
-The local lore reported by the keeper is that the enclosure founder was called not al-Nuqrashi, but Muhammad Zaki Pasha and he was reportedly a relative to Mustafa Fahmi, the father of Safia Zahgloul.</t>
-  </si>
-  <si>
     <t>•	Amin, Muhammad Muhammad and Ibrahim, Layla ‘Ali Architectural Terms in Mamluk Documents, American University in Cairo Press 1990, p. 30_x000D_
 •	Vatikiotis, P. J., The History of Modern Egypt: From Muhammad Ali to Mubarak, the John Hopkins University Press 1991 (fourth edition), p.364-7_x000D_
 •	Wucher King, Joan Historical Dictionary of Egypt, American University in Cairo Press 1984, p. 491-2 _x000D_
@@ -358,11 +320,6 @@
   </si>
   <si>
     <t>•	A free-standing structure is in the middle of the enclosure.</t>
-  </si>
-  <si>
-    <t>Ahmad Khairi Pasha’s family funerary enclosure is a roughly square perimeter wall containing a mausoleum which is square in plan and placed slightly off-center in the enclosure. The mausoleum is entered through doors in the western and eastern façades (the eastern door currently unused). The western entrance faces a simple undecorated stone gate covered with a segmental arch in the western side of the perimeter wall, which has a modern marble plaque with the owner’s name above it. In the centre of the eastern façade of the perimeter wall is a more elaborate neo-Mamluk gate set in a shallow rectangular recess topped with a three-tiered muqarnas and framed in knotted mouldings. The relieving arch over the flat lintel has joggled voussoirs. The gate is in a pishtaq higher than the rest of the perimeter wall and is crowned with decorative crenellations. Both the crenellations and the muqarnas are of a different design than those on the mausoleum. The sabil window in the north-western corner of the enclosure is blocked with bricks and cement. The sabil is inaccessible due to massive plant overgrowth in this part of the enclosure._x000D_
-The cubical mausoleum has facades of ashlar stone masonry crowned with decorative crenellations of elaborate form emulating late Circassan Mamluk period and engaged columns in the corners. The side and façades each have a single rectangular window with a flat arch forming the lintel and a segmental relieving arch above it, and over it a small round window. The windows are placed in wide shallow recesses topped with simple two-tiered small muqarnases. In the entrance façades, the doors have identical arrangement of the lintel and an oculus above as the windows in other facades, but it is not placed in a recess and is flanked by two narrow recesses without muqarnas tops. The wooden door and the window have a simple decoration of mafruqa panels._x000D_
-Inside, there are three elaborately carved marble cenotaphs bearing the names of Ahmad Khairi Pasha’s wives, two simpler, newer marble cenotaphs, and a modern brick-built cenotaph. The door and windows lintels are framed in knotted mouldings, and above each is a round qamariya gypsum grille with a vase of flowers surrounded by an inscription. The ceiling has a central skylight and is painted in simple Ottoman Baroque-style motifs around the edges of the ceiling compartments with similar motifs in the centre.</t>
   </si>
   <si>
     <t>The bottom parts of the wall are seriously affected by rising damp, with the stones powdering. To mask the damage, the lower parts of the walls have been covered by modern facing of small limestone tiles, which itself is powdering now. The cracks in the southern corner of the entrance façade and in the lintel over the window in the south-western façade indicate differential settlement of the foundations. Otherwise, the unit is in fair condition.</t>
@@ -459,18 +416,10 @@
     <t>•	Unusual form of ornaments on top of the perimeter wall</t>
   </si>
   <si>
-    <t>The modest-size walled funerary enclosure is a rectangle comprising a courtyard and a single-storey building on its eastern (shorter) side which faces a street. The tripartite front façade is formally and strictly symmetrically designed in a modernist-tinged neo-Mamluk style. The architectural details in cement plaster skillfully imitate the forms of Mamluk-period stone architecture. The central entrance section raises above the side sections forming a pishtaq (Petersen, 234). The entrance gate is placed in a recess topped with a muqarnas hood with a crowning fluted niche. The muqarnases in the middle row of the three-tiered arrangement skillfully imitate “stalactite” forms which they in fact have not._x000D_
-The windows to the sides are placed in shallower recesses topped with muqarnas friezes. The windows and doors have a typically Mamluk decoration of knotted mouldings that frame the lintels and (in this case, imitated) flat arches of joggled voissioirs over segmental relieving arches. The marble lintel over the entrance door bears an inscription with the founder’s name and date, while a sunken panel above the entrance recess contains the verse 15:46 (in surat l-hig’r) of the Qur’an: “Enter ye here in peace and security” (translation: Yusuf ‘Ali). Below, two diamond-positioned square inscriptions to the sides contain the shahada. The door and windows are fitted with wrought-iron grilles with decoration of simple Art Noveau-inspired design. In the relieving arches over the openings are painted glazed ceramic tiles. They do not form regular patterns, but are randomly placed fragmentary pieces of an Ottoman-style wall decoration. This may either result from the tiles being genuine Ottoman-period Iznik or Kütahia tiles (or their Syrian imitations), or else from the designer’s desire to create such an impression. Behind the front façade is an open loggia with concrete roof supported on two square stone pillars with chamfered corners. The side (southern) elevation is much lower than the building on the front side, with a stepped transitional section. Both the ornaments over the divisions of the side facades and the crenellations of the front façade are, rather typically for their period, very free modernist interpretations of Mamluk architectural forms in the Art Deco vein.</t>
-  </si>
-  <si>
     <t>The unit is overall in very good condition and well maintained. Under risk of demolition to execute a new road parallel to Salah Salem Road</t>
   </si>
   <si>
     <t>The date 1366 AH in the inscription over the entrance gate corresponds to AD 1947, which is consistent with the architectural style of the building.</t>
-  </si>
-  <si>
-    <t>•	Petersen, Andrew Dictionary of Islamic Architecture, Routledge 1996, p. 234_x000D_
-•	Ali, Abdullah Yusuf The Holy Qur’an: Text, Translation &amp; Commentary (3rd ed.). Kashmiri Bazar, Lahore: Shaik Muhammad Ashraf, 1938</t>
   </si>
   <si>
     <t>09_DSC_1783s.jpg</t>
@@ -571,9 +520,6 @@
   </si>
   <si>
     <t>1343</t>
-  </si>
-  <si>
-    <t>Funerary enclosure with guard’s residence</t>
   </si>
   <si>
     <t>Hadeer Ahmad, Muhammad Esam, and Esraa al-Mahdi-edited by Jaroslaw Dobrowolski</t>
@@ -594,16 +540,6 @@
     <t>The unit is in overall fair condition and maintained. It has recently been renovated, with new coats of paint to the walls, repairs to walls damaged by rising damp, and repairs to and repainting of some woodwork. The relatively recent cenotaphs in the southern part of the southern courtyard have been damaged by rising damp, and were recently rather unprofessionally repaired.</t>
   </si>
   <si>
-    <t>Shaykh Hasuna al-Nawawi (1839 – 1925, buried in the mausoleum in the northern courtyard) was twice the Saykh of al-Azhar in 1895 – 99 and 1907 – 1910, member of the Supreme Council of the Shariya Court in 1895, and the Grand Mufti of Egypt in 1895 – 1899. He strove to improve educational standards at al-Azhar and to introduce modern sciences (Street Story website). _x000D_
-Muhammad ‘Abd al-Khaliq Hasuna (1898 – 1992, buried in the southern courtyard) was an Egyptian diplomat and statesman. He held the positions of the Director of the Foreign Office from 1932 to 1934; Director of Political and Business Affairs from 1934 to 1938; Secretary-General of the Ministry of Foreign Affairs from 1938 to 1940; The first Undersecretary of the Ministry of Social Affairs from 1940 to 1942; Governor of Alexandria from 1942 to 1948; Ambassador and Undersecretary of State from 1948 to 1949; Minister of Social Affairs from 1949 to 1950; Minister of Education in 1952; and Minister of Foreign Affairs in 1952. He was Secretary-General of the League of Arab States from September 1952 to May 1972. (League of Arab States website)_x000D_
-Hassouna &amp; Abou Ali company is currently among the most renowned law firms in Egypt. (Egyptian Businessmen’s Association website)</t>
-  </si>
-  <si>
-    <t>•	Stret Story: website of the Egyptian National Organization for Urban Harmony: https://streetstory.gov.eg/ retrieved May 2024_x000D_
-•	League of Arab States website: http://www.leagueofarabstates.net/en/aboutlas/Pages/SGFormerDetails.aspx?RID=6 retrieved May 2024_x000D_
-•	Egyptian Businessmen’s Association website: https://www.eba.org.eg/Main/CompanyDetails.aspx?comp_id=1044 retrieved May 2024</t>
-  </si>
-  <si>
     <t>56_DSC_1585.jpg</t>
   </si>
   <si>
@@ -611,9 +547,6 @@
   </si>
   <si>
     <t>56_DSC_1585ss.jpg</t>
-  </si>
-  <si>
-    <t>Funerary enclosure of ‘Abdel Qadir Mufrih Sharif</t>
   </si>
   <si>
     <t>Early 20th century</t>
@@ -682,15 +615,6 @@
     <t>Hadeer Ahmad, Muhammad Essam, and Esraa al-Mahdi-edited by Jaroslaw Dobrowolski</t>
   </si>
   <si>
-    <t>A rectangular walled enclosure measuring about 23 x 32 m, with main entrance from Sultan Ahmad Street in the western wall. The enclosure is bordered on the south by a side street, on the north by a neighbouring funerary courtyard, and on the east by a narrow back alley between funerary courtyards that opens with a gate on the side street. In the north-eastern corner of the enclosure stands a domed mausoleum, and in the south-western corner, a villa-like residential unit. The entrance gate is in the northern end of the western wall, on the axis of the mausoleum. It is a tall gate built of ashlar stone, with a large rectangular opening covered with a flat arch, with a large marble inscription panel in its lintel, containing three lines of high-quality calligraphic inscription in raised relief that gives the founder’s name and date. A band of carved floral scrolls frames the panel and an elaborate frieze above it composed of three rows of muqarnas. The gate leaves are of openwork wrought iron of Art Nouveau-inspired motifs. The front fence is also of simple iron openwork, possibly a recent replacement. There is a small service room attached to the north of the gate. _x000D_
-A path leads from the gate through a simple garden layout to the mausoleum. Which is a single-storey building with the entrance portal raised a few steps and flanked by a simple rectangular window on each side. The portal is placed in a projection of the same height as the rest of the façade and set in a recess topped with a very elaborate muqarnas frieze of four tiers. The lintel of the entrance door is a huge block of marble with a calligraphic inscription including the dates 1366 AH and AD 1947. The lintel is framed by a plain stone projection and rests on very simplified corbels – either indicating an extreme simplification of traditional forms to conform to modernist aesthetics, or resulting from never being completed. The simple panelled door-leave are decorated with mafruka motifs. The façade is topped with huge fleur-de-lys crenellations in stone. _x000D_
-The simple undecorated cylindrical drum under the dome is pierced by eight sets of double round-arched windows with an oculus above. The dome is ribbed and set on a simple external muqarnas frieze (a solution not typical of Mamluk-period architecture, but sometimes used at that time, e.g. in the neighbouring tomb of Saba’ Banat – No 110, mid-15th century.)_x000D_
-The interior is plain. There is no zone-of-transition, the drum of the dome rests directly on the reinforced concrete roofing slab. The windows in the dome are fitted with simple, but attractive qamariyat gypsum-and-stained-glass windows of good craftsmanship. Inside the mausoleum is a carved marble cenotaph of _x000D_
-“Al-Hagg Husayn Hosni who departed to the ambiance of God in the morning of Thursday, 26 Rabiy‘a al-Thani 1368, corresponding to 24 February 1949” [i.e., two years after the date given twice on the building.] Another cenotaph is a copy of that one of inferior but still decent craftsmanship, bearing the name of Hagga ‘Aziza ‘Azmi, who died on 15 Safar 1404 AH / 12 November 1983._x000D_
-The building in the south-western part of the enclosure opens on the streets and the courtyard with large, wide undecorated windows divided by colonettes. The shorter western façade of ashlar stone is framed in flat moulded framing. The longer southern façade is divided by similar framing into three sections with huge windows in the side ones and three smaller windows of the service section in the middle one. There is a simple moulded cornice, but no crenelation. The L-shaped building has an entrance veranda on the courtyard side, with tessellated round arches on the northern and western sides. Over the wide windows of the western section of the building facing the streets and the garden are long marble panels with calligraphic inscriptions in raised relief containing verses of the Qur’an._x000D_
-All the huge windows in the residential building and the mausoleum have turned-wood grilles of bold square divisions (a type of mashrabiya called “Ma’muni”), and simple panelled wooden shutters decorated with mafruka motifs. The windows of service rooms have simple decorative wrought-iron grilles. There is a secondary entrance in the southern façade leasing from a side street to the courtyard east of the residential unit.</t>
-  </si>
-  <si>
     <t>The unit is used for residential purposes and receives basic maintenance, including tending to the garden. However, there is very serious damage to the lower parts of the walls from rising damp. Woodwork is desiccated, with peeling paint.</t>
   </si>
   <si>
@@ -712,11 +636,6 @@
     <t>Muhammad Essam</t>
   </si>
   <si>
-    <t>A rather undistinguished rectangular walled enclosure measuring about 20.5 x 18 m, with a courtyard in the north-eastern corner and sets of rooms along the southern and western walls, and another small room in the north-eastern corner. The south-eastern corner is chamfered and contains a sabil window with a simple decorative wrought-iron grille. The oblique wall with the sabil window and the section of the eastern façade containing the gate are built of ashlar stone, while the other external wall were built of smaller cut stones and plastered. The sections of ashlar stone have been recently covered with thick textured plaster. The undecorated entrance gate is covered with a segmental arch and placed asymmetrically in the eastern façade. It is flanked by a small segmental arch-topped window on each side. There are two simple rectangular window to the left (south) and one in the narrower northern part. There were simple decorative wrought-iron grilles in the windows (some now missing), and the door leaves of the gate are of wrought-iron grilles of Art Nouveau patterns. There is a marble inscription panel over the gate, informing in fine calligraphy in raised relief that this is the burial ground of the late Shaykh Muhammad al-Amir Ahmad Menatullah, and gives the date 9 Ramadan 1350. A small marble inscription panel is also placed in the lunette of the relieving arch over the lintel of the sabil window. By the northern wall of the courtyard is a simple wooden pergola, over a simple cenotaph of masonry, with an inscription panel including Shaykh Muhammad al-Amir’s name and date AD 1932._x000D_
-At some time, the premises were converted into a mosque, which involved hanging on the external walls big sheet-iron panels with “al-Amir Mosque” name and information about the Shaykh. Also, a very crude minaret resembling a rural Egyptian pigeon-tower was built of bricks in the corner over the sabil. The minaret was demolished in early 2024._x000D_
-The mosque subsequently went out of use, and all the windows have been walled up with bricks. Interior was inaccessible at the time of recording.</t>
-  </si>
-  <si>
     <t>Damage from rising damp to the lower parts of the walls. Cheap plaster crenellations installed on top of the walls are mostly missing. General dilapidation due to disuse.</t>
   </si>
   <si>
@@ -730,9 +649,6 @@
   </si>
   <si>
     <t>60_DSC_1558ss.JPG</t>
-  </si>
-  <si>
-    <t>General Sa‘id Pasha Nasr</t>
   </si>
   <si>
     <t>AD 1918</t>
@@ -813,9 +729,6 @@
   </si>
   <si>
     <t>63_DSC_2134ss.JPG</t>
-  </si>
-  <si>
-    <t>Ahmad ‘Abd al-Wahab al-Shanuani</t>
   </si>
   <si>
     <t>1326 AH / AD 1908</t>
@@ -949,20 +862,7 @@
     <t>Funerary enclosure, workshops (disused)</t>
   </si>
   <si>
-    <t>•	Dedicatory inscription copies accurately the form of a Mamluk sultan’s blazon</t>
-  </si>
-  <si>
-    <t>A small rectangular enclosure measuring ca 12 x 19 metres, facing streets to the north and west and adjoining neighbouring structures to the east and north. The entrance façade faces north._x000D_
-The unit comprises a small single storey building in the western part, and an open courtyard that occupies the eastern part of the site. The front building comprises six rooms. The entrance portal and the section left of it containing a sabil window, the base course, the corners and the cornice are built of ashlar stone; the rest of the walls are constructed of rough stone and plastered. The building is topped with a simple Classical cornice, with no traces of crenellations. _x000D_
-The entrance portal forms a pishtaq taller than the rest of the walls. The entrance door is set in a shallow rectangular recess covered with a three-tiered muqarnas frieze. Around the recess runs the band of knotted mouldings; on the sides are elongated vertical panels framed in knotted mouldings that appear like their upper parts were intended to be carved into bands of floral decoration, but were apparently never completed. Around the lintel of the door and its relieving arch and under the muqarnas (i.e., around the inscription panel over the door) are also plain bands and blocks of masonry that appear to be unfinished mouldings. To the left (east) of the portal is s narrow sabil window (now walled up with bricks) flanked by engaged colonnettes with simple muqarnas capitals and covered with a stone lintel supported on simple corbels. In the window is a very simple decorative grille welded from pieces if rolled iron. Above the window is a roundel with a Qur’anic inscription carved into the surface of the wall. It imitates the form of the blazons with royal titles (rank) that were used on buildings founded by Mamluk sultans (examples abound in the neighbourhood.) Over the roundel is an inscription panel that includes the date AH 1312. Another inscription carved over the entrance door includes the name Muhammad Khairallah and the date AH 1321. The portal and the sabil door are the only elements of the building in neo-Mamluk style. They follow the mediaeval Mamluk patterns quite closely, while the quality of craftsmanship is good, but not outstanding, and overall, the unit is a modest one. _x000D_
-There is a plain rectangular window with a simple, non-decorative iron grille and simple panelled shutters to the right (west) of the portal, and two more such windows in the plain western façade, which is undecorated save a simple cornice. In the eastern part of the entrance façade is a plain rectangular door leading to the courtyard. Both entrances are fitted with modern steel doors of crude simple decorative designs.</t>
-  </si>
-  <si>
     <t>The unit is disused and dilapidating, although it is not in immediate danger of collapse. There is serious damage from rising damp to the lower portions of the walls.</t>
-  </si>
-  <si>
-    <t>The dates 1312 and 1321 AH correspond to AD 1894 and1903 respectively. The style and craftsmanship of bothe unscriptions containing the dates appear similar, so it is possible that one of the numbers is the carver’s mistake._x000D_
- According to the keeper, before 2004 the residential part was used by a charity for educational classes for girls and for literacy courses. After 2004, it was turned into steel, leather, and bamboo-working workshops. When the funding discontinued, they were abandoned, with some unusable machinery and materials left behind in the interiors.</t>
   </si>
   <si>
     <t>68_DSC_2489s.JPG</t>
@@ -991,26 +891,7 @@
 •	Uninscribed tomb markers</t>
   </si>
   <si>
-    <t>The enclosure is composed of various disparate parts, possibly due to its remodelling from an earlier structure (see point 17.) It comprises a roughly square courtyard with its eastern side facing the Sultan Ahmad Street and a smaller courtyard attached on the western side, with one side cut obliquely to conform to the line of the back street. The south-western corner of the main courtyard is also slightly irregular and cut obliquely. A burial courtyard occupies the south-eastern  quarter of the enclosure and contains two identical simple uninscribed limestone tomb markers. Its walls are well-built of huge blocks of stone (in the street façade with alternating smooth and rusticated courses.) The eastern and western sides are each pierced with four square windows with lintels of remarkably well-built flat arches of single keystones wedged between two cantilevered blocks, while the southern wall neighbouring on another lot has identical four blind niches. The northern wall is tripartite with the entrance door in the midde and a window to each side. In the windows and the entrance door are simple iron grilles of mafruqa-based geometric pattern. The windows on the Sultan Ahmad Street have been grudely walled up and the wall was hightened with a crudely excuted wall._x000D_
-The front façade on Sultan Ahmad Street is composed of three varied units: To the left (south) of the centrally placed entrance gate is the façade of the burial courtyard. The slightly protruding gate section is taller, with a gate placed in a shallow recess covered with a bevelled keel arch. Over the door is a stone lintel with an inscription panel containing  the verse 15:46 (in surat al-hig’r) of the Qur’an: “Enter ye here in peace and security” (translation: Yusuf ‘Ali), and in the arch is a double-sided panel with a floral Islamic arabesque pattern on the front (street) side and a geometric pattern on the interior side. Diamond-positioned squares to the sides of the arch contain inscriptions “Allah” and “Muhammad”. The panelled wooden double-leaver door is decorated with mafruqa pattern (Amin and Ibrahim, p.112) in upper and lower parts. The gate is accessed by 5 descending steps._x000D_
-The section of the front façade right (north) of the entrance is slightly taller than the gate section and belongs to the building in the north-eastern corner of the enclosure. Its street elevation has in its right (northern) section two shallow rectangular recesses topper with cavetto cornices, with a pair of windows in each one. The windows are separated by a tall chamfered pillar and over plain blocks of slightly cantilevered impost stones are covered with rectilinear keel arches. The lower, rectangular parts of the windows are fitted with grilles with square openings in thick turned-wood mashrabiya screeens, while the interiors of the rectilinear arches aabove are filled with fine mashrabiya turned-wood screens of hexagonal patterns. In the left part of the façade are two wide openings covered with flat keel arches resting on simple corbels. In the lower parts of the openings are solid balustrades of two bays, with “pomegranade” ornaments over the vertical stands. The openings are fitted with iron grilles of the same pattern as those in the windows of the burial courtyard (now invisible, as the openings are crudely blocked with plywood.) Inside the enclosure, the building is surrounded on its western and southern sides with porticos of wide stone keel arches on square, chamfered stone pillars – three arches in the W façade, and two arches separated by a narrow rectangular opening between the pillars in the S façade. The portico is elevated on four steps over the courtyard level. Two doors in the W wall inside the portico and one in the S wall have a typically Mamluk decoration of knotted mouldings that frame the lintels and flat arches of joggled voissioirs over segmental relieving arches; the panelled wooden double-leaver door leaves are decorated with mafruqa pattern. The building contains a two-bedroom apartment with a toilet._x000D_
-Another small building, lower than the perimeter wall, is located in the south-western corner of the enclosure, with the back wall slanting obliquely. It consists of two rooms, a bathroom, and a kitchen. The door and and window of the northern room are of the same design as in the front building, while the shallow southern room opened onto the curtyard with a wide keel arch (now obscured by a modern nondescript shack.) Next to the building is the door in the western wall leading to the back courtyard (inaccessible at the time of recording.) By the middle of the back wall is a nondescript modern brick-built two-room partment, and in front of it, a simple wooden pergola crossing the courtyard towards the passage between the front building and the burial courtyard to which the main gateway leads. By the southern wall of the enclosure are two simple stone tomb markers, and a richly decorated limestone cenotaph with a marble inscription panel on the shorter side. The cenotaph appears to predate the current complex which consistently uses simple, geometrical forms. Two more stone tomb-markers are located by the northern wall. A square in the middle of the courtyard is arranges as a simple garden._x000D_
-The crenellations, which are peculiar in being double, separate for each side of the wall, have very simple, rectilinear geometric form throughout the complex._x000D_
-A new water cooler inside the front building portico with a dispensing faucet and washbasin acessible from the street operates as a modern equivalent of a sabil. A tiny marble plaque next to the “sabil” reads: “their Lord will give them a pure drink” (the Qur’an, 76:21, surat al-insan, transl. Mohsin Khan.)_x000D_
-The gate from the back street to the back courtyard is covered with a keel arch and has a wide plain flat framing with a simple moulding around. Over the gate is a sunken inscription panel with verse 13:24 (from surat al-ra‘d): “Peace unto you for that ye persevered in patience! Now how excellent is the final home!" (Translation: Yusuf ‘Ali.)</t>
-  </si>
-  <si>
     <t>The unit is overall in fair condition and reasonably well-maintained. The carved stone cenotaph has undergone inexpert attempts at repair. The external windows have been crudely blocked. In the areas exposed to water there is visible damage from rising damp. The deformed arch of the eastern bay of the portico of the front building (by the eastern wall of the enclosure), which is shored by a wooden prop, indicates differential settlement of foundations in this area, which is a serious structural problem.</t>
-  </si>
-  <si>
-    <t>The inscription on a marble plaque by the entrance gate states: “Burial ground of the Faid family. Created AH 1299, AD 1882, renewed AH 1368, AD 1948” It is clear from the architectural forms of the complex that it was entirely built anew in 1948._x000D_
-Inscriptions over the two entrance gates both in their context within the Qur’an relate to entering Paradise.</t>
-  </si>
-  <si>
-    <t>•	Ali, Abdullah Yusuf, transl. The Holy Qur’an: Text, Translation &amp; Commentary (3rd ed.). Kashmiri Bazar, Lahore: Shaik Muhammad Ashraf, 1938_x000D_
-•	Muhsin Khan, Muhammad and al-Hilali, Muhammad Taqi-ud-Din, transl. Noble Qur’an, King Fahd Complex for the Printing of the Holy Quran, 1999_x000D_
-•	Amin, Muhammad Muhammad and Ibrahim, Layla ‘Ali Architectural Terms in Mamluk Documents, American University in Cairo Press 1990, p. 112_x000D_
-•	Petersen, Andrew Dictionary of Islamic Architecture, Routledge 1996, p. 234</t>
   </si>
   <si>
     <t>10_DSC_1775s.JPG</t>
@@ -1144,12 +1025,6 @@
     <t>•	Architectural design intended primarily for a corner view</t>
   </si>
   <si>
-    <t>The western wall and about one third of the northern wall of the rectangular enclosure are visible from the outside and the exposed part of the northern wall and a corresponding section of the western wall are designed as decorated façades, designed to be seen primarily in a corner view. The decoration is of fine craftsmanship and accurately copies Mamluk-period architectural details (but not the design principles of Mamluk architecture, being strictly symmetrical.) The façades are free-standing decorative screens, because there is no building behind them, the only building within the enclosure being a small structure in the north-eastern corner._x000D_
-The north-western corner at the junction of the decorated façades is rounded, and protrudes very slightly from the side walls. To both sides of the rounded corner are identical rectangular recesses topped with elaborate three-tiered muqarnases and each containing a rectangular window, with the lintel and the relieving arches above it surrounded by knotted mouldings in a typically Mamluk manner. The windows are fitted with simple decorative wrought-iron grilles and simple panelled wooden shutters.  In the corresponding recess in the rounded corner that extends to the ground level and is covered with a similar, but not identical muqarnas frieze, the window is placed one course lower, and has no knotted moulding framing. Above it is a marble panel with two lines of inscription in raised relief, placed in sunken round-ended panels. The inscription is a short poem related to drinking water. However, the window below hasn’t got a stone ledge, and there is no structure behind it, so it uncertain whether a sabil ever operated here. Further away from the rounded corner are muqarnas-covered recesses containing entrance gates with knotted moulding framing like those over the windows, similar, but not identical. The gate in the western façade is larger, and put in a very shallowly protruding section of the wall. Both gates are made of simple decorative wrought-iron grilles. Inside the recesses and above both gates are marble panels within sunken moulded framing, containing the same calligraphic inscription in high-quality raised relief, but in different scripts and differently distributed within calligraphic panels. The inscription is in poetic verse and states that Muhammad built the structure to commemorate his father Khalil Allah seven years after his death in AH 1318, in the year AH 1325._x000D_
-The facades ate topped with elaborate muqarnases resembling those from the late Mamluk period of Sultan Qansuh al-Ghuri’s reign. The section of the eastern wall outside the decorated façade is simple and plain. All walls have been coated in yellow wash._x000D_
-The interior of the enclosure was inaccessible in the time of recording.</t>
-  </si>
-  <si>
     <t>The enclosure is in a good overall condition. However, the lower parts of the walls are severely affected by rising damp, which causes powdering of the stone masonry. A misguided mitigation attempt has been made recently by covering the base of the wall with Portland cement coating, which now is itself powdering.</t>
   </si>
   <si>
@@ -1181,14 +1056,6 @@
     <t>•	A trilobe portal of very simple form combined with good craftsmanship.</t>
   </si>
   <si>
-    <t>The existing structure is the ground floor of a building originally at least two storeys tall. It is located immediately west of the area that was a part (probably a service area) of Sultan Qaitbey’s large funerary complex of AD 1474 and that was later mostly built up with residential buildings. To the north of the unit is a nondescript building from the first half of the 20th century that is the last phase in remodelling and replacing the building within Sultan Qaitbey’s complex that included the back entrance to the personal-use part of the complex. (The gate is still preserved.) To the south are small open funerary enclosures. _x000D_
-The main (western) façade faces a street that was a space outside the Sultan’s complex. There are three entrances in the facade. The northern one is a modestly decorated gate with a rounded arch that leads to an entrance hall. The windows of the rooms on either side of the hall and the gate form a symmetrical tripartite northern part of the facade. The windows, which are plain and covered with semi-circular arches, and the arch above the door are fitted with decorative wrought-iron grilles of patterns unrelated to Islamic art. Above, scant remnants of the upper floor wall are preserved, with the side of the northern window clearly visible. This part of the façade corresponds to what is now the funerary unit of Qasim Bey; the rooms behind the southern part of the uniformly built façade are currently used by different owners and accessible from behind, with front entrances permanently blocked._x000D_
-The entrance hall leads to a small courtyard shared with the building neighbouring to the north and planted with palm trees and other greenery. On the southern side of the courtyard is a burial chamber. Its symmetrical façade has the door and the two flanking windows topped with horseshoe-shaped pointed arches fitted with geometric wooden grilles with stained glass panels behind. The burial chamber is built of bricks. On the eastern side it incorporates a section of an earlier wall. In the chamber stands a carved marble cenotaph that bears the date 3 Gomada al-Awwal AH 1325. The inscription in raised relief states that the person buried is Muhammad Qasim Bey al-Helu, a representative of the Sultan of Morocco in Egypt._x000D_
-At the southern end of the façade is a recess topped with a trilobe arch with no mouldings. The recess is taller than the inter-storey cornice, which runs continuously around it. The lower part of the recess has been walled up. Just above the blocking, a segmental arch is visible, apparently a relieving arch over a door. Above, there is a rectangular recess with a hatched back surface indicating that an inscription panel (presumably of marble) was either installed there and removed, or was intended to be installed. Above is a rectangular window, now blocked. The wall surface is completely plain, with no mouldings or any other architectural decoration._x000D_
-The original function of the portal is unclear. There is no visible structural discontinuity between the portal and the rest of the façade._x000D_
-To the left (north) of the trilobed portal is a simple door covered with a segmental arch (now permanently closed) that according to the residents led to a staircase. This indicates that the upper floor was independently accessible, so it probably formed a separate residential unit.</t>
-  </si>
-  <si>
     <t>The building is in poor overall condition and dilapidated. The upper floor is missing. There is serious damage from groundwater to the lower portions of the walls. A crack in the southern portal indicates differential settlement of foundation.</t>
   </si>
   <si>
@@ -1212,10 +1079,6 @@
   </si>
   <si>
     <t>Hadeer Ahmad and Radwa al-Sayid</t>
-  </si>
-  <si>
-    <t>•	A domed canopy on columns in the courtyard_x000D_
-•	A royal consort’s place of burial</t>
   </si>
   <si>
     <t>A rectangular enclosure with the north-western corner cut at the 45 degrees angle and with a later small building adjoining to the west incorporated. The entrance façade faces north. There are tracts of rooms by the northern and western walls, around a courtyard in the southern part of which stands a canopy covered with a dome resting on four semi-circular arches supported on marble columns. The openings of the arches are walled up at present, and the structure is used as a residential room._x000D_
@@ -1228,12 +1091,6 @@
     <t>The enclosure is both inhabited and used as a burial place, so it receives rudimentary maintenance. However, it is largely derelict, with damaged and incomplete woodwork, peeling plaster, and damage from rising damp and from rainwater. The arched canopy in the courtyard is walled up.</t>
   </si>
   <si>
-    <t>The dedicatory inscription over the entrance gate mentions “the building/renovation in AH 1277 [= AD 1861] of the funerary enclosure of Lady Khadiga Khanum Brengi Qadim of the time of the late Ibrahim Pasha, wali of Egypt”. (Khadiga is the name; khanum, brengi, and qadim are Ottoman honorific titles for women of high status in the ruling family.) The titles in the inscription, and the texts on cenotaphs in the enclosure clearly indicate that Lady Khadiga was a royal consort, the wife of Ibrahim Pasha. The inscription on a cenotaph dated AH 1348 / AD 1929 for Khadiga’s servant women indicates that Khadiga was a manumitted slave._x000D_
-A shahid stela stored in the eastern burial chamber and dated to AH 1282(?) [=AD 1865] also commemorates a woman whose husband was in the service of Ibrahim Pasha._x000D_
-The modern inscription plaques on the western annexe state that the person buried therein is Mustafa Basha, or Mustafa Bey Munir, who was the Great Yarawan to Ibrahim Pasha (a high Ottoman military post, an aide-de-camp), although at present, nothing inside relates to the name or suggests the date of 1848._x000D_
-Ibrahim Pasha was the eldest son of Muhammad ‘Ali, the ruler of Egypt 1805-1848. He had a brilliant military career during the reign of his father, and succeeded him as a wali (viceroy) of Egypt in 1848, albeit only for four months before his own death (Wucher King, 343-5)</t>
-  </si>
-  <si>
     <t>•	Wucher King, Joan Historical Dictionary of Egypt, American University in Cairo Press 1984, p. 343-5</t>
   </si>
   <si>
@@ -1278,9 +1135,6 @@
   </si>
   <si>
     <t>17_5137ss.jpg</t>
-  </si>
-  <si>
-    <t>‘Abdu Bey al-Babli</t>
   </si>
   <si>
     <t>Renovated in 1371</t>
@@ -1320,9 +1174,6 @@
   </si>
   <si>
     <t>18_IMG_2787s.JPG</t>
-  </si>
-  <si>
-    <t>Al-Shaykh ‘Abd al-Ra’uf al-Segini</t>
   </si>
   <si>
     <t>1356</t>
@@ -1345,15 +1196,6 @@
   </si>
   <si>
     <t>The enclosure is generally in good condition. Some damage to the lower parts of the walls from rising damp.</t>
-  </si>
-  <si>
-    <t>The inscription on a marble slab over the entrance door reads:_x000D_
-In the name of God, the Merciful, the Compassionate_x000D_
-This is the tomb of the God-knowing, the forgiven_x000D_
-Shaykh ‘Abd a-Ra’uf al-Sigini_x000D_
-the 8th shaykh of the noble al-Azhar Mosque, who passed away in year 1182 of the Higra of the Prophet_x000D_
-The building was renovated by Dr Muhammad Badr al-Din al-Sigini in AH 1356._x000D_
-AH 1182 = AD 1768; AH 1356 = AD 193</t>
   </si>
   <si>
     <t>19_DSC_5265s.JPG</t>
@@ -1395,9 +1237,6 @@
     <t>The date 1324 AH in the inscription over the main gate corresponds to AD 1906. The gate is obviously inserted into an earlier wall. The stone details of the earlier façade appear to be Ottoman, not later than early 19th century. The domed canopy and the pedestal of the cenotaph under it are also apparently Ottoman, although the canopy may have been rebuilt.</t>
   </si>
   <si>
-    <t>For similar structures in the cemetery, compare Description de l’Egypte, Etat Moderne, Vol. I, Pl. 64, 65, 66.</t>
-  </si>
-  <si>
     <t>20_P1150718s.jpg</t>
   </si>
   <si>
@@ -1421,14 +1260,6 @@
 •	The ground floor of the front building completely opened onto the courtyard</t>
   </si>
   <si>
-    <t>The lot comprises a two-storied building with the main (street) façade facing north, and a single-storey building containing two burial chambers by the back (southern) wall, with a small courtyard in between._x000D_
-The façade built of ashlar stone is very richly decorated in neo-Mamluk style. It uses motifs taken from Mamluk architecture, but combines them in innovative and unusual ways. The façade is tripartite, with a central portal section and side sections each with a single window in the ground floor and another on the upper floor. However, while the side sections are identically composed and decorated, they are of unequal width, the left side being considerably wider. Each of the three sections of the ground floor is flanked by flat pilasters which are aligned with the wall of the upper storey and therefore in the side sections of the ground floor level form shallow recesses that are covered with flat two-tiered muqarnas hoods. The full-height central section is slightly deeper recessed and on the upper level flanked by two massive pillars resting on muqarnas corbels and carrying a flat muqarnas hood interrupted by a pointed-arch niche in the middle. The side pillars are decorated with engaged corner colonnettes. The rectangular entrance door is topped with a typically Circassian Mamluk arrangement of a rectangular panel of knotted mouldings that frames the lintel and above it a flat arch of joggled voussoirs with the intrados forming a segmental relieving arch over the lintel. Above the door is a window framed with engaged corner colonnettes and topped with a shallow flat muqarnas hood, with two rectangular panels of geometrically treated floral motifs to the sides. Below and to the sides of the lower part of the window are panels of calligraphic inscriptions containing the opening sura of the Qur’an. The lintels over the entrance door and over the plain ground floor windows all have recessed panels of calligraphic inscriptions including the name of Hasan Mustafa (central panel) and date AH 1332 (left). The windows are fitted with decorative wrought-iron grilles in Art Nouveau style, unrelated to Mamluk tradition. The right one has larger arched openings at the bottom typical for a sabil, while the bottom openings in the left-side windows are also larger, but plain and not arched. The upper floor windows are topped with rectilinear keel-arch fluted flat niches. The façade is crowned with fleur-de-lys crenelations._x000D_
-The door and all windows are fitted with decorative wooden panelled shutters including panels decorated with the “mafruqa” motifs (and on the upper floor, louvre panels), and clearly intended as an integral part of the decorated facade._x000D_
-The entrance gate leads to a single space occupying the whole width of the building, and without a back wall, i.e. opening onto the back yard while the upper floor is entirely supported on two pillars, apparently wooden, but now covered in thick textured plaster like the rest of the courtyard. The upper floor continues along the western wall of the courtyard, and similarly overhangs a wide niche opened on the courtyard. An external staircase by the eastern wall of the courtyard leads to the gallery from which the rooms on the upper floor are accessed. The stairs are constructed of interlocking sections of segmental vaults built of flat limestone slabs, which was a method of construction consistently used in Cairo since the Mamluk times in at least 15th century. The stairs have a simple decorative wrought-iron balustrade in European style with no Islamic motifs._x000D_
-In the plain back wall of the courtyard, an undecorated door leads to a vestibule separated on both sides from two burial chambers with full-height openwork wooden screens of geometric “mafruqa”-based motifs. The door to the vestibule is fitted with two decorative panelled wooden door-leaves._x000D_
-The eastern chamber features a pointed-arch mihrab prayer niche very richly decorated with geometric motifs in stucco. Also in the eastern burial chamber is a richly carved marble cenotaph in the Ottoman Baroque style.</t>
-  </si>
-  <si>
     <t>The ground level of the unit is in use and receives regular maintenance. However, the recent renovation that included application of thick textured plaster obscured or disfigured original features. The upper floor is disused and seriously dilapidated. All woodwork in the front façade is very seriously damaged and partially missing.</t>
   </si>
   <si>
@@ -1439,16 +1270,6 @@
   </si>
   <si>
     <t>AH 1332 = AD 1914</t>
-  </si>
-  <si>
-    <t>‘Ali Bey al-Turguman</t>
-  </si>
-  <si>
-    <t>The lot facing the Sultan Ahmad Street with its western elevation is divided into two parts: the northern part contains a two-storey building of a roughly square plan with a narrow courtyard behind (with a secondary entrance in the northern wall); the narrower southern part comprises of a courtyard in its western section and a single-storey rectangular burial chamber by the eastern wall. The neo-Mamluk façade of the main building is symmetrical and tripartite. The quality of stonemasonry is very high. The central part is taken by the entrance portal that is set in a full-height recess and includes all typical elements of a Circassian Mamluk porch such as this in the nearby mosques of Sultan Qaitbey (monument No 99, AD 1474) and Sultan Farag Ibn Barquq (No 149, 1400-11): a rectangular door flanked with “gals” (plural: galas) seats and topped with a lintel supported on muqarnas corbels to the sides, with a flat arch of joggled voussoirs with intrados forming a segmental relieving arch over the lintel; a recessed inscription band (in this case empty) to the sides (originally at about eye level); a rectangular small window above the door with a flat muqarnas hood; the crowning muqarnas hood; all framed in knotted mouldings. A marble plaque with an inscription in fina ruqa’ script in raised relief is set into the monolithic limestone lintel of the entrance door. The crowning hood is a combination of a flat muqarnas hood with a trilobe arrangement. The intertwining endings of the knotted mouldings over the entrance door are complex, angular, and closely-knit. This does not resemble Mamluk forms, but late Ottoman ones that kept in use well into the 19th century; it may therefore may represent a living architectural tradition rather than part of Mamluk Revival. A marble panel with a single-line calligraphic inscription stating the name of the deceased person and the date is inserted into a recess in the limestone door lintel. As the street level has risen considerably, the building is reached by a few steps leading down, and the side “gals” seats by the door have been rebuilt on a higher level, while the (empty) inscription band is now awkwardly low. _x000D_
-To the sides of the central entrance portal are shallower full-height recesses topped with flat muqarnas friezes that each contain a rectangular ground floor window with a typically Circassian Mamluk arrangement of a rectangular panel of knotted mouldings that frames the lintel and above it a flat arch of stepped voussoirs with the intrados forming a segmental relieving arch over the lintel. The right-side one is a sabil window with larger openings at the bottom of the window grille and a stone ledge. The large rectangular upper floor windows are flanked with colonnettes with muqarnas capitals and topped with rectilinear keel-arch fluted flat niches. The façade is crowned with fleur-de-lys crenelations and terminates to the left with an engaged corner column with a muqarnas capital._x000D_
-The side elevations are undecorated save the crenelations on top, built of rough stone and plastered, with irregularly placed windows, while the rough-stone back wall of the main building is plain and un-plastered._x000D_
-The entrance gate leads to a vestibule from which the rooms in the building are accessed, and from which a gate topped with a semi-circular arch leads to the courtyard to the south. At the eastern end of the courtyard stands a single-storey burial chamber. Like the rest of the courtyard and interior of the vestibule, it is covered with cement plaster with a crude imitation of stone courses. The façade of the mausoleum is tripartite, with the door placed between two windows. Over the openings are knotted-moulding frames that repeat those on the front façade, and covered with thick wash. Inside the frames are plain rectangles of plaster with very crudely and non-tectonically imitated stone courses. In the flat roof of the mausoleum is an octagonal lantern._x000D_
-The mausoleum contains a single marble cenotaph richly decorated in the Ottoman Baroque style.</t>
   </si>
   <si>
     <t>The unit is in use and receives regular maintenance. However, the routine repairs are done unprofessionally. There is visible damage to the lower parts of the walls from rising damp. Attempted repairs by covering with cement plaster are already peeling out. _x000D_
@@ -1470,9 +1291,6 @@
     <t>22_9672ss.jpg</t>
   </si>
   <si>
-    <t>‘Abd al-Mone‘im al-‘Ayyat and/or his mother Zeinab Muhammad</t>
-  </si>
-  <si>
     <t>1327</t>
   </si>
   <si>
@@ -1516,10 +1334,6 @@
     <t>•	The building follows remarkably closely the Mamluk architectural style, not merely in decoration, but in overall design principles.</t>
   </si>
   <si>
-    <t>The unit comprises a large roughly rectangular hall (with the back wall, i.e., qibla-facing, slightly oblique), and a smaller rectangular space connected to the south-eastern corner and protruding towards south and east. The main façade faces west and is composed of a tripartite elevation and a taller block of the entrance portal attached to it to the left (north) and slightly protruding. The portal is set in a deep recess covered with a flat muqarnas hood topped with a pointed-arch niche. It includes all typical elements of a Circassian Mamluk porch such as this in the nearby mosques of Sultan Qaitbey (monument No 99, AD 1474) and Sultan Farag Ibn Barquq (No 149, 1400-11): a rectangular door flanked with “gals” (plural: galas) seats and topped with a lintel framed with mouldings, with a flat arch of joggled voussoirs with intrados forming a segmental relieving arch over the lintel; a recessed inscription band (in this case empty) to the sides at about eye level; a rectangular small window above the door with a flat muqarnas hood; the crowning muqarnas hood; all framed in knotted mouldings. To the sides of the window in the entrance recess are two sunken square panels: the left one contains a plain uninscribed marble slab, from the one to the right the marble has been recently stolen as evidenced by fresh marks from prying off. The façade to the right looks much like an external façade of the qibla (Mecca-facing) wall of a Mamluk madrasa/mosque although it is the opposite, western wall. As would be the case in a Mamluk building, the double-level fenestration belies the single full-height interior. In the lower level is a large window topped with a typically Circassian Mamluk arrangement of a rectangular panel of knotted mouldings that frames the lintel and above it a flat arch of stepped voussoirs with the intrados forming a segmental relieving arch over the lintel. It is placed in a slightly protruding section of the wall and placed in a full-height recess in it, topped with an elaborate flat muqarnas hood. Over the ground floor window is a plain round window. Also in the upper level, to each side of the protruding section is a rectangular window with a rectilinear keel-arch flat niche decorated conch-like with three tiers of angular recesses. Such form is typical of windows on internal walls in the central courtyard of Circassian Mamluk-period madrasa/mosque (such as in Sultan Qaitbey’s, No 99), but not used externally. The south-western corners of both units that comprise the building are decorated with engaged corner columns with elaborate muqarnas capitals. Windows on side and back walls have the typically Mamluk arrangement, but the framings are not carved into knotted mouldings, but left plain._x000D_
-The interior of the larger space would constitute a sizeable prayer hall if it was roofed. There is a huge and elaborate mihrab prayer niche flanked by colonettes with muqarnas capitals and with a fluted conch in the crowning pointed-arch niche. The two square pillars in the room and corresponding engaged pillars in the walls indicate that the space was designed to be divided into two aisles of three bays each, but it appears that the roof was never constructed. There are more indications that the building was never completed. Some interior walls are built of rough stone which was apparently designed to be covered with plaster, but has been left exposed. All windows are bricked up, with no indication that any windows, window grilles, or shutters were ever installed. There is not a single inscription on the building, the mouldings around side and back windows are apparently unfinished, as are two plain square panels on the front façade.</t>
-  </si>
-  <si>
     <t>The walls are in sound condition, but the building is disused and unroofed. Various haphazardly built structures abut directly, completely obscuring the front façade.</t>
   </si>
   <si>
@@ -1530,9 +1344,6 @@
   </si>
   <si>
     <t>24_9695ss.jpg</t>
-  </si>
-  <si>
-    <t>‘Ali ‘Ali Salim</t>
   </si>
   <si>
     <t>Nur Atiya</t>
@@ -1581,30 +1392,16 @@
     <t>•	Residential upper floor.</t>
   </si>
   <si>
-    <t>A two-storied building standing in the row of funerary structures facing the Salah Salem Road and built of rough stone. The front façade is covered with brick lining. In the centre is the entrance gate built of ashlar stone, in a very simple rusticated architectural framing, covered with a segmental arch of joggled voussoirs, with a simple decorative wrought-iron grille in the upper part (the modern welded steel door loosely imitates the motifs). Above the door is a small calligraphic panel with name of the deceased and date. To the left is an undecorated rectangular window, and to the right, a very low secondary door with a simple wrought-iron grille in the upper part. The upper storey is plastered, with divisions into huge square panels marked by incised lines in the plaster, and features a rectangular projection over the entrance gate with windows on three sides. There is an undecorated rectangular window to the left of the projection and a small square one to the right._x000D_
-The entrance gate leads to a vestibule separated by a very elaborate full-height mashrabiya turned-wood screen from the main burial chamber in the north-eastern corner of the building. The chamber contains a rather simple stone cenotaph decorated with calligraphic inscriptions (incised, not in raised relief.) There is a band of Qur’anic inscriptions painted around the walls at breast height in bold calligraphic lettering._x000D_
-Also from the vestibule are accessible: a secondary burial chamber; a service room; and a staircase in the south-western corner. The stairs are constructed of interlocking sections of segmental vaults built of flat limestone slabs, which is a method of construction consistently used in Cairo since the Mamluk times in at least 15th century. The upper floor comprises three rooms and a lobby that ends in the bay-window projection.</t>
-  </si>
-  <si>
     <t>The unit is overall in good condition._x000D_
 The embankment of the Salah Salem Road that the enclosure faces is currently used as an informal and illegal garbage and rubble dumping ground.</t>
   </si>
   <si>
-    <t>M‘alim means an experienced and distinguished professional or entrepreneur._x000D_
-The date of M‘alim Hasanein Salman al-Hamami’s death in the inscription above the entrance door: AH 1334 corresponds to AD 1916. The current modernist-inspired appearance of the façade (with the exception of the entrance portal) is definitely later than 1916 and dates probably to the 1950s or 1960s. However, this probably applies to the façade only, as the traditional construction of the stairs is more consistent with the early 20th century dating._x000D_
-A marble plaque over the side door in the front façade commemorates his son Aziz who died on 2 rabiya al-awal 1392 AH, corresponding to 16 April 1972._x000D_
-According to the doorwoman, the owners visit infrequently.</t>
-  </si>
-  <si>
     <t>26_DSC_4108s.JPG</t>
   </si>
   <si>
     <t>1950s [?]</t>
   </si>
   <si>
-    <t>Rifa’a al-Tahtawi</t>
-  </si>
-  <si>
     <t>1216-1290</t>
   </si>
   <si>
@@ -1623,13 +1420,7 @@
     <t>•	A piece of cloth in the shape of the traditional Egyptian "galabeya" dress, with the names of Rifa'a al-Tahtawi and his family and the dates of their deaths embroidered hanging on the wall of the vestibule preceding the secondary burial chamber.</t>
   </si>
   <si>
-    <t>A simple, small single-storey free-standing structure, comprising five high-ceiling rooms combining in an irregular plan. It is built of coarse stone, with corners, base course and top of the walls in ashlar stone, all now covered by thick wash. The main entrance is in the eastern elevation, asymmetrically placed in a protruding section, with one window to the right. The door is set in an extremely simplified rusticated framing and has a flat arch of joggled voussoirs as a lintel, as does the front façade window. A secondary door in the northern elevation leads to an external pergola (now missing any cover) on massive wooden beams resting on two stone pillars. Within the pergola are two simple limestone tomb markers, while more apparently related cenotaphs, some with fine calligraphic inscriptions, are located around the building. The main doorway leads into a vestibule from which are accessible: a service area with a toilet and a kitchenette; the burial chamber containing a wooden cenotaph of Rifa’a al-Tahtawi covered in a green cloth; and a second burial chamber preceded by an internal sitting area with numerous marble inscription panels commemorating persons deceased in the second half of the 20th century mounted on the western wall, as well as piece of cloth in the shape of the traditional Egyptian "galabeya" dress, with the names of Rifa'a al-Tahtawi and his family and the dates of their deaths embroidered. To the north of the room is a chamber with two large marble cenotaphs decorated with inscription panels dedicated to the female members of the family, those married to Al-Tahtawi sons. The style of the cenotaphs suggests an early 20th century date.</t>
-  </si>
-  <si>
     <t>The unit is overall in good condition, although dilapidated. The covering of the external pergola is missing.</t>
-  </si>
-  <si>
-    <t>Together with his contemporary ‘Ali Mubarak, Rifa’a Al-Tahtawi was essential in promoting in Egypt modern methods of organization in areas of public policy: administration, health care, irrigation, and especially education – a trend in the mid-19th century that is sometimes called “Islamic Renaissance”. Coming from a rural background, he was educated as a religious scholar at the al-Azhar University. He then went in 1826-1831 to Paris to study a broad range of subjects. Upon his return, he held different positions serving Muhammad ‘Ali’s and his descendants’ governments, including the director of the School of Languages that he established for the training of professional translators. He also translated himself numerous important works on medicine, geography, military arts, history, literature, politics, and jurisprudence (including translating the French Civil Code.) He wrote and published his own works on the subjects of European political institutions, the need for enlightened education (including education of girls), and on the public interest and public good.</t>
   </si>
   <si>
     <t>•	Vatikiotis, P. J. The History of Modern Egypt: From Muhammad Ali to Mubarak, fourth edition, the Johns Hopkins University Press, Baltimore, 1991, p. 108–9, 112–118]</t>
@@ -1667,9 +1458,6 @@
 The wooden front porch has in the front elevation four round arches supported on five massive wooden columns, and in each side elevation a similar round arch and a narrower pointed arch. The tympana of the arches and the rectangular horizontal openings above them are filled with very elaborate wooden openwork of geometric patterns with floral motifs. The overhanging roof has a very elaborate tassellated wooden edge. Atop the corners of the main building are decorative stone vases. The ones at the front are awkwardly hidden behind the wooden porch, suggesting that it may be a later addition or an afterthought during construction.</t>
   </si>
   <si>
-    <t>The unit is in fair overall condition, although dilapidated. The wooden openwork decoration of the porch is heavily damaged and partially missing. The north-western corner column of the porch is missing, apparently knocked down by a vehicle moving on the street that sometimes becomes busy. The photograph in Al-Kady and Bonnamy’s book published in 2007 (p.197) shows that this happened before that date.</t>
-  </si>
-  <si>
     <t>According to a resident, the enclosure currently belongs to Ahmad Mandur family, who also own the nearby funerary enclosure of al-‘Abd al-Fakir Muhammad (No 29 in this survey). Ahmed Mandur is reported to have worked for the original Turkish family who had owned the enclosures before._x000D_
 Al-Kadi and Bonnamy (p.197) attribute the tomb to Salih Pasha Silim and date it to AD 1910 without quoting any evidence. Judging by the style of the building, the date 1910 is not improbable. The name of Mustafa Pasha al Khazindar appears in the inscription on the semi-circular marble panel over the entrance door. Khazindar means “treasurer”, and is also a given name of Turkish origin deriving from this title.</t>
   </si>
@@ -1681,9 +1469,6 @@
   </si>
   <si>
     <t>28_1150742.jpg</t>
-  </si>
-  <si>
-    <t>Al-‘Abd al-Faqir Muhammad</t>
   </si>
   <si>
     <t>1311</t>
@@ -1720,9 +1505,6 @@
     <t>29_4151_sl_JDs.jpg</t>
   </si>
   <si>
-    <t>‘Ali ‘Uthman</t>
-  </si>
-  <si>
     <t>1322</t>
   </si>
   <si>
@@ -1737,10 +1519,6 @@
 •	A flat gabled roof, an unusual feature in Cairo.</t>
   </si>
   <si>
-    <t>Ali ‘Uthman’s family funerary structure is a freestanding two-story building with a simply decorated main elevation facing east. The main doorway is in the middle of the east façade, with a marble lintel inscribed with the family name and the construction date, and with a segmental relieving arch above the lintel.  The door is framed with an extremely simplified band in plaster very vaguely suggesting a Mamluk-style arrangement. Similar plaster bands (not related to Mamluk architecture) frame a small window to the left and a corresponding blind window to the right. The upper floor has two large windows in similar framing and with wooden louvre shutters in the eastern elevation. The top of the façade is a flat gable, with an inscribed roundel in the middle. The north wall has one window on each floor and the fenestration of the back elevation is irregular._x000D_
-The ground floor consists of a single room covered with an undecorated wooden ceiling. It functions as a burial chamber with two simple limestone tabut tomb markers. Wooden stairs in the south-eastern corner of the room lead to the upper floor, which is a residential room covered by the sloping gabled roof.</t>
-  </si>
-  <si>
     <t>The building is in good condition and adequately maintained.</t>
   </si>
   <si>
@@ -1777,9 +1555,6 @@
   </si>
   <si>
     <t>The enclosure is in generally good condition and used for residential purposes.</t>
-  </si>
-  <si>
-    <t>The date of shaykh Ahmad al-Zeini’s death in 1327 AH in the inscription on his cenotaph corresponds to AD 1909</t>
   </si>
   <si>
     <t>31_DSC_5963s.JPG</t>
@@ -1845,32 +1620,16 @@
     <t>32_MS_0547s.jpg</t>
   </si>
   <si>
-    <t>Fatma Hanim Isma‘il</t>
-  </si>
-  <si>
     <t>1362 A.H./A.D. 1943</t>
   </si>
   <si>
-    <t>Date of Fatma Hanim Isma‘il’s death on the marble panel on the interior wall. This is consistent with the style popularised by the “Egyptomania” following the discovery of King Tutankhamun’s tomb in 1922.</t>
-  </si>
-  <si>
     <t>Radwa Abu-Senna</t>
   </si>
   <si>
     <t>•	The “Ancient Egyptian revival” style</t>
   </si>
   <si>
-    <t>A small slightly irregular rectangular enclosure measuring ca. 7 x 10 m, with the entrance to the courtyard in the northern end of the eastern façade and the mausoleum building at the southern end. There is a square shaft in the courtyard (apparently leading to the crypt), covered with wooden planks._x000D_
-The brick fence separating from the street has recently been re-faced with limestone cladding (after 2014)._x000D_
-The mausoleum building is built of dressed limestone and consists of three chambers covered with stone segmental vaults. The side chambers with floors raised by one step open onto the entrance hall with wide openings covered with segmental arches (the overall arrangement is thus one of the qa’a.) _x000D_
-The building is in the “Ancient Egyptian revival” style with external walls tapering upwards, and a bold cavetto cornice. The undecorated rectangular entrance door is placed in a flat pylon-like projection. Over the door are two simple marble inscription panels, one with the name of the founder, the other with a Qur’anic verse. On the cornice over the door is a carved winged sun disc flanked by two cobras – a representation of the god Ra-Khorakhty popular in Ancient Egyptian art.</t>
-  </si>
-  <si>
     <t>The enclosure is in generally good condition and was recently renovated.</t>
-  </si>
-  <si>
-    <t>According to the property keeper, a part of the originally larger enclosure was turned into a separate burial ground for Hasaneyn Abderrahman, Fatma Haninim’s son._x000D_
-The mausoleum was renovated after 2014, which included replacement of water-damaged stones in the lower portions of the wall, re-facing of the wall separating from the street, and raising the level of the courtyard by about 30 cm.</t>
   </si>
   <si>
     <t>33_DSC_2394s.JPG</t>
@@ -1896,18 +1655,7 @@
 •	Highly unusual decoration of shahid stelae with naturalistic depictions of clothing</t>
   </si>
   <si>
-    <t>A roughly square enclosure measuring ca. 11.5 x 13 m, with the entrance gate in the northern end of the eastern wall and with a two-storey building occupying the southern side of the enclosure. Of the remaining northern part of the enclosure, the western half is a courtyard, surrounded by a tall wall, to which the entrance gate leads. The northern part is a roofed, open-fronted burial area raised by one step, with the roof supported on two wooden pillars. Another identical pillar supports the roof of an open canopy with mashrabiya wooden screens on two sides that is an extension of the burial area into the north-eastern corner of the courtyard._x000D_
-The two-story building to the south of the courtyard is accessed from a doorway in the western part of the façade, leading into a staircase. A mezzanine of two small low-ceiling storage rooms is accessed from the staircase landing. The upper floor is a residential apartment consisting of a kitchen, a toilet and a bedroom with a doorway leading into a spacious roof overlooking the courtyard._x000D_
-In the shaded burial area are six carved marble cenotaphs, some with multiple shahid stelae. The earliest date is this of Ahmad Bey Raghib’s death: 25 Shawwal 1302 AH [corresponding to 6 August AD 1885]. Other dates are mostly from the 1910s, the latest is 1925. Some of the shahid stelae are highly unusual in representing men’s torsos in naturalistically depicted clothing, complete with lapels, bowties and pocket watches on watch chains. There is also one uninscribed limestone cenotaph inside the courtyard._x000D_
-The neo-Mamluk entrance portal of finely dressed ashlar stone is in the north-western corner of the enclosure, the rest of the eastern wall being blocked by the neighbouring funerary enclosure. The rectangular entrance door is set in a shallow full-height recess topped with a three-tiered muqanas frieze. The door lintel is a monolithic block of marble with an inscription panel in fine calligraphic script, signed by the calligrapher Ahmad Yusuf and dated AH 1314. Over the door is a segmental relieving arch with white-and-blue ceramic tiles in its lunette, and above it, a rectangular panel with the foundation inscription. The Mamluk-style fleur-de-lys crenellation over the portal does not continue over the perimeter wall built of rough stone._x000D_
-In front of the gate and against the wall of the neighbouring enclosure stands a sabil, which is a wooden cupboard-like structure on a simple marble base. The walls of the sabil are geometric panels of very high quality of design and of joinery. Over the door is an imitation in wooden panels of a relieving arch of joggled voissoirs. The inscription panel over the sabil door is dated AH 1347 [corresponds to AD 1928).</t>
-  </si>
-  <si>
     <t>The enclosure is in generally good condition, but shows signs of wear-out. There is damage from rising damp to the lower parts of the walls. All woodwork is in need of maintenance. The wooden sabil is seriously desiccated.</t>
-  </si>
-  <si>
-    <t>Professor Ahmad Bey Raghib was a professor who specialized in international law. He participated in the agricultural ownership reform law. He was related to Isma‘il Fahmy, a onetime minister of foreign affairs. (Moa ‘wad, 105-80)_x000D_
-According to the property keeper, the sabil was funded by his ancestor. He also mentioned the name Mirza in reference to the enclosure’s owners.</t>
   </si>
   <si>
     <t>Moa‘wad, Ibrahim Al-Amayir al-Janayiziah al-Baqiah bi Qarafat al-Mujawirin Bi al-Qahirah  Department of Islamic Archeology, Faculty of Archeology, Cairo University, 2022, pp. 105–108</t>
@@ -1947,9 +1695,6 @@
     <t>The enclosure is in generally fair structural condition, although some cracks in its walls indicate differential settlement of foundations. The roof over the upper floor is damaged, with some wooden beams missing. The upper floor is disused and dilapidated.</t>
   </si>
   <si>
-    <t>According to the property keeper, the family, who visit every couple of years, own a cement company located in Cairo on the Nile Corniche Street close to the Wikalat al-Balah. They also mentioned that an MA dissertation that documented the building exists, but the keeper didn’t know the name of the scholar nor the university.</t>
-  </si>
-  <si>
     <t>35_IMG_2351s.JPG</t>
   </si>
   <si>
@@ -1957,9 +1702,6 @@
   </si>
   <si>
     <t>35_2351ss.jpg</t>
-  </si>
-  <si>
-    <t>Muhammad Mustafa ‘Abdallah</t>
   </si>
   <si>
     <t>Before 1943</t>
@@ -1995,9 +1737,6 @@
     <t>36_DSC_4337.JPG</t>
   </si>
   <si>
-    <t>‘Amar Family</t>
-  </si>
-  <si>
     <t>1276</t>
   </si>
   <si>
@@ -2033,9 +1772,6 @@
     <t>Ottoman period, probably 18th century</t>
   </si>
   <si>
-    <t>A type of funerary monument once abundant in the cemetery (as attested e.g. by the Description de l’Egypte) but now rare. Unique in being double.</t>
-  </si>
-  <si>
     <t>A double open-sided canopy over two marble cenotaphs. Built of ashlar stone on a raised stone platform. Six octagonal pillars with simple chamfers in place of capitals and bases carry very slightly pointed, almost semi-circular arches with wooden tie-beams. Each square section is covered with a pyramidal roof covered with brick rubble and plastered. There is no cornice on top of the walls, neither any traces of crenellation. The structure is without any decoration (which may point to a date even earlier that the 18th century, when opulent decoration was typical.) The marble cenotaphs, on the other hand, are entirely covered with elaborate calligraphic inscriptions in raised relief._x000D_
 The canopy stands off-centre in a huge irregular, roughly rectangular enclosure of brick walls, apparently of much later date. The numerous limestone tomb-markers in the enclosure are also evidently later.</t>
   </si>
@@ -2052,9 +1788,6 @@
     <t>38_IMG_2539.JPG</t>
   </si>
   <si>
-    <t>Muhammad Isma‘il al-Bannan</t>
-  </si>
-  <si>
     <t>The rooms for visitors are elevated over an open-sided funerary courtyard.</t>
   </si>
   <si>
@@ -2078,9 +1811,6 @@
     <t>39_2588ss.jpg</t>
   </si>
   <si>
-    <t>Al-‘Azabi Family</t>
-  </si>
-  <si>
     <t>Before 1283</t>
   </si>
   <si>
@@ -2099,13 +1829,7 @@
     <t>A shrine of a Sufi shaykh apparently added to an earlier funerary enclosure.</t>
   </si>
   <si>
-    <t>A sizeable funerary enclosure consisting of an irregular conglomeration of single-storey buildings and courtyards stretching for about 45 metres north to south and about 15 metres east to west. It is hemmed in between neighbouring enclosures, with access only from narrow pedestrian streets. There are 13 rooms by the perimeter walls, taking up most of the lot. The earliest part of the complex appears to be the enclosure in its northern part, measuring approximately 22 x 15 m in plan, with rooms grouped in a U-shape around the courtyard by the eastern wall, with a small secondary courtyard by the western wall in the southern tract of the rooms. The main entrance is in the northern façade, which is built of rubble stone and plastered, and is undecorated save the huge cavetto cornice at the top of the wall, which transitions in a smooth curve from the taller eastern section and the lower western section. There are five undecorated rectangular windows in the façade, with simple iron grilles and simple wooden panelled shutters. The gate topped with a semi-circular arch is built of ashlar stone and undecorated. It leads to a hallway in a residential section with two rooms currently occupied by the keepers. The hallway leads to a courtyard (now used for raising poultry), from which a large square burial chamber on the southern side of the courtyard is accessed. It has an octagonal wooden lantern in its plain, undecorated ceiling, and contains two decorated marble cenotaphs and two decorated limestone tomb markers. Another burial room in this zone has a partially broken ceiling and includes a richly decorated marble cenotaph. There is a small courtyard south of the main burial chamber, and west of it, a plain room which according to a panel on the wall is a shrine to Muhammad Abdelghani, the Shaykh of the Sufi group al-Bayyumiya. The Shaykh’s wooden cenotaph covered with cloth stands inside an extremely simple wooden enclosure. Further south, around two tiny courtyards, are six more plain and undecorated burial rooms, which are in very poor condition, some of them inaccessible due to collapsed rooves.</t>
-  </si>
-  <si>
     <t>The northern part of the complex, maintained by the keepers who live there, is in fair structural condition. The further south, the condition worsens, and the rooms at the south end of the enclosure are in ruinous condition.</t>
-  </si>
-  <si>
-    <t>The date AH 1283, which is the earliest found on tomb markers, corresponds to AD 1866. The form of a cavetto cornice transitioning in curves between different levels is a feature commonly found in Muhammad ‘Ali’s buildings at the Citadel dating to the first half of the 19th century, and common in Cairo at the time. This may hint at a date in the first half of the 19th century for the oldest parts of the al-‘Azabi complex.</t>
   </si>
   <si>
     <t>40_IMG_2466s.JPG</t>
@@ -2147,10 +1871,6 @@
     <t>The overall structural condition is fair; the unit is used as a burial ground and receives basic maintenance. Woodwork is damaged and desiccated.</t>
   </si>
   <si>
-    <t>The modern inscription plaque over the entrance door stated that this is a funerary enclosure of the late Nafisa ‘Abd al-Rahman Uthman al-Girgawi and the family of Ahmad Effendi Amin, known as Shaykh al-Sanhawi and gives a date 1880 (Miladi only)._x000D_
-According to the keeper, the complex originally comprised both al-Sanhawi and the adjacent al-Baqli familes’ enclosures and was subsequently divided. This appear consistent with the layout of the lot</t>
-  </si>
-  <si>
     <t>41_DSC_4463s.JPG</t>
   </si>
   <si>
@@ -2190,9 +1910,6 @@
   </si>
   <si>
     <t>42_4442ss.jpg</t>
-  </si>
-  <si>
-    <t>Al-‘Arusi Family</t>
   </si>
   <si>
     <t>1910</t>
@@ -2262,12 +1979,6 @@
     <t>based on stylistic features and building techniques</t>
   </si>
   <si>
-    <t>A free-standing structure standing off-centre within a huge, roughly rectangular enclosure containing numerous stone tomb-markers and including a tract of rooms by its southern wall and a disused building in the north-western part. Apparently originally an open-sided canopy built of stone and consisting of square, undecorated pillars supporting semi-circular arches and covered with a dome of a pointed profile. The walls are topped with a very simple cornice and fleur-de-lys crenellations. The canopy has been walled up to the level of the springing of the arches, forming semi-circular windows above the walls. Both these windows and the window in the northern wall have modern iron grilles. The walls are faced with stone cladding, with a simple flat frieze in the interior. Otherwise, the building is undecorated. The Shaykh’s wooden [?] cenotaph in the centre of the room is covered with red cloth. The entrance is in the southern wall. A nondescript modern shaded sitting area covered with a concrete slab has been added as a vestibule to the south of the shrine.</t>
-  </si>
-  <si>
-    <t>The shrine is in good condition and continuously maintained. It is used by the Sufi followers of shaykh Mustafa al-Bakri for annual ceremonies marking the shaykh’s birthday (as reported by the doorkeeper.)</t>
-  </si>
-  <si>
     <t>An informational panel inside the shrine extols Mustafa al Bakri as a shaykh of a Sufi order, including a quotation from the chronicler al-Jabarti (1753–1825), states that he renewed the Khalwati Sufi order, and gives the month of Rabi‘ al-Thani 1162 AH as the date of his death [corresponding to April 1749].</t>
   </si>
   <si>
@@ -2304,9 +2015,6 @@
   </si>
   <si>
     <t>46_4182ss.jpg</t>
-  </si>
-  <si>
-    <t>Isma‘il ‘Ali Bey</t>
   </si>
   <si>
     <t>First half of the 20th century, probably 1930s or 40s</t>
@@ -2334,9 +2042,6 @@
   </si>
   <si>
     <t>47_4112ss.jpg</t>
-  </si>
-  <si>
-    <t>‘Abdelhamid Sherif Bey</t>
   </si>
   <si>
     <t>A sizeable irregular quadrangular enclosure measuring approximately 24x30 metres, with streets to the northern, western and southern sides and a narrow alley along the eastern wall leading to an adjoining enclosure. The corners, entrances, and the cornice of the enclosure are built of dressed stone, and the rest of the walls are of rough stone and plastered. There is a residential wing along the northern wall and the northern part of the western wall, and a burial chamber in the south-eastern corner of the courtyard. The entrance in the middle of the northern façade leads to a gateway opening on the courtyard with an arched opening. On its both sides are residential units. The Northern portal is a simple rusticate Classical-style gate topped with rounded arch and flanked by pilasters. However, the capitals of the pillars under the arch and the frieze above are of muqarnases. The door leaves are of simple wrought iron grilles of Art Nouveau motifs. A simple rectangular door placed in flat undecorated projection of the wall leads to the courtyard from the alley by the eastern wall. Another gate to the courtyard is placed in the middle of the western façade. It is also placed in a shallow projection in the wall, and is covered with a flat arch of joggled stone voussoirs. There are trees, including palm trees, planted in the courtyard, but not any formal garden layout. The north-western corner of the enclosure is rounded, and pierced with a large sabil window (now crudely walled up) topped with a semi-circular arch, with the opening surrounded with an angular knotted moulding._x000D_
@@ -2498,9 +2203,6 @@
     <t>69_DSC_2239ss.JPG</t>
   </si>
   <si>
-    <t>Isma‘il Katkhuda Mustahfizan</t>
-  </si>
-  <si>
     <t>About AH 1198 / AD 1775 and later</t>
   </si>
   <si>
@@ -2508,9 +2210,6 @@
   </si>
   <si>
     <t>Muhammad Esam , Esraa al-Mahdy, Hadeer Ahmad</t>
-  </si>
-  <si>
-    <t>A trapezoid tetragonal enclosure measuring ca 22 x13-18 metres, with a smaller annexe at the northern end of the western side. Save the modern shed in the south-eastern corner, the enclosure is an open courtyard. The perimeter wall was evidently remodelled a number of times, and it includes features (such as bold mouldings curving around architectural features) typical of early 19th-century buildings in Cairo, e.g. the nearby funerary complex of Sulayman Agha al-Silahdar from the 1830s, or Muhammad ‘Ali’s buildings at the Citadel of Cairo. The whole eastern wall and north-eastern corner of the enclosure are clearly rebuilt, with some Ottoman-period decorated stone blocks haphazardly reused in the lower part. The simple, undecorated gate to the enclosure is covered with a segmental arch and placed in the southern wall. Inside the enclosure are numerous tomb markers with many marble plaques with incised inscriptions, of recent date. The tomb markers and plaques have been evidently rearranged and remodelled quite recently. A marble stela in the form of a post tapering towards the base and octagonal in section bears five band of calligraphic inscriptions in raised relief, including the date 1198 AH [=AD 1775]. The floral decoration on the stela is in the style consistent with this date, resembling e.g. the buildings of ‘Abd al-Rahman Katkhkuda. The stela has been mounted on a modern tomb marker.</t>
   </si>
   <si>
     <t>The enclosure has been remodelled many times. Apparently quite recently it has undergone a renovation programme that included rebuilding or re-facing of many tomb markers, rearranging of inscription plaques and new paving in cement tiles.</t>
@@ -2545,27 +2244,6 @@
   </si>
   <si>
     <t>Designed by the world-famous architect Hasan Fathi</t>
-  </si>
-  <si>
-    <t>A domed mausoleum of square plan. The design is closely based on Burgi-period Mamluk ones, of which excellent examples are preserved nearby. The decoration is Mamluk-inspired, but simplified into basic geometric forms. Currently, the structure comprises a square domed burial chamber entered from the south and a lower rectangular annexe to its northern side. Originally, there were more rooms and arcades. Externally, there is a single deep recess in each façade, covered with a flat hood of three rows of extremely simplified muqarnases. Originally, there were four ground-level openings in the burial chamber: the entrance door on the southern side (door now replaced), tall rectangular doors opening onto no longer extant arcaded spaces on the east and west sides, fitted with steel grilles of geometric star patterns (the eastern one now fully and the western one partially walled up), and a wide pointed-arch opening to the northern annexe. The rectangular upper row windows, identical in each façade, are set in recesses of simplified rectangular forms and are fitted with bronze grilles similar to those in Mamluk-period windows._x000D_
-The zone of transition under the dome features Mamluk-style elaborate bold mouldings in the corners and is pierces on each side with typically Mamluk arrangement of oculi and round-arched windows in a one-over-two-over-three pattern. The windows are framed with knotted mouldings. The plain drum is pierced with twelve undecorated round-arched windows, and the dome is decorated with herringbone zigzag pattern (similar to this in the neighbouring dome of Amir Kebir Qurqumas (1507) and originating in the domes of nearby monument of Farag Ibn Barquq (1400-11). The dome is surmounted by a very tall brass crescent finial Taller than in Hasan Fathi’s original design drawings (see point 17, “references”, 1)._x000D_
-Internally, the openings in the walls of the mausoleum are set in rectangular recesses topped with simplified muqarnas friezes that are flanked by tall slender semi-circular niches topped with simple semi-domes. The side doors have calligraphically inscribed lintels and arabesque patterns on the relieving arches above them. An inscription band runs around the upper part of the burial chamber. The lower parts of the walls are covered with a simple marble dado with a simple geometric frieze at the top. The zone-of-transition below the dome is formed by five rows of simplified muqarnases. In the middle of the burial chamber stands a huge marble cenotaph decorated with simple Islamic art-inspired motifs including calligraphic inscription panels on its sides. The cenotaph is surmounted with an oversized “pomegranate” bulb on a moulded pedestal.</t>
-  </si>
-  <si>
-    <t>The extant structure is in good structural condition, although it shows signs of inadequate maintenance: peeling paint, soiled wall surfaces, the floor and cenotaphs covered with birds’ droppings, haphazardly blocked openings._x000D_
-The existing mausoleum is only a part of an originally larger layout. Physical evidence on site shows that at least parts or the original design were was not only originally planned, but actually constructed and then partly destroyed. The original complex was laid out on a lot measuring 62 metres from north to south and with the eastern border slanting, so the lot tapered from 32.6 meters on the north to 16 metres on the south. The mausoleum located in the northern part of the lot was accessed from an elevated terrace with arcades of five arches on each side. The openings in the eastern and western sides of the mausoleum and its northern annexe led to L-shaped rooms wrapping around small square courtyards attached to the mausoleum, with arcades on three columns to two sides. The entrance to the complex was through a neo-Mamluk portal in the southern side of the western wall of the enclosure. It led to a vestibule covered with two domes that was located in a building occupying the southern side of the lot. The building also included a sabil in the form of a loggia with two openings in the southern façade, a guard’s room and sanitary service facilities. The space between the entrance building and the mausoleum was taken up by a garden with water features including a narrow long channel at its axis and a reflecting pool in front of the mausoleum._x000D_
-The existing mausoleum is just a part of the original layout. The whole western side of the lot, about 8 metres wide, was obliterated when the Salah Salem road was built. Only scant traces of the arcade once adjacent to the western wall of the mausoleum remain. The entrance building has been demolished, and the garden built up with nondescript structures, as was the eastern side of the front courtyard in front of the mausoleum. The arcaded courtyard east of the mausoleum has been covered with a roof; it is unknown how much of its colonnaded arcades are preserved (the unit was not accessible at the time of recording.)_x000D_
-The original design drawings by Hasan Fathy are preserved in the American University in Cairo Rare Books and Special Collections Digital library (see point 17, 4), a reproduction is attached to this record with the photographic record.</t>
-  </si>
-  <si>
-    <t>Ahmad Muhammad Makhlouf Hasanein al-Bulaqi, known as Ahmad Hasanein Bey, was born on 31 October 1889 in Bulaq, the commercial Nile port of Cairo. His father was a professor at al-Azhar; his grandfather Ahmad Pasha Mazhar Hasanein was the last Admiral of the Egyptian fleet. Hasanein Bey was educated in Cairo and graduated in 1914 from Balliol College at the University of Oxford. During the First World War he served as the Arab Secretary to General Maxwell, British Commanding Officer in Cairo in 1914. He was appointed a Member of the British Empire (MBE) and received the 1915 star, the British War Medal and the Victory Medal. (2)_x000D_
-Hassanein Bey was a renowned explorer and published The Lost Oases (1925), which describes his 1923 journey of 2,200 miles by camel from the Egyptian port of Sollum on the shores of the Mediterranean to Al Obeid Anglo-Egyptian Sudan. He led the seven-month expedition which discovered the oases of Jebel Arkenu and Jebel Ouenat and he was awarded the Founder’s Medal by the Royal Geographical Society in 1924. (2)_x000D_
-In 1924 he was appointed First Secretary of the Egyptian Legation in Washington, D.C. From 1925 to 1936 he was adviser to King Fuad and tutor of Crown Prince Faruk during his studies in London. He also served as Chamberlain to Queen Nazli between 1936 and 1946. He came to be considered one of the most influential men in Egypt (2)._x000D_
-Hassanein Bey was an accomplished fencer and represented Egypt in the Olympic Games in Brussels 1920 and Paris 1924. (2) He was also a pilot (3)._x000D_
-In 1926 he married Lutfia Hanim (born 1905), daughter of Seyfullah Yousri Pasha, first Egyptian Ambassador to Washington D.C., and Princess Shavikar Hanim Effendi, ex-wife of King Fuad. They later divorced. (3)_x000D_
-Hassanein Bey died on 19 February 1946, killed in a car accident involving a British military vehicle. (2) The accident happened on the Qasr al-Nil Bridge in Cairo in rainy weather (3)._x000D_
-Ahmad Hasanein was a brother-in-law to Hasan Fathi, the designer of the mausoleum. (1)_x000D_
-The mausoleum was built with funding from the Egyptian government, then headed by the prime minister Mahmud Fahmy al-Nuqrashi [who is buried in a mausoleum nearby – record No 04], in recognition of Ahmad Hasanein’s lifelong contributions to Egypt (1, 3, 5).</t>
   </si>
   <si>
     <t>•	(1) Serageldin, Ismail, ed. Hasan Fathy Bibliotheca Alexandrina 2007, p. 66-7_x000D_
@@ -2679,10 +2357,6 @@
     <t>Shaykh Mustafa Mahmud</t>
   </si>
   <si>
-    <t>A small single-store building on a rectangular (almost square) plan, measuring approximately 6 x 7 metres, with the main entrance from the street in the northern wall, with a small lighting shaft / courtyard in the south-eastern corner. It appears that the current structure is a subdivision of an originally larger funerary courtyard (probably measuring approximately 12 x 27 metres.) A door in the southern wall of the building leads to an open courtyard containing tomb markers, from which apparently other subdivision were also carved out along the street. The main (northern) façade and parts of the eastern wall are built of ashlar stone masonry, the back and western façades of rubble stone. The façade is simple, with the entrance door covered with a segmental arch placed of-centre towards the west and flanked with flat pilasters without capitals that carry a simple cornice.  Over the door is a calligraphic inscription in raised relief on a marble panel, with a supplication for God’s mercy upon Shaykh Mustafa Mahmud and giving the date of his death as 1322 AH [corresponding to AD 1904]. To the left of the door is a huge undecorated rectangular window with a lintel formed by a flat arch of huge joggled voissoirs. The window is fitted with wooden louvre shutters. In the narrower bay to the right of the door is a small rectangular window apparently of a service room. The façade is crowned by simple stone fleur-de-lys crenellation._x000D_
-The interior was inaccessible at the time of recording.</t>
-  </si>
-  <si>
     <t>The building is in fair condition and maintained. The façade has been recently cleaned by re-dressing the stone surface. Sunken joints between stone blocks have been repointed with cement mortar and a crack in the façade filled in with cement mortar. There is damage to crenellations and the cornice indicating water penetration due to inadequate rainwater disposal.</t>
   </si>
   <si>
@@ -2743,9 +2417,6 @@
   </si>
   <si>
     <t>77_DSC_2397ss.JPG</t>
-  </si>
-  <si>
-    <t>Shafiqa Ibrahim ‘Ali Nassar</t>
   </si>
   <si>
     <t>1916</t>
@@ -2784,11 +2455,6 @@
   </si>
   <si>
     <t>Mohammad Esam, Esraa al-Mahdi, Hadir Ahmad-edited by Jaroslaw Dobrowolski</t>
-  </si>
-  <si>
-    <t>The funerary enclosure occupies a sizeable quadrilateral lot measuring approximately 32 x 20–40 metres, with southern, eastern and northern walls meeting at right angles, and the western wall oblique. It faces streets on the southern, western and northern sides, and borders on neighbouring funerary enclosure to the east. The corner where the western and northern walls meet at an obtuse angle is rounded and pierced with a large sabil window. It is rectangular, covered with a flat arch of joggled voussoirs, and flanked with two very simple pilasters carrying a simple Classical moulding. There are two similarly treated gates in the northern and western walls (the western one taller than the western wall, which is much lower than the buildings in the corners of the enclosure. Otherwise, there is no architectural decoration; the building hasn’t got a formally arranged façade. The sabil window had a marble ledge at the bottom supported on three muqarnas corbels. Only scarce remnants remain. The corbels, the joggled voussoirs, and an empty recess over the western gate are the only elements of the building related to Mamluk style. Right of the sabil window is a small wall fountain with a bronze spigot in a marble wall panel with rounded top that is set in a recess framed with simple moulding. The panel contains three lines of calligraphic inscription in raised relief. The text relates to the beneficence of water and includes the date 17 Gumada al-Thani 1333 AH. The windows in the southern elevation are rectangular, small and plain. There are clear traces of at least three large openings in the wall that have been walled up. The windows (including the sabil window) are fitted with simple decorative wrought iron grilles. The northern elevation is windowless. On the wall of the building in the north-eastern corner three huge panels in wooden frames are mounted (apparently later than the original construction.) They include hand-painted religious inscriptions in a trained, but not masterly hand._x000D_
-_x000D_
-Interior was inaccessible at the time of recording. According to the keeper, in the north-eastern chamber are three gilded marble cenotaphs.</t>
   </si>
   <si>
     <t>The building was repainted some years ago, and apparently the roof cover was repaired, as new rain pipes were installed. However, it is in poor overall condition, with severe damage from rising damp to the lower parts of the walls. Woodwork is damaged and desiccated.</t>
@@ -2846,9 +2512,6 @@
     <t>80_DSC_3439ss.jpg</t>
   </si>
   <si>
-    <t>Dr ‘Aziza Hasan ‘Ali</t>
-  </si>
-  <si>
     <t>Residential and funerary enclosure</t>
   </si>
   <si>
@@ -2885,10 +2548,6 @@
 Over the southern sabil window and over the secondary gate are placed modern, apparently quite recent, small square plaques of local substitute for marble. They bear incised inscriptions of mediocre craftsmanship stating the funerary enclosure is of Banuna [family] and giving the date 1332 AH – AD 1910.</t>
   </si>
   <si>
-    <t>The building is dilapidated in spite of being lived in. Most of the plaster is missing from the front façade. There is visible damage to the lower parts of the walls from rising damp, with haphazard attempts at repairs with cement. The front façade is cracked. Woodwork is damaged and desiccated. The roof cover has apparently recently been repaired._x000D_
-The stark contrast between the desolated aspect of the exterior and spotless inner courtyard seems to indicate the current inhabitant’s adherence to the traditional values of rural Upper Egypt.</t>
-  </si>
-  <si>
     <t>According to the resident keeper, the enclosure was founded by Ahmad Banuna, who was married to the daughter of an Abdullah Basha Lamlum. It is reportedly currently used by two families</t>
   </si>
   <si>
@@ -2901,10 +2560,6 @@
     <t>•	Unusually rich decoration of the façade, with only limited use of Islamic motifs.</t>
   </si>
   <si>
-    <t>The eastern half of a square lot measuring approximately 14 x 14 metres is occupied by a two-storey building; the western half is an empty open walled courtyard, which according to the current residents contains burials. The front structure has an aspect of a city building rather than a funerary monument. The strictly symmetrical main (eastern) façade faces Sultan Ahmad Street. The entrance portal, the corners of the street façade’s ground floor and a course over the ground-floor windows with an inter-storey cornice are built of ashlar stone; the other walls are built of coursed rough stone._x000D_
-The entrance portal is set in a rectangular recess topped with a muqarnas frieze. The recess itself is placed in a flat projection reaching in height the middle of the upper floor and topped with a flat cornice. The rectangular entrance door has its monolithic stone lintel and the relieving arch above it framed in knotted moulding.  Over the door is a recess apparently for mounting an inscription panel, which is empty – the panel either was never installed, or has been removed. The portal is the only part of the façade in the neo-Mamluk style. In the wall above the portal are two windows topped with round arches, with the window panes divided into decorative geometrical fields that were glazed with coloured glass (now in very poor condition). Above the windows is an opening cut in two stone blocks in the shape of eight-pointed star with four ends rounded. Apparently, this set of windows admitted light to a double-height hallway.  The side sections of the façade are each composed with two windows on ground and upper floors, although in place of the inner ground floor window on the left (southern) side is a blind rectangular recess. The ground floor windows were enclosed in wooden moulded frames (now almost completely gone), has simple louvre shutters, and are fitted with simple decorative wrought iron grilles. The grille of the inner window on the right (northern) side has larger openings in the bottom part, typical of a sabil window. The upper floor window have their upper parts framed in mouldings in plaster; above the windows are plaster-cast neo-Baroque decorations with laurels, scrolls, medallions, and conchs. There are simple, non-decorative iron grilles in the windows, and behind them, sliding wooden shutters of “baghdadli” grating of thin laths, with cot-out wooden decorations on top. The building is topped with a simple plaster cornice.</t>
-  </si>
-  <si>
     <t>The building is severely dilapidated in spite of being lived in. Most of the plaster is missing from the front façade. There is serious damage to the lower parts of the walls from rising damp. The front façade is cracked. All woodwork is heavily damaged and desiccated, and largely missing. The roof over the northern section of the building has collapsed.</t>
   </si>
   <si>
@@ -2929,12 +2584,6 @@
     <t>Hader Ahmad</t>
   </si>
   <si>
-    <t>A small roughly rectangular enclosure measuring approximately 17 x 8 metres. It borders on a street to the east, on neighbouring funerary enclosures to northern and southern sides, and on the embankment of the Salah Salem motorway to the back (west). A single-storey building occupies the eastern part of the lot, with a gateway between two rooms leading to a small courtyard. The southern room is deeper than the northern one and the hallway, resulting in the L-shaped plan of the building. The entrance gate is placed asymmetrically, because the southern room (apparently, a burial chamber) is wider than the smaller northern one, which is apparently a visitors’ room or a service room. The façade is very simple. It has an entrance gate placed in an undecorated rectangular recess, a double window to the left (south) and a smaller single window to the right. All openings are covered with keel arches that are framed in un-moulded flat projections. Over the windows are empty horizontal recesses in masonry. Water from the roof is drained through very massive stone water-spouts that pierce a stone parapet wall topped with a simple unmoulded projection. There are simple steel grilles in windows; the entrance door leaves are made of welded pieces of rolled steel forming very simple geometric decorative pattern. The lower part of the facade up to the level of window sills is faced with thin stone slabs, apparently as a repair of the wall damaged by rising damp._x000D_
-It is not clear whether the extreme simplification of decoration results from modernist aesthetics prevailing at the time of construction, or the planned mouldings were never carved._x000D_
-To the right of the entrance door, a modern marble plaque is mounted, with an incised inscription stating that the funerary enclosure belongs to Hagg Ahmad Mustafa Sharsh and Hagg Muhammad Ahmad Sharsh, with no date._x000D_
-The interior was inaccessible at the time of recording.</t>
-  </si>
-  <si>
     <t>The building is overall in fair condition and maintained. In the front façade, joints crudely filled with mortar in many places indicate that cracks developed in the wall, probably due to differential settlement of foundations.</t>
   </si>
   <si>
@@ -2948,11 +2597,6 @@
   </si>
   <si>
     <t>Husayn Ibrahim</t>
-  </si>
-  <si>
-    <t>A small roughly rectangular enclosure measuring approximately 17 x 9 metres. It borders on a street to the east, on neighbouring funerary enclosures to northern and southern sides, and on the embankment of the Salah Salem motorway to the back (west). A single-storey structure on an L-shaped plan occupies the eastern part of the lot. The main (eastern) façade is strictly symmetrical, divided into three bays slightly recessed between plain flat projections and topped with a simplified muqarnas frieze. The portion of the façade over the central bay containing the entrance gate is higher, forming a step framed in moulding continuous with cornice, with scalloped quarter-circle ornaments to the sides. In the taller section is an empty recess framed in mouldings like Mamluk-style placement for an inscription panel. The entrance gate and double windows placed in side bays are covered with keel arches of horseshoe profiles that are framed in un-moulded flat projections, which rhombus-shaped projections over the twin windows. It is not clear whether the extreme simplification of opening’s decoration results from modernist aesthetics prevailing at the time of construction, or the planned mouldings were never carved. However, some other elements are finished with fine carving, so it appears that the latter was the case. In the doors and windows are extremely simple openwork grilles of pieces of rolled steel. The windows are fitted with simple panelled wooden shutters with openings of simplified decorative outline above. The entrance leads to an arcade opening on the small back courtyard with arches similar to those in the front façade. To the left (south is the entrance to a room, and further to the west, on the southern side of the courtyard, is another room opening onto the courtyard with two arches._x000D_
-To the right of the entrance door, a large modern marble plaque is mounted with disregard to the architectural divisions of the façade, with an incised inscription that after invoking God’s name invites to enter in peace and security the funerary enclosure of Husayn Ibrahim. There is no date_x000D_
-The interior was inaccessible at the time of recording.</t>
   </si>
   <si>
     <t>The building is overall in good condition and maintained. The lower part of the façade is faced with thin stone slabs, apparently as a repair of the wall damaged by rising</t>
@@ -2982,9 +2626,6 @@
   </si>
   <si>
     <t>86_DSC_2379ss.JPG</t>
-  </si>
-  <si>
-    <t>‘Abd al-‘Aziz Sukar (assumed)</t>
   </si>
   <si>
     <t>A small enclosure measuring approximately 11 x 12-16 metres, with the southern, eastern and northern walls meeting at right angles and the western side oblique. It borders on a street to the east, on neighbouring funerary enclosures to northern and southern sides, and on the embankment of the Salah Salem motorway to the back (west), where it misses most of the perimeter wall. The main (eastern) façade is strictly symmetrical, with the central part that contains the entrance portal projecting very slightly and taller than the side sections. The entrance door and a single window in each of the side sections are placed in shallow recesses topped with muqarnas friezes (this over the portal larger and more elaborate.) The openings are rectangular, their monolithic stone lintels and above them relieving arches of huge joggled voussoirs are framed in knotted mouldings. There are remarkable similarities in construction and detailing to the nearby façade of the enclosure of Shalqami Family (No 86 in this record). In the lintel over the main door is a recess similar to Mamluk-period placements for an inscription panels, but it is empty._x000D_
@@ -3014,20 +2655,435 @@
     <t>•	The enclosure is a fill-in inserted into an irregular lot that apparently was created next to an older enclosure when a new street grid was laid out.</t>
   </si>
   <si>
-    <t>The funerary enclosure occupies an elongated lot measuring originally approximately 22 x 2.5 – 6 metres, with the entrance in the longer southern side. The entrance leads to a courtyard with a room on each shorter side. The eastern one measures only about 5 x 2.5 – 3 metres. The slightly larger western one is roofless. It appears that originally it included a separate entrance between two windows in the enclosure’s western wall. It was turned into an internal door when a narrow room was added to the enclosure on the western side. The long single-storey façade is very simple and strictly symmetrical, with three windows on each side of the entrance door. The windows are set in long undecorated recesses in the walls. All the openings (in the façade and internal) are rectangular and plain, covered with monolithic stone lintels with relieving arches above them built of angularly joggled voussoirs. The quality of stone masonry is very high._x000D_
+    <t>The enclosure is in generally good condition although some crack appear in the western part of the front facade.</t>
+  </si>
+  <si>
+    <t>88_DSC_2033s.JPG</t>
+  </si>
+  <si>
+    <t>88_DSC_2032ss.JPG</t>
+  </si>
+  <si>
+    <t>Fatma Hasan Wasif (assumed)</t>
+  </si>
+  <si>
+    <t>The complex is neglected and dilapidated. The entrance portal is very seriously tilted, leaning to the west towards the courtyard. There is serious damage from rising damp to the lower portions of the walls. All woodwork is damaged, desiccated, and largely missing.</t>
+  </si>
+  <si>
+    <t>According to the current keeper, the enclosure belonged to Fatma ‘Ali Hasan. On the secondary doorway in the northern façade is a modern plywood panel stating “funerary enclosure of Fatma Hasan Wasif”. However, there are no inscriptions on the main portal.</t>
+  </si>
+  <si>
+    <t>89_DSC_1667s.JPG</t>
+  </si>
+  <si>
+    <t>89_DSC_1667ss.JPG</t>
+  </si>
+  <si>
+    <t>Unknown founder</t>
+  </si>
+  <si>
+    <t>Funerary structure</t>
+  </si>
+  <si>
+    <t>•	Built entirely of wood (upper storey in lath-and-plaster)</t>
+  </si>
+  <si>
+    <t>A very small two-storey building measuring only about 4 x 4 metres. The free-standing structure (abutting to the east on a lower wall of neighbouring funerary enclosure) does not stand within any discernible walled enclosure. It is very simple, undecorated, and built entirely of wood. The ground floor is covered with vertical planks with laths covering the joints; the upper floor is of lath-and-plaster construction. The ground floor is L-shaped, so the entrance door, which faces south, is placed in the indented south-western corner under the overhanging upper storey. On the ground floor, there is a large window in each the western and the northern façades, with simple, undecorated steel grilles and simple panelled shutters. On the upper floor, there is a balcony running along the entire length of the western elevation, carried on three cantilevered wooden beams. It appears that the balcony was covered, probably by a lightweight trellis (the preserved corner posts are very slim.) The balustrade (still present along the front side in autumn 2015, but now preserved only on the northern side) is made of plain undecorated posts. The balcony is entered from a wide two-leaved door in the centre of the western wall. The simple panelled door is undecorated. There are two large windows in the northern elevation, and one small window in the southern one._x000D_
+The interior was inaccessible at the time of recording.</t>
+  </si>
+  <si>
+    <t>The building is dilapidated and deteriorating. The roofing over the balcony and most of its balustrade are missing. All wood is desiccated. Plaster is almost completely missing from the lath-and-plaster walls of the upper storey. However, at some time in the past few years, the ground floor was painted white.</t>
+  </si>
+  <si>
+    <t>90_DSC_3415s.JPG</t>
+  </si>
+  <si>
+    <t>90_DSC_3420ss.jpg</t>
+  </si>
+  <si>
+    <t>Muhammad Ahmad Effendi</t>
+  </si>
+  <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>The structure receives basic maintenance. Its inner walls were recently re-plastered, and the joints of the outer walls smeared with cement. There is damage from rising damp and from rainwater.</t>
+  </si>
+  <si>
+    <t>The date AH 1317 in the inscription over the entrance corresponds to AD 1899_x000D_
+The shahid stela stored in the main courtyard mentions two men deceased in AH 1323 and 1336 (AD 1905 and 1918 rexspectively).</t>
+  </si>
+  <si>
+    <t>91_DSC_7789s.JPG</t>
+  </si>
+  <si>
+    <t>AH 1317 = AD 1899</t>
+  </si>
+  <si>
+    <t>91_DSC_3745ss.jpg</t>
+  </si>
+  <si>
+    <t>Muhammad Tal'at Pasha Harb funerary enclosure</t>
+  </si>
+  <si>
+    <t>Abdu Bey al-Babli</t>
+  </si>
+  <si>
+    <t>Ali Bey al-Turguman</t>
+  </si>
+  <si>
+    <t>Abd al-Mone'im al-'Ayyat and/or his mother Zeinab Muhammad</t>
+  </si>
+  <si>
+    <t>Ali 'Ali Salim</t>
+  </si>
+  <si>
+    <t>Al-'Abd al-Faqir Muhammad</t>
+  </si>
+  <si>
+    <t>Ali 'Uthman</t>
+  </si>
+  <si>
+    <t>Fatma Hanim Isma'il</t>
+  </si>
+  <si>
+    <t>Muhammad Mustafa 'Abdallah</t>
+  </si>
+  <si>
+    <t>Amar Family</t>
+  </si>
+  <si>
+    <t>Muhammad Isma'il al-Bannan</t>
+  </si>
+  <si>
+    <t>Al-'Azabi Family</t>
+  </si>
+  <si>
+    <t>Al-'Arusi Family</t>
+  </si>
+  <si>
+    <t>Isma'il 'Ali Bey</t>
+  </si>
+  <si>
+    <t>Abdelhamid Sherif Bey</t>
+  </si>
+  <si>
+    <t>Funerary enclosure of 'Abdel Qadir Mufrih Sharif</t>
+  </si>
+  <si>
+    <t>General Sa'id Pasha Nasr</t>
+  </si>
+  <si>
+    <t>Ahmad 'Abd al-Wahab al-Shanuani</t>
+  </si>
+  <si>
+    <t>Isma'il Katkhuda Mustahfizan</t>
+  </si>
+  <si>
+    <t>Shafiqa Ibrahim 'Ali Nassar</t>
+  </si>
+  <si>
+    <t>Dr 'Aziza Hasan 'Ali</t>
+  </si>
+  <si>
+    <t>Abd al-'Aziz Sukar (assumed)</t>
+  </si>
+  <si>
+    <t>Mustafa al-Babi al-Halabi's funerary enclosure is one of the largest and best maintained in the area under study. More than two-thirds of the rectangular plot is taken up by an open funerary enclosure arranged as a garden, while the section facing the Sultan Ahmad Street is a Neo-Mamluk building. The domed mausoleum is placed in the southern corner of the enclosure. The cubical block of the mausoleum is taller than the adjacent facades and topped with an elaborate fleur-de-lys crenellation resembling those of late Mamluk period in the reign of Sultan Qansuh al-Ghuri. The dome sits on a tall octagonal drum with no zone-of-transition visible from the outside, featuring double round-arch windows topped by an oculus in each of the eight sides, with knotted mouldings framing and floral “arabesque” motifs in the spandrels. The dome constructed of reinforced concrete is decorated with fleur-de-lys floral pattern in prefabricated plaster panels. The pattern is virtually identical with this on the dome of Amir Azrumuk (monument No. 87, AD 1504-5) (Index, s.v.), located about one kilometre to the south in the same area of the cemetery. The small blue convex insets of glazed ceramic decorating the dome are also present in the tomb of Azrumuk. (Williams, p. 279-80). The main façade adjacent to the mausoleum is tripartite, with two bays each featuring a single window flanking the central, slightly projecting part with the main entrance portal. The right (north) bay is slightly wider and protruding forwards compared to the left one. The entrance section is asymmetrical, with the entrance door set to the right of its axis, and a single engaged corner column to the left. The rectangular entrance door is set in a rectangular recess topped with a three-tiered muqarnas frieze. Above the door is a recessed long inscription panel with one line of text. The windows of the façade are identical with those of the mausoleum. They are rectangular, fitted with iron grilles, with marble lintels decorated with recessed panels, over which are segmental relieving arches with joggled voussoirs and set in a rectangular recess topped by a two-tiered muqarnas frieze with muqarnases grouped in pairs, a feature of many Mamluk-period buildings including the tomb of Amir Azrumuk. The section adjacent to the mausoleum in the side (south) elevation is identical with the corresponding bay of the front façade, while the rest of the enclosure is surrounded by a lower simple wall of rough stone._x000D_
+The entrance gate leads to a vestibule open to the sky, which on the back end opens to the garden with an arcade of three pointed arches on round columns with simple Mamluk-style capitals. A similar arcade of three arches faces the vestibule to the left, forming a portico in front of the mausoleum and the reception room that precedes it. To the right (north) of the vestibule, is a residential zone composed of two rooms and a toilet.</t>
+  </si>
+  <si>
+    <t>The largest and most decorated funerary enclosure documented in this research is a one-story stone-built walled enclosure, with the main entrance in the formally designed elaborate eastern façade. The façade is articulated with engaged columns in two tiers, without an inter-story cornice. The main gate is flanked by two massive buttresses with engaged corner columns topped with Islamic-style geometric capitals in the lower story and panels of geometric pattern above, which --like the gate itself-- are framed in knotted mouldings. The gateway section is taller than the rest of the façade, topped with elaborate fleur-de-lys crenelations, and is the only section of the façade clearly based on Islamic architectural tradition. On both ends of the façade are flat projections framed with triple engaged columns, each with a tall pointed-arch window and a small rectangular marble-framed window above. The sections of the façade between the gateway and the side projections are each divided into three bays by engaged columns: round and with composite order capitals in the lower tier and semi-octagonal with simple geometric capitals in the upper tier. Each bay has a large rectangular window in the lower level with a marble lintel and a segmental relieving arch above it, over which is placed a smaller oval window in marble framing, those in the central bays having the oval window within a rectangular marble frame. (The façade therefore gives the impression of a double-storied building, while in fact behind it are single full-height halls.) _x000D_
+The round-arched main entrance leads into a long passage divided into two chambers by a gate in the middle, which is pointed-arched and fitted with extremely elaborate double-leaved wooden coffered door in Gothic Revival style, with an iron openwork in the arch over the lintel in Gothic tracery motifs. To the right side of the gateway is a huge hall with a mihrab in its shorter wall, originally divided into three aisles perpendicular to the main façade (and not related to its architectural divisions) by two rows of four columns each. The capitals are in Islamic style, decorated with muqarnases. The southern row of columns has largely collapsed, and the roof is missing. The hall is accessible from the first vestibule through a huge arched doorway flanked by two smaller doors, and also from the second vestibule through an arched gate placed in the middle of a façade with huge rectangular windows in two tiers._x000D_
+To the left of the gateway is a large room along the main façade, now used for storage purposes, and behind it, a set of smaller rooms, now much altered. The northern internal elevation of the first vestibule is decorated with stone medallions including the initials of Khedive Isma‘il (K.I.), the right one being a mirror image._x000D_
+In the southern lateral façade, the windows (of the huge three-aisled hall) are placed high and are double arched windows divided by piers with engaged colonettes and topped by an oculus in a fashion reminiscent of Mamluk fenestration. The windows of the northern lateral façade are huge, rectangular, placed low and fitted with iron grilles._x000D_
+The third gate leads from the second vestibule to a huge garden, currently including four free-standing residential buildings Three of them are constructed of red bricks, while the fourth imitates in stone the features of the enclosure's façade. A luxurious ornate bathtub of a huge monolithic piece of alabaster, apparently dating back to Khedive Isma‘il's era is randomly thrown in the garden.</t>
+  </si>
+  <si>
+    <t>Ibrahim Pasha, son of the ruler of Egypt and founder of the dynasty Muhammad ‘Ali Pasha built a palace known under the name The High Palace in 1820 in what is now known as Garden City. It hosted the first meeting of the Egyptian advisory council “Majlis al-Mashoura” on 2 December 1829. After ‘Abbas Hilmi I assumed power, he donated the High Palace and its appurtenances in 1848 to Isma'il Bey, later Khedive Isma'il, who later sold the palace to his mother Hoshiyar Hanim Qadin in 1863. Khedive Isma'il's remodelling of the palace is evidenced by his initials (K.I. - Khedive Isma'il) carved in stone in the gateway, still existing on the current remnants located in the Desert of the Mamluks. Hoshiyar Hanim Qadin took good care of the building until it was returned to the Egyptian Government in 1880. It was subsequently sold in 1898 to “al-Dayra al-Sunnya”, who sold it finally to the real estate company Charles Bacchus. The company demolished the palace in 1906 and sold its ruins, luxurious furniture, precious antiques, and rare garden trees (Negm, 2002). One of the façades of the High Palace was purchased by Sheikh ‘Ali al-Waqad and rebuilt in the Desert of the Mamluks. (El Kadi and Bonnamy, 2007, the date 1870 in this publication is certainly mistaken.) Two photographs in the collection of the Musée Nicéphore Niépce in Chalon sur Saône in France show the street façade of the High Palace before the transfer, clearly showing architectural elements now in the façade of the al-Waqqad family funerary enclosure. It is evident, however, that after the transfer, these elements were put in a different order in a differently designed façade. The present façade is straight, while in the original one, the entrance gate was placed in a deep recess. Moreover, what used to be an external gate on a street is now a gate between the first and second open vestibules. The photographs with numbers MNN 96.33.222 and MNN 96.33.223 are available in the Museum's online collection : https://www.open-museeniepce.com/accueil _x000D_
+_x000D_
+Sheikh ‘Ali al-Waqqad was a pioneer of the bamboo industry in Egypt. He opened a factory on Queen Nazli Street (currently Ramses), where French labourers processed bamboo imported from India. After a dispute over wages in 1920 the French workers left and the factory was threatened with closure. However, the sheikh insisted on continuing the operation of the factory and entrusted the task to his son Muhammad. He trained Egyptian workers who replaced the French, and that area in Ramses Street is still famous for the bamboo industry, with the most important businesses owned by the descendants of students of Muhammad ‘Ali al-Waqqad (Ahmad al-Waqad, 2018)._x000D_
+It appears that the façade and gateway that were transferred to the Desert of the Mamluks by al-Waqad family date to the times of Khedive Isma'il, judging from the style of their architecture. It uses Gothic Revival forms in a rather generic way, similar to other early Orientalist buildings in Cairo, such as the Gezira Palace (1869), and not the neo-Mamluk forms that were used after the work of the Comite de Conservation des Monuments de l'Art Arabe from 1882 on made the Mamluk architecture better known, resulting in such works as the al-Rifa'i Mosque (completed 1905, designed by Max Herz)._x000D_
+The date 1292 in the grille in the arch of the main gate translates to AD 1875. At that time, Khedive Isma‘il was in a precarious financial condition, and burdened with enormous debt, which forced him to sell in that year his shares in the Suez Canal for a fraction of their value (Thompson, p.248). The date is therefore unlikely to be of original construction. This is also suggested by the very crude execution of the plaque with the date, incompatible with the details of other metalwork in the building.</t>
+  </si>
+  <si>
+    <t>•	Grand, Pierre Bey, Plan général de la Ville du Caire, available online in the American University in Cairo's Rare Books and Special Collections Digital Library_x000D_
+•	El Kadi, Galila and Bonnamy, Alain Architecture for The Dead: Cairo's Medieval Necropolis, American University in Cairo Press 2007, p. 206._x000D_
+•	Al Ahram Newspaper, 10 November 1948 (Special edition for the 100 anniversary of Ibrahim Pasha). _x000D_
+•	Interview with Ahmed al-Waqad, Al-Nahar TV, 4 May 2018. _x000D_
+•	Negm, Abdel Monsif قصور الأمراء والباشاوات في مدينة القاهرة في القرن التاسع عشر, Zahraa Al-Sharq Press in Cairo 2002, p.81 - 99._x000D_
+•	Thompson, Jason A History of Egypt, American University in Cairo Press 2008, p. 248</t>
+  </si>
+  <si>
+    <t>date of Mahmud Fathi Pasha's death. See also section "History"</t>
+  </si>
+  <si>
+    <t>A small, apparently modern inscription plaque by the main entrance door gives the name of Mahmud Fahmi al-Nuqrashi Pasha, the Prime Minister. _x000D_
+Mahmud al-Nuqrashi was an Egyptian politician. After resigning in 1937 from the Wafd party then lead by Mustafa Nahas (whose likely heir he was considered), al-Nuqrashi founded with Ahmad Mahir in January 1938 the S‘adist Party which claimed to be the true heirs to Wafd's founder S‘ad Zaghlul. Mahmud al-Nuqrashi held various ministerial posts in the 1930s and 40s, served as Prime Minister from February 1945 for one year, and then again from December 1946 until his death. On 8 December 1948 he outlawed the Muslim Brotherhood he was assassinated by its member Twenty days later. (Wucher King, p.491-2; Vatikiotis, p.364-7)._x000D_
+The date AH 1305 on a cenotaph inside corresponds to AD 1888. This seems too early for the front façade designed in historically accurate neo-Mamluk style, but does not seem improbable for the back and side facades and the back gateway. It is not impossible that the front façade is a later remodelling._x000D_
+The local lore reported by the keeper is that the enclosure founder was called not al-Nuqrashi, but Muhammad Zaki Pasha and he was reportedly a relative to Mustafa Fahmi, the father of Safia Zahgloul.</t>
+  </si>
+  <si>
+    <t>Ahmad Khairi Pasha's family funerary enclosure is a roughly square perimeter wall containing a mausoleum which is square in plan and placed slightly off-center in the enclosure. The mausoleum is entered through doors in the western and eastern façades (the eastern door currently unused). The western entrance faces a simple undecorated stone gate covered with a segmental arch in the western side of the perimeter wall, which has a modern marble plaque with the owner's name above it. In the centre of the eastern façade of the perimeter wall is a more elaborate neo-Mamluk gate set in a shallow rectangular recess topped with a three-tiered muqarnas and framed in knotted mouldings. The relieving arch over the flat lintel has joggled voussoirs. The gate is in a pishtaq higher than the rest of the perimeter wall and is crowned with decorative crenellations. Both the crenellations and the muqarnas are of a different design than those on the mausoleum. The sabil window in the north-western corner of the enclosure is blocked with bricks and cement. The sabil is inaccessible due to massive plant overgrowth in this part of the enclosure._x000D_
+The cubical mausoleum has facades of ashlar stone masonry crowned with decorative crenellations of elaborate form emulating late Circassan Mamluk period and engaged columns in the corners. The side and façades each have a single rectangular window with a flat arch forming the lintel and a segmental relieving arch above it, and over it a small round window. The windows are placed in wide shallow recesses topped with simple two-tiered small muqarnases. In the entrance façades, the doors have identical arrangement of the lintel and an oculus above as the windows in other facades, but it is not placed in a recess and is flanked by two narrow recesses without muqarnas tops. The wooden door and the window have a simple decoration of mafruqa panels._x000D_
+Inside, there are three elaborately carved marble cenotaphs bearing the names of Ahmad Khairi Pasha's wives, two simpler, newer marble cenotaphs, and a modern brick-built cenotaph. The door and windows lintels are framed in knotted mouldings, and above each is a round qamariya gypsum grille with a vase of flowers surrounded by an inscription. The ceiling has a central skylight and is painted in simple Ottoman Baroque-style motifs around the edges of the ceiling compartments with similar motifs in the centre.</t>
+  </si>
+  <si>
+    <t>The modest-size walled funerary enclosure is a rectangle comprising a courtyard and a single-storey building on its eastern (shorter) side which faces a street. The tripartite front façade is formally and strictly symmetrically designed in a modernist-tinged neo-Mamluk style. The architectural details in cement plaster skillfully imitate the forms of Mamluk-period stone architecture. The central entrance section raises above the side sections forming a pishtaq (Petersen, 234). The entrance gate is placed in a recess topped with a muqarnas hood with a crowning fluted niche. The muqarnases in the middle row of the three-tiered arrangement skillfully imitate “stalactite” forms which they in fact have not._x000D_
+The windows to the sides are placed in shallower recesses topped with muqarnas friezes. The windows and doors have a typically Mamluk decoration of knotted mouldings that frame the lintels and (in this case, imitated) flat arches of joggled voissioirs over segmental relieving arches. The marble lintel over the entrance door bears an inscription with the founder's name and date, while a sunken panel above the entrance recess contains the verse 15:46 (in surat l-hig'r) of the Qur'an: “Enter ye here in peace and security” (translation: Yusuf ‘Ali). Below, two diamond-positioned square inscriptions to the sides contain the shahada. The door and windows are fitted with wrought-iron grilles with decoration of simple Art Noveau-inspired design. In the relieving arches over the openings are painted glazed ceramic tiles. They do not form regular patterns, but are randomly placed fragmentary pieces of an Ottoman-style wall decoration. This may either result from the tiles being genuine Ottoman-period Iznik or Kütahia tiles (or their Syrian imitations), or else from the designer's desire to create such an impression. Behind the front façade is an open loggia with concrete roof supported on two square stone pillars with chamfered corners. The side (southern) elevation is much lower than the building on the front side, with a stepped transitional section. Both the ornaments over the divisions of the side facades and the crenellations of the front façade are, rather typically for their period, very free modernist interpretations of Mamluk architectural forms in the Art Deco vein.</t>
+  </si>
+  <si>
+    <t>•	Petersen, Andrew Dictionary of Islamic Architecture, Routledge 1996, p. 234_x000D_
+•	Ali, Abdullah Yusuf The Holy Qur'an: Text, Translation &amp; Commentary (3rd ed.). Kashmiri Bazar, Lahore: Shaik Muhammad Ashraf, 1938</t>
+  </si>
+  <si>
+    <t>The enclosure is composed of various disparate parts, possibly due to its remodelling from an earlier structure (see point 17.) It comprises a roughly square courtyard with its eastern side facing the Sultan Ahmad Street and a smaller courtyard attached on the western side, with one side cut obliquely to conform to the line of the back street. The south-western corner of the main courtyard is also slightly irregular and cut obliquely. A burial courtyard occupies the south-eastern  quarter of the enclosure and contains two identical simple uninscribed limestone tomb markers. Its walls are well-built of huge blocks of stone (in the street façade with alternating smooth and rusticated courses.) The eastern and western sides are each pierced with four square windows with lintels of remarkably well-built flat arches of single keystones wedged between two cantilevered blocks, while the southern wall neighbouring on another lot has identical four blind niches. The northern wall is tripartite with the entrance door in the midde and a window to each side. In the windows and the entrance door are simple iron grilles of mafruqa-based geometric pattern. The windows on the Sultan Ahmad Street have been grudely walled up and the wall was hightened with a crudely excuted wall._x000D_
+The front façade on Sultan Ahmad Street is composed of three varied units: To the left (south) of the centrally placed entrance gate is the façade of the burial courtyard. The slightly protruding gate section is taller, with a gate placed in a shallow recess covered with a bevelled keel arch. Over the door is a stone lintel with an inscription panel containing  the verse 15:46 (in surat al-hig'r) of the Qur'an: “Enter ye here in peace and security” (translation: Yusuf ‘Ali), and in the arch is a double-sided panel with a floral Islamic arabesque pattern on the front (street) side and a geometric pattern on the interior side. Diamond-positioned squares to the sides of the arch contain inscriptions “Allah” and “Muhammad”. The panelled wooden double-leaver door is decorated with mafruqa pattern (Amin and Ibrahim, p.112) in upper and lower parts. The gate is accessed by 5 descending steps._x000D_
+The section of the front façade right (north) of the entrance is slightly taller than the gate section and belongs to the building in the north-eastern corner of the enclosure. Its street elevation has in its right (northern) section two shallow rectangular recesses topper with cavetto cornices, with a pair of windows in each one. The windows are separated by a tall chamfered pillar and over plain blocks of slightly cantilevered impost stones are covered with rectilinear keel arches. The lower, rectangular parts of the windows are fitted with grilles with square openings in thick turned-wood mashrabiya screeens, while the interiors of the rectilinear arches aabove are filled with fine mashrabiya turned-wood screens of hexagonal patterns. In the left part of the façade are two wide openings covered with flat keel arches resting on simple corbels. In the lower parts of the openings are solid balustrades of two bays, with “pomegranade” ornaments over the vertical stands. The openings are fitted with iron grilles of the same pattern as those in the windows of the burial courtyard (now invisible, as the openings are crudely blocked with plywood.) Inside the enclosure, the building is surrounded on its western and southern sides with porticos of wide stone keel arches on square, chamfered stone pillars – three arches in the W façade, and two arches separated by a narrow rectangular opening between the pillars in the S façade. The portico is elevated on four steps over the courtyard level. Two doors in the W wall inside the portico and one in the S wall have a typically Mamluk decoration of knotted mouldings that frame the lintels and flat arches of joggled voissioirs over segmental relieving arches; the panelled wooden double-leaver door leaves are decorated with mafruqa pattern. The building contains a two-bedroom apartment with a toilet._x000D_
+Another small building, lower than the perimeter wall, is located in the south-western corner of the enclosure, with the back wall slanting obliquely. It consists of two rooms, a bathroom, and a kitchen. The door and and window of the northern room are of the same design as in the front building, while the shallow southern room opened onto the curtyard with a wide keel arch (now obscured by a modern nondescript shack.) Next to the building is the door in the western wall leading to the back courtyard (inaccessible at the time of recording.) By the middle of the back wall is a nondescript modern brick-built two-room partment, and in front of it, a simple wooden pergola crossing the courtyard towards the passage between the front building and the burial courtyard to which the main gateway leads. By the southern wall of the enclosure are two simple stone tomb markers, and a richly decorated limestone cenotaph with a marble inscription panel on the shorter side. The cenotaph appears to predate the current complex which consistently uses simple, geometrical forms. Two more stone tomb-markers are located by the northern wall. A square in the middle of the courtyard is arranges as a simple garden._x000D_
+The crenellations, which are peculiar in being double, separate for each side of the wall, have very simple, rectilinear geometric form throughout the complex._x000D_
+A new water cooler inside the front building portico with a dispensing faucet and washbasin acessible from the street operates as a modern equivalent of a sabil. A tiny marble plaque next to the “sabil” reads: “their Lord will give them a pure drink” (the Qur'an, 76:21, surat al-insan, transl. Mohsin Khan.)_x000D_
+The gate from the back street to the back courtyard is covered with a keel arch and has a wide plain flat framing with a simple moulding around. Over the gate is a sunken inscription panel with verse 13:24 (from surat al-ra‘d): “Peace unto you for that ye persevered in patience! Now how excellent is the final home!" (Translation: Yusuf ‘Ali.)</t>
+  </si>
+  <si>
+    <t>The inscription on a marble plaque by the entrance gate states: “Burial ground of the Faid family. Created AH 1299, AD 1882, renewed AH 1368, AD 1948” It is clear from the architectural forms of the complex that it was entirely built anew in 1948._x000D_
+Inscriptions over the two entrance gates both in their context within the Qur'an relate to entering Paradise.</t>
+  </si>
+  <si>
+    <t>•	Ali, Abdullah Yusuf, transl. The Holy Qur'an: Text, Translation &amp; Commentary (3rd ed.). Kashmiri Bazar, Lahore: Shaik Muhammad Ashraf, 1938_x000D_
+•	Muhsin Khan, Muhammad and al-Hilali, Muhammad Taqi-ud-Din, transl. Noble Qur'an, King Fahd Complex for the Printing of the Holy Quran, 1999_x000D_
+•	Amin, Muhammad Muhammad and Ibrahim, Layla ‘Ali Architectural Terms in Mamluk Documents, American University in Cairo Press 1990, p. 112_x000D_
+•	Petersen, Andrew Dictionary of Islamic Architecture, Routledge 1996, p. 234</t>
+  </si>
+  <si>
+    <t>The western wall and about one third of the northern wall of the rectangular enclosure are visible from the outside and the exposed part of the northern wall and a corresponding section of the western wall are designed as decorated façades, designed to be seen primarily in a corner view. The decoration is of fine craftsmanship and accurately copies Mamluk-period architectural details (but not the design principles of Mamluk architecture, being strictly symmetrical.) The façades are free-standing decorative screens, because there is no building behind them, the only building within the enclosure being a small structure in the north-eastern corner._x000D_
+The north-western corner at the junction of the decorated façades is rounded, and protrudes very slightly from the side walls. To both sides of the rounded corner are identical rectangular recesses topped with elaborate three-tiered muqarnases and each containing a rectangular window, with the lintel and the relieving arches above it surrounded by knotted mouldings in a typically Mamluk manner. The windows are fitted with simple decorative wrought-iron grilles and simple panelled wooden shutters.  In the corresponding recess in the rounded corner that extends to the ground level and is covered with a similar, but not identical muqarnas frieze, the window is placed one course lower, and has no knotted moulding framing. Above it is a marble panel with two lines of inscription in raised relief, placed in sunken round-ended panels. The inscription is a short poem related to drinking water. However, the window below hasn't got a stone ledge, and there is no structure behind it, so it uncertain whether a sabil ever operated here. Further away from the rounded corner are muqarnas-covered recesses containing entrance gates with knotted moulding framing like those over the windows, similar, but not identical. The gate in the western façade is larger, and put in a very shallowly protruding section of the wall. Both gates are made of simple decorative wrought-iron grilles. Inside the recesses and above both gates are marble panels within sunken moulded framing, containing the same calligraphic inscription in high-quality raised relief, but in different scripts and differently distributed within calligraphic panels. The inscription is in poetic verse and states that Muhammad built the structure to commemorate his father Khalil Allah seven years after his death in AH 1318, in the year AH 1325._x000D_
+The facades ate topped with elaborate muqarnases resembling those from the late Mamluk period of Sultan Qansuh al-Ghuri's reign. The section of the eastern wall outside the decorated façade is simple and plain. All walls have been coated in yellow wash._x000D_
+The interior of the enclosure was inaccessible in the time of recording.</t>
+  </si>
+  <si>
+    <t>The existing structure is the ground floor of a building originally at least two storeys tall. It is located immediately west of the area that was a part (probably a service area) of Sultan Qaitbey's large funerary complex of AD 1474 and that was later mostly built up with residential buildings. To the north of the unit is a nondescript building from the first half of the 20th century that is the last phase in remodelling and replacing the building within Sultan Qaitbey's complex that included the back entrance to the personal-use part of the complex. (The gate is still preserved.) To the south are small open funerary enclosures. _x000D_
+The main (western) façade faces a street that was a space outside the Sultan's complex. There are three entrances in the facade. The northern one is a modestly decorated gate with a rounded arch that leads to an entrance hall. The windows of the rooms on either side of the hall and the gate form a symmetrical tripartite northern part of the facade. The windows, which are plain and covered with semi-circular arches, and the arch above the door are fitted with decorative wrought-iron grilles of patterns unrelated to Islamic art. Above, scant remnants of the upper floor wall are preserved, with the side of the northern window clearly visible. This part of the façade corresponds to what is now the funerary unit of Qasim Bey; the rooms behind the southern part of the uniformly built façade are currently used by different owners and accessible from behind, with front entrances permanently blocked._x000D_
+The entrance hall leads to a small courtyard shared with the building neighbouring to the north and planted with palm trees and other greenery. On the southern side of the courtyard is a burial chamber. Its symmetrical façade has the door and the two flanking windows topped with horseshoe-shaped pointed arches fitted with geometric wooden grilles with stained glass panels behind. The burial chamber is built of bricks. On the eastern side it incorporates a section of an earlier wall. In the chamber stands a carved marble cenotaph that bears the date 3 Gomada al-Awwal AH 1325. The inscription in raised relief states that the person buried is Muhammad Qasim Bey al-Helu, a representative of the Sultan of Morocco in Egypt._x000D_
+At the southern end of the façade is a recess topped with a trilobe arch with no mouldings. The recess is taller than the inter-storey cornice, which runs continuously around it. The lower part of the recess has been walled up. Just above the blocking, a segmental arch is visible, apparently a relieving arch over a door. Above, there is a rectangular recess with a hatched back surface indicating that an inscription panel (presumably of marble) was either installed there and removed, or was intended to be installed. Above is a rectangular window, now blocked. The wall surface is completely plain, with no mouldings or any other architectural decoration._x000D_
+The original function of the portal is unclear. There is no visible structural discontinuity between the portal and the rest of the façade._x000D_
+To the left (north) of the trilobed portal is a simple door covered with a segmental arch (now permanently closed) that according to the residents led to a staircase. This indicates that the upper floor was independently accessible, so it probably formed a separate residential unit.</t>
+  </si>
+  <si>
+    <t>•	A domed canopy on columns in the courtyard_x000D_
+•	A royal consort's place of burial</t>
+  </si>
+  <si>
+    <t>The dedicatory inscription over the entrance gate mentions “the building/renovation in AH 1277 [= AD 1861] of the funerary enclosure of Lady Khadiga Khanum Brengi Qadim of the time of the late Ibrahim Pasha, wali of Egypt”. (Khadiga is the name; khanum, brengi, and qadim are Ottoman honorific titles for women of high status in the ruling family.) The titles in the inscription, and the texts on cenotaphs in the enclosure clearly indicate that Lady Khadiga was a royal consort, the wife of Ibrahim Pasha. The inscription on a cenotaph dated AH 1348 / AD 1929 for Khadiga's servant women indicates that Khadiga was a manumitted slave._x000D_
+A shahid stela stored in the eastern burial chamber and dated to AH 1282(?) [=AD 1865] also commemorates a woman whose husband was in the service of Ibrahim Pasha._x000D_
+The modern inscription plaques on the western annexe state that the person buried therein is Mustafa Basha, or Mustafa Bey Munir, who was the Great Yarawan to Ibrahim Pasha (a high Ottoman military post, an aide-de-camp), although at present, nothing inside relates to the name or suggests the date of 1848._x000D_
+Ibrahim Pasha was the eldest son of Muhammad ‘Ali, the ruler of Egypt 1805-1848. He had a brilliant military career during the reign of his father, and succeeded him as a wali (viceroy) of Egypt in 1848, albeit only for four months before his own death (Wucher King, 343-5)</t>
+  </si>
+  <si>
+    <t>Al-Shaykh 'Abd al-Ra'uf al-Segini</t>
+  </si>
+  <si>
+    <t>The inscription on a marble slab over the entrance door reads:_x000D_
+In the name of God, the Merciful, the Compassionate_x000D_
+This is the tomb of the God-knowing, the forgiven_x000D_
+Shaykh ‘Abd a-Ra'uf al-Sigini_x000D_
+the 8th shaykh of the noble al-Azhar Mosque, who passed away in year 1182 of the Higra of the Prophet_x000D_
+The building was renovated by Dr Muhammad Badr al-Din al-Sigini in AH 1356._x000D_
+AH 1182 = AD 1768; AH 1356 = AD 193</t>
+  </si>
+  <si>
+    <t>For similar structures in the cemetery, compare Description de l'Egypte, Etat Moderne, Vol. I, Pl. 64, 65, 66.</t>
+  </si>
+  <si>
+    <t>The lot comprises a two-storied building with the main (street) façade facing north, and a single-storey building containing two burial chambers by the back (southern) wall, with a small courtyard in between._x000D_
+The façade built of ashlar stone is very richly decorated in neo-Mamluk style. It uses motifs taken from Mamluk architecture, but combines them in innovative and unusual ways. The façade is tripartite, with a central portal section and side sections each with a single window in the ground floor and another on the upper floor. However, while the side sections are identically composed and decorated, they are of unequal width, the left side being considerably wider. Each of the three sections of the ground floor is flanked by flat pilasters which are aligned with the wall of the upper storey and therefore in the side sections of the ground floor level form shallow recesses that are covered with flat two-tiered muqarnas hoods. The full-height central section is slightly deeper recessed and on the upper level flanked by two massive pillars resting on muqarnas corbels and carrying a flat muqarnas hood interrupted by a pointed-arch niche in the middle. The side pillars are decorated with engaged corner colonnettes. The rectangular entrance door is topped with a typically Circassian Mamluk arrangement of a rectangular panel of knotted mouldings that frames the lintel and above it a flat arch of joggled voussoirs with the intrados forming a segmental relieving arch over the lintel. Above the door is a window framed with engaged corner colonnettes and topped with a shallow flat muqarnas hood, with two rectangular panels of geometrically treated floral motifs to the sides. Below and to the sides of the lower part of the window are panels of calligraphic inscriptions containing the opening sura of the Qur'an. The lintels over the entrance door and over the plain ground floor windows all have recessed panels of calligraphic inscriptions including the name of Hasan Mustafa (central panel) and date AH 1332 (left). The windows are fitted with decorative wrought-iron grilles in Art Nouveau style, unrelated to Mamluk tradition. The right one has larger arched openings at the bottom typical for a sabil, while the bottom openings in the left-side windows are also larger, but plain and not arched. The upper floor windows are topped with rectilinear keel-arch fluted flat niches. The façade is crowned with fleur-de-lys crenelations._x000D_
+The door and all windows are fitted with decorative wooden panelled shutters including panels decorated with the “mafruqa” motifs (and on the upper floor, louvre panels), and clearly intended as an integral part of the decorated facade._x000D_
+The entrance gate leads to a single space occupying the whole width of the building, and without a back wall, i.e. opening onto the back yard while the upper floor is entirely supported on two pillars, apparently wooden, but now covered in thick textured plaster like the rest of the courtyard. The upper floor continues along the western wall of the courtyard, and similarly overhangs a wide niche opened on the courtyard. An external staircase by the eastern wall of the courtyard leads to the gallery from which the rooms on the upper floor are accessed. The stairs are constructed of interlocking sections of segmental vaults built of flat limestone slabs, which was a method of construction consistently used in Cairo since the Mamluk times in at least 15th century. The stairs have a simple decorative wrought-iron balustrade in European style with no Islamic motifs._x000D_
+In the plain back wall of the courtyard, an undecorated door leads to a vestibule separated on both sides from two burial chambers with full-height openwork wooden screens of geometric “mafruqa”-based motifs. The door to the vestibule is fitted with two decorative panelled wooden door-leaves._x000D_
+The eastern chamber features a pointed-arch mihrab prayer niche very richly decorated with geometric motifs in stucco. Also in the eastern burial chamber is a richly carved marble cenotaph in the Ottoman Baroque style.</t>
+  </si>
+  <si>
+    <t>The lot facing the Sultan Ahmad Street with its western elevation is divided into two parts: the northern part contains a two-storey building of a roughly square plan with a narrow courtyard behind (with a secondary entrance in the northern wall); the narrower southern part comprises of a courtyard in its western section and a single-storey rectangular burial chamber by the eastern wall. The neo-Mamluk façade of the main building is symmetrical and tripartite. The quality of stonemasonry is very high. The central part is taken by the entrance portal that is set in a full-height recess and includes all typical elements of a Circassian Mamluk porch such as this in the nearby mosques of Sultan Qaitbey (monument No 99, AD 1474) and Sultan Farag Ibn Barquq (No 149, 1400-11): a rectangular door flanked with “gals” (plural: galas) seats and topped with a lintel supported on muqarnas corbels to the sides, with a flat arch of joggled voussoirs with intrados forming a segmental relieving arch over the lintel; a recessed inscription band (in this case empty) to the sides (originally at about eye level); a rectangular small window above the door with a flat muqarnas hood; the crowning muqarnas hood; all framed in knotted mouldings. A marble plaque with an inscription in fina ruqa' script in raised relief is set into the monolithic limestone lintel of the entrance door. The crowning hood is a combination of a flat muqarnas hood with a trilobe arrangement. The intertwining endings of the knotted mouldings over the entrance door are complex, angular, and closely-knit. This does not resemble Mamluk forms, but late Ottoman ones that kept in use well into the 19th century; it may therefore may represent a living architectural tradition rather than part of Mamluk Revival. A marble panel with a single-line calligraphic inscription stating the name of the deceased person and the date is inserted into a recess in the limestone door lintel. As the street level has risen considerably, the building is reached by a few steps leading down, and the side “gals” seats by the door have been rebuilt on a higher level, while the (empty) inscription band is now awkwardly low. _x000D_
+To the sides of the central entrance portal are shallower full-height recesses topped with flat muqarnas friezes that each contain a rectangular ground floor window with a typically Circassian Mamluk arrangement of a rectangular panel of knotted mouldings that frames the lintel and above it a flat arch of stepped voussoirs with the intrados forming a segmental relieving arch over the lintel. The right-side one is a sabil window with larger openings at the bottom of the window grille and a stone ledge. The large rectangular upper floor windows are flanked with colonnettes with muqarnas capitals and topped with rectilinear keel-arch fluted flat niches. The façade is crowned with fleur-de-lys crenelations and terminates to the left with an engaged corner column with a muqarnas capital._x000D_
+The side elevations are undecorated save the crenelations on top, built of rough stone and plastered, with irregularly placed windows, while the rough-stone back wall of the main building is plain and un-plastered._x000D_
+The entrance gate leads to a vestibule from which the rooms in the building are accessed, and from which a gate topped with a semi-circular arch leads to the courtyard to the south. At the eastern end of the courtyard stands a single-storey burial chamber. Like the rest of the courtyard and interior of the vestibule, it is covered with cement plaster with a crude imitation of stone courses. The façade of the mausoleum is tripartite, with the door placed between two windows. Over the openings are knotted-moulding frames that repeat those on the front façade, and covered with thick wash. Inside the frames are plain rectangles of plaster with very crudely and non-tectonically imitated stone courses. In the flat roof of the mausoleum is an octagonal lantern._x000D_
+The mausoleum contains a single marble cenotaph richly decorated in the Ottoman Baroque style.</t>
+  </si>
+  <si>
+    <t>The unit comprises a large roughly rectangular hall (with the back wall, i.e., qibla-facing, slightly oblique), and a smaller rectangular space connected to the south-eastern corner and protruding towards south and east. The main façade faces west and is composed of a tripartite elevation and a taller block of the entrance portal attached to it to the left (north) and slightly protruding. The portal is set in a deep recess covered with a flat muqarnas hood topped with a pointed-arch niche. It includes all typical elements of a Circassian Mamluk porch such as this in the nearby mosques of Sultan Qaitbey (monument No 99, AD 1474) and Sultan Farag Ibn Barquq (No 149, 1400-11): a rectangular door flanked with “gals” (plural: galas) seats and topped with a lintel framed with mouldings, with a flat arch of joggled voussoirs with intrados forming a segmental relieving arch over the lintel; a recessed inscription band (in this case empty) to the sides at about eye level; a rectangular small window above the door with a flat muqarnas hood; the crowning muqarnas hood; all framed in knotted mouldings. To the sides of the window in the entrance recess are two sunken square panels: the left one contains a plain uninscribed marble slab, from the one to the right the marble has been recently stolen as evidenced by fresh marks from prying off. The façade to the right looks much like an external façade of the qibla (Mecca-facing) wall of a Mamluk madrasa/mosque although it is the opposite, western wall. As would be the case in a Mamluk building, the double-level fenestration belies the single full-height interior. In the lower level is a large window topped with a typically Circassian Mamluk arrangement of a rectangular panel of knotted mouldings that frames the lintel and above it a flat arch of stepped voussoirs with the intrados forming a segmental relieving arch over the lintel. It is placed in a slightly protruding section of the wall and placed in a full-height recess in it, topped with an elaborate flat muqarnas hood. Over the ground floor window is a plain round window. Also in the upper level, to each side of the protruding section is a rectangular window with a rectilinear keel-arch flat niche decorated conch-like with three tiers of angular recesses. Such form is typical of windows on internal walls in the central courtyard of Circassian Mamluk-period madrasa/mosque (such as in Sultan Qaitbey's, No 99), but not used externally. The south-western corners of both units that comprise the building are decorated with engaged corner columns with elaborate muqarnas capitals. Windows on side and back walls have the typically Mamluk arrangement, but the framings are not carved into knotted mouldings, but left plain._x000D_
+The interior of the larger space would constitute a sizeable prayer hall if it was roofed. There is a huge and elaborate mihrab prayer niche flanked by colonettes with muqarnas capitals and with a fluted conch in the crowning pointed-arch niche. The two square pillars in the room and corresponding engaged pillars in the walls indicate that the space was designed to be divided into two aisles of three bays each, but it appears that the roof was never constructed. There are more indications that the building was never completed. Some interior walls are built of rough stone which was apparently designed to be covered with plaster, but has been left exposed. All windows are bricked up, with no indication that any windows, window grilles, or shutters were ever installed. There is not a single inscription on the building, the mouldings around side and back windows are apparently unfinished, as are two plain square panels on the front façade.</t>
+  </si>
+  <si>
+    <t>A two-storied building standing in the row of funerary structures facing the Salah Salem Road and built of rough stone. The front façade is covered with brick lining. In the centre is the entrance gate built of ashlar stone, in a very simple rusticated architectural framing, covered with a segmental arch of joggled voussoirs, with a simple decorative wrought-iron grille in the upper part (the modern welded steel door loosely imitates the motifs). Above the door is a small calligraphic panel with name of the deceased and date. To the left is an undecorated rectangular window, and to the right, a very low secondary door with a simple wrought-iron grille in the upper part. The upper storey is plastered, with divisions into huge square panels marked by incised lines in the plaster, and features a rectangular projection over the entrance gate with windows on three sides. There is an undecorated rectangular window to the left of the projection and a small square one to the right._x000D_
+The entrance gate leads to a vestibule separated by a very elaborate full-height mashrabiya turned-wood screen from the main burial chamber in the north-eastern corner of the building. The chamber contains a rather simple stone cenotaph decorated with calligraphic inscriptions (incised, not in raised relief.) There is a band of Qur'anic inscriptions painted around the walls at breast height in bold calligraphic lettering._x000D_
+Also from the vestibule are accessible: a secondary burial chamber; a service room; and a staircase in the south-western corner. The stairs are constructed of interlocking sections of segmental vaults built of flat limestone slabs, which is a method of construction consistently used in Cairo since the Mamluk times in at least 15th century. The upper floor comprises three rooms and a lobby that ends in the bay-window projection.</t>
+  </si>
+  <si>
+    <t>M‘alim means an experienced and distinguished professional or entrepreneur._x000D_
+The date of M‘alim Hasanein Salman al-Hamami's death in the inscription above the entrance door: AH 1334 corresponds to AD 1916. The current modernist-inspired appearance of the façade (with the exception of the entrance portal) is definitely later than 1916 and dates probably to the 1950s or 1960s. However, this probably applies to the façade only, as the traditional construction of the stairs is more consistent with the early 20th century dating._x000D_
+A marble plaque over the side door in the front façade commemorates his son Aziz who died on 2 rabiya al-awal 1392 AH, corresponding to 16 April 1972._x000D_
+According to the doorwoman, the owners visit infrequently.</t>
+  </si>
+  <si>
+    <t>Rifa'a al-Tahtawi</t>
+  </si>
+  <si>
+    <t>A simple, small single-storey free-standing structure, comprising five high-ceiling rooms combining in an irregular plan. It is built of coarse stone, with corners, base course and top of the walls in ashlar stone, all now covered by thick wash. The main entrance is in the eastern elevation, asymmetrically placed in a protruding section, with one window to the right. The door is set in an extremely simplified rusticated framing and has a flat arch of joggled voussoirs as a lintel, as does the front façade window. A secondary door in the northern elevation leads to an external pergola (now missing any cover) on massive wooden beams resting on two stone pillars. Within the pergola are two simple limestone tomb markers, while more apparently related cenotaphs, some with fine calligraphic inscriptions, are located around the building. The main doorway leads into a vestibule from which are accessible: a service area with a toilet and a kitchenette; the burial chamber containing a wooden cenotaph of Rifa'a al-Tahtawi covered in a green cloth; and a second burial chamber preceded by an internal sitting area with numerous marble inscription panels commemorating persons deceased in the second half of the 20th century mounted on the western wall, as well as piece of cloth in the shape of the traditional Egyptian "galabeya" dress, with the names of Rifa'a al-Tahtawi and his family and the dates of their deaths embroidered. To the north of the room is a chamber with two large marble cenotaphs decorated with inscription panels dedicated to the female members of the family, those married to Al-Tahtawi sons. The style of the cenotaphs suggests an early 20th century date.</t>
+  </si>
+  <si>
+    <t>Together with his contemporary ‘Ali Mubarak, Rifa'a Al-Tahtawi was essential in promoting in Egypt modern methods of organization in areas of public policy: administration, health care, irrigation, and especially education – a trend in the mid-19th century that is sometimes called “Islamic Renaissance”. Coming from a rural background, he was educated as a religious scholar at the al-Azhar University. He then went in 1826-1831 to Paris to study a broad range of subjects. Upon his return, he held different positions serving Muhammad ‘Ali's and his descendants' governments, including the director of the School of Languages that he established for the training of professional translators. He also translated himself numerous important works on medicine, geography, military arts, history, literature, politics, and jurisprudence (including translating the French Civil Code.) He wrote and published his own works on the subjects of European political institutions, the need for enlightened education (including education of girls), and on the public interest and public good.</t>
+  </si>
+  <si>
+    <t>The unit is in fair overall condition, although dilapidated. The wooden openwork decoration of the porch is heavily damaged and partially missing. The north-western corner column of the porch is missing, apparently knocked down by a vehicle moving on the street that sometimes becomes busy. The photograph in Al-Kady and Bonnamy's book published in 2007 (p.197) shows that this happened before that date.</t>
+  </si>
+  <si>
+    <t>Ali ‘Uthman's family funerary structure is a freestanding two-story building with a simply decorated main elevation facing east. The main doorway is in the middle of the east façade, with a marble lintel inscribed with the family name and the construction date, and with a segmental relieving arch above the lintel.  The door is framed with an extremely simplified band in plaster very vaguely suggesting a Mamluk-style arrangement. Similar plaster bands (not related to Mamluk architecture) frame a small window to the left and a corresponding blind window to the right. The upper floor has two large windows in similar framing and with wooden louvre shutters in the eastern elevation. The top of the façade is a flat gable, with an inscribed roundel in the middle. The north wall has one window on each floor and the fenestration of the back elevation is irregular._x000D_
+The ground floor consists of a single room covered with an undecorated wooden ceiling. It functions as a burial chamber with two simple limestone tabut tomb markers. Wooden stairs in the south-eastern corner of the room lead to the upper floor, which is a residential room covered by the sloping gabled roof.</t>
+  </si>
+  <si>
+    <t>The date of shaykh Ahmad al-Zeini's death in 1327 AH in the inscription on his cenotaph corresponds to AD 1909</t>
+  </si>
+  <si>
+    <t>Date of Fatma Hanim Isma‘il's death on the marble panel on the interior wall. This is consistent with the style popularised by the “Egyptomania” following the discovery of King Tutankhamun's tomb in 1922.</t>
+  </si>
+  <si>
+    <t>A small slightly irregular rectangular enclosure measuring ca. 7 x 10 m, with the entrance to the courtyard in the northern end of the eastern façade and the mausoleum building at the southern end. There is a square shaft in the courtyard (apparently leading to the crypt), covered with wooden planks._x000D_
+The brick fence separating from the street has recently been re-faced with limestone cladding (after 2014)._x000D_
+The mausoleum building is built of dressed limestone and consists of three chambers covered with stone segmental vaults. The side chambers with floors raised by one step open onto the entrance hall with wide openings covered with segmental arches (the overall arrangement is thus one of the qa'a.) _x000D_
+The building is in the “Ancient Egyptian revival” style with external walls tapering upwards, and a bold cavetto cornice. The undecorated rectangular entrance door is placed in a flat pylon-like projection. Over the door are two simple marble inscription panels, one with the name of the founder, the other with a Qur'anic verse. On the cornice over the door is a carved winged sun disc flanked by two cobras – a representation of the god Ra-Khorakhty popular in Ancient Egyptian art.</t>
+  </si>
+  <si>
+    <t>According to the property keeper, a part of the originally larger enclosure was turned into a separate burial ground for Hasaneyn Abderrahman, Fatma Haninim's son._x000D_
+The mausoleum was renovated after 2014, which included replacement of water-damaged stones in the lower portions of the wall, re-facing of the wall separating from the street, and raising the level of the courtyard by about 30 cm.</t>
+  </si>
+  <si>
+    <t>A roughly square enclosure measuring ca. 11.5 x 13 m, with the entrance gate in the northern end of the eastern wall and with a two-storey building occupying the southern side of the enclosure. Of the remaining northern part of the enclosure, the western half is a courtyard, surrounded by a tall wall, to which the entrance gate leads. The northern part is a roofed, open-fronted burial area raised by one step, with the roof supported on two wooden pillars. Another identical pillar supports the roof of an open canopy with mashrabiya wooden screens on two sides that is an extension of the burial area into the north-eastern corner of the courtyard._x000D_
+The two-story building to the south of the courtyard is accessed from a doorway in the western part of the façade, leading into a staircase. A mezzanine of two small low-ceiling storage rooms is accessed from the staircase landing. The upper floor is a residential apartment consisting of a kitchen, a toilet and a bedroom with a doorway leading into a spacious roof overlooking the courtyard._x000D_
+In the shaded burial area are six carved marble cenotaphs, some with multiple shahid stelae. The earliest date is this of Ahmad Bey Raghib's death: 25 Shawwal 1302 AH [corresponding to 6 August AD 1885]. Other dates are mostly from the 1910s, the latest is 1925. Some of the shahid stelae are highly unusual in representing men's torsos in naturalistically depicted clothing, complete with lapels, bowties and pocket watches on watch chains. There is also one uninscribed limestone cenotaph inside the courtyard._x000D_
+The neo-Mamluk entrance portal of finely dressed ashlar stone is in the north-western corner of the enclosure, the rest of the eastern wall being blocked by the neighbouring funerary enclosure. The rectangular entrance door is set in a shallow full-height recess topped with a three-tiered muqanas frieze. The door lintel is a monolithic block of marble with an inscription panel in fine calligraphic script, signed by the calligrapher Ahmad Yusuf and dated AH 1314. Over the door is a segmental relieving arch with white-and-blue ceramic tiles in its lunette, and above it, a rectangular panel with the foundation inscription. The Mamluk-style fleur-de-lys crenellation over the portal does not continue over the perimeter wall built of rough stone._x000D_
+In front of the gate and against the wall of the neighbouring enclosure stands a sabil, which is a wooden cupboard-like structure on a simple marble base. The walls of the sabil are geometric panels of very high quality of design and of joinery. Over the door is an imitation in wooden panels of a relieving arch of joggled voissoirs. The inscription panel over the sabil door is dated AH 1347 [corresponds to AD 1928).</t>
+  </si>
+  <si>
+    <t>Professor Ahmad Bey Raghib was a professor who specialized in international law. He participated in the agricultural ownership reform law. He was related to Isma‘il Fahmy, a onetime minister of foreign affairs. (Moa ‘wad, 105-80)_x000D_
+According to the property keeper, the sabil was funded by his ancestor. He also mentioned the name Mirza in reference to the enclosure's owners.</t>
+  </si>
+  <si>
+    <t>According to the property keeper, the family, who visit every couple of years, own a cement company located in Cairo on the Nile Corniche Street close to the Wikalat al-Balah. They also mentioned that an MA dissertation that documented the building exists, but the keeper didn't know the name of the scholar nor the university.</t>
+  </si>
+  <si>
+    <t>A type of funerary monument once abundant in the cemetery (as attested e.g. by the Description de l'Egypte) but now rare. Unique in being double.</t>
+  </si>
+  <si>
+    <t>A sizeable funerary enclosure consisting of an irregular conglomeration of single-storey buildings and courtyards stretching for about 45 metres north to south and about 15 metres east to west. It is hemmed in between neighbouring enclosures, with access only from narrow pedestrian streets. There are 13 rooms by the perimeter walls, taking up most of the lot. The earliest part of the complex appears to be the enclosure in its northern part, measuring approximately 22 x 15 m in plan, with rooms grouped in a U-shape around the courtyard by the eastern wall, with a small secondary courtyard by the western wall in the southern tract of the rooms. The main entrance is in the northern façade, which is built of rubble stone and plastered, and is undecorated save the huge cavetto cornice at the top of the wall, which transitions in a smooth curve from the taller eastern section and the lower western section. There are five undecorated rectangular windows in the façade, with simple iron grilles and simple wooden panelled shutters. The gate topped with a semi-circular arch is built of ashlar stone and undecorated. It leads to a hallway in a residential section with two rooms currently occupied by the keepers. The hallway leads to a courtyard (now used for raising poultry), from which a large square burial chamber on the southern side of the courtyard is accessed. It has an octagonal wooden lantern in its plain, undecorated ceiling, and contains two decorated marble cenotaphs and two decorated limestone tomb markers. Another burial room in this zone has a partially broken ceiling and includes a richly decorated marble cenotaph. There is a small courtyard south of the main burial chamber, and west of it, a plain room which according to a panel on the wall is a shrine to Muhammad Abdelghani, the Shaykh of the Sufi group al-Bayyumiya. The Shaykh's wooden cenotaph covered with cloth stands inside an extremely simple wooden enclosure. Further south, around two tiny courtyards, are six more plain and undecorated burial rooms, which are in very poor condition, some of them inaccessible due to collapsed rooves.</t>
+  </si>
+  <si>
+    <t>The date AH 1283, which is the earliest found on tomb markers, corresponds to AD 1866. The form of a cavetto cornice transitioning in curves between different levels is a feature commonly found in Muhammad ‘Ali's buildings at the Citadel dating to the first half of the 19th century, and common in Cairo at the time. This may hint at a date in the first half of the 19th century for the oldest parts of the al-‘Azabi complex.</t>
+  </si>
+  <si>
+    <t>The modern inscription plaque over the entrance door stated that this is a funerary enclosure of the late Nafisa ‘Abd al-Rahman Uthman al-Girgawi and the family of Ahmad Effendi Amin, known as Shaykh al-Sanhawi and gives a date 1880 (Miladi only)._x000D_
+According to the keeper, the complex originally comprised both al-Sanhawi and the adjacent al-Baqli familes' enclosures and was subsequently divided. This appear consistent with the layout of the lot</t>
+  </si>
+  <si>
+    <t>A free-standing structure standing off-centre within a huge, roughly rectangular enclosure containing numerous stone tomb-markers and including a tract of rooms by its southern wall and a disused building in the north-western part. Apparently originally an open-sided canopy built of stone and consisting of square, undecorated pillars supporting semi-circular arches and covered with a dome of a pointed profile. The walls are topped with a very simple cornice and fleur-de-lys crenellations. The canopy has been walled up to the level of the springing of the arches, forming semi-circular windows above the walls. Both these windows and the window in the northern wall have modern iron grilles. The walls are faced with stone cladding, with a simple flat frieze in the interior. Otherwise, the building is undecorated. The Shaykh's wooden [?] cenotaph in the centre of the room is covered with red cloth. The entrance is in the southern wall. A nondescript modern shaded sitting area covered with a concrete slab has been added as a vestibule to the south of the shrine.</t>
+  </si>
+  <si>
+    <t>The shrine is in good condition and continuously maintained. It is used by the Sufi followers of shaykh Mustafa al-Bakri for annual ceremonies marking the shaykh's birthday (as reported by the doorkeeper.)</t>
+  </si>
+  <si>
+    <t>Funerary enclosure with guard's residence</t>
+  </si>
+  <si>
+    <t>Shaykh Hasuna al-Nawawi (1839 – 1925, buried in the mausoleum in the northern courtyard) was twice the Saykh of al-Azhar in 1895 – 99 and 1907 – 1910, member of the Supreme Council of the Shariya Court in 1895, and the Grand Mufti of Egypt in 1895 – 1899. He strove to improve educational standards at al-Azhar and to introduce modern sciences (Street Story website). _x000D_
+Muhammad ‘Abd al-Khaliq Hasuna (1898 – 1992, buried in the southern courtyard) was an Egyptian diplomat and statesman. He held the positions of the Director of the Foreign Office from 1932 to 1934; Director of Political and Business Affairs from 1934 to 1938; Secretary-General of the Ministry of Foreign Affairs from 1938 to 1940; The first Undersecretary of the Ministry of Social Affairs from 1940 to 1942; Governor of Alexandria from 1942 to 1948; Ambassador and Undersecretary of State from 1948 to 1949; Minister of Social Affairs from 1949 to 1950; Minister of Education in 1952; and Minister of Foreign Affairs in 1952. He was Secretary-General of the League of Arab States from September 1952 to May 1972. (League of Arab States website)_x000D_
+Hassouna &amp; Abou Ali company is currently among the most renowned law firms in Egypt. (Egyptian Businessmen's Association website)</t>
+  </si>
+  <si>
+    <t>•	Stret Story: website of the Egyptian National Organization for Urban Harmony: https://streetstory.gov.eg/ retrieved May 2024_x000D_
+•	League of Arab States website: http://www.leagueofarabstates.net/en/aboutlas/Pages/SGFormerDetails.aspx?RID=6 retrieved May 2024_x000D_
+•	Egyptian Businessmen's Association website: https://www.eba.org.eg/Main/CompanyDetails.aspx?comp_id=1044 retrieved May 2024</t>
+  </si>
+  <si>
+    <t>A rectangular walled enclosure measuring about 23 x 32 m, with main entrance from Sultan Ahmad Street in the western wall. The enclosure is bordered on the south by a side street, on the north by a neighbouring funerary courtyard, and on the east by a narrow back alley between funerary courtyards that opens with a gate on the side street. In the north-eastern corner of the enclosure stands a domed mausoleum, and in the south-western corner, a villa-like residential unit. The entrance gate is in the northern end of the western wall, on the axis of the mausoleum. It is a tall gate built of ashlar stone, with a large rectangular opening covered with a flat arch, with a large marble inscription panel in its lintel, containing three lines of high-quality calligraphic inscription in raised relief that gives the founder's name and date. A band of carved floral scrolls frames the panel and an elaborate frieze above it composed of three rows of muqarnas. The gate leaves are of openwork wrought iron of Art Nouveau-inspired motifs. The front fence is also of simple iron openwork, possibly a recent replacement. There is a small service room attached to the north of the gate. _x000D_
+A path leads from the gate through a simple garden layout to the mausoleum. Which is a single-storey building with the entrance portal raised a few steps and flanked by a simple rectangular window on each side. The portal is placed in a projection of the same height as the rest of the façade and set in a recess topped with a very elaborate muqarnas frieze of four tiers. The lintel of the entrance door is a huge block of marble with a calligraphic inscription including the dates 1366 AH and AD 1947. The lintel is framed by a plain stone projection and rests on very simplified corbels – either indicating an extreme simplification of traditional forms to conform to modernist aesthetics, or resulting from never being completed. The simple panelled door-leave are decorated with mafruka motifs. The façade is topped with huge fleur-de-lys crenellations in stone. _x000D_
+The simple undecorated cylindrical drum under the dome is pierced by eight sets of double round-arched windows with an oculus above. The dome is ribbed and set on a simple external muqarnas frieze (a solution not typical of Mamluk-period architecture, but sometimes used at that time, e.g. in the neighbouring tomb of Saba' Banat – No 110, mid-15th century.)_x000D_
+The interior is plain. There is no zone-of-transition, the drum of the dome rests directly on the reinforced concrete roofing slab. The windows in the dome are fitted with simple, but attractive qamariyat gypsum-and-stained-glass windows of good craftsmanship. Inside the mausoleum is a carved marble cenotaph of _x000D_
+“Al-Hagg Husayn Hosni who departed to the ambiance of God in the morning of Thursday, 26 Rabiy‘a al-Thani 1368, corresponding to 24 February 1949” [i.e., two years after the date given twice on the building.] Another cenotaph is a copy of that one of inferior but still decent craftsmanship, bearing the name of Hagga ‘Aziza ‘Azmi, who died on 15 Safar 1404 AH / 12 November 1983._x000D_
+The building in the south-western part of the enclosure opens on the streets and the courtyard with large, wide undecorated windows divided by colonettes. The shorter western façade of ashlar stone is framed in flat moulded framing. The longer southern façade is divided by similar framing into three sections with huge windows in the side ones and three smaller windows of the service section in the middle one. There is a simple moulded cornice, but no crenelation. The L-shaped building has an entrance veranda on the courtyard side, with tessellated round arches on the northern and western sides. Over the wide windows of the western section of the building facing the streets and the garden are long marble panels with calligraphic inscriptions in raised relief containing verses of the Qur'an._x000D_
+All the huge windows in the residential building and the mausoleum have turned-wood grilles of bold square divisions (a type of mashrabiya called “Ma'muni”), and simple panelled wooden shutters decorated with mafruka motifs. The windows of service rooms have simple decorative wrought-iron grilles. There is a secondary entrance in the southern façade leasing from a side street to the courtyard east of the residential unit.</t>
+  </si>
+  <si>
+    <t>A rather undistinguished rectangular walled enclosure measuring about 20.5 x 18 m, with a courtyard in the north-eastern corner and sets of rooms along the southern and western walls, and another small room in the north-eastern corner. The south-eastern corner is chamfered and contains a sabil window with a simple decorative wrought-iron grille. The oblique wall with the sabil window and the section of the eastern façade containing the gate are built of ashlar stone, while the other external wall were built of smaller cut stones and plastered. The sections of ashlar stone have been recently covered with thick textured plaster. The undecorated entrance gate is covered with a segmental arch and placed asymmetrically in the eastern façade. It is flanked by a small segmental arch-topped window on each side. There are two simple rectangular window to the left (south) and one in the narrower northern part. There were simple decorative wrought-iron grilles in the windows (some now missing), and the door leaves of the gate are of wrought-iron grilles of Art Nouveau patterns. There is a marble inscription panel over the gate, informing in fine calligraphy in raised relief that this is the burial ground of the late Shaykh Muhammad al-Amir Ahmad Menatullah, and gives the date 9 Ramadan 1350. A small marble inscription panel is also placed in the lunette of the relieving arch over the lintel of the sabil window. By the northern wall of the courtyard is a simple wooden pergola, over a simple cenotaph of masonry, with an inscription panel including Shaykh Muhammad al-Amir's name and date AD 1932._x000D_
+At some time, the premises were converted into a mosque, which involved hanging on the external walls big sheet-iron panels with “al-Amir Mosque” name and information about the Shaykh. Also, a very crude minaret resembling a rural Egyptian pigeon-tower was built of bricks in the corner over the sabil. The minaret was demolished in early 2024._x000D_
+The mosque subsequently went out of use, and all the windows have been walled up with bricks. Interior was inaccessible at the time of recording.</t>
+  </si>
+  <si>
+    <t>•	Dedicatory inscription copies accurately the form of a Mamluk sultan's blazon</t>
+  </si>
+  <si>
+    <t>A small rectangular enclosure measuring ca 12 x 19 metres, facing streets to the north and west and adjoining neighbouring structures to the east and north. The entrance façade faces north._x000D_
+The unit comprises a small single storey building in the western part, and an open courtyard that occupies the eastern part of the site. The front building comprises six rooms. The entrance portal and the section left of it containing a sabil window, the base course, the corners and the cornice are built of ashlar stone; the rest of the walls are constructed of rough stone and plastered. The building is topped with a simple Classical cornice, with no traces of crenellations. _x000D_
+The entrance portal forms a pishtaq taller than the rest of the walls. The entrance door is set in a shallow rectangular recess covered with a three-tiered muqarnas frieze. Around the recess runs the band of knotted mouldings; on the sides are elongated vertical panels framed in knotted mouldings that appear like their upper parts were intended to be carved into bands of floral decoration, but were apparently never completed. Around the lintel of the door and its relieving arch and under the muqarnas (i.e., around the inscription panel over the door) are also plain bands and blocks of masonry that appear to be unfinished mouldings. To the left (east) of the portal is s narrow sabil window (now walled up with bricks) flanked by engaged colonnettes with simple muqarnas capitals and covered with a stone lintel supported on simple corbels. In the window is a very simple decorative grille welded from pieces if rolled iron. Above the window is a roundel with a Qur'anic inscription carved into the surface of the wall. It imitates the form of the blazons with royal titles (rank) that were used on buildings founded by Mamluk sultans (examples abound in the neighbourhood.) Over the roundel is an inscription panel that includes the date AH 1312. Another inscription carved over the entrance door includes the name Muhammad Khairallah and the date AH 1321. The portal and the sabil door are the only elements of the building in neo-Mamluk style. They follow the mediaeval Mamluk patterns quite closely, while the quality of craftsmanship is good, but not outstanding, and overall, the unit is a modest one. _x000D_
+There is a plain rectangular window with a simple, non-decorative iron grille and simple panelled shutters to the right (west) of the portal, and two more such windows in the plain western façade, which is undecorated save a simple cornice. In the eastern part of the entrance façade is a plain rectangular door leading to the courtyard. Both entrances are fitted with modern steel doors of crude simple decorative designs.</t>
+  </si>
+  <si>
+    <t>The dates 1312 and 1321 AH correspond to AD 1894 and1903 respectively. The style and craftsmanship of bothe unscriptions containing the dates appear similar, so it is possible that one of the numbers is the carver's mistake._x000D_
+ According to the keeper, before 2004 the residential part was used by a charity for educational classes for girls and for literacy courses. After 2004, it was turned into steel, leather, and bamboo-working workshops. When the funding discontinued, they were abandoned, with some unusable machinery and materials left behind in the interiors.</t>
+  </si>
+  <si>
+    <t>A trapezoid tetragonal enclosure measuring ca 22 x13-18 metres, with a smaller annexe at the northern end of the western side. Save the modern shed in the south-eastern corner, the enclosure is an open courtyard. The perimeter wall was evidently remodelled a number of times, and it includes features (such as bold mouldings curving around architectural features) typical of early 19th-century buildings in Cairo, e.g. the nearby funerary complex of Sulayman Agha al-Silahdar from the 1830s, or Muhammad ‘Ali's buildings at the Citadel of Cairo. The whole eastern wall and north-eastern corner of the enclosure are clearly rebuilt, with some Ottoman-period decorated stone blocks haphazardly reused in the lower part. The simple, undecorated gate to the enclosure is covered with a segmental arch and placed in the southern wall. Inside the enclosure are numerous tomb markers with many marble plaques with incised inscriptions, of recent date. The tomb markers and plaques have been evidently rearranged and remodelled quite recently. A marble stela in the form of a post tapering towards the base and octagonal in section bears five band of calligraphic inscriptions in raised relief, including the date 1198 AH [=AD 1775]. The floral decoration on the stela is in the style consistent with this date, resembling e.g. the buildings of ‘Abd al-Rahman Katkhkuda. The stela has been mounted on a modern tomb marker.</t>
+  </si>
+  <si>
+    <t>A domed mausoleum of square plan. The design is closely based on Burgi-period Mamluk ones, of which excellent examples are preserved nearby. The decoration is Mamluk-inspired, but simplified into basic geometric forms. Currently, the structure comprises a square domed burial chamber entered from the south and a lower rectangular annexe to its northern side. Originally, there were more rooms and arcades. Externally, there is a single deep recess in each façade, covered with a flat hood of three rows of extremely simplified muqarnases. Originally, there were four ground-level openings in the burial chamber: the entrance door on the southern side (door now replaced), tall rectangular doors opening onto no longer extant arcaded spaces on the east and west sides, fitted with steel grilles of geometric star patterns (the eastern one now fully and the western one partially walled up), and a wide pointed-arch opening to the northern annexe. The rectangular upper row windows, identical in each façade, are set in recesses of simplified rectangular forms and are fitted with bronze grilles similar to those in Mamluk-period windows._x000D_
+The zone of transition under the dome features Mamluk-style elaborate bold mouldings in the corners and is pierces on each side with typically Mamluk arrangement of oculi and round-arched windows in a one-over-two-over-three pattern. The windows are framed with knotted mouldings. The plain drum is pierced with twelve undecorated round-arched windows, and the dome is decorated with herringbone zigzag pattern (similar to this in the neighbouring dome of Amir Kebir Qurqumas (1507) and originating in the domes of nearby monument of Farag Ibn Barquq (1400-11). The dome is surmounted by a very tall brass crescent finial Taller than in Hasan Fathi's original design drawings (see point 17, “references”, 1)._x000D_
+Internally, the openings in the walls of the mausoleum are set in rectangular recesses topped with simplified muqarnas friezes that are flanked by tall slender semi-circular niches topped with simple semi-domes. The side doors have calligraphically inscribed lintels and arabesque patterns on the relieving arches above them. An inscription band runs around the upper part of the burial chamber. The lower parts of the walls are covered with a simple marble dado with a simple geometric frieze at the top. The zone-of-transition below the dome is formed by five rows of simplified muqarnases. In the middle of the burial chamber stands a huge marble cenotaph decorated with simple Islamic art-inspired motifs including calligraphic inscription panels on its sides. The cenotaph is surmounted with an oversized “pomegranate” bulb on a moulded pedestal.</t>
+  </si>
+  <si>
+    <t>The extant structure is in good structural condition, although it shows signs of inadequate maintenance: peeling paint, soiled wall surfaces, the floor and cenotaphs covered with birds' droppings, haphazardly blocked openings._x000D_
+The existing mausoleum is only a part of an originally larger layout. Physical evidence on site shows that at least parts or the original design were was not only originally planned, but actually constructed and then partly destroyed. The original complex was laid out on a lot measuring 62 metres from north to south and with the eastern border slanting, so the lot tapered from 32.6 meters on the north to 16 metres on the south. The mausoleum located in the northern part of the lot was accessed from an elevated terrace with arcades of five arches on each side. The openings in the eastern and western sides of the mausoleum and its northern annexe led to L-shaped rooms wrapping around small square courtyards attached to the mausoleum, with arcades on three columns to two sides. The entrance to the complex was through a neo-Mamluk portal in the southern side of the western wall of the enclosure. It led to a vestibule covered with two domes that was located in a building occupying the southern side of the lot. The building also included a sabil in the form of a loggia with two openings in the southern façade, a guard's room and sanitary service facilities. The space between the entrance building and the mausoleum was taken up by a garden with water features including a narrow long channel at its axis and a reflecting pool in front of the mausoleum._x000D_
+The existing mausoleum is just a part of the original layout. The whole western side of the lot, about 8 metres wide, was obliterated when the Salah Salem road was built. Only scant traces of the arcade once adjacent to the western wall of the mausoleum remain. The entrance building has been demolished, and the garden built up with nondescript structures, as was the eastern side of the front courtyard in front of the mausoleum. The arcaded courtyard east of the mausoleum has been covered with a roof; it is unknown how much of its colonnaded arcades are preserved (the unit was not accessible at the time of recording.)_x000D_
+The original design drawings by Hasan Fathy are preserved in the American University in Cairo Rare Books and Special Collections Digital library (see point 17, 4), a reproduction is attached to this record with the photographic record.</t>
+  </si>
+  <si>
+    <t>Ahmad Muhammad Makhlouf Hasanein al-Bulaqi, known as Ahmad Hasanein Bey, was born on 31 October 1889 in Bulaq, the commercial Nile port of Cairo. His father was a professor at al-Azhar; his grandfather Ahmad Pasha Mazhar Hasanein was the last Admiral of the Egyptian fleet. Hasanein Bey was educated in Cairo and graduated in 1914 from Balliol College at the University of Oxford. During the First World War he served as the Arab Secretary to General Maxwell, British Commanding Officer in Cairo in 1914. He was appointed a Member of the British Empire (MBE) and received the 1915 star, the British War Medal and the Victory Medal. (2)_x000D_
+Hassanein Bey was a renowned explorer and published The Lost Oases (1925), which describes his 1923 journey of 2,200 miles by camel from the Egyptian port of Sollum on the shores of the Mediterranean to Al Obeid Anglo-Egyptian Sudan. He led the seven-month expedition which discovered the oases of Jebel Arkenu and Jebel Ouenat and he was awarded the Founder's Medal by the Royal Geographical Society in 1924. (2)_x000D_
+In 1924 he was appointed First Secretary of the Egyptian Legation in Washington, D.C. From 1925 to 1936 he was adviser to King Fuad and tutor of Crown Prince Faruk during his studies in London. He also served as Chamberlain to Queen Nazli between 1936 and 1946. He came to be considered one of the most influential men in Egypt (2)._x000D_
+Hassanein Bey was an accomplished fencer and represented Egypt in the Olympic Games in Brussels 1920 and Paris 1924. (2) He was also a pilot (3)._x000D_
+In 1926 he married Lutfia Hanim (born 1905), daughter of Seyfullah Yousri Pasha, first Egyptian Ambassador to Washington D.C., and Princess Shavikar Hanim Effendi, ex-wife of King Fuad. They later divorced. (3)_x000D_
+Hassanein Bey died on 19 February 1946, killed in a car accident involving a British military vehicle. (2) The accident happened on the Qasr al-Nil Bridge in Cairo in rainy weather (3)._x000D_
+Ahmad Hasanein was a brother-in-law to Hasan Fathi, the designer of the mausoleum. (1)_x000D_
+The mausoleum was built with funding from the Egyptian government, then headed by the prime minister Mahmud Fahmy al-Nuqrashi [who is buried in a mausoleum nearby – record No 04], in recognition of Ahmad Hasanein's lifelong contributions to Egypt (1, 3, 5).</t>
+  </si>
+  <si>
+    <t>A small single-store building on a rectangular (almost square) plan, measuring approximately 6 x 7 metres, with the main entrance from the street in the northern wall, with a small lighting shaft / courtyard in the south-eastern corner. It appears that the current structure is a subdivision of an originally larger funerary courtyard (probably measuring approximately 12 x 27 metres.) A door in the southern wall of the building leads to an open courtyard containing tomb markers, from which apparently other subdivision were also carved out along the street. The main (northern) façade and parts of the eastern wall are built of ashlar stone masonry, the back and western façades of rubble stone. The façade is simple, with the entrance door covered with a segmental arch placed of-centre towards the west and flanked with flat pilasters without capitals that carry a simple cornice.  Over the door is a calligraphic inscription in raised relief on a marble panel, with a supplication for God's mercy upon Shaykh Mustafa Mahmud and giving the date of his death as 1322 AH [corresponding to AD 1904]. To the left of the door is a huge undecorated rectangular window with a lintel formed by a flat arch of huge joggled voissoirs. The window is fitted with wooden louvre shutters. In the narrower bay to the right of the door is a small rectangular window apparently of a service room. The façade is crowned by simple stone fleur-de-lys crenellation._x000D_
+The interior was inaccessible at the time of recording.</t>
+  </si>
+  <si>
+    <t>The funerary enclosure occupies a sizeable quadrilateral lot measuring approximately 32 x 20–40 metres, with southern, eastern and northern walls meeting at right angles, and the western wall oblique. It faces streets on the southern, western and northern sides, and borders on neighbouring funerary enclosure to the east. The corner where the western and northern walls meet at an obtuse angle is rounded and pierced with a large sabil window. It is rectangular, covered with a flat arch of joggled voussoirs, and flanked with two very simple pilasters carrying a simple Classical moulding. There are two similarly treated gates in the northern and western walls (the western one taller than the western wall, which is much lower than the buildings in the corners of the enclosure. Otherwise, there is no architectural decoration; the building hasn't got a formally arranged façade. The sabil window had a marble ledge at the bottom supported on three muqarnas corbels. Only scarce remnants remain. The corbels, the joggled voussoirs, and an empty recess over the western gate are the only elements of the building related to Mamluk style. Right of the sabil window is a small wall fountain with a bronze spigot in a marble wall panel with rounded top that is set in a recess framed with simple moulding. The panel contains three lines of calligraphic inscription in raised relief. The text relates to the beneficence of water and includes the date 17 Gumada al-Thani 1333 AH. The windows in the southern elevation are rectangular, small and plain. There are clear traces of at least three large openings in the wall that have been walled up. The windows (including the sabil window) are fitted with simple decorative wrought iron grilles. The northern elevation is windowless. On the wall of the building in the north-eastern corner three huge panels in wooden frames are mounted (apparently later than the original construction.) They include hand-painted religious inscriptions in a trained, but not masterly hand._x000D_
+_x000D_
+Interior was inaccessible at the time of recording. According to the keeper, in the north-eastern chamber are three gilded marble cenotaphs.</t>
+  </si>
+  <si>
+    <t>The building is dilapidated in spite of being lived in. Most of the plaster is missing from the front façade. There is visible damage to the lower parts of the walls from rising damp, with haphazard attempts at repairs with cement. The front façade is cracked. Woodwork is damaged and desiccated. The roof cover has apparently recently been repaired._x000D_
+The stark contrast between the desolated aspect of the exterior and spotless inner courtyard seems to indicate the current inhabitant's adherence to the traditional values of rural Upper Egypt.</t>
+  </si>
+  <si>
+    <t>The eastern half of a square lot measuring approximately 14 x 14 metres is occupied by a two-storey building; the western half is an empty open walled courtyard, which according to the current residents contains burials. The front structure has an aspect of a city building rather than a funerary monument. The strictly symmetrical main (eastern) façade faces Sultan Ahmad Street. The entrance portal, the corners of the street façade's ground floor and a course over the ground-floor windows with an inter-storey cornice are built of ashlar stone; the other walls are built of coursed rough stone._x000D_
+The entrance portal is set in a rectangular recess topped with a muqarnas frieze. The recess itself is placed in a flat projection reaching in height the middle of the upper floor and topped with a flat cornice. The rectangular entrance door has its monolithic stone lintel and the relieving arch above it framed in knotted moulding.  Over the door is a recess apparently for mounting an inscription panel, which is empty – the panel either was never installed, or has been removed. The portal is the only part of the façade in the neo-Mamluk style. In the wall above the portal are two windows topped with round arches, with the window panes divided into decorative geometrical fields that were glazed with coloured glass (now in very poor condition). Above the windows is an opening cut in two stone blocks in the shape of eight-pointed star with four ends rounded. Apparently, this set of windows admitted light to a double-height hallway.  The side sections of the façade are each composed with two windows on ground and upper floors, although in place of the inner ground floor window on the left (southern) side is a blind rectangular recess. The ground floor windows were enclosed in wooden moulded frames (now almost completely gone), has simple louvre shutters, and are fitted with simple decorative wrought iron grilles. The grille of the inner window on the right (northern) side has larger openings in the bottom part, typical of a sabil window. The upper floor window have their upper parts framed in mouldings in plaster; above the windows are plaster-cast neo-Baroque decorations with laurels, scrolls, medallions, and conchs. There are simple, non-decorative iron grilles in the windows, and behind them, sliding wooden shutters of “baghdadli” grating of thin laths, with cot-out wooden decorations on top. The building is topped with a simple plaster cornice.</t>
+  </si>
+  <si>
+    <t>A small roughly rectangular enclosure measuring approximately 17 x 8 metres. It borders on a street to the east, on neighbouring funerary enclosures to northern and southern sides, and on the embankment of the Salah Salem motorway to the back (west). A single-storey building occupies the eastern part of the lot, with a gateway between two rooms leading to a small courtyard. The southern room is deeper than the northern one and the hallway, resulting in the L-shaped plan of the building. The entrance gate is placed asymmetrically, because the southern room (apparently, a burial chamber) is wider than the smaller northern one, which is apparently a visitors' room or a service room. The façade is very simple. It has an entrance gate placed in an undecorated rectangular recess, a double window to the left (south) and a smaller single window to the right. All openings are covered with keel arches that are framed in un-moulded flat projections. Over the windows are empty horizontal recesses in masonry. Water from the roof is drained through very massive stone water-spouts that pierce a stone parapet wall topped with a simple unmoulded projection. There are simple steel grilles in windows; the entrance door leaves are made of welded pieces of rolled steel forming very simple geometric decorative pattern. The lower part of the facade up to the level of window sills is faced with thin stone slabs, apparently as a repair of the wall damaged by rising damp._x000D_
+It is not clear whether the extreme simplification of decoration results from modernist aesthetics prevailing at the time of construction, or the planned mouldings were never carved._x000D_
+To the right of the entrance door, a modern marble plaque is mounted, with an incised inscription stating that the funerary enclosure belongs to Hagg Ahmad Mustafa Sharsh and Hagg Muhammad Ahmad Sharsh, with no date._x000D_
+The interior was inaccessible at the time of recording.</t>
+  </si>
+  <si>
+    <t>A small roughly rectangular enclosure measuring approximately 17 x 9 metres. It borders on a street to the east, on neighbouring funerary enclosures to northern and southern sides, and on the embankment of the Salah Salem motorway to the back (west). A single-storey structure on an L-shaped plan occupies the eastern part of the lot. The main (eastern) façade is strictly symmetrical, divided into three bays slightly recessed between plain flat projections and topped with a simplified muqarnas frieze. The portion of the façade over the central bay containing the entrance gate is higher, forming a step framed in moulding continuous with cornice, with scalloped quarter-circle ornaments to the sides. In the taller section is an empty recess framed in mouldings like Mamluk-style placement for an inscription panel. The entrance gate and double windows placed in side bays are covered with keel arches of horseshoe profiles that are framed in un-moulded flat projections, which rhombus-shaped projections over the twin windows. It is not clear whether the extreme simplification of opening's decoration results from modernist aesthetics prevailing at the time of construction, or the planned mouldings were never carved. However, some other elements are finished with fine carving, so it appears that the latter was the case. In the doors and windows are extremely simple openwork grilles of pieces of rolled steel. The windows are fitted with simple panelled wooden shutters with openings of simplified decorative outline above. The entrance leads to an arcade opening on the small back courtyard with arches similar to those in the front façade. To the left (south is the entrance to a room, and further to the west, on the southern side of the courtyard, is another room opening onto the courtyard with two arches._x000D_
+To the right of the entrance door, a large modern marble plaque is mounted with disregard to the architectural divisions of the façade, with an incised inscription that after invoking God's name invites to enter in peace and security the funerary enclosure of Husayn Ibrahim. There is no date_x000D_
+The interior was inaccessible at the time of recording.</t>
+  </si>
+  <si>
+    <t>The funerary enclosure occupies an elongated lot measuring originally approximately 22 x 2.5 – 6 metres, with the entrance in the longer southern side. The entrance leads to a courtyard with a room on each shorter side. The eastern one measures only about 5 x 2.5 – 3 metres. The slightly larger western one is roofless. It appears that originally it included a separate entrance between two windows in the enclosure's western wall. It was turned into an internal door when a narrow room was added to the enclosure on the western side. The long single-storey façade is very simple and strictly symmetrical, with three windows on each side of the entrance door. The windows are set in long undecorated recesses in the walls. All the openings (in the façade and internal) are rectangular and plain, covered with monolithic stone lintels with relieving arches above them built of angularly joggled voussoirs. The quality of stone masonry is very high._x000D_
 In the windows are grilles made of sections of steel pipes (apparently, water- or gas conduits) joint by threaded four-way joining pieces. The two windows belonging to the eastern room have simple louvre shutters. It is not clear if similar ones were ever installed in the window of the western room, and it appears that it was never roofed. In the entrance gate is a modern steel door. The lower part of the walls have been faced with high quality ceramic cladding imitating brick, apparently as a countermeasure against damage from rising damp. Right of the main entrance a huge modern marble panel with an incised inscription informing that the funerary complex is of the family of Ibrahim Mahmud and his children.</t>
-  </si>
-  <si>
-    <t>The enclosure is in generally good condition although some crack appear in the western part of the front facade.</t>
-  </si>
-  <si>
-    <t>88_DSC_2033s.JPG</t>
-  </si>
-  <si>
-    <t>88_DSC_2032ss.JPG</t>
-  </si>
-  <si>
-    <t>Fatma Hasan Wasif (assumed)</t>
   </si>
   <si>
     <t>The funerary enclosure on a large rectangular square lot measuring approximately 46 x 51, bordering on regularly laid out streets on all four sides (the one to the west is a narrow back alley. It is located across the widening of Sultan Ahmad Street from the lot of about the same size that is occupied by the funerary enclosure of Ibrahim Pasha Halim (No 51 in this record.) Bothe were evidently among the most prestigious locations available at the cemetery._x000D_
@@ -3036,72 +3092,16 @@
 The entrance portal is set in a recess in the block of ashlar stone masonry topped with stone fleur-de-lys crenellations in Late Mamluk style. The recess is covered with a very elaborate muqarnas hood featuring a five-tiered central niche and “stalactite” forms of muqarnases. The huge rectangular entrance door is covered with lintel formed by a flat arch of elaborately goggled vuossoirs, with a segmental relieving arch above. They are plain, without moulded framing. Above, there is a recess similar to Mamluk-period placements for an inscription panels, but it is empty. There are Mamluk-style gals benches to the sides of the door.The door leaves are shabby modern replacements. The front (eastern) façade is strictly symmetrical. On both sides of the portal, each section is divided into tree bays divided by flat projecting pilasters with no capitals and immediately adjacent strips built of ashlar stone masonry, and framed with three base courses and a top course with a cornice also built of ashlar stone, with the rest of the wall built in exposed and pointed rough stones. In the corners are squat engaged corner-columns. The bays nest to the portal have no openings; in each of the outer bays are two large plain rectangular windows with decorative grilles of wrought iron and fitted with simple louvre shutters (now in very poor condition of missing.) The side façades are irregular, with the windows next to the eastern corners placed in bays repeating the arrangement of the front façade, and back parts windows at various intervals._x000D_
 In the middle of the northern façade is a secondary gate leading to the northern courtyard. It is set in a recess in a block of ashlar masonry that has gals seats to the sides (now covered with cement). Its plain rectangular opening is covered by a flat arch of joggled voussoirs, but the portal ends at this level. It appears that it was never completed._x000D_
 The burial chamber in the north-western corner of the northern courtyard is entered from a portal in the eastern façade that is set in a recess topped with a muqarnas frieze. Its external walls are built of rough stone and plaster. In both northern and western walls are sets of double windows covered with round arches, with small oculi above them. The windows are fitted with very simple decorative grilles welded from rolled steel pieces, and with panelled wooden shutters including decorative mafruka motifs._x000D_
-The burial chamber in the north-western corner of the southern courtyard is entered from a portal in its obliquely cut south-eastern corner. It has similar windows to this of the northern burial chamber, but with more elaborate wrought-iron grilles and with coloured glazing in frames divided into Islamic geomantic motifs in the windows’ arches. There is an octagonal wooden lantern covered with a wooden dome in the roof of this chamber._x000D_
+The burial chamber in the north-western corner of the southern courtyard is entered from a portal in its obliquely cut south-eastern corner. It has similar windows to this of the northern burial chamber, but with more elaborate wrought-iron grilles and with coloured glazing in frames divided into Islamic geomantic motifs in the windows' arches. There is an octagonal wooden lantern covered with a wooden dome in the roof of this chamber._x000D_
 In the south-western part of the southern courtyard, by the southern wall is a row of four large mastaba-like structures, apparently commemorative._x000D_
 There are trees and other greenery in both courtyards, but not a formal garden layout._x000D_
 The interior was inaccessible at the time of recording.</t>
   </si>
   <si>
-    <t>The complex is neglected and dilapidated. The entrance portal is very seriously tilted, leaning to the west towards the courtyard. There is serious damage from rising damp to the lower portions of the walls. All woodwork is damaged, desiccated, and largely missing.</t>
-  </si>
-  <si>
-    <t>According to the current keeper, the enclosure belonged to Fatma ‘Ali Hasan. On the secondary doorway in the northern façade is a modern plywood panel stating “funerary enclosure of Fatma Hasan Wasif”. However, there are no inscriptions on the main portal.</t>
-  </si>
-  <si>
-    <t>89_DSC_1667s.JPG</t>
-  </si>
-  <si>
-    <t>89_DSC_1667ss.JPG</t>
-  </si>
-  <si>
-    <t>Unknown founder</t>
-  </si>
-  <si>
-    <t>Funerary structure</t>
-  </si>
-  <si>
-    <t>•	Built entirely of wood (upper storey in lath-and-plaster)</t>
-  </si>
-  <si>
-    <t>A very small two-storey building measuring only about 4 x 4 metres. The free-standing structure (abutting to the east on a lower wall of neighbouring funerary enclosure) does not stand within any discernible walled enclosure. It is very simple, undecorated, and built entirely of wood. The ground floor is covered with vertical planks with laths covering the joints; the upper floor is of lath-and-plaster construction. The ground floor is L-shaped, so the entrance door, which faces south, is placed in the indented south-western corner under the overhanging upper storey. On the ground floor, there is a large window in each the western and the northern façades, with simple, undecorated steel grilles and simple panelled shutters. On the upper floor, there is a balcony running along the entire length of the western elevation, carried on three cantilevered wooden beams. It appears that the balcony was covered, probably by a lightweight trellis (the preserved corner posts are very slim.) The balustrade (still present along the front side in autumn 2015, but now preserved only on the northern side) is made of plain undecorated posts. The balcony is entered from a wide two-leaved door in the centre of the western wall. The simple panelled door is undecorated. There are two large windows in the northern elevation, and one small window in the southern one._x000D_
-The interior was inaccessible at the time of recording.</t>
-  </si>
-  <si>
-    <t>The building is dilapidated and deteriorating. The roofing over the balcony and most of its balustrade are missing. All wood is desiccated. Plaster is almost completely missing from the lath-and-plaster walls of the upper storey. However, at some time in the past few years, the ground floor was painted white.</t>
-  </si>
-  <si>
-    <t>90_DSC_3415s.JPG</t>
-  </si>
-  <si>
-    <t>90_DSC_3420ss.jpg</t>
-  </si>
-  <si>
-    <t>Muhammad Ahmad Effendi</t>
-  </si>
-  <si>
-    <t>1317</t>
-  </si>
-  <si>
     <t>Small slightly irregular rectangular enclosure measuring approximately 12.5 x 8 metres, with a rectangular annexe to the east and another enclosure measuring ca 8 x 5 metres attached to the north. There is a small single-storey building by the southern wall, consisting of an entrance hall in the eastern part and a room in the western part. The western part of the courtyard was covered with a lightweight wooden pergola (apparently with an octagonal roof lantern), of which scant remnants remain. In the middle of the main courtyard stands a cenotaph with calligraphic inscription panels in raised relief to its sides. The two shahid stelae are detached and stored in the courtyard. In the small back northern courtyard are two simple tomb markers._x000D_
-The simple entrance gate is on the eastern side of the southern elevation. It is well-built of ashlar stone. The rectangular door is covered with a monolithic marble lintel, over which is a relieving arch. The lintel and arch are framed in knotted mouldings that end with complex eight-pointed star shapes typical of late-Ottoman period architecture in Cairo. On the lintel is a projecting carved panel with Ottoman-style motifs to the sides, and with a rectangular inscription panel in raised relief carved into it in the middle, giving the name Muhammad Ahmad Effendi and the date AH 1317. The incisions on the panel indicate that it was originally intended to include two lines of inscription in separate round-ended panels, which would give it a more Ottoman-like appearance. On the keystone of the relieving arch is a carved ornament with a five-pointed star at the top. It is obscured by a crudely mounted modern marble panel (undated) with an incised inscription referring to Muhammad Ahmad’s daughters. The steel door leaves are modern._x000D_
+The simple entrance gate is on the eastern side of the southern elevation. It is well-built of ashlar stone. The rectangular door is covered with a monolithic marble lintel, over which is a relieving arch. The lintel and arch are framed in knotted mouldings that end with complex eight-pointed star shapes typical of late-Ottoman period architecture in Cairo. On the lintel is a projecting carved panel with Ottoman-style motifs to the sides, and with a rectangular inscription panel in raised relief carved into it in the middle, giving the name Muhammad Ahmad Effendi and the date AH 1317. The incisions on the panel indicate that it was originally intended to include two lines of inscription in separate round-ended panels, which would give it a more Ottoman-like appearance. On the keystone of the relieving arch is a carved ornament with a five-pointed star at the top. It is obscured by a crudely mounted modern marble panel (undated) with an incised inscription referring to Muhammad Ahmad's daughters. The steel door leaves are modern._x000D_
 In the room in the south-western corner of the enclosure is a huge plain rectangular window in each western and southern wall, with non-decorative steel grilles and simple paneled shutters._x000D_
 Save the entrance gate, the structure is built of rough stone, with external walls unplastered.</t>
-  </si>
-  <si>
-    <t>The structure receives basic maintenance. Its inner walls were recently re-plastered, and the joints of the outer walls smeared with cement. There is damage from rising damp and from rainwater.</t>
-  </si>
-  <si>
-    <t>The date AH 1317 in the inscription over the entrance corresponds to AD 1899_x000D_
-The shahid stela stored in the main courtyard mentions two men deceased in AH 1323 and 1336 (AD 1905 and 1918 rexspectively).</t>
-  </si>
-  <si>
-    <t>91_DSC_7789s.JPG</t>
-  </si>
-  <si>
-    <t>AH 1317 = AD 1899</t>
-  </si>
-  <si>
-    <t>91_DSC_3745ss.jpg</t>
   </si>
 </sst>
 </file>
@@ -3137,10 +3137,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3450,7 +3454,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3628,26 +3632,26 @@
       <c r="T2" t="s">
         <v>35</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="V2" t="s">
         <v>36</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>37</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>38</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AC2" t="s">
         <v>40</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>41</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
@@ -3661,70 +3665,70 @@
         <v>31.275894000000001</v>
       </c>
       <c r="D3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>44</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>45</v>
-      </c>
-      <c r="O3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" t="s">
-        <v>47</v>
       </c>
       <c r="Q3" s="1">
         <v>44809</v>
       </c>
       <c r="R3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S3" s="1">
         <v>45424</v>
       </c>
       <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
         <v>49</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>50</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>51</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>52</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AC3" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AD3" t="s">
         <v>54</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
@@ -3738,67 +3742,67 @@
         <v>31.275178</v>
       </c>
       <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
         <v>57</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" t="s">
-        <v>59</v>
       </c>
       <c r="M4">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="1">
         <v>44805</v>
       </c>
       <c r="R4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S4" s="1">
         <v>45424</v>
       </c>
       <c r="T4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="V4" t="s">
+        <v>61</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="Y4" t="s">
         <v>62</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AC4" t="s">
         <v>63</v>
       </c>
-      <c r="V4" t="s">
+      <c r="AD4" t="s">
         <v>64</v>
-      </c>
-      <c r="W4" t="s">
-        <v>65</v>
-      </c>
-      <c r="X4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
@@ -3812,7 +3816,7 @@
         <v>31.273807999999999</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -3830,49 +3834,49 @@
         <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>839</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="1">
         <v>44791</v>
       </c>
       <c r="R5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S5" s="1">
         <v>45424</v>
       </c>
       <c r="U5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="V5" t="s">
-        <v>76</v>
-      </c>
-      <c r="W5" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -3886,13 +3890,13 @@
         <v>31.273371999999998</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3913,43 +3917,43 @@
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="1">
         <v>44791</v>
       </c>
       <c r="R6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S6" s="1">
         <v>45431</v>
       </c>
       <c r="T6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AC6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AD6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
@@ -3963,13 +3967,13 @@
         <v>31.274014000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3990,43 +3994,43 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="1">
         <v>44791</v>
       </c>
       <c r="R7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S7" s="1">
         <v>45431</v>
       </c>
       <c r="T7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U7" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>841</v>
       </c>
       <c r="V7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AC7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AD7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
@@ -4040,7 +4044,7 @@
         <v>31.273382000000002</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -4058,49 +4062,49 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="1">
         <v>44791</v>
       </c>
       <c r="R8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S8" s="1">
         <v>45424</v>
       </c>
       <c r="T8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="U8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="V8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="W8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AC8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AD8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
@@ -4114,7 +4118,7 @@
         <v>31.273924999999998</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -4132,49 +4136,49 @@
         <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="1">
         <v>44791</v>
       </c>
       <c r="R9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S9" s="1">
         <v>45424</v>
       </c>
       <c r="T9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="U9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="V9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="W9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AC9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AD9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
@@ -4188,13 +4192,13 @@
         <v>31.272703</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -4215,40 +4219,40 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="1">
         <v>44791</v>
       </c>
       <c r="R10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S10" s="1">
         <v>45424</v>
       </c>
       <c r="T10" t="s">
-        <v>128</v>
-      </c>
-      <c r="U10" t="s">
-        <v>129</v>
+        <v>120</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>842</v>
       </c>
       <c r="V10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="W10" t="s">
-        <v>131</v>
-      </c>
-      <c r="X10" t="s">
-        <v>132</v>
+        <v>122</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>843</v>
       </c>
       <c r="Y10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AC10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="AD10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
@@ -4262,16 +4266,16 @@
         <v>31.272991999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="G11" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -4286,46 +4290,46 @@
         <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="M11">
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="Q11" s="1">
         <v>44788</v>
       </c>
       <c r="R11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S11" s="1">
         <v>45424</v>
       </c>
       <c r="T11" t="s">
-        <v>281</v>
-      </c>
-      <c r="U11" t="s">
-        <v>282</v>
+        <v>260</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>844</v>
       </c>
       <c r="V11" t="s">
-        <v>283</v>
-      </c>
-      <c r="W11" t="s">
-        <v>284</v>
-      </c>
-      <c r="X11" t="s">
-        <v>285</v>
+        <v>261</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>846</v>
       </c>
       <c r="Y11" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="AC11" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="AD11" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
@@ -4339,13 +4343,13 @@
         <v>31.272646999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4360,49 +4364,49 @@
         <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="O12" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="P12" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="Q12" s="1">
         <v>44803</v>
       </c>
       <c r="R12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S12" s="1">
         <v>45413</v>
       </c>
       <c r="T12" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="U12" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="V12" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="W12" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="Y12" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="AC12" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="AD12" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
@@ -4416,13 +4420,13 @@
         <v>31.273002999999999</v>
       </c>
       <c r="D13" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -4437,43 +4441,43 @@
         <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="M13">
         <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="1">
         <v>44803</v>
       </c>
       <c r="R13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S13" s="1">
         <v>45414</v>
       </c>
       <c r="T13" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="U13" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="V13" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="W13" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="Y13" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="AC13" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="AD13" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
@@ -4487,13 +4491,13 @@
         <v>31.273399999999999</v>
       </c>
       <c r="D14" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4508,52 +4512,52 @@
         <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="M14">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="O14" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="P14" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="1">
         <v>44788</v>
       </c>
       <c r="R14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S14" s="1">
         <v>45428</v>
       </c>
       <c r="T14" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="U14" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="V14" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="W14" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="X14" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="Y14" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="AC14" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="AD14" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
@@ -4567,13 +4571,13 @@
         <v>31.273219000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -4594,37 +4598,37 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="Q15" s="1">
         <v>44788</v>
       </c>
       <c r="R15" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S15" s="1">
         <v>45428</v>
       </c>
       <c r="T15" t="s">
-        <v>324</v>
-      </c>
-      <c r="U15" t="s">
-        <v>325</v>
+        <v>300</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>847</v>
       </c>
       <c r="V15" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="W15" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="Y15" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="AC15" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="AD15" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
@@ -4638,7 +4642,7 @@
         <v>31.273717000000001</v>
       </c>
       <c r="D16" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -4662,43 +4666,43 @@
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="O16" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="P16" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="1">
         <v>45153</v>
       </c>
       <c r="R16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S16" s="1">
         <v>45440</v>
       </c>
       <c r="T16" t="s">
-        <v>335</v>
-      </c>
-      <c r="U16" t="s">
-        <v>336</v>
+        <v>310</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>848</v>
       </c>
       <c r="V16" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="W16" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="Y16" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="AC16" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="AD16" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
@@ -4712,13 +4716,13 @@
         <v>31.274850000000001</v>
       </c>
       <c r="D17" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -4733,46 +4737,46 @@
         <v>32</v>
       </c>
       <c r="L17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M17">
         <v>3</v>
       </c>
       <c r="P17" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="1">
         <v>44798</v>
       </c>
       <c r="R17" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S17" s="1">
         <v>45414</v>
       </c>
-      <c r="T17" t="s">
-        <v>345</v>
+      <c r="T17" s="3" t="s">
+        <v>849</v>
       </c>
       <c r="U17" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="V17" t="s">
-        <v>347</v>
-      </c>
-      <c r="W17" t="s">
-        <v>348</v>
+        <v>320</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>850</v>
       </c>
       <c r="X17" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="Y17" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="AC17" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="AD17" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
@@ -4786,7 +4790,7 @@
         <v>31.272618999999999</v>
       </c>
       <c r="D18" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -4801,49 +4805,49 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="L18" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="M18">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="O18" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="P18" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="Q18" s="1">
         <v>44795</v>
       </c>
       <c r="R18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S18" s="1">
         <v>45426</v>
       </c>
       <c r="U18" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="V18" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="W18" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="Y18" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="AC18" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="AD18" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
@@ -4856,14 +4860,14 @@
       <c r="C19">
         <v>31.272347</v>
       </c>
-      <c r="D19" t="s">
-        <v>364</v>
+      <c r="D19" s="2" t="s">
+        <v>814</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4878,46 +4882,46 @@
         <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="O19" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="P19" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="Q19" s="1">
         <v>44795</v>
       </c>
       <c r="R19" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="S19" s="1">
         <v>45426</v>
       </c>
       <c r="T19" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="U19" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="V19" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="Y19" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="AC19" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="AD19" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
@@ -4931,13 +4935,13 @@
         <v>31.274581000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>377</v>
+        <v>851</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -4958,40 +4962,40 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="P20" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="Q20" s="1">
         <v>44798</v>
       </c>
       <c r="R20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S20" s="1">
         <v>45420</v>
       </c>
       <c r="T20" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="U20" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="V20" t="s">
-        <v>383</v>
-      </c>
-      <c r="W20" t="s">
-        <v>384</v>
+        <v>353</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>852</v>
       </c>
       <c r="Y20" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="AC20" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="AD20" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
@@ -5005,13 +5009,13 @@
         <v>31.272400000000001</v>
       </c>
       <c r="D21" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -5032,46 +5036,46 @@
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="O21" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="P21" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="Q21" s="1">
         <v>44803</v>
       </c>
       <c r="R21" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S21" s="1">
         <v>45420</v>
       </c>
       <c r="T21" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="U21" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="V21" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="W21" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="X21" t="s">
-        <v>396</v>
+        <v>853</v>
       </c>
       <c r="Y21" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="AC21" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="AD21" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
@@ -5085,13 +5089,13 @@
         <v>31.272478</v>
       </c>
       <c r="D22" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -5103,46 +5107,46 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="L22" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="M22">
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="1">
         <v>44803</v>
       </c>
       <c r="R22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S22" s="1">
         <v>45426</v>
       </c>
       <c r="T22" t="s">
-        <v>403</v>
-      </c>
-      <c r="U22" t="s">
-        <v>404</v>
+        <v>371</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>854</v>
       </c>
       <c r="V22" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="W22" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="Y22" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="AC22" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="AD22" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
@@ -5155,14 +5159,14 @@
       <c r="C23">
         <v>31.271993999999999</v>
       </c>
-      <c r="D23" t="s">
-        <v>409</v>
+      <c r="D23" s="2" t="s">
+        <v>815</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -5174,43 +5178,43 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="L23" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="M23">
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="Q23" s="1">
         <v>44809</v>
       </c>
       <c r="R23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S23" s="1">
         <v>45421</v>
       </c>
-      <c r="U23" t="s">
-        <v>410</v>
+      <c r="U23" s="3" t="s">
+        <v>855</v>
       </c>
       <c r="V23" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="W23" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="Y23" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="AC23" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="AD23" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
@@ -5223,14 +5227,14 @@
       <c r="C24">
         <v>31.271961000000001</v>
       </c>
-      <c r="D24" t="s">
-        <v>416</v>
+      <c r="D24" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -5242,46 +5246,46 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="L24" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="Q24" s="1">
         <v>44809</v>
       </c>
       <c r="R24" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S24" s="1">
         <v>45420</v>
       </c>
       <c r="T24" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="U24" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="V24" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="W24" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="Y24" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="AC24" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="AD24" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
@@ -5295,7 +5299,7 @@
         <v>31.272082999999999</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -5310,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="L25" t="s">
         <v>32</v>
@@ -5319,43 +5323,43 @@
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="O25" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="P25" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="Q25" s="1">
         <v>44809</v>
       </c>
       <c r="R25" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S25" s="1">
         <v>45420</v>
       </c>
       <c r="T25" t="s">
-        <v>429</v>
-      </c>
-      <c r="U25" t="s">
-        <v>430</v>
+        <v>393</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>856</v>
       </c>
       <c r="V25" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="W25" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="Y25" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="AC25" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AD25" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
@@ -5368,8 +5372,8 @@
       <c r="C26">
         <v>31.269936999999999</v>
       </c>
-      <c r="D26" t="s">
-        <v>435</v>
+      <c r="D26" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -5393,43 +5397,43 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="O26" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="P26" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="Q26" s="1">
         <v>44777</v>
       </c>
       <c r="R26" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S26" s="1">
         <v>45420</v>
       </c>
       <c r="T26" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="U26" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="V26" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="W26" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="Y26" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="AC26" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AD26" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
@@ -5443,13 +5447,13 @@
         <v>31.269832000000001</v>
       </c>
       <c r="D27" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -5461,52 +5465,52 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="L27" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="O27" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="P27" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="Q27" s="1">
         <v>44777</v>
       </c>
       <c r="R27" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S27" s="1">
         <v>45421</v>
       </c>
       <c r="T27" t="s">
-        <v>450</v>
-      </c>
-      <c r="U27" t="s">
-        <v>451</v>
+        <v>412</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>857</v>
       </c>
       <c r="V27" t="s">
-        <v>452</v>
-      </c>
-      <c r="W27" t="s">
-        <v>453</v>
+        <v>413</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>858</v>
       </c>
       <c r="Y27" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="AC27" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="AD27" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
@@ -5520,16 +5524,16 @@
         <v>31.272991999999999</v>
       </c>
       <c r="D28" t="s">
-        <v>456</v>
+        <v>859</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="G28" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -5541,55 +5545,55 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="L28" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="M28">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="O28" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="P28" t="s">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="Q28" s="1">
         <v>44809</v>
       </c>
       <c r="R28" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S28" s="1">
         <v>45440</v>
       </c>
       <c r="T28" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="U28" t="s">
-        <v>463</v>
+        <v>860</v>
       </c>
       <c r="V28" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="W28" t="s">
-        <v>465</v>
+        <v>861</v>
       </c>
       <c r="X28" t="s">
-        <v>466</v>
+        <v>423</v>
       </c>
       <c r="Y28" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="AC28" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="AD28" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
@@ -5603,7 +5607,7 @@
         <v>31.273016999999999</v>
       </c>
       <c r="D29" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -5618,55 +5622,55 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="L29" t="s">
-        <v>472</v>
+        <v>429</v>
       </c>
       <c r="M29">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="O29" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="P29" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q29" s="1">
         <v>44798</v>
       </c>
       <c r="R29" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S29" s="1">
         <v>45421</v>
       </c>
       <c r="T29" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="U29" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="V29" t="s">
-        <v>477</v>
+        <v>862</v>
       </c>
       <c r="W29" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="X29" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="Y29" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="AC29" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="AD29" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
@@ -5680,13 +5684,13 @@
         <v>31.27355</v>
       </c>
       <c r="D30" t="s">
-        <v>482</v>
+        <v>818</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -5698,49 +5702,49 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="L30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M30">
         <v>2</v>
       </c>
       <c r="P30" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q30" s="1">
         <v>44798</v>
       </c>
       <c r="R30" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S30" s="1">
         <v>45428</v>
       </c>
       <c r="T30" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="U30" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="V30" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="W30" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
       <c r="X30" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="Y30" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="AC30" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="AD30" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
@@ -5753,14 +5757,14 @@
       <c r="C31">
         <v>31.271045000000001</v>
       </c>
-      <c r="D31" t="s">
-        <v>493</v>
+      <c r="D31" s="2" t="s">
+        <v>819</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -5772,46 +5776,46 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
       <c r="L31" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>496</v>
+        <v>450</v>
       </c>
       <c r="Q31" s="1">
         <v>44784</v>
       </c>
       <c r="R31" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S31" s="1">
         <v>45428</v>
       </c>
       <c r="T31" t="s">
-        <v>497</v>
-      </c>
-      <c r="U31" t="s">
-        <v>498</v>
+        <v>451</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>863</v>
       </c>
       <c r="V31" t="s">
-        <v>499</v>
+        <v>452</v>
       </c>
       <c r="W31" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="Y31" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
       <c r="AC31" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
       <c r="AD31" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
@@ -5825,13 +5829,13 @@
         <v>31.272559000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -5846,49 +5850,49 @@
         <v>32</v>
       </c>
       <c r="L32" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>505</v>
+        <v>458</v>
       </c>
       <c r="O32" t="s">
-        <v>506</v>
+        <v>459</v>
       </c>
       <c r="P32" t="s">
-        <v>507</v>
+        <v>460</v>
       </c>
       <c r="Q32" s="1">
         <v>44782</v>
       </c>
       <c r="R32" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S32" s="1">
         <v>45428</v>
       </c>
       <c r="T32" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
       <c r="U32" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
       <c r="V32" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="W32" t="s">
-        <v>511</v>
+        <v>864</v>
       </c>
       <c r="Y32" t="s">
-        <v>512</v>
+        <v>464</v>
       </c>
       <c r="AC32" t="s">
-        <v>513</v>
+        <v>465</v>
       </c>
       <c r="AD32" t="s">
-        <v>514</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.3">
@@ -5902,7 +5906,7 @@
         <v>31.269033</v>
       </c>
       <c r="D33" t="s">
-        <v>515</v>
+        <v>467</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -5926,46 +5930,46 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>516</v>
+        <v>468</v>
       </c>
       <c r="O33" t="s">
-        <v>517</v>
+        <v>469</v>
       </c>
       <c r="P33" t="s">
-        <v>518</v>
+        <v>470</v>
       </c>
       <c r="Q33" s="1">
         <v>44777</v>
       </c>
       <c r="R33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S33" s="1">
         <v>45421</v>
       </c>
       <c r="T33" t="s">
-        <v>519</v>
+        <v>471</v>
       </c>
       <c r="U33" t="s">
-        <v>520</v>
+        <v>472</v>
       </c>
       <c r="V33" t="s">
-        <v>521</v>
+        <v>473</v>
       </c>
       <c r="W33" t="s">
-        <v>522</v>
+        <v>474</v>
       </c>
       <c r="X33" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="Y33" t="s">
-        <v>524</v>
+        <v>476</v>
       </c>
       <c r="AC33" t="s">
-        <v>525</v>
+        <v>477</v>
       </c>
       <c r="AD33" t="s">
-        <v>526</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.3">
@@ -5979,7 +5983,7 @@
         <v>31.268958999999999</v>
       </c>
       <c r="D34" t="s">
-        <v>527</v>
+        <v>820</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -6003,43 +6007,43 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="O34" t="s">
-        <v>529</v>
+        <v>865</v>
       </c>
       <c r="P34" t="s">
-        <v>530</v>
+        <v>480</v>
       </c>
       <c r="Q34" s="1">
         <v>44776</v>
       </c>
       <c r="R34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S34" s="1">
         <v>45421</v>
       </c>
       <c r="T34" t="s">
-        <v>531</v>
-      </c>
-      <c r="U34" t="s">
-        <v>532</v>
+        <v>481</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>866</v>
       </c>
       <c r="V34" t="s">
-        <v>533</v>
-      </c>
-      <c r="W34" t="s">
-        <v>534</v>
+        <v>482</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>867</v>
       </c>
       <c r="Y34" t="s">
-        <v>535</v>
+        <v>483</v>
       </c>
       <c r="AC34" t="s">
-        <v>536</v>
+        <v>484</v>
       </c>
       <c r="AD34" t="s">
-        <v>537</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
@@ -6053,13 +6057,13 @@
         <v>31.269379000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>538</v>
+        <v>486</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>539</v>
+        <v>487</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -6074,46 +6078,46 @@
         <v>32</v>
       </c>
       <c r="L35" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>540</v>
+        <v>488</v>
       </c>
       <c r="Q35" s="1">
         <v>44784</v>
       </c>
       <c r="R35" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S35" s="1">
         <v>45440</v>
       </c>
       <c r="T35" t="s">
-        <v>541</v>
-      </c>
-      <c r="U35" t="s">
-        <v>542</v>
+        <v>489</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>868</v>
       </c>
       <c r="V35" t="s">
-        <v>543</v>
-      </c>
-      <c r="W35" t="s">
-        <v>544</v>
+        <v>490</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>869</v>
       </c>
       <c r="X35" t="s">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="Y35" t="s">
-        <v>546</v>
+        <v>492</v>
       </c>
       <c r="AC35" t="s">
-        <v>547</v>
+        <v>493</v>
       </c>
       <c r="AD35" t="s">
-        <v>548</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
@@ -6127,13 +6131,13 @@
         <v>31.269607000000001</v>
       </c>
       <c r="D36" t="s">
-        <v>549</v>
+        <v>495</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>550</v>
+        <v>496</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -6154,43 +6158,43 @@
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>551</v>
+        <v>497</v>
       </c>
       <c r="O36" t="s">
-        <v>552</v>
+        <v>498</v>
       </c>
       <c r="P36" t="s">
-        <v>540</v>
+        <v>488</v>
       </c>
       <c r="Q36" s="1">
         <v>44781</v>
       </c>
       <c r="R36" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S36" s="1">
         <v>45428</v>
       </c>
       <c r="T36" t="s">
-        <v>553</v>
+        <v>499</v>
       </c>
       <c r="U36" t="s">
-        <v>554</v>
+        <v>500</v>
       </c>
       <c r="V36" t="s">
-        <v>555</v>
+        <v>501</v>
       </c>
       <c r="W36" t="s">
-        <v>556</v>
+        <v>870</v>
       </c>
       <c r="Y36" t="s">
-        <v>557</v>
+        <v>502</v>
       </c>
       <c r="AC36" t="s">
-        <v>558</v>
+        <v>503</v>
       </c>
       <c r="AD36" t="s">
-        <v>559</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
@@ -6204,13 +6208,13 @@
         <v>31.27065</v>
       </c>
       <c r="D37" t="s">
-        <v>560</v>
+        <v>821</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -6222,49 +6226,49 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="L37" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="M37">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="O37" t="s">
-        <v>563</v>
+        <v>507</v>
       </c>
       <c r="P37" t="s">
-        <v>564</v>
+        <v>508</v>
       </c>
       <c r="Q37" s="1">
         <v>44784</v>
       </c>
       <c r="R37" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="S37" s="1">
         <v>45419</v>
       </c>
       <c r="T37" t="s">
-        <v>566</v>
+        <v>510</v>
       </c>
       <c r="U37" t="s">
-        <v>567</v>
+        <v>511</v>
       </c>
       <c r="V37" t="s">
-        <v>568</v>
+        <v>512</v>
       </c>
       <c r="Y37" t="s">
-        <v>569</v>
+        <v>513</v>
       </c>
       <c r="AC37" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AD37" t="s">
-        <v>570</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
@@ -6277,14 +6281,14 @@
       <c r="C38">
         <v>31.270697999999999</v>
       </c>
-      <c r="D38" t="s">
-        <v>571</v>
+      <c r="D38" s="2" t="s">
+        <v>822</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -6296,46 +6300,46 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="L38" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="M38">
         <v>2</v>
       </c>
       <c r="P38" t="s">
-        <v>496</v>
+        <v>450</v>
       </c>
       <c r="Q38" s="1">
         <v>44784</v>
       </c>
       <c r="R38" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="S38" s="1">
         <v>45420</v>
       </c>
       <c r="T38" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="U38" t="s">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="V38" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="W38" t="s">
-        <v>576</v>
+        <v>519</v>
       </c>
       <c r="Y38" t="s">
-        <v>577</v>
+        <v>520</v>
       </c>
       <c r="AC38" t="s">
-        <v>578</v>
+        <v>521</v>
       </c>
       <c r="AD38" t="s">
-        <v>579</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
@@ -6349,7 +6353,7 @@
         <v>31.273382000000002</v>
       </c>
       <c r="D39" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -6364,52 +6368,52 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>581</v>
+        <v>524</v>
       </c>
       <c r="L39" t="s">
-        <v>581</v>
+        <v>524</v>
       </c>
       <c r="M39">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="O39" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="P39" t="s">
-        <v>518</v>
+        <v>470</v>
       </c>
       <c r="Q39" s="1">
         <v>44784</v>
       </c>
       <c r="R39" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="S39" s="1">
         <v>45420</v>
       </c>
       <c r="T39" t="s">
-        <v>583</v>
+        <v>871</v>
       </c>
       <c r="U39" t="s">
-        <v>584</v>
+        <v>526</v>
       </c>
       <c r="V39" t="s">
-        <v>585</v>
+        <v>527</v>
       </c>
       <c r="X39" t="s">
-        <v>396</v>
+        <v>853</v>
       </c>
       <c r="Y39" t="s">
-        <v>586</v>
+        <v>528</v>
       </c>
       <c r="AC39" t="s">
-        <v>587</v>
+        <v>529</v>
       </c>
       <c r="AD39" t="s">
-        <v>588</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
@@ -6423,13 +6427,13 @@
         <v>31.27103</v>
       </c>
       <c r="D40" t="s">
-        <v>589</v>
+        <v>823</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -6450,37 +6454,37 @@
         <v>5</v>
       </c>
       <c r="P40" t="s">
-        <v>496</v>
+        <v>450</v>
       </c>
       <c r="Q40" s="1">
         <v>44784</v>
       </c>
       <c r="R40" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="S40" s="1">
         <v>45420</v>
       </c>
       <c r="T40" t="s">
-        <v>590</v>
+        <v>531</v>
       </c>
       <c r="U40" t="s">
-        <v>591</v>
+        <v>532</v>
       </c>
       <c r="V40" t="s">
-        <v>592</v>
+        <v>533</v>
       </c>
       <c r="W40" t="s">
-        <v>593</v>
+        <v>534</v>
       </c>
       <c r="Y40" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
       <c r="AC40" t="s">
-        <v>595</v>
+        <v>536</v>
       </c>
       <c r="AD40" t="s">
-        <v>596</v>
+        <v>537</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
@@ -6494,16 +6498,16 @@
         <v>31.268961000000001</v>
       </c>
       <c r="D41" t="s">
-        <v>597</v>
+        <v>824</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="G41" t="s">
-        <v>599</v>
+        <v>539</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -6518,49 +6522,49 @@
         <v>32</v>
       </c>
       <c r="L41" t="s">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="M41">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>601</v>
+        <v>541</v>
       </c>
       <c r="O41" t="s">
-        <v>602</v>
+        <v>542</v>
       </c>
       <c r="P41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q41" s="1">
         <v>44781</v>
       </c>
       <c r="R41" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="S41" s="1">
         <v>45420</v>
       </c>
       <c r="T41" t="s">
-        <v>603</v>
+        <v>543</v>
       </c>
       <c r="U41" t="s">
-        <v>604</v>
+        <v>872</v>
       </c>
       <c r="V41" t="s">
-        <v>605</v>
+        <v>544</v>
       </c>
       <c r="W41" t="s">
-        <v>606</v>
+        <v>873</v>
       </c>
       <c r="Y41" t="s">
-        <v>607</v>
+        <v>545</v>
       </c>
       <c r="AC41" t="s">
-        <v>608</v>
+        <v>546</v>
       </c>
       <c r="AD41" t="s">
-        <v>609</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.3">
@@ -6574,13 +6578,13 @@
         <v>31.269784999999999</v>
       </c>
       <c r="D42" t="s">
-        <v>610</v>
+        <v>548</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>611</v>
+        <v>549</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -6592,52 +6596,52 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>612</v>
+        <v>550</v>
       </c>
       <c r="L42" t="s">
-        <v>612</v>
+        <v>550</v>
       </c>
       <c r="M42">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>613</v>
+        <v>551</v>
       </c>
       <c r="O42" t="s">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="P42" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="Q42" s="1">
         <v>44784</v>
       </c>
       <c r="R42" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="S42" s="1">
         <v>45431</v>
       </c>
       <c r="T42" t="s">
-        <v>616</v>
+        <v>554</v>
       </c>
       <c r="U42" t="s">
-        <v>617</v>
+        <v>555</v>
       </c>
       <c r="V42" t="s">
-        <v>618</v>
-      </c>
-      <c r="W42" t="s">
-        <v>619</v>
+        <v>556</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="Y42" t="s">
-        <v>620</v>
+        <v>557</v>
       </c>
       <c r="AC42" t="s">
-        <v>621</v>
+        <v>558</v>
       </c>
       <c r="AD42" t="s">
-        <v>622</v>
+        <v>559</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
@@ -6651,13 +6655,13 @@
         <v>31.269717</v>
       </c>
       <c r="D43" t="s">
-        <v>623</v>
+        <v>560</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>624</v>
+        <v>561</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -6678,40 +6682,40 @@
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="O43" t="s">
-        <v>626</v>
+        <v>563</v>
       </c>
       <c r="P43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q43" s="1">
         <v>44781</v>
       </c>
       <c r="R43" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="S43" s="1">
         <v>45420</v>
       </c>
       <c r="U43" t="s">
-        <v>627</v>
+        <v>564</v>
       </c>
       <c r="V43" t="s">
-        <v>628</v>
+        <v>565</v>
       </c>
       <c r="W43" t="s">
-        <v>629</v>
+        <v>566</v>
       </c>
       <c r="Y43" t="s">
-        <v>630</v>
+        <v>567</v>
       </c>
       <c r="AC43" t="s">
-        <v>631</v>
+        <v>568</v>
       </c>
       <c r="AD43" t="s">
-        <v>632</v>
+        <v>569</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
@@ -6725,16 +6729,16 @@
         <v>31.270219999999998</v>
       </c>
       <c r="D44" t="s">
-        <v>633</v>
+        <v>825</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="G44" t="s">
-        <v>634</v>
+        <v>570</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -6749,46 +6753,46 @@
         <v>32</v>
       </c>
       <c r="L44" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M44">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>635</v>
+        <v>571</v>
       </c>
       <c r="O44" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="P44" t="s">
-        <v>496</v>
+        <v>450</v>
       </c>
       <c r="Q44" s="1">
         <v>44795</v>
       </c>
       <c r="R44" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="S44" s="1">
         <v>45421</v>
       </c>
       <c r="U44" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="V44" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="W44" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="Y44" t="s">
-        <v>640</v>
+        <v>576</v>
       </c>
       <c r="AC44" t="s">
-        <v>641</v>
+        <v>577</v>
       </c>
       <c r="AD44" t="s">
-        <v>642</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
@@ -6802,7 +6806,7 @@
         <v>31.270517999999999</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -6817,52 +6821,52 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="L45" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="M45">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>643</v>
+        <v>579</v>
       </c>
       <c r="O45" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="P45" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="Q45" s="1">
         <v>44784</v>
       </c>
       <c r="R45" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="S45" s="1">
         <v>44784</v>
       </c>
       <c r="T45" t="s">
-        <v>644</v>
+        <v>580</v>
       </c>
       <c r="U45" t="s">
-        <v>645</v>
+        <v>581</v>
       </c>
       <c r="V45" t="s">
-        <v>646</v>
+        <v>582</v>
       </c>
       <c r="W45" t="s">
-        <v>647</v>
+        <v>583</v>
       </c>
       <c r="Y45" t="s">
-        <v>648</v>
+        <v>584</v>
       </c>
       <c r="AC45" t="s">
-        <v>587</v>
+        <v>529</v>
       </c>
       <c r="AD45" t="s">
-        <v>649</v>
+        <v>585</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
@@ -6876,7 +6880,7 @@
         <v>31.270600000000002</v>
       </c>
       <c r="D46" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -6891,49 +6895,49 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="O46" t="s">
-        <v>652</v>
+        <v>588</v>
       </c>
       <c r="P46" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="Q46" s="1">
         <v>44781</v>
       </c>
       <c r="R46" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="S46" s="1">
         <v>45421</v>
       </c>
       <c r="U46" t="s">
-        <v>653</v>
+        <v>875</v>
       </c>
       <c r="V46" t="s">
-        <v>654</v>
+        <v>876</v>
       </c>
       <c r="W46" t="s">
-        <v>655</v>
+        <v>589</v>
       </c>
       <c r="Y46" t="s">
-        <v>656</v>
+        <v>590</v>
       </c>
       <c r="AC46" t="s">
-        <v>657</v>
+        <v>591</v>
       </c>
       <c r="AD46" t="s">
-        <v>658</v>
+        <v>592</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
@@ -6947,7 +6951,7 @@
         <v>31.269731</v>
       </c>
       <c r="D47" t="s">
-        <v>659</v>
+        <v>593</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -6965,43 +6969,43 @@
         <v>32</v>
       </c>
       <c r="L47" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M47">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>660</v>
+        <v>594</v>
       </c>
       <c r="P47" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="Q47" s="1">
         <v>44781</v>
       </c>
       <c r="R47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S47" s="1">
         <v>45426</v>
       </c>
       <c r="U47" t="s">
-        <v>661</v>
+        <v>595</v>
       </c>
       <c r="V47" t="s">
-        <v>662</v>
+        <v>596</v>
       </c>
       <c r="W47" t="s">
-        <v>663</v>
+        <v>597</v>
       </c>
       <c r="Y47" t="s">
-        <v>664</v>
+        <v>598</v>
       </c>
       <c r="AC47" t="s">
-        <v>665</v>
+        <v>599</v>
       </c>
       <c r="AD47" t="s">
-        <v>666</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
@@ -7015,7 +7019,7 @@
         <v>31.268401999999998</v>
       </c>
       <c r="D48" t="s">
-        <v>667</v>
+        <v>826</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -7039,37 +7043,37 @@
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>668</v>
+        <v>601</v>
       </c>
       <c r="O48" t="s">
-        <v>669</v>
+        <v>602</v>
       </c>
       <c r="P48" t="s">
-        <v>670</v>
+        <v>603</v>
       </c>
       <c r="Q48" s="1">
         <v>44776</v>
       </c>
       <c r="R48" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="S48" s="1">
         <v>45421</v>
       </c>
       <c r="U48" t="s">
-        <v>671</v>
+        <v>604</v>
       </c>
       <c r="V48" t="s">
-        <v>672</v>
+        <v>605</v>
       </c>
       <c r="Y48" t="s">
-        <v>673</v>
+        <v>606</v>
       </c>
       <c r="AC48" t="s">
-        <v>674</v>
+        <v>607</v>
       </c>
       <c r="AD48" t="s">
-        <v>675</v>
+        <v>608</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
@@ -7082,8 +7086,8 @@
       <c r="C49">
         <v>31.268138</v>
       </c>
-      <c r="D49" t="s">
-        <v>676</v>
+      <c r="D49" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -7107,40 +7111,40 @@
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="O49" t="s">
-        <v>669</v>
+        <v>602</v>
       </c>
       <c r="P49" t="s">
-        <v>518</v>
+        <v>470</v>
       </c>
       <c r="Q49" s="1">
         <v>44777</v>
       </c>
       <c r="R49" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="S49" s="1">
         <v>45421</v>
       </c>
       <c r="U49" t="s">
-        <v>677</v>
+        <v>609</v>
       </c>
       <c r="V49" t="s">
-        <v>678</v>
+        <v>610</v>
       </c>
       <c r="W49" t="s">
-        <v>679</v>
+        <v>611</v>
       </c>
       <c r="Y49" t="s">
-        <v>680</v>
+        <v>612</v>
       </c>
       <c r="AC49" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AD49" t="s">
-        <v>681</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.3">
@@ -7154,13 +7158,13 @@
         <v>31.267776999999999</v>
       </c>
       <c r="D50" t="s">
-        <v>682</v>
+        <v>614</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>683</v>
+        <v>615</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -7181,34 +7185,34 @@
         <v>2</v>
       </c>
       <c r="P50" t="s">
-        <v>564</v>
+        <v>508</v>
       </c>
       <c r="Q50" s="1">
         <v>44777</v>
       </c>
       <c r="R50" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="S50" s="1">
         <v>45421</v>
       </c>
       <c r="U50" t="s">
-        <v>684</v>
+        <v>616</v>
       </c>
       <c r="V50" t="s">
-        <v>685</v>
+        <v>617</v>
       </c>
       <c r="W50" t="s">
-        <v>686</v>
+        <v>618</v>
       </c>
       <c r="Y50" t="s">
-        <v>687</v>
+        <v>619</v>
       </c>
       <c r="AC50" t="s">
-        <v>688</v>
+        <v>620</v>
       </c>
       <c r="AD50" t="s">
-        <v>689</v>
+        <v>621</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.3">
@@ -7222,7 +7226,7 @@
         <v>31.269283000000001</v>
       </c>
       <c r="D51" t="s">
-        <v>690</v>
+        <v>622</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -7246,40 +7250,40 @@
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="O51" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="P51" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="Q51" s="1">
         <v>44659</v>
       </c>
       <c r="R51" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="S51" s="1">
         <v>45409</v>
       </c>
       <c r="T51" t="s">
-        <v>691</v>
+        <v>623</v>
       </c>
       <c r="U51" t="s">
-        <v>692</v>
+        <v>624</v>
       </c>
       <c r="V51" t="s">
-        <v>693</v>
+        <v>625</v>
       </c>
       <c r="Y51" t="s">
-        <v>694</v>
+        <v>626</v>
       </c>
       <c r="AC51" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AD51" t="s">
-        <v>695</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.3">
@@ -7293,16 +7297,16 @@
         <v>31.269283000000001</v>
       </c>
       <c r="D52" t="s">
-        <v>696</v>
+        <v>628</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>697</v>
+        <v>629</v>
       </c>
       <c r="G52" t="s">
-        <v>698</v>
+        <v>630</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -7317,46 +7321,46 @@
         <v>32</v>
       </c>
       <c r="L52" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>699</v>
+        <v>631</v>
       </c>
       <c r="Q52" s="1">
         <v>44795</v>
       </c>
       <c r="R52" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S52" s="1">
         <v>45425</v>
       </c>
       <c r="T52" t="s">
-        <v>700</v>
+        <v>632</v>
       </c>
       <c r="U52" t="s">
-        <v>701</v>
+        <v>633</v>
       </c>
       <c r="V52" t="s">
-        <v>702</v>
+        <v>634</v>
       </c>
       <c r="W52" t="s">
-        <v>703</v>
+        <v>635</v>
       </c>
       <c r="X52" t="s">
-        <v>704</v>
+        <v>636</v>
       </c>
       <c r="Y52" t="s">
-        <v>705</v>
+        <v>637</v>
       </c>
       <c r="AC52" t="s">
-        <v>706</v>
+        <v>638</v>
       </c>
       <c r="AD52" t="s">
-        <v>707</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
@@ -7370,13 +7374,13 @@
         <v>31.273475000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>708</v>
+        <v>640</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>709</v>
+        <v>641</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -7391,49 +7395,49 @@
         <v>32</v>
       </c>
       <c r="L53" t="s">
-        <v>710</v>
+        <v>642</v>
       </c>
       <c r="M53">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>711</v>
+        <v>643</v>
       </c>
       <c r="O53" t="s">
-        <v>712</v>
+        <v>644</v>
       </c>
       <c r="P53" t="s">
-        <v>713</v>
+        <v>645</v>
       </c>
       <c r="Q53" s="1">
         <v>44578</v>
       </c>
       <c r="R53" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S53" s="1">
         <v>45425</v>
       </c>
       <c r="T53" t="s">
-        <v>714</v>
+        <v>646</v>
       </c>
       <c r="U53" t="s">
-        <v>715</v>
+        <v>647</v>
       </c>
       <c r="V53" t="s">
-        <v>716</v>
+        <v>648</v>
       </c>
       <c r="W53" t="s">
-        <v>717</v>
+        <v>649</v>
       </c>
       <c r="Y53" t="s">
-        <v>718</v>
+        <v>650</v>
       </c>
       <c r="AC53" t="s">
-        <v>719</v>
+        <v>651</v>
       </c>
       <c r="AD53" t="s">
-        <v>720</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
@@ -7447,7 +7451,7 @@
         <v>31.276494</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -7471,46 +7475,46 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="O54" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="Q54" s="1">
         <v>45146</v>
       </c>
       <c r="R54" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S54" s="1">
         <v>45425</v>
       </c>
       <c r="T54" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="U54" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="V54" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="W54" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="X54" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="Y54" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AC54" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AD54" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.3">
@@ -7524,7 +7528,7 @@
         <v>31.275400000000001</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -7548,37 +7552,37 @@
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="O55" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P55" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="Q55" s="1">
         <v>45139</v>
       </c>
       <c r="R55" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S55" s="1">
         <v>45425</v>
       </c>
       <c r="U55" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="V55" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="Y55" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="AC55" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AD55" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.3">
@@ -7592,16 +7596,16 @@
         <v>31.275151000000001</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G56" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -7616,37 +7620,37 @@
         <v>32</v>
       </c>
       <c r="L56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M56">
         <v>2</v>
       </c>
       <c r="P56" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="Q56" s="1">
         <v>45139</v>
       </c>
       <c r="R56" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S56" s="1">
         <v>45425</v>
       </c>
       <c r="U56" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="V56" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Y56" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AC56" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AD56" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.3">
@@ -7660,13 +7664,13 @@
         <v>31.274262</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -7681,46 +7685,46 @@
         <v>32</v>
       </c>
       <c r="L57" t="s">
-        <v>166</v>
+        <v>877</v>
       </c>
       <c r="M57">
         <v>2</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="Q57" s="1">
         <v>45139</v>
       </c>
       <c r="R57" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S57" s="1">
         <v>45433</v>
       </c>
       <c r="T57" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="U57" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="V57" t="s">
-        <v>170</v>
-      </c>
-      <c r="W57" t="s">
-        <v>171</v>
-      </c>
-      <c r="X57" t="s">
-        <v>172</v>
+        <v>159</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>879</v>
       </c>
       <c r="Y57" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="AC57" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="AD57" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
@@ -7734,7 +7738,7 @@
         <v>31.275089000000001</v>
       </c>
       <c r="D58" t="s">
-        <v>176</v>
+        <v>828</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
@@ -7758,43 +7762,43 @@
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="O58" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="Q58" s="1">
         <v>45146</v>
       </c>
       <c r="R58" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S58" s="1">
         <v>45433</v>
       </c>
       <c r="T58" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="U58" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="V58" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="W58" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="Y58" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AC58" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AD58" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.3">
@@ -7808,7 +7812,7 @@
         <v>31.274978000000001</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -7826,43 +7830,43 @@
         <v>32</v>
       </c>
       <c r="L59" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="M59">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O59" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P59" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="Q59" s="1">
         <v>45146</v>
       </c>
       <c r="R59" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S59" s="1">
         <v>45433</v>
       </c>
       <c r="U59" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="V59" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="Y59" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="AC59" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AD59" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.3">
@@ -7876,16 +7880,16 @@
         <v>31.274771999999999</v>
       </c>
       <c r="D60" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G60" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -7897,49 +7901,49 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="L60" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M60">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O60" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="Q60" s="1">
         <v>45146</v>
       </c>
       <c r="R60" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S60" s="1">
         <v>45433</v>
       </c>
-      <c r="U60" t="s">
-        <v>197</v>
+      <c r="U60" s="3" t="s">
+        <v>880</v>
       </c>
       <c r="V60" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="W60" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="Y60" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="AC60" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AD60" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.3">
@@ -7953,7 +7957,7 @@
         <v>31.274588999999999</v>
       </c>
       <c r="D61" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
@@ -7974,40 +7978,40 @@
         <v>32</v>
       </c>
       <c r="L61" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="M61">
         <v>2</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="Q61" s="1">
         <v>45141</v>
       </c>
       <c r="R61" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S61" s="1">
         <v>45433</v>
       </c>
-      <c r="U61" t="s">
-        <v>205</v>
+      <c r="U61" s="3" t="s">
+        <v>881</v>
       </c>
       <c r="V61" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="W61" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="Y61" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="AC61" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="AD61" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
@@ -8021,7 +8025,7 @@
         <v>31.274982000000001</v>
       </c>
       <c r="D62" t="s">
-        <v>211</v>
+        <v>829</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -8045,37 +8049,37 @@
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="O62" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="Q62" s="1">
         <v>45186</v>
       </c>
       <c r="R62" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S62" s="1">
         <v>45433</v>
       </c>
       <c r="U62" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="V62" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="Y62" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="AC62" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="AD62" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
@@ -8089,7 +8093,7 @@
         <v>31.274531</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
@@ -8113,40 +8117,40 @@
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="O63" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="Q63" s="1">
         <v>44776</v>
       </c>
       <c r="R63" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S63" s="1">
         <v>45433</v>
       </c>
       <c r="U63" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="V63" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="W63" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="Y63" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="AC63" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AD63" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.3">
@@ -8160,7 +8164,7 @@
         <v>31.274363999999998</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -8178,40 +8182,40 @@
         <v>32</v>
       </c>
       <c r="L64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M64">
         <v>2</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="Q64" s="1">
         <v>45141</v>
       </c>
       <c r="R64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S64" s="1">
         <v>45421</v>
       </c>
       <c r="T64" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="U64" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="V64" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="Y64" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="AC64" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="AD64" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.3">
@@ -8225,7 +8229,7 @@
         <v>31.274325000000001</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>830</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
@@ -8243,46 +8247,46 @@
         <v>32</v>
       </c>
       <c r="L65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M65">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="O65" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="P65" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="Q65" s="1">
         <v>45141</v>
       </c>
       <c r="R65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S65" s="1">
         <v>45420</v>
       </c>
       <c r="U65" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="V65" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="W65" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="Y65" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="AC65" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="AD65" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.3">
@@ -8296,7 +8300,7 @@
         <v>31.274139000000002</v>
       </c>
       <c r="D66" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
@@ -8320,37 +8324,37 @@
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O66" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="Q66" s="1">
         <v>44776</v>
       </c>
       <c r="R66" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S66" s="1">
         <v>45433</v>
       </c>
       <c r="U66" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="V66" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="Y66" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="AC66" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AD66" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.3">
@@ -8364,13 +8368,13 @@
         <v>31.277014000000001</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -8385,49 +8389,49 @@
         <v>32</v>
       </c>
       <c r="L67" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P67" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="Q67" s="1">
         <v>44776</v>
       </c>
       <c r="R67" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S67" s="1">
         <v>45433</v>
       </c>
       <c r="T67" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="U67" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="V67" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="W67" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="X67" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="Y67" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="AC67" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="AD67" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.3">
@@ -8441,13 +8445,13 @@
         <v>31.274334</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -8468,34 +8472,34 @@
         <v>2</v>
       </c>
       <c r="P68" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="Q68" s="1">
         <v>45146</v>
       </c>
       <c r="R68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S68" s="1">
         <v>45414</v>
       </c>
       <c r="U68" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="V68" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="W68" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="Y68" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="AC68" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AD68" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.3">
@@ -8509,13 +8513,13 @@
         <v>31.274262</v>
       </c>
       <c r="D69" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -8530,49 +8534,49 @@
         <v>32</v>
       </c>
       <c r="L69" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="M69">
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="O69" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="Q69" s="1">
         <v>45146</v>
       </c>
       <c r="R69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S69" s="1">
         <v>45419</v>
       </c>
       <c r="T69" t="s">
-        <v>270</v>
-      </c>
-      <c r="U69" t="s">
-        <v>271</v>
+        <v>882</v>
+      </c>
+      <c r="U69" s="3" t="s">
+        <v>883</v>
       </c>
       <c r="V69" t="s">
-        <v>272</v>
-      </c>
-      <c r="W69" t="s">
-        <v>273</v>
+        <v>252</v>
+      </c>
+      <c r="W69" s="3" t="s">
+        <v>884</v>
       </c>
       <c r="Y69" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="AC69" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AD69" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
@@ -8586,7 +8590,7 @@
         <v>31.273057999999999</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
@@ -8610,37 +8614,37 @@
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O70" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="Q70" s="1">
         <v>44774</v>
       </c>
       <c r="R70" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S70" s="1">
         <v>45433</v>
       </c>
       <c r="U70" t="s">
-        <v>721</v>
+        <v>653</v>
       </c>
       <c r="V70" t="s">
-        <v>722</v>
+        <v>654</v>
       </c>
       <c r="Y70" t="s">
-        <v>723</v>
+        <v>655</v>
       </c>
       <c r="AC70" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AD70" t="s">
-        <v>724</v>
+        <v>656</v>
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
@@ -8654,7 +8658,7 @@
         <v>31.274581000000001</v>
       </c>
       <c r="D71" t="s">
-        <v>725</v>
+        <v>831</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
@@ -8678,43 +8682,43 @@
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>726</v>
+        <v>657</v>
       </c>
       <c r="O71" t="s">
-        <v>727</v>
+        <v>658</v>
       </c>
       <c r="P71" t="s">
-        <v>728</v>
+        <v>659</v>
       </c>
       <c r="Q71" s="1">
         <v>45201</v>
       </c>
       <c r="R71" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S71" s="1">
         <v>45413</v>
       </c>
       <c r="U71" t="s">
-        <v>729</v>
+        <v>885</v>
       </c>
       <c r="V71" t="s">
-        <v>730</v>
+        <v>660</v>
       </c>
       <c r="W71" t="s">
-        <v>731</v>
+        <v>661</v>
       </c>
       <c r="X71" t="s">
-        <v>732</v>
+        <v>662</v>
       </c>
       <c r="Y71" t="s">
-        <v>733</v>
+        <v>663</v>
       </c>
       <c r="AC71" t="s">
-        <v>734</v>
+        <v>664</v>
       </c>
       <c r="AD71" t="s">
-        <v>735</v>
+        <v>665</v>
       </c>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.3">
@@ -8728,7 +8732,7 @@
         <v>31.271142000000001</v>
       </c>
       <c r="D72" t="s">
-        <v>736</v>
+        <v>666</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
@@ -8746,52 +8750,52 @@
         <v>32</v>
       </c>
       <c r="L72" t="s">
-        <v>737</v>
+        <v>667</v>
       </c>
       <c r="M72">
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>738</v>
+        <v>668</v>
       </c>
       <c r="O72" t="s">
-        <v>739</v>
+        <v>669</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="Q72" s="1">
         <v>45239</v>
       </c>
       <c r="R72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S72" s="1">
         <v>45413</v>
       </c>
       <c r="T72" t="s">
-        <v>740</v>
-      </c>
-      <c r="U72" t="s">
-        <v>741</v>
-      </c>
-      <c r="V72" t="s">
-        <v>742</v>
-      </c>
-      <c r="W72" t="s">
-        <v>743</v>
+        <v>670</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>888</v>
       </c>
       <c r="X72" t="s">
-        <v>744</v>
+        <v>671</v>
       </c>
       <c r="Y72" t="s">
-        <v>745</v>
+        <v>672</v>
       </c>
       <c r="AC72" t="s">
-        <v>738</v>
+        <v>668</v>
       </c>
       <c r="AD72" t="s">
-        <v>746</v>
+        <v>673</v>
       </c>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.3">
@@ -8805,7 +8809,7 @@
         <v>31.271837000000001</v>
       </c>
       <c r="D73" t="s">
-        <v>747</v>
+        <v>674</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
@@ -8820,49 +8824,49 @@
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>748</v>
+        <v>675</v>
       </c>
       <c r="L73" t="s">
-        <v>748</v>
+        <v>675</v>
       </c>
       <c r="M73">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>749</v>
+        <v>676</v>
       </c>
       <c r="O73" t="s">
-        <v>750</v>
+        <v>677</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="Q73" s="1">
         <v>45420</v>
       </c>
       <c r="R73" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S73" s="1">
         <v>45435</v>
       </c>
       <c r="T73" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="U73" t="s">
-        <v>752</v>
+        <v>679</v>
       </c>
       <c r="V73" t="s">
-        <v>753</v>
+        <v>680</v>
       </c>
       <c r="Y73" t="s">
-        <v>754</v>
+        <v>681</v>
       </c>
       <c r="AC73" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="AD73" t="s">
-        <v>756</v>
+        <v>683</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.3">
@@ -8876,7 +8880,7 @@
         <v>31.273053000000001</v>
       </c>
       <c r="D74" t="s">
-        <v>757</v>
+        <v>684</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
@@ -8900,40 +8904,40 @@
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O74" t="s">
-        <v>758</v>
+        <v>685</v>
       </c>
       <c r="P74" t="s">
-        <v>759</v>
+        <v>686</v>
       </c>
       <c r="Q74" s="1">
         <v>44787</v>
       </c>
       <c r="R74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S74" s="1">
         <v>45413</v>
       </c>
       <c r="T74" t="s">
-        <v>760</v>
+        <v>687</v>
       </c>
       <c r="U74" t="s">
-        <v>761</v>
+        <v>688</v>
       </c>
       <c r="V74" t="s">
-        <v>762</v>
+        <v>689</v>
       </c>
       <c r="Y74" t="s">
-        <v>763</v>
+        <v>690</v>
       </c>
       <c r="AC74" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AD74" t="s">
-        <v>764</v>
+        <v>691</v>
       </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.3">
@@ -8947,13 +8951,13 @@
         <v>31.271526000000001</v>
       </c>
       <c r="D75" t="s">
-        <v>765</v>
+        <v>692</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>766</v>
+        <v>693</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -8965,40 +8969,40 @@
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
       <c r="L75" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
       <c r="M75">
         <v>2</v>
       </c>
       <c r="P75" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
       <c r="Q75" s="1">
         <v>44787</v>
       </c>
       <c r="R75" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S75" s="1">
         <v>45435</v>
       </c>
       <c r="U75" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
       <c r="V75" t="s">
-        <v>771</v>
+        <v>698</v>
       </c>
       <c r="Y75" t="s">
-        <v>772</v>
+        <v>699</v>
       </c>
       <c r="AC75" t="s">
-        <v>773</v>
+        <v>700</v>
       </c>
       <c r="AD75" t="s">
-        <v>774</v>
+        <v>701</v>
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.3">
@@ -9012,13 +9016,13 @@
         <v>31.271336000000002</v>
       </c>
       <c r="D76" t="s">
-        <v>775</v>
+        <v>702</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -9039,31 +9043,31 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>759</v>
+        <v>686</v>
       </c>
       <c r="Q76" s="1">
         <v>45152</v>
       </c>
       <c r="R76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S76" s="1">
         <v>45414</v>
       </c>
-      <c r="U76" t="s">
-        <v>776</v>
+      <c r="U76" s="3" t="s">
+        <v>889</v>
       </c>
       <c r="V76" t="s">
-        <v>777</v>
+        <v>703</v>
       </c>
       <c r="Y76" t="s">
-        <v>778</v>
+        <v>704</v>
       </c>
       <c r="AC76" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
       <c r="AD76" t="s">
-        <v>779</v>
+        <v>705</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.3">
@@ -9077,7 +9081,7 @@
         <v>31.270205000000001</v>
       </c>
       <c r="D77" t="s">
-        <v>780</v>
+        <v>706</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
@@ -9101,40 +9105,40 @@
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>781</v>
+        <v>707</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="Q77" s="1">
         <v>45250</v>
       </c>
       <c r="R77" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S77" s="1">
         <v>45435</v>
       </c>
       <c r="T77" t="s">
-        <v>782</v>
+        <v>708</v>
       </c>
       <c r="U77" t="s">
-        <v>783</v>
+        <v>709</v>
       </c>
       <c r="V77" t="s">
-        <v>784</v>
+        <v>710</v>
       </c>
       <c r="W77" t="s">
-        <v>785</v>
+        <v>711</v>
       </c>
       <c r="Y77" t="s">
-        <v>786</v>
+        <v>712</v>
       </c>
       <c r="AC77" t="s">
-        <v>787</v>
+        <v>713</v>
       </c>
       <c r="AD77" t="s">
-        <v>788</v>
+        <v>714</v>
       </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
@@ -9148,13 +9152,13 @@
         <v>31.278656999999999</v>
       </c>
       <c r="D78" t="s">
-        <v>789</v>
+        <v>715</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -9175,31 +9179,31 @@
         <v>2</v>
       </c>
       <c r="P78" t="s">
-        <v>790</v>
+        <v>716</v>
       </c>
       <c r="Q78" s="1">
         <v>45148</v>
       </c>
       <c r="R78" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S78" s="1">
         <v>45419</v>
       </c>
       <c r="U78" t="s">
-        <v>791</v>
+        <v>717</v>
       </c>
       <c r="V78" t="s">
-        <v>792</v>
+        <v>718</v>
       </c>
       <c r="Y78" t="s">
-        <v>793</v>
+        <v>719</v>
       </c>
       <c r="AC78" t="s">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="AD78" t="s">
-        <v>795</v>
+        <v>721</v>
       </c>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.3">
@@ -9213,16 +9217,16 @@
         <v>31.271972000000002</v>
       </c>
       <c r="D79" t="s">
-        <v>796</v>
+        <v>832</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="G79" t="s">
-        <v>797</v>
+        <v>722</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -9237,40 +9241,40 @@
         <v>32</v>
       </c>
       <c r="L79" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M79">
         <v>3</v>
       </c>
       <c r="P79" t="s">
-        <v>798</v>
+        <v>723</v>
       </c>
       <c r="Q79" s="1">
         <v>45152</v>
       </c>
       <c r="R79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S79" s="1">
         <v>45419</v>
       </c>
       <c r="U79" t="s">
-        <v>799</v>
+        <v>724</v>
       </c>
       <c r="V79" t="s">
-        <v>800</v>
+        <v>725</v>
       </c>
       <c r="W79" t="s">
-        <v>801</v>
+        <v>726</v>
       </c>
       <c r="Y79" t="s">
-        <v>802</v>
+        <v>727</v>
       </c>
       <c r="AC79" t="s">
-        <v>803</v>
+        <v>728</v>
       </c>
       <c r="AD79" t="s">
-        <v>804</v>
+        <v>729</v>
       </c>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.3">
@@ -9284,13 +9288,13 @@
         <v>31.271692000000002</v>
       </c>
       <c r="D80" t="s">
-        <v>805</v>
+        <v>730</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>806</v>
+        <v>731</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -9305,43 +9309,43 @@
         <v>32</v>
       </c>
       <c r="L80" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M80">
         <v>3</v>
       </c>
       <c r="P80" t="s">
-        <v>807</v>
+        <v>732</v>
       </c>
       <c r="Q80" s="1">
         <v>45152</v>
       </c>
       <c r="R80" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S80" s="1">
         <v>45440</v>
       </c>
-      <c r="U80" t="s">
-        <v>808</v>
+      <c r="U80" s="3" t="s">
+        <v>890</v>
       </c>
       <c r="V80" t="s">
-        <v>809</v>
+        <v>733</v>
       </c>
       <c r="W80" t="s">
-        <v>810</v>
+        <v>734</v>
       </c>
       <c r="X80" t="s">
-        <v>811</v>
+        <v>735</v>
       </c>
       <c r="Y80" t="s">
-        <v>812</v>
+        <v>736</v>
       </c>
       <c r="AC80" t="s">
-        <v>813</v>
+        <v>737</v>
       </c>
       <c r="AD80" t="s">
-        <v>814</v>
+        <v>738</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
@@ -9355,13 +9359,13 @@
         <v>31.271498999999999</v>
       </c>
       <c r="D81" t="s">
-        <v>815</v>
+        <v>739</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>816</v>
+        <v>740</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -9382,34 +9386,34 @@
         <v>3</v>
       </c>
       <c r="P81" t="s">
-        <v>807</v>
+        <v>732</v>
       </c>
       <c r="Q81" s="1">
         <v>45152</v>
       </c>
       <c r="R81" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S81" s="1">
         <v>45440</v>
       </c>
       <c r="T81" t="s">
-        <v>817</v>
+        <v>741</v>
       </c>
       <c r="U81" t="s">
-        <v>818</v>
+        <v>742</v>
       </c>
       <c r="V81" t="s">
-        <v>819</v>
+        <v>743</v>
       </c>
       <c r="Y81" t="s">
-        <v>820</v>
+        <v>744</v>
       </c>
       <c r="AC81" t="s">
-        <v>821</v>
+        <v>745</v>
       </c>
       <c r="AD81" t="s">
-        <v>822</v>
+        <v>746</v>
       </c>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.3">
@@ -9423,7 +9427,7 @@
         <v>31.271186</v>
       </c>
       <c r="D82" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
@@ -9441,43 +9445,43 @@
         <v>32</v>
       </c>
       <c r="L82" t="s">
-        <v>824</v>
+        <v>747</v>
       </c>
       <c r="M82">
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O82" t="s">
-        <v>825</v>
+        <v>748</v>
       </c>
       <c r="P82" t="s">
-        <v>826</v>
+        <v>749</v>
       </c>
       <c r="Q82" s="1">
         <v>45152</v>
       </c>
       <c r="R82" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S82" s="1">
         <v>45435</v>
       </c>
       <c r="U82" t="s">
-        <v>827</v>
+        <v>750</v>
       </c>
       <c r="V82" t="s">
-        <v>828</v>
+        <v>751</v>
       </c>
       <c r="Y82" t="s">
-        <v>829</v>
+        <v>752</v>
       </c>
       <c r="AC82" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AD82" t="s">
-        <v>830</v>
+        <v>753</v>
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.3">
@@ -9491,16 +9495,16 @@
         <v>31.270686000000001</v>
       </c>
       <c r="D83" t="s">
-        <v>831</v>
+        <v>754</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="G83" t="s">
-        <v>797</v>
+        <v>722</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -9515,40 +9519,40 @@
         <v>32</v>
       </c>
       <c r="L83" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M83">
         <v>3</v>
       </c>
       <c r="P83" t="s">
-        <v>832</v>
+        <v>755</v>
       </c>
       <c r="Q83" s="1">
         <v>45152</v>
       </c>
       <c r="R83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S83" s="1">
         <v>45419</v>
       </c>
       <c r="U83" t="s">
-        <v>833</v>
-      </c>
-      <c r="V83" t="s">
-        <v>834</v>
+        <v>756</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>891</v>
       </c>
       <c r="W83" t="s">
-        <v>835</v>
+        <v>757</v>
       </c>
       <c r="Y83" t="s">
-        <v>836</v>
+        <v>758</v>
       </c>
       <c r="AC83" t="s">
-        <v>803</v>
+        <v>728</v>
       </c>
       <c r="AD83" t="s">
-        <v>837</v>
+        <v>759</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.3">
@@ -9562,7 +9566,7 @@
         <v>31.269933000000002</v>
       </c>
       <c r="D84" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
@@ -9577,52 +9581,52 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="L84" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M84">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="O84" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>807</v>
+        <v>732</v>
       </c>
       <c r="Q84" s="1">
         <v>45152</v>
       </c>
       <c r="R84" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S84" s="1">
         <v>45435</v>
       </c>
       <c r="T84" t="s">
-        <v>838</v>
-      </c>
-      <c r="U84" t="s">
-        <v>839</v>
+        <v>760</v>
+      </c>
+      <c r="U84" s="3" t="s">
+        <v>892</v>
       </c>
       <c r="V84" t="s">
-        <v>840</v>
+        <v>761</v>
       </c>
       <c r="W84" t="s">
-        <v>841</v>
+        <v>762</v>
       </c>
       <c r="Y84" t="s">
-        <v>842</v>
+        <v>763</v>
       </c>
       <c r="AC84" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AD84" t="s">
-        <v>843</v>
+        <v>764</v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.3">
@@ -9636,7 +9640,7 @@
         <v>31.268246000000001</v>
       </c>
       <c r="D85" t="s">
-        <v>844</v>
+        <v>765</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
@@ -9660,37 +9664,37 @@
         <v>2</v>
       </c>
       <c r="N85" t="s">
-        <v>845</v>
+        <v>766</v>
       </c>
       <c r="O85" t="s">
-        <v>846</v>
+        <v>767</v>
       </c>
       <c r="P85" t="s">
-        <v>790</v>
+        <v>716</v>
       </c>
       <c r="Q85" s="1">
         <v>45148</v>
       </c>
       <c r="R85" t="s">
-        <v>847</v>
+        <v>768</v>
       </c>
       <c r="S85" s="1">
         <v>45419</v>
       </c>
-      <c r="U85" t="s">
-        <v>848</v>
+      <c r="U85" s="3" t="s">
+        <v>893</v>
       </c>
       <c r="V85" t="s">
-        <v>849</v>
+        <v>769</v>
       </c>
       <c r="Y85" t="s">
-        <v>850</v>
+        <v>770</v>
       </c>
       <c r="AC85" t="s">
-        <v>851</v>
+        <v>771</v>
       </c>
       <c r="AD85" t="s">
-        <v>852</v>
+        <v>772</v>
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.3">
@@ -9704,7 +9708,7 @@
         <v>31.268204000000001</v>
       </c>
       <c r="D86" t="s">
-        <v>853</v>
+        <v>773</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
@@ -9728,37 +9732,37 @@
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>845</v>
+        <v>766</v>
       </c>
       <c r="O86" t="s">
-        <v>846</v>
+        <v>767</v>
       </c>
       <c r="P86" t="s">
-        <v>790</v>
+        <v>716</v>
       </c>
       <c r="Q86" s="1">
         <v>45148</v>
       </c>
       <c r="R86" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S86" s="1">
         <v>45420</v>
       </c>
-      <c r="U86" t="s">
-        <v>854</v>
+      <c r="U86" s="3" t="s">
+        <v>894</v>
       </c>
       <c r="V86" t="s">
-        <v>855</v>
+        <v>774</v>
       </c>
       <c r="Y86" t="s">
-        <v>856</v>
+        <v>775</v>
       </c>
       <c r="AC86" t="s">
-        <v>851</v>
+        <v>771</v>
       </c>
       <c r="AD86" t="s">
-        <v>857</v>
+        <v>776</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.3">
@@ -9772,7 +9776,7 @@
         <v>31.268107000000001</v>
       </c>
       <c r="D87" t="s">
-        <v>858</v>
+        <v>777</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
@@ -9796,37 +9800,37 @@
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>859</v>
+        <v>778</v>
       </c>
       <c r="O87" t="s">
-        <v>846</v>
+        <v>767</v>
       </c>
       <c r="P87" t="s">
-        <v>790</v>
+        <v>716</v>
       </c>
       <c r="Q87" s="1">
         <v>45148</v>
       </c>
       <c r="R87" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S87" s="1">
         <v>45420</v>
       </c>
       <c r="U87" t="s">
-        <v>860</v>
+        <v>779</v>
       </c>
       <c r="V87" t="s">
-        <v>861</v>
+        <v>780</v>
       </c>
       <c r="Y87" t="s">
-        <v>862</v>
+        <v>781</v>
       </c>
       <c r="AC87" t="s">
-        <v>859</v>
+        <v>778</v>
       </c>
       <c r="AD87" t="s">
-        <v>863</v>
+        <v>782</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.3">
@@ -9839,8 +9843,8 @@
       <c r="C88">
         <v>31.267969999999998</v>
       </c>
-      <c r="D88" t="s">
-        <v>864</v>
+      <c r="D88" s="2" t="s">
+        <v>834</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
@@ -9858,46 +9862,46 @@
         <v>32</v>
       </c>
       <c r="L88" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M88">
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>859</v>
+        <v>778</v>
       </c>
       <c r="O88" t="s">
-        <v>846</v>
+        <v>767</v>
       </c>
       <c r="P88" t="s">
-        <v>790</v>
+        <v>716</v>
       </c>
       <c r="Q88" s="1">
         <v>45141</v>
       </c>
       <c r="R88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S88" s="1">
         <v>45420</v>
       </c>
       <c r="U88" t="s">
-        <v>865</v>
+        <v>783</v>
       </c>
       <c r="V88" t="s">
-        <v>866</v>
+        <v>784</v>
       </c>
       <c r="W88" t="s">
-        <v>867</v>
+        <v>785</v>
       </c>
       <c r="Y88" t="s">
-        <v>868</v>
+        <v>786</v>
       </c>
       <c r="AC88" t="s">
-        <v>859</v>
+        <v>778</v>
       </c>
       <c r="AD88" t="s">
-        <v>869</v>
+        <v>787</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.3">
@@ -9911,7 +9915,7 @@
         <v>31.267911000000002</v>
       </c>
       <c r="D89" t="s">
-        <v>870</v>
+        <v>788</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
@@ -9935,40 +9939,40 @@
         <v>1</v>
       </c>
       <c r="N89" t="s">
-        <v>871</v>
+        <v>789</v>
       </c>
       <c r="O89" t="s">
-        <v>846</v>
+        <v>767</v>
       </c>
       <c r="P89" t="s">
-        <v>790</v>
+        <v>716</v>
       </c>
       <c r="Q89" s="1">
         <v>45148</v>
       </c>
       <c r="R89" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S89" s="1">
         <v>45420</v>
       </c>
       <c r="T89" t="s">
-        <v>872</v>
-      </c>
-      <c r="U89" t="s">
-        <v>873</v>
+        <v>790</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>895</v>
       </c>
       <c r="V89" t="s">
-        <v>874</v>
+        <v>791</v>
       </c>
       <c r="Y89" t="s">
-        <v>875</v>
+        <v>792</v>
       </c>
       <c r="AC89" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AD89" t="s">
-        <v>876</v>
+        <v>793</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.3">
@@ -9982,7 +9986,7 @@
         <v>31.268969999999999</v>
       </c>
       <c r="D90" t="s">
-        <v>877</v>
+        <v>794</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
@@ -10000,46 +10004,46 @@
         <v>32</v>
       </c>
       <c r="L90" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="M90">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="O90" t="s">
-        <v>652</v>
+        <v>588</v>
       </c>
       <c r="P90" t="s">
-        <v>798</v>
+        <v>723</v>
       </c>
       <c r="Q90" s="1">
         <v>45159</v>
       </c>
       <c r="R90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S90" s="1">
         <v>45420</v>
       </c>
-      <c r="U90" t="s">
-        <v>878</v>
+      <c r="U90" s="3" t="s">
+        <v>896</v>
       </c>
       <c r="V90" t="s">
-        <v>879</v>
+        <v>795</v>
       </c>
       <c r="W90" t="s">
-        <v>880</v>
+        <v>796</v>
       </c>
       <c r="Y90" t="s">
-        <v>881</v>
+        <v>797</v>
       </c>
       <c r="AC90" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AD90" t="s">
-        <v>882</v>
+        <v>798</v>
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.3">
@@ -10053,7 +10057,7 @@
         <v>31.270945000000001</v>
       </c>
       <c r="D91" t="s">
-        <v>883</v>
+        <v>799</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
@@ -10068,49 +10072,49 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>884</v>
+        <v>800</v>
       </c>
       <c r="L91" t="s">
-        <v>884</v>
+        <v>800</v>
       </c>
       <c r="M91">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O91" t="s">
-        <v>750</v>
+        <v>677</v>
       </c>
       <c r="P91" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="Q91" s="1">
         <v>45250</v>
       </c>
       <c r="R91" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S91" s="1">
         <v>45440</v>
       </c>
       <c r="T91" t="s">
-        <v>885</v>
+        <v>801</v>
       </c>
       <c r="U91" t="s">
-        <v>886</v>
+        <v>802</v>
       </c>
       <c r="V91" t="s">
-        <v>887</v>
+        <v>803</v>
       </c>
       <c r="Y91" t="s">
-        <v>888</v>
+        <v>804</v>
       </c>
       <c r="AC91" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AD91" t="s">
-        <v>889</v>
+        <v>805</v>
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.3">
@@ -10124,13 +10128,13 @@
         <v>31.273619</v>
       </c>
       <c r="D92" t="s">
-        <v>890</v>
+        <v>806</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>891</v>
+        <v>807</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -10151,34 +10155,34 @@
         <v>2</v>
       </c>
       <c r="P92" t="s">
-        <v>713</v>
+        <v>645</v>
       </c>
       <c r="Q92" s="1">
         <v>44578</v>
       </c>
       <c r="R92" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S92" s="1">
         <v>45440</v>
       </c>
-      <c r="U92" t="s">
-        <v>892</v>
+      <c r="U92" s="3" t="s">
+        <v>897</v>
       </c>
       <c r="V92" t="s">
-        <v>893</v>
+        <v>808</v>
       </c>
       <c r="W92" t="s">
-        <v>894</v>
+        <v>809</v>
       </c>
       <c r="Y92" t="s">
-        <v>895</v>
+        <v>810</v>
       </c>
       <c r="AC92" t="s">
-        <v>896</v>
+        <v>811</v>
       </c>
       <c r="AD92" t="s">
-        <v>897</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>

--- a/projects/cod/business_data/xlsx/records_NS.xlsx
+++ b/projects/cod/business_data/xlsx/records_NS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\projects\cod\business_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC5F4F6-1201-4F1A-887B-59669BE1CE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E3E1BF-A6B7-4BA5-91D9-F75C430231FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3142,10 +3142,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3453,6735 +3451,6736 @@
   <dimension ref="A1:AD92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="68.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="171" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="95.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="203.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="68.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="171" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="95.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="203.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="255.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>30.049202000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>31.276140000000002</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="1">
         <v>44805</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="S2" s="1">
         <v>45411</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>30.049088999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>31.275894000000001</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="E3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="Q3" s="1">
         <v>44809</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S3" s="1">
         <v>45424</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>30.047742</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>31.275178</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="E4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>4</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="Q4" s="1">
         <v>44805</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S4" s="1">
         <v>45424</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>30.041149000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>31.273807999999999</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>2</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="2" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="1">
         <v>44791</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S5" s="1">
         <v>45424</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>30.045597000000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>31.273371999999998</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
         <v>2</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="2" t="s">
         <v>59</v>
       </c>
       <c r="Q6" s="1">
         <v>44791</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S6" s="1">
         <v>45431</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>30.045117000000001</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>31.274014000000001</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2">
         <v>2</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="2" t="s">
         <v>68</v>
       </c>
       <c r="Q7" s="1">
         <v>44791</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S7" s="1">
         <v>45431</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="U7" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>30.045406</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>31.273382000000002</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="2" t="s">
         <v>59</v>
       </c>
       <c r="Q8" s="1">
         <v>44791</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S8" s="1">
         <v>45424</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>30.044741999999999</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>31.273924999999998</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>2</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="2" t="s">
         <v>68</v>
       </c>
       <c r="Q9" s="1">
         <v>44791</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S9" s="1">
         <v>45424</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>30.045463999999999</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>31.272703</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10">
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2">
         <v>2</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="2" t="s">
         <v>119</v>
       </c>
       <c r="Q10" s="1">
         <v>44791</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S10" s="1">
         <v>45424</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC10" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AD10" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>30.044899999999998</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>31.272991999999999</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>2</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="2" t="s">
         <v>259</v>
       </c>
       <c r="Q11" s="1">
         <v>44788</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S11" s="1">
         <v>45424</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="U11" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="W11" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="X11" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y11" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AC11" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AD11" s="2" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>30.044955999999999</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>31.272646999999999</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="2" t="s">
         <v>259</v>
       </c>
       <c r="Q12" s="1">
         <v>44803</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S12" s="1">
         <v>45413</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AC12" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AD12" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>30.044741999999999</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>31.273002999999999</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>2</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="2" t="s">
         <v>68</v>
       </c>
       <c r="Q13" s="1">
         <v>44803</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S13" s="1">
         <v>45414</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AC13" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AD13" s="2" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>30.044543999999998</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>31.273399999999999</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>2</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="2" t="s">
         <v>259</v>
       </c>
       <c r="Q14" s="1">
         <v>44788</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S14" s="1">
         <v>45428</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X14" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y14" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AC14" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AD14" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>30.044457999999999</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>31.273219000000001</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>259</v>
       </c>
       <c r="Q15" s="1">
         <v>44788</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S15" s="1">
         <v>45428</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V15" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Y15" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AC15" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AD15" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>30.044053000000002</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>31.273717000000001</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16">
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="2">
         <v>4</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="2" t="s">
         <v>309</v>
       </c>
       <c r="Q16" s="1">
         <v>45153</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S16" s="1">
         <v>45440</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="U16" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V16" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Y16" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AC16" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AD16" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>30.042839000000001</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>31.274850000000001</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="2">
         <v>3</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="2" t="s">
         <v>318</v>
       </c>
       <c r="Q17" s="1">
         <v>44798</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S17" s="1">
         <v>45414</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="T17" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V17" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="W17" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="X17" t="s">
+      <c r="X17" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y17" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AC17" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AD17" s="2" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>30.044647000000001</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>31.272618999999999</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="E18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="2">
         <v>2</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="2" t="s">
         <v>259</v>
       </c>
       <c r="Q18" s="1">
         <v>44795</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S18" s="1">
         <v>45426</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V18" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Y18" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC18" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AD18" s="2" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>30.043946999999999</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>31.272347</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="2" t="s">
         <v>340</v>
       </c>
       <c r="Q19" s="1">
         <v>44795</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="2" t="s">
         <v>341</v>
       </c>
       <c r="S19" s="1">
         <v>45426</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V19" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y19" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AC19" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AD19" s="2" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>30.042556000000001</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>31.274581000000001</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="2" t="s">
         <v>350</v>
       </c>
       <c r="Q20" s="1">
         <v>44798</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S20" s="1">
         <v>45420</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T20" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U20" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V20" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="W20" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Y20" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AC20" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AD20" s="2" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>30.043880999999999</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>31.272400000000001</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21">
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="2">
         <v>2</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="2" t="s">
         <v>259</v>
       </c>
       <c r="Q21" s="1">
         <v>44803</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S21" s="1">
         <v>45420</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U21" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V21" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="W21" t="s">
+      <c r="W21" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="X21" t="s">
+      <c r="X21" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Y21" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AC21" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AD21" s="2" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>30.043486000000001</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>31.272478</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="2">
         <v>2</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="2" t="s">
         <v>259</v>
       </c>
       <c r="Q22" s="1">
         <v>44803</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S22" s="1">
         <v>45426</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T22" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V22" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W22" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y22" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AC22" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AD22" s="2" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>30.043347000000001</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>31.271993999999999</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="2">
         <v>2</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="2" t="s">
         <v>259</v>
       </c>
       <c r="Q23" s="1">
         <v>44809</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S23" s="1">
         <v>45421</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="U23" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V23" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Y23" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AC23" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AD23" s="2" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>30.042867000000001</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>31.271961000000001</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2" t="s">
         <v>383</v>
       </c>
       <c r="Q24" s="1">
         <v>44809</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S24" s="1">
         <v>45420</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U24" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V24" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y24" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AC24" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AD24" s="2" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>30.042408000000002</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>31.272082999999999</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="E25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25">
+      <c r="L25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="2">
         <v>2</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="2" t="s">
         <v>259</v>
       </c>
       <c r="Q25" s="1">
         <v>44809</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S25" s="1">
         <v>45420</v>
       </c>
-      <c r="T25" t="s">
+      <c r="T25" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="U25" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="V25" t="s">
+      <c r="V25" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y25" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AC25" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AD25" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>30.043431999999999</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>31.269936999999999</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="E26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="2" t="s">
         <v>398</v>
       </c>
       <c r="Q26" s="1">
         <v>44777</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S26" s="1">
         <v>45420</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T26" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U26" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="V26" t="s">
+      <c r="V26" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W26" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Y26" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AC26" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AD26" s="2" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>30.043298</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>31.269832000000001</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="2" t="s">
         <v>411</v>
       </c>
       <c r="Q27" s="1">
         <v>44777</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S27" s="1">
         <v>45421</v>
       </c>
-      <c r="T27" t="s">
+      <c r="T27" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="U27" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="V27" t="s">
+      <c r="V27" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="W27" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Y27" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AC27" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AD27" s="2" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>30.041399999999999</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>31.272991999999999</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="2">
         <v>2</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="2" t="s">
         <v>420</v>
       </c>
       <c r="Q28" s="1">
         <v>44809</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S28" s="1">
         <v>45440</v>
       </c>
-      <c r="T28" t="s">
+      <c r="T28" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U28" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V28" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="X28" t="s">
+      <c r="X28" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Y28" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AC28" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AD28" s="2" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>30.041128</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>31.273016999999999</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="E29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="2">
         <v>2</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="2" t="s">
         <v>68</v>
       </c>
       <c r="Q29" s="1">
         <v>44798</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S29" s="1">
         <v>45421</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T29" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V29" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="X29" t="s">
+      <c r="X29" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Y29" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AC29" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AD29" s="2" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>30.040744</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>31.27355</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="2">
         <v>2</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="2" t="s">
         <v>68</v>
       </c>
       <c r="Q30" s="1">
         <v>44798</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S30" s="1">
         <v>45428</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T30" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V30" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="X30" t="s">
+      <c r="X30" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Y30" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AC30" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AD30" s="2" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>30.041798</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>31.271045000000001</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="M31" s="2">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>450</v>
       </c>
       <c r="Q31" s="1">
         <v>44784</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S31" s="1">
         <v>45428</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T31" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="U31" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="V31" t="s">
+      <c r="V31" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W31" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Y31" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AC31" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AD31" s="2" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>30.040438999999999</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>31.272559000000001</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="2" t="s">
         <v>460</v>
       </c>
       <c r="Q32" s="1">
         <v>44782</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R32" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S32" s="1">
         <v>45428</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T32" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="U32" t="s">
+      <c r="U32" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="V32" t="s">
+      <c r="V32" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="W32" t="s">
+      <c r="W32" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Y32" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AC32" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AD32" s="2" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
         <v>30.042361</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>31.269033</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="E33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="2" t="s">
         <v>470</v>
       </c>
       <c r="Q33" s="1">
         <v>44777</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R33" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S33" s="1">
         <v>45421</v>
       </c>
-      <c r="T33" t="s">
+      <c r="T33" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U33" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V33" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="W33" t="s">
+      <c r="W33" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="X33" t="s">
+      <c r="X33" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Y33" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AC33" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AD33" s="2" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>30.042365</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>31.268958999999999</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="E34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="2" t="s">
         <v>480</v>
       </c>
       <c r="Q34" s="1">
         <v>44776</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R34" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S34" s="1">
         <v>45421</v>
       </c>
-      <c r="T34" t="s">
+      <c r="T34" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="U34" s="3" t="s">
+      <c r="U34" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V34" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="W34" s="3" t="s">
+      <c r="W34" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Y34" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AC34" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AD34" s="2" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>30.042031999999999</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>31.269379000000001</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2" t="s">
         <v>488</v>
       </c>
       <c r="Q35" s="1">
         <v>44784</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R35" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S35" s="1">
         <v>45440</v>
       </c>
-      <c r="T35" t="s">
+      <c r="T35" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="U35" s="3" t="s">
+      <c r="U35" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="V35" t="s">
+      <c r="V35" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="W35" s="3" t="s">
+      <c r="W35" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="X35" t="s">
+      <c r="X35" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Y35" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AC35" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AD35" s="2" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>30.041796999999999</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>31.269607000000001</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36">
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="2">
         <v>2</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="2" t="s">
         <v>488</v>
       </c>
       <c r="Q36" s="1">
         <v>44781</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S36" s="1">
         <v>45428</v>
       </c>
-      <c r="T36" t="s">
+      <c r="T36" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="U36" t="s">
+      <c r="U36" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="V36" t="s">
+      <c r="V36" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="W36" t="s">
+      <c r="W36" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Y36" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AC36" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AD36" s="2" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>30.041184999999999</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>31.27065</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="E37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="2">
         <v>3</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="2" t="s">
         <v>508</v>
       </c>
       <c r="Q37" s="1">
         <v>44784</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37" s="2" t="s">
         <v>509</v>
       </c>
       <c r="S37" s="1">
         <v>45419</v>
       </c>
-      <c r="T37" t="s">
+      <c r="T37" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="U37" t="s">
+      <c r="U37" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="V37" t="s">
+      <c r="V37" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Y37" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AC37" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AD37" s="2" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>30.041149000000001</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>31.270697999999999</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="2">
         <v>2</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="2" t="s">
         <v>450</v>
       </c>
       <c r="Q38" s="1">
         <v>44784</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R38" s="2" t="s">
         <v>509</v>
       </c>
       <c r="S38" s="1">
         <v>45420</v>
       </c>
-      <c r="T38" t="s">
+      <c r="T38" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="U38" t="s">
+      <c r="U38" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="V38" t="s">
+      <c r="V38" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="W38" t="s">
+      <c r="W38" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Y38" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AC38" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AD38" s="2" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>30.041086</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>31.273382000000002</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="E39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="2">
         <v>2</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="2" t="s">
         <v>470</v>
       </c>
       <c r="Q39" s="1">
         <v>44784</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R39" s="2" t="s">
         <v>509</v>
       </c>
       <c r="S39" s="1">
         <v>45420</v>
       </c>
-      <c r="T39" t="s">
+      <c r="T39" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="U39" t="s">
+      <c r="U39" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="V39" t="s">
+      <c r="V39" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="X39" t="s">
+      <c r="X39" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Y39" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AC39" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AD39" s="2" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>30.040908999999999</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>31.27103</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="E40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40">
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="2">
         <v>5</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="2" t="s">
         <v>450</v>
       </c>
       <c r="Q40" s="1">
         <v>44784</v>
       </c>
-      <c r="R40" t="s">
+      <c r="R40" s="2" t="s">
         <v>509</v>
       </c>
       <c r="S40" s="1">
         <v>45420</v>
       </c>
-      <c r="T40" t="s">
+      <c r="T40" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="U40" t="s">
+      <c r="U40" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="V40" t="s">
+      <c r="V40" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="W40" t="s">
+      <c r="W40" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Y40" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AC40" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AD40" s="2" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>30.041781</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>31.268961000000001</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="2">
         <v>2</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="2" t="s">
         <v>59</v>
       </c>
       <c r="Q41" s="1">
         <v>44781</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R41" s="2" t="s">
         <v>509</v>
       </c>
       <c r="S41" s="1">
         <v>45420</v>
       </c>
-      <c r="T41" t="s">
+      <c r="T41" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="U41" t="s">
+      <c r="U41" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="V41" t="s">
+      <c r="V41" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="W41" t="s">
+      <c r="W41" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Y41" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AC41" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AD41" s="2" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>30.041201999999998</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>31.269784999999999</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="E42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="2">
         <v>2</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O42" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="2" t="s">
         <v>553</v>
       </c>
       <c r="Q42" s="1">
         <v>44784</v>
       </c>
-      <c r="R42" t="s">
+      <c r="R42" s="2" t="s">
         <v>197</v>
       </c>
       <c r="S42" s="1">
         <v>45431</v>
       </c>
-      <c r="T42" t="s">
+      <c r="T42" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="U42" t="s">
+      <c r="U42" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="V42" t="s">
+      <c r="V42" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="W42" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Y42" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AC42" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AD42" s="2" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>30.041014000000001</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>31.269717</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="E43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43">
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" s="2">
         <v>2</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="2" t="s">
         <v>59</v>
       </c>
       <c r="Q43" s="1">
         <v>44781</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R43" s="2" t="s">
         <v>509</v>
       </c>
       <c r="S43" s="1">
         <v>45420</v>
       </c>
-      <c r="U43" t="s">
+      <c r="U43" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="V43" t="s">
+      <c r="V43" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="W43" t="s">
+      <c r="W43" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Y43" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AC43" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AD43" s="2" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>30.040949000000001</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>31.270219999999998</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" t="s">
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="M44" s="2">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P44" s="2" t="s">
         <v>450</v>
       </c>
       <c r="Q44" s="1">
         <v>44795</v>
       </c>
-      <c r="R44" t="s">
+      <c r="R44" s="2" t="s">
         <v>509</v>
       </c>
       <c r="S44" s="1">
         <v>45421</v>
       </c>
-      <c r="U44" t="s">
+      <c r="U44" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="V44" t="s">
+      <c r="V44" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="W44" t="s">
+      <c r="W44" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Y44" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="AC44" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AD44" s="2" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>30.040687999999999</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>31.270517999999999</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="E45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="2">
         <v>3</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="2" t="s">
         <v>259</v>
       </c>
       <c r="Q45" s="1">
         <v>44784</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R45" s="2" t="s">
         <v>509</v>
       </c>
       <c r="S45" s="1">
         <v>44784</v>
       </c>
-      <c r="T45" t="s">
+      <c r="T45" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="U45" t="s">
+      <c r="U45" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="V45" t="s">
+      <c r="V45" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="W45" t="s">
+      <c r="W45" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Y45" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="AC45" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AD45" s="2" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>30.040407999999999</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>31.270600000000002</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="E46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="M46" s="2">
+        <v>1</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O46" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="2" t="s">
         <v>318</v>
       </c>
       <c r="Q46" s="1">
         <v>44781</v>
       </c>
-      <c r="R46" t="s">
+      <c r="R46" s="2" t="s">
         <v>509</v>
       </c>
       <c r="S46" s="1">
         <v>45421</v>
       </c>
-      <c r="U46" t="s">
+      <c r="U46" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="V46" t="s">
+      <c r="V46" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="W46" t="s">
+      <c r="W46" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Y46" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AC46" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="AD46" t="s">
+      <c r="AD46" s="2" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>30.040424999999999</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>31.269731</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" t="s">
+      <c r="E47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="2">
         <v>2</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="2" t="s">
         <v>318</v>
       </c>
       <c r="Q47" s="1">
         <v>44781</v>
       </c>
-      <c r="R47" t="s">
+      <c r="R47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S47" s="1">
         <v>45426</v>
       </c>
-      <c r="U47" t="s">
+      <c r="U47" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="V47" t="s">
+      <c r="V47" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W47" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Y47" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AC47" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AD47" s="2" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>30.041453000000001</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>31.268401999999998</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="E48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>32</v>
-      </c>
-      <c r="L48" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48">
+      <c r="E48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" s="2">
         <v>2</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N48" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="2" t="s">
         <v>603</v>
       </c>
       <c r="Q48" s="1">
         <v>44776</v>
       </c>
-      <c r="R48" t="s">
+      <c r="R48" s="2" t="s">
         <v>509</v>
       </c>
       <c r="S48" s="1">
         <v>45421</v>
       </c>
-      <c r="U48" t="s">
+      <c r="U48" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="V48" t="s">
+      <c r="V48" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Y48" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="AC48" t="s">
+      <c r="AC48" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="AD48" t="s">
+      <c r="AD48" s="2" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>30.040946000000002</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>31.268138</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="E49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" t="s">
-        <v>32</v>
-      </c>
-      <c r="L49" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49">
+      <c r="E49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="2">
         <v>2</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P49" s="2" t="s">
         <v>470</v>
       </c>
       <c r="Q49" s="1">
         <v>44777</v>
       </c>
-      <c r="R49" t="s">
+      <c r="R49" s="2" t="s">
         <v>509</v>
       </c>
       <c r="S49" s="1">
         <v>45421</v>
       </c>
-      <c r="U49" t="s">
+      <c r="U49" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="V49" t="s">
+      <c r="V49" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="W49" t="s">
+      <c r="W49" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Y49" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="AC49" t="s">
+      <c r="AC49" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AD49" t="s">
+      <c r="AD49" s="2" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>30.040645000000001</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>31.267776999999999</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="E50" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" t="s">
-        <v>32</v>
-      </c>
-      <c r="L50" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50">
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" s="2">
         <v>2</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P50" s="2" t="s">
         <v>508</v>
       </c>
       <c r="Q50" s="1">
         <v>44777</v>
       </c>
-      <c r="R50" t="s">
+      <c r="R50" s="2" t="s">
         <v>509</v>
       </c>
       <c r="S50" s="1">
         <v>45421</v>
       </c>
-      <c r="U50" t="s">
+      <c r="U50" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="V50" t="s">
+      <c r="V50" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="W50" t="s">
+      <c r="W50" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Y50" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="AC50" t="s">
+      <c r="AC50" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AD50" s="2" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>30.039878000000002</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>31.269283000000001</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51">
+      <c r="E51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="2">
         <v>3</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P51" s="2" t="s">
         <v>318</v>
       </c>
       <c r="Q51" s="1">
         <v>44659</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R51" s="2" t="s">
         <v>197</v>
       </c>
       <c r="S51" s="1">
         <v>45409</v>
       </c>
-      <c r="T51" t="s">
+      <c r="T51" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="U51" t="s">
+      <c r="U51" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="V51" t="s">
+      <c r="V51" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Y51" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="AC51" t="s">
+      <c r="AC51" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AD51" t="s">
+      <c r="AD51" s="2" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>30.039878000000002</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>31.269283000000001</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="E52" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="b">
-        <v>0</v>
-      </c>
-      <c r="K52" t="s">
-        <v>32</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="P52" t="s">
+      <c r="M52" s="2">
+        <v>1</v>
+      </c>
+      <c r="P52" s="2" t="s">
         <v>631</v>
       </c>
       <c r="Q52" s="1">
         <v>44795</v>
       </c>
-      <c r="R52" t="s">
+      <c r="R52" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S52" s="1">
         <v>45425</v>
       </c>
-      <c r="T52" t="s">
+      <c r="T52" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="U52" t="s">
+      <c r="U52" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="V52" t="s">
+      <c r="V52" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="W52" t="s">
+      <c r="W52" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="X52" t="s">
+      <c r="X52" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Y52" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="AC52" t="s">
+      <c r="AC52" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="AD52" t="s">
+      <c r="AD52" s="2" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>30.043914999999998</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>31.273475000000001</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="E53" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="b">
-        <v>0</v>
-      </c>
-      <c r="K53" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="2">
         <v>3</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="2" t="s">
         <v>645</v>
       </c>
       <c r="Q53" s="1">
         <v>44578</v>
       </c>
-      <c r="R53" t="s">
+      <c r="R53" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S53" s="1">
         <v>45425</v>
       </c>
-      <c r="T53" t="s">
+      <c r="T53" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="U53" t="s">
+      <c r="U53" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="V53" t="s">
+      <c r="V53" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="W53" t="s">
+      <c r="W53" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Y53" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="AC53" t="s">
+      <c r="AC53" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="AD53" t="s">
+      <c r="AD53" s="2" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>30.049703000000001</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>31.276494</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="b">
-        <v>0</v>
-      </c>
-      <c r="K54" t="s">
-        <v>32</v>
-      </c>
-      <c r="L54" t="s">
-        <v>32</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54" t="s">
+      <c r="E54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O54" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="2" t="s">
         <v>129</v>
       </c>
       <c r="Q54" s="1">
         <v>45146</v>
       </c>
-      <c r="R54" t="s">
+      <c r="R54" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S54" s="1">
         <v>45425</v>
       </c>
-      <c r="T54" t="s">
+      <c r="T54" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="U54" t="s">
+      <c r="U54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="V54" t="s">
+      <c r="V54" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="W54" t="s">
+      <c r="W54" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="X54" t="s">
+      <c r="X54" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Y54" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AC54" t="s">
+      <c r="AC54" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AD54" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>30.04805</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>31.275400000000001</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="b">
-        <v>0</v>
-      </c>
-      <c r="K55" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55">
+      <c r="E55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="2">
         <v>2</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O55" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="2" t="s">
         <v>129</v>
       </c>
       <c r="Q55" s="1">
         <v>45139</v>
       </c>
-      <c r="R55" t="s">
+      <c r="R55" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S55" s="1">
         <v>45425</v>
       </c>
-      <c r="U55" t="s">
+      <c r="U55" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="V55" t="s">
+      <c r="V55" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Y55" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AC55" t="s">
+      <c r="AC55" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AD55" t="s">
+      <c r="AD55" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>30.048078</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>31.275151000000001</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E56" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="E56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="b">
-        <v>0</v>
-      </c>
-      <c r="K56" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" t="s">
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="2">
         <v>2</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P56" s="2" t="s">
         <v>129</v>
       </c>
       <c r="Q56" s="1">
         <v>45139</v>
       </c>
-      <c r="R56" t="s">
+      <c r="R56" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S56" s="1">
         <v>45425</v>
       </c>
-      <c r="U56" t="s">
+      <c r="U56" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="V56" t="s">
+      <c r="V56" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Y56" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AC56" t="s">
+      <c r="AC56" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AD56" t="s">
+      <c r="AD56" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>30.044965000000001</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>31.274262</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E57" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="E57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="b">
-        <v>0</v>
-      </c>
-      <c r="K57" t="s">
-        <v>32</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L57" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="2">
         <v>2</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P57" s="2" t="s">
         <v>156</v>
       </c>
       <c r="Q57" s="1">
         <v>45139</v>
       </c>
-      <c r="R57" t="s">
+      <c r="R57" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S57" s="1">
         <v>45433</v>
       </c>
-      <c r="T57" t="s">
+      <c r="T57" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="U57" t="s">
+      <c r="U57" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="V57" t="s">
+      <c r="V57" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W57" s="3" t="s">
+      <c r="W57" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="X57" s="3" t="s">
+      <c r="X57" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Y57" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AC57" t="s">
+      <c r="AC57" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="AD57" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>30.047775000000001</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>31.275089000000001</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="E58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="b">
-        <v>0</v>
-      </c>
-      <c r="K58" t="s">
-        <v>32</v>
-      </c>
-      <c r="L58" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58">
+      <c r="E58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" s="2">
         <v>3</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="2" t="s">
         <v>164</v>
       </c>
       <c r="Q58" s="1">
         <v>45146</v>
       </c>
-      <c r="R58" t="s">
+      <c r="R58" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S58" s="1">
         <v>45433</v>
       </c>
-      <c r="T58" t="s">
+      <c r="T58" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="U58" t="s">
+      <c r="U58" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="V58" t="s">
+      <c r="V58" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="W58" t="s">
+      <c r="W58" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Y58" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AC58" t="s">
+      <c r="AC58" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AD58" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>30.047443999999999</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>31.274978000000001</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="b">
-        <v>0</v>
-      </c>
-      <c r="K59" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" t="s">
+      <c r="E59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="2">
         <v>3</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O59" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P59" s="2" t="s">
         <v>129</v>
       </c>
       <c r="Q59" s="1">
         <v>45146</v>
       </c>
-      <c r="R59" t="s">
+      <c r="R59" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S59" s="1">
         <v>45433</v>
       </c>
-      <c r="U59" t="s">
+      <c r="U59" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="V59" t="s">
+      <c r="V59" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Y59" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AC59" t="s">
+      <c r="AC59" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AD59" t="s">
+      <c r="AD59" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>30.047055</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>31.274771999999999</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="E60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="b">
-        <v>0</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="2">
         <v>2</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N60" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O60" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P60" t="s">
+      <c r="P60" s="2" t="s">
         <v>182</v>
       </c>
       <c r="Q60" s="1">
         <v>45146</v>
       </c>
-      <c r="R60" t="s">
+      <c r="R60" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S60" s="1">
         <v>45433</v>
       </c>
-      <c r="U60" s="3" t="s">
+      <c r="U60" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="V60" t="s">
+      <c r="V60" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="W60" t="s">
+      <c r="W60" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Y60" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AC60" t="s">
+      <c r="AC60" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AD60" t="s">
+      <c r="AD60" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>30.047097000000001</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>31.274588999999999</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E61" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="E61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="b">
-        <v>0</v>
-      </c>
-      <c r="K61" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" t="s">
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="2">
         <v>2</v>
       </c>
-      <c r="P61" t="s">
+      <c r="P61" s="2" t="s">
         <v>189</v>
       </c>
       <c r="Q61" s="1">
         <v>45141</v>
       </c>
-      <c r="R61" t="s">
+      <c r="R61" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S61" s="1">
         <v>45433</v>
       </c>
-      <c r="U61" s="3" t="s">
+      <c r="U61" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="V61" t="s">
+      <c r="V61" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="W61" t="s">
+      <c r="W61" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Y61" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AC61" t="s">
+      <c r="AC61" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AD61" t="s">
+      <c r="AD61" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>30.046392999999998</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>31.274982000000001</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="E62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="b">
-        <v>0</v>
-      </c>
-      <c r="K62" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62">
+      <c r="E62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" s="2">
         <v>3</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N62" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="O62" t="s">
+      <c r="O62" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P62" s="2" t="s">
         <v>197</v>
       </c>
       <c r="Q62" s="1">
         <v>45186</v>
       </c>
-      <c r="R62" t="s">
+      <c r="R62" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S62" s="1">
         <v>45433</v>
       </c>
-      <c r="U62" t="s">
+      <c r="U62" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="V62" t="s">
+      <c r="V62" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Y62" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="AC62" t="s">
+      <c r="AC62" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AD62" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>30.046755999999998</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>31.274531</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="b">
-        <v>0</v>
-      </c>
-      <c r="K63" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63">
+      <c r="E63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" s="2">
         <v>3</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N63" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O63" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P63" s="2" t="s">
         <v>203</v>
       </c>
       <c r="Q63" s="1">
         <v>44776</v>
       </c>
-      <c r="R63" t="s">
+      <c r="R63" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S63" s="1">
         <v>45433</v>
       </c>
-      <c r="U63" t="s">
+      <c r="U63" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="V63" t="s">
+      <c r="V63" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="W63" t="s">
+      <c r="W63" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Y63" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AC63" t="s">
+      <c r="AC63" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AD63" t="s">
+      <c r="AD63" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>30.046789</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>31.274363999999998</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="b">
-        <v>0</v>
-      </c>
-      <c r="K64" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="E64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="2">
         <v>2</v>
       </c>
-      <c r="P64" t="s">
+      <c r="P64" s="2" t="s">
         <v>210</v>
       </c>
       <c r="Q64" s="1">
         <v>45141</v>
       </c>
-      <c r="R64" t="s">
+      <c r="R64" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S64" s="1">
         <v>45421</v>
       </c>
-      <c r="T64" t="s">
+      <c r="T64" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="U64" t="s">
+      <c r="U64" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="V64" t="s">
+      <c r="V64" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Y64" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AC64" t="s">
+      <c r="AC64" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AD64" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>30.046519</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>31.274325000000001</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="E65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="b">
-        <v>0</v>
-      </c>
-      <c r="K65" t="s">
-        <v>32</v>
-      </c>
-      <c r="L65" t="s">
+      <c r="E65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="2">
         <v>2</v>
       </c>
-      <c r="N65" t="s">
+      <c r="N65" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="O65" t="s">
+      <c r="O65" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="P65" t="s">
+      <c r="P65" s="2" t="s">
         <v>219</v>
       </c>
       <c r="Q65" s="1">
         <v>45141</v>
       </c>
-      <c r="R65" t="s">
+      <c r="R65" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S65" s="1">
         <v>45420</v>
       </c>
-      <c r="U65" t="s">
+      <c r="U65" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V65" t="s">
+      <c r="V65" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="W65" t="s">
+      <c r="W65" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Y65" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AC65" t="s">
+      <c r="AC65" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AD65" t="s">
+      <c r="AD65" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>30.046493999999999</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>31.274139000000002</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="b">
-        <v>0</v>
-      </c>
-      <c r="K66" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" t="s">
-        <v>32</v>
-      </c>
-      <c r="M66">
+      <c r="E66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" s="2">
         <v>4</v>
       </c>
-      <c r="N66" t="s">
+      <c r="N66" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O66" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P66" t="s">
+      <c r="P66" s="2" t="s">
         <v>227</v>
       </c>
       <c r="Q66" s="1">
         <v>44776</v>
       </c>
-      <c r="R66" t="s">
+      <c r="R66" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S66" s="1">
         <v>45433</v>
       </c>
-      <c r="U66" t="s">
+      <c r="U66" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="V66" t="s">
+      <c r="V66" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Y66" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="AC66" t="s">
+      <c r="AC66" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AD66" t="s">
+      <c r="AD66" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>30.049792</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>31.277014000000001</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="E67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="b">
-        <v>0</v>
-      </c>
-      <c r="K67" t="s">
-        <v>32</v>
-      </c>
-      <c r="L67" t="s">
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L67" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67" t="s">
+      <c r="M67" s="2">
+        <v>1</v>
+      </c>
+      <c r="N67" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P67" t="s">
+      <c r="P67" s="2" t="s">
         <v>235</v>
       </c>
       <c r="Q67" s="1">
         <v>44776</v>
       </c>
-      <c r="R67" t="s">
+      <c r="R67" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S67" s="1">
         <v>45433</v>
       </c>
-      <c r="T67" t="s">
+      <c r="T67" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="U67" t="s">
+      <c r="U67" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="V67" t="s">
+      <c r="V67" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="W67" t="s">
+      <c r="W67" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="X67" t="s">
+      <c r="X67" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Y67" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AC67" t="s">
+      <c r="AC67" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="AD67" t="s">
+      <c r="AD67" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>30.045048999999999</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>31.274334</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E68" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="E68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="b">
-        <v>0</v>
-      </c>
-      <c r="K68" t="s">
-        <v>32</v>
-      </c>
-      <c r="L68" t="s">
-        <v>32</v>
-      </c>
-      <c r="M68">
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M68" s="2">
         <v>2</v>
       </c>
-      <c r="P68" t="s">
+      <c r="P68" s="2" t="s">
         <v>219</v>
       </c>
       <c r="Q68" s="1">
         <v>45146</v>
       </c>
-      <c r="R68" t="s">
+      <c r="R68" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S68" s="1">
         <v>45414</v>
       </c>
-      <c r="U68" t="s">
+      <c r="U68" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="V68" t="s">
+      <c r="V68" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="W68" t="s">
+      <c r="W68" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Y68" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AC68" t="s">
+      <c r="AC68" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AD68" t="s">
+      <c r="AD68" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>30.044965000000001</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>31.274262</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E69" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="b">
-        <v>1</v>
-      </c>
-      <c r="K69" t="s">
-        <v>32</v>
-      </c>
-      <c r="L69" t="s">
+      <c r="H69" s="2">
+        <v>1</v>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L69" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="2">
         <v>2</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N69" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O69" t="s">
+      <c r="O69" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P69" t="s">
+      <c r="P69" s="2" t="s">
         <v>219</v>
       </c>
       <c r="Q69" s="1">
         <v>45146</v>
       </c>
-      <c r="R69" t="s">
+      <c r="R69" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S69" s="1">
         <v>45419</v>
       </c>
-      <c r="T69" t="s">
+      <c r="T69" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="U69" s="3" t="s">
+      <c r="U69" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="V69" t="s">
+      <c r="V69" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="W69" s="3" t="s">
+      <c r="W69" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Y69" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AC69" t="s">
+      <c r="AC69" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AD69" t="s">
+      <c r="AD69" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>30.044308999999998</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>31.273057999999999</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="b">
-        <v>0</v>
-      </c>
-      <c r="K70" t="s">
-        <v>32</v>
-      </c>
-      <c r="L70" t="s">
-        <v>32</v>
-      </c>
-      <c r="M70">
+      <c r="E70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M70" s="2">
         <v>3</v>
       </c>
-      <c r="N70" t="s">
+      <c r="N70" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O70" t="s">
+      <c r="O70" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P70" t="s">
+      <c r="P70" s="2" t="s">
         <v>227</v>
       </c>
       <c r="Q70" s="1">
         <v>44774</v>
       </c>
-      <c r="R70" t="s">
+      <c r="R70" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S70" s="1">
         <v>45433</v>
       </c>
-      <c r="U70" t="s">
+      <c r="U70" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="V70" t="s">
+      <c r="V70" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Y70" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="AC70" t="s">
+      <c r="AC70" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AD70" t="s">
+      <c r="AD70" s="2" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>30.042936999999998</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
         <v>31.274581000000001</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="E71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="b">
-        <v>0</v>
-      </c>
-      <c r="K71" t="s">
-        <v>32</v>
-      </c>
-      <c r="L71" t="s">
-        <v>32</v>
-      </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="N71" t="s">
+      <c r="E71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M71" s="2">
+        <v>1</v>
+      </c>
+      <c r="N71" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="O71" t="s">
+      <c r="O71" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="P71" t="s">
+      <c r="P71" s="2" t="s">
         <v>659</v>
       </c>
       <c r="Q71" s="1">
         <v>45201</v>
       </c>
-      <c r="R71" t="s">
+      <c r="R71" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S71" s="1">
         <v>45413</v>
       </c>
-      <c r="U71" t="s">
+      <c r="U71" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="V71" t="s">
+      <c r="V71" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="W71" t="s">
+      <c r="W71" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="X71" t="s">
+      <c r="X71" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Y71" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="AC71" t="s">
+      <c r="AC71" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="AD71" t="s">
+      <c r="AD71" s="2" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>30.044944000000001</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
         <v>31.271142000000001</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="E72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="b">
-        <v>0</v>
-      </c>
-      <c r="K72" t="s">
-        <v>32</v>
-      </c>
-      <c r="L72" t="s">
+      <c r="E72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L72" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72" t="s">
+      <c r="M72" s="2">
+        <v>1</v>
+      </c>
+      <c r="N72" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="O72" t="s">
+      <c r="O72" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="P72" t="s">
+      <c r="P72" s="2" t="s">
         <v>197</v>
       </c>
       <c r="Q72" s="1">
         <v>45239</v>
       </c>
-      <c r="R72" t="s">
+      <c r="R72" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S72" s="1">
         <v>45413</v>
       </c>
-      <c r="T72" t="s">
+      <c r="T72" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="U72" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="V72" s="3" t="s">
+      <c r="V72" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="W72" s="3" t="s">
+      <c r="W72" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="X72" t="s">
+      <c r="X72" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Y72" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="AC72" t="s">
+      <c r="AC72" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="AD72" t="s">
+      <c r="AD72" s="2" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>30.043256</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
         <v>31.271837000000001</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="b">
-        <v>0</v>
-      </c>
-      <c r="K73" t="s">
+      <c r="E73" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L73" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="N73" t="s">
+      <c r="M73" s="2">
+        <v>1</v>
+      </c>
+      <c r="N73" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="O73" t="s">
+      <c r="O73" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="P73" t="s">
+      <c r="P73" s="2" t="s">
         <v>197</v>
       </c>
       <c r="Q73" s="1">
         <v>45420</v>
       </c>
-      <c r="R73" t="s">
+      <c r="R73" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S73" s="1">
         <v>45435</v>
       </c>
-      <c r="T73" t="s">
+      <c r="T73" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="U73" t="s">
+      <c r="U73" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="V73" t="s">
+      <c r="V73" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Y73" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="AC73" t="s">
+      <c r="AC73" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="AD73" t="s">
+      <c r="AD73" s="2" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>30.041091999999999</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
         <v>31.273053000000001</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="E74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="b">
-        <v>0</v>
-      </c>
-      <c r="K74" t="s">
-        <v>32</v>
-      </c>
-      <c r="L74" t="s">
-        <v>32</v>
-      </c>
-      <c r="M74">
+      <c r="E74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" s="2">
         <v>3</v>
       </c>
-      <c r="N74" t="s">
+      <c r="N74" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O74" t="s">
+      <c r="O74" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="P74" t="s">
+      <c r="P74" s="2" t="s">
         <v>686</v>
       </c>
       <c r="Q74" s="1">
         <v>44787</v>
       </c>
-      <c r="R74" t="s">
+      <c r="R74" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S74" s="1">
         <v>45413</v>
       </c>
-      <c r="T74" t="s">
+      <c r="T74" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="U74" t="s">
+      <c r="U74" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="V74" t="s">
+      <c r="V74" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Y74" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="AC74" t="s">
+      <c r="AC74" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AD74" t="s">
+      <c r="AD74" s="2" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>30.041989000000001</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
         <v>31.271526000000001</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="E75" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="E75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" t="s">
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L75" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="2">
         <v>2</v>
       </c>
-      <c r="P75" t="s">
+      <c r="P75" s="2" t="s">
         <v>696</v>
       </c>
       <c r="Q75" s="1">
         <v>44787</v>
       </c>
-      <c r="R75" t="s">
+      <c r="R75" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S75" s="1">
         <v>45435</v>
       </c>
-      <c r="U75" t="s">
+      <c r="U75" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="V75" t="s">
+      <c r="V75" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Y75" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="AC75" t="s">
+      <c r="AC75" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="AD75" t="s">
+      <c r="AD75" s="2" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>30.042127000000001</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <v>31.271336000000002</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="E76" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="E76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="b">
-        <v>0</v>
-      </c>
-      <c r="K76" t="s">
-        <v>32</v>
-      </c>
-      <c r="L76" t="s">
-        <v>32</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="P76" t="s">
+      <c r="H76" s="2">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" s="2">
+        <v>1</v>
+      </c>
+      <c r="P76" s="2" t="s">
         <v>686</v>
       </c>
       <c r="Q76" s="1">
         <v>45152</v>
       </c>
-      <c r="R76" t="s">
+      <c r="R76" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S76" s="1">
         <v>45414</v>
       </c>
-      <c r="U76" s="3" t="s">
+      <c r="U76" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="V76" t="s">
+      <c r="V76" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Y76" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="AC76" t="s">
+      <c r="AC76" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="AD76" t="s">
+      <c r="AD76" s="2" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>30.041036999999999</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
         <v>31.270205000000001</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="E77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" t="s">
-        <v>32</v>
-      </c>
-      <c r="L77" t="s">
-        <v>32</v>
-      </c>
-      <c r="M77">
+      <c r="E77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" s="2">
         <v>2</v>
       </c>
-      <c r="N77" t="s">
+      <c r="N77" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="P77" t="s">
+      <c r="P77" s="2" t="s">
         <v>197</v>
       </c>
       <c r="Q77" s="1">
         <v>45250</v>
       </c>
-      <c r="R77" t="s">
+      <c r="R77" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S77" s="1">
         <v>45435</v>
       </c>
-      <c r="T77" t="s">
+      <c r="T77" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="U77" t="s">
+      <c r="U77" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="V77" t="s">
+      <c r="V77" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="W77" t="s">
+      <c r="W77" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Y77" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="AC77" t="s">
+      <c r="AC77" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="AD77" t="s">
+      <c r="AD77" s="2" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>30.04195</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
         <v>31.278656999999999</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="E78" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="E78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="b">
-        <v>0</v>
-      </c>
-      <c r="K78" t="s">
-        <v>32</v>
-      </c>
-      <c r="L78" t="s">
-        <v>32</v>
-      </c>
-      <c r="M78">
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78" s="2">
         <v>2</v>
       </c>
-      <c r="P78" t="s">
+      <c r="P78" s="2" t="s">
         <v>716</v>
       </c>
       <c r="Q78" s="1">
         <v>45148</v>
       </c>
-      <c r="R78" t="s">
+      <c r="R78" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S78" s="1">
         <v>45419</v>
       </c>
-      <c r="U78" t="s">
+      <c r="U78" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="V78" t="s">
+      <c r="V78" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Y78" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="AC78" t="s">
+      <c r="AC78" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="AD78" t="s">
+      <c r="AD78" s="2" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>30.039505999999999</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <v>31.271972000000002</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="E79" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="E79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="b">
-        <v>0</v>
-      </c>
-      <c r="K79" t="s">
-        <v>32</v>
-      </c>
-      <c r="L79" t="s">
+      <c r="H79" s="2">
+        <v>1</v>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="2">
         <v>3</v>
       </c>
-      <c r="P79" t="s">
+      <c r="P79" s="2" t="s">
         <v>723</v>
       </c>
       <c r="Q79" s="1">
         <v>45152</v>
       </c>
-      <c r="R79" t="s">
+      <c r="R79" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S79" s="1">
         <v>45419</v>
       </c>
-      <c r="U79" t="s">
+      <c r="U79" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="V79" t="s">
+      <c r="V79" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="W79" t="s">
+      <c r="W79" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Y79" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="AC79" t="s">
+      <c r="AC79" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="AD79" t="s">
+      <c r="AD79" s="2" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>30.039335999999999</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <v>31.271692000000002</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="E80" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="E80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="b">
-        <v>0</v>
-      </c>
-      <c r="K80" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" t="s">
+      <c r="H80" s="2">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="2">
         <v>3</v>
       </c>
-      <c r="P80" t="s">
+      <c r="P80" s="2" t="s">
         <v>732</v>
       </c>
       <c r="Q80" s="1">
         <v>45152</v>
       </c>
-      <c r="R80" t="s">
+      <c r="R80" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S80" s="1">
         <v>45440</v>
       </c>
-      <c r="U80" s="3" t="s">
+      <c r="U80" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="V80" t="s">
+      <c r="V80" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="W80" t="s">
+      <c r="W80" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="X80" t="s">
+      <c r="X80" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Y80" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="AC80" t="s">
+      <c r="AC80" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="AD80" t="s">
+      <c r="AD80" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>30.038891</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <v>31.271498999999999</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="E81" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="E81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="b">
-        <v>0</v>
-      </c>
-      <c r="K81" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" t="s">
-        <v>32</v>
-      </c>
-      <c r="M81">
+      <c r="H81" s="2">
+        <v>1</v>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" s="2">
         <v>3</v>
       </c>
-      <c r="P81" t="s">
+      <c r="P81" s="2" t="s">
         <v>732</v>
       </c>
       <c r="Q81" s="1">
         <v>45152</v>
       </c>
-      <c r="R81" t="s">
+      <c r="R81" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S81" s="1">
         <v>45440</v>
       </c>
-      <c r="T81" t="s">
+      <c r="T81" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="U81" t="s">
+      <c r="U81" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="V81" t="s">
+      <c r="V81" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Y81" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="AC81" t="s">
+      <c r="AC81" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="AD81" t="s">
+      <c r="AD81" s="2" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>30.038667</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <v>31.271186</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="E82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="b">
-        <v>0</v>
-      </c>
-      <c r="K82" t="s">
-        <v>32</v>
-      </c>
-      <c r="L82" t="s">
+      <c r="E82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="2">
         <v>2</v>
       </c>
-      <c r="N82" t="s">
+      <c r="N82" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O82" t="s">
+      <c r="O82" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="P82" t="s">
+      <c r="P82" s="2" t="s">
         <v>749</v>
       </c>
       <c r="Q82" s="1">
         <v>45152</v>
       </c>
-      <c r="R82" t="s">
+      <c r="R82" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S82" s="1">
         <v>45435</v>
       </c>
-      <c r="U82" t="s">
+      <c r="U82" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="V82" t="s">
+      <c r="V82" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Y82" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="AC82" t="s">
+      <c r="AC82" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AD82" t="s">
+      <c r="AD82" s="2" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>30.038992</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
         <v>31.270686000000001</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="E83" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="E83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="b">
-        <v>0</v>
-      </c>
-      <c r="K83" t="s">
-        <v>32</v>
-      </c>
-      <c r="L83" t="s">
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L83" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="2">
         <v>3</v>
       </c>
-      <c r="P83" t="s">
+      <c r="P83" s="2" t="s">
         <v>755</v>
       </c>
       <c r="Q83" s="1">
         <v>45152</v>
       </c>
-      <c r="R83" t="s">
+      <c r="R83" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S83" s="1">
         <v>45419</v>
       </c>
-      <c r="U83" t="s">
+      <c r="U83" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="V83" s="3" t="s">
+      <c r="V83" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="W83" t="s">
+      <c r="W83" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Y83" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="AC83" t="s">
+      <c r="AC83" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="AD83" t="s">
+      <c r="AD83" s="2" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>30.040644</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
         <v>31.269933000000002</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="b">
-        <v>0</v>
-      </c>
-      <c r="K84" t="s">
+      <c r="E84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L84" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="2">
         <v>4</v>
       </c>
-      <c r="N84" t="s">
+      <c r="N84" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O84" t="s">
+      <c r="O84" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P84" t="s">
+      <c r="P84" s="2" t="s">
         <v>732</v>
       </c>
       <c r="Q84" s="1">
         <v>45152</v>
       </c>
-      <c r="R84" t="s">
+      <c r="R84" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S84" s="1">
         <v>45435</v>
       </c>
-      <c r="T84" t="s">
+      <c r="T84" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="U84" s="3" t="s">
+      <c r="U84" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="V84" t="s">
+      <c r="V84" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="W84" t="s">
+      <c r="W84" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Y84" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="AC84" t="s">
+      <c r="AC84" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AD84" t="s">
+      <c r="AD84" s="2" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
         <v>30.041369</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
         <v>31.268246000000001</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="E85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="b">
-        <v>0</v>
-      </c>
-      <c r="K85" t="s">
-        <v>32</v>
-      </c>
-      <c r="L85" t="s">
-        <v>32</v>
-      </c>
-      <c r="M85">
+      <c r="E85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M85" s="2">
         <v>2</v>
       </c>
-      <c r="N85" t="s">
+      <c r="N85" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="O85" t="s">
+      <c r="O85" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="P85" t="s">
+      <c r="P85" s="2" t="s">
         <v>716</v>
       </c>
       <c r="Q85" s="1">
         <v>45148</v>
       </c>
-      <c r="R85" t="s">
+      <c r="R85" s="2" t="s">
         <v>768</v>
       </c>
       <c r="S85" s="1">
         <v>45419</v>
       </c>
-      <c r="U85" s="3" t="s">
+      <c r="U85" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="V85" t="s">
+      <c r="V85" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Y85" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="AC85" t="s">
+      <c r="AC85" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="AD85" t="s">
+      <c r="AD85" s="2" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
         <v>30.041322999999998</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <v>31.268204000000001</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="b">
-        <v>0</v>
-      </c>
-      <c r="K86" t="s">
-        <v>32</v>
-      </c>
-      <c r="L86" t="s">
-        <v>32</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86" t="s">
+      <c r="E86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M86" s="2">
+        <v>1</v>
+      </c>
+      <c r="N86" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="O86" t="s">
+      <c r="O86" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="P86" t="s">
+      <c r="P86" s="2" t="s">
         <v>716</v>
       </c>
       <c r="Q86" s="1">
         <v>45148</v>
       </c>
-      <c r="R86" t="s">
+      <c r="R86" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S86" s="1">
         <v>45420</v>
       </c>
-      <c r="U86" s="3" t="s">
+      <c r="U86" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="V86" t="s">
+      <c r="V86" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Y86" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="AC86" t="s">
+      <c r="AC86" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="AD86" t="s">
+      <c r="AD86" s="2" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>30.041108999999999</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <v>31.268107000000001</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="E87" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" t="s">
-        <v>32</v>
-      </c>
-      <c r="L87" t="s">
-        <v>32</v>
-      </c>
-      <c r="M87">
+      <c r="E87" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M87" s="2">
         <v>2</v>
       </c>
-      <c r="N87" t="s">
+      <c r="N87" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="O87" t="s">
+      <c r="O87" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="P87" t="s">
+      <c r="P87" s="2" t="s">
         <v>716</v>
       </c>
       <c r="Q87" s="1">
         <v>45148</v>
       </c>
-      <c r="R87" t="s">
+      <c r="R87" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S87" s="1">
         <v>45420</v>
       </c>
-      <c r="U87" t="s">
+      <c r="U87" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="V87" t="s">
+      <c r="V87" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Y87" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="AC87" t="s">
+      <c r="AC87" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="AD87" t="s">
+      <c r="AD87" s="2" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>30.041042999999998</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
         <v>31.267969999999998</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="E88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="b">
-        <v>0</v>
-      </c>
-      <c r="K88" t="s">
-        <v>32</v>
-      </c>
-      <c r="L88" t="s">
+      <c r="E88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L88" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="2">
         <v>2</v>
       </c>
-      <c r="N88" t="s">
+      <c r="N88" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="O88" t="s">
+      <c r="O88" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="P88" t="s">
+      <c r="P88" s="2" t="s">
         <v>716</v>
       </c>
       <c r="Q88" s="1">
         <v>45141</v>
       </c>
-      <c r="R88" t="s">
+      <c r="R88" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S88" s="1">
         <v>45420</v>
       </c>
-      <c r="U88" t="s">
+      <c r="U88" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="V88" t="s">
+      <c r="V88" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="W88" t="s">
+      <c r="W88" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Y88" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="AC88" t="s">
+      <c r="AC88" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="AD88" t="s">
+      <c r="AD88" s="2" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>30.040773999999999</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
         <v>31.267911000000002</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="E89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K89" t="s">
-        <v>32</v>
-      </c>
-      <c r="L89" t="s">
-        <v>32</v>
-      </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="N89" t="s">
+      <c r="E89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M89" s="2">
+        <v>1</v>
+      </c>
+      <c r="N89" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="O89" t="s">
+      <c r="O89" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="P89" t="s">
+      <c r="P89" s="2" t="s">
         <v>716</v>
       </c>
       <c r="Q89" s="1">
         <v>45148</v>
       </c>
-      <c r="R89" t="s">
+      <c r="R89" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S89" s="1">
         <v>45420</v>
       </c>
-      <c r="T89" t="s">
+      <c r="T89" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="U89" s="3" t="s">
+      <c r="U89" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="V89" t="s">
+      <c r="V89" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Y89" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="AC89" t="s">
+      <c r="AC89" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AD89" t="s">
+      <c r="AD89" s="2" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>30.039460999999999</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
         <v>31.268969999999999</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="E90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" t="s">
-        <v>32</v>
-      </c>
-      <c r="L90" t="s">
+      <c r="E90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L90" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="2">
         <v>3</v>
       </c>
-      <c r="N90" t="s">
+      <c r="N90" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O90" t="s">
+      <c r="O90" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="P90" t="s">
+      <c r="P90" s="2" t="s">
         <v>723</v>
       </c>
       <c r="Q90" s="1">
         <v>45159</v>
       </c>
-      <c r="R90" t="s">
+      <c r="R90" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S90" s="1">
         <v>45420</v>
       </c>
-      <c r="U90" s="3" t="s">
+      <c r="U90" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="V90" t="s">
+      <c r="V90" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="W90" t="s">
+      <c r="W90" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Y90" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="AC90" t="s">
+      <c r="AC90" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AD90" t="s">
+      <c r="AD90" s="2" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
         <v>30.041015999999999</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="2">
         <v>31.270945000000001</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="E91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="E91" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="L91" t="s">
+      <c r="L91" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="2">
         <v>3</v>
       </c>
-      <c r="N91" t="s">
+      <c r="N91" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O91" t="s">
+      <c r="O91" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="P91" t="s">
+      <c r="P91" s="2" t="s">
         <v>197</v>
       </c>
       <c r="Q91" s="1">
         <v>45250</v>
       </c>
-      <c r="R91" t="s">
+      <c r="R91" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S91" s="1">
         <v>45440</v>
       </c>
-      <c r="T91" t="s">
+      <c r="T91" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="U91" t="s">
+      <c r="U91" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="V91" t="s">
+      <c r="V91" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Y91" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="AC91" t="s">
+      <c r="AC91" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AD91" t="s">
+      <c r="AD91" s="2" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
         <v>30.043880999999999</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
         <v>31.273619</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="E92" t="b">
-        <v>0</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="E92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" t="s">
-        <v>32</v>
-      </c>
-      <c r="L92" t="s">
-        <v>32</v>
-      </c>
-      <c r="M92">
+      <c r="H92" s="2">
+        <v>1</v>
+      </c>
+      <c r="I92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M92" s="2">
         <v>2</v>
       </c>
-      <c r="P92" t="s">
+      <c r="P92" s="2" t="s">
         <v>645</v>
       </c>
       <c r="Q92" s="1">
         <v>44578</v>
       </c>
-      <c r="R92" t="s">
+      <c r="R92" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S92" s="1">
         <v>45440</v>
       </c>
-      <c r="U92" s="3" t="s">
+      <c r="U92" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="V92" t="s">
+      <c r="V92" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="W92" t="s">
+      <c r="W92" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Y92" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="AC92" t="s">
+      <c r="AC92" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="AD92" t="s">
+      <c r="AD92" s="2" t="s">
         <v>812</v>
       </c>
     </row>

--- a/projects/cod/business_data/xlsx/records_NS.xlsx
+++ b/projects/cod/business_data/xlsx/records_NS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\projects\cod\business_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E3E1BF-A6B7-4BA5-91D9-F75C430231FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFFD7F1-60C7-42B2-A028-663674E14DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -3117,12 +3117,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3137,13 +3149,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3451,6736 +3470,6735 @@
   <dimension ref="A1:AD92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="68.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="171" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="95.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="203.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="255.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="171" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="95.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="203.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>30.049202000000001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>31.276140000000002</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="1">
         <v>44805</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" t="s">
         <v>34</v>
       </c>
       <c r="S2" s="1">
         <v>45411</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" t="s">
         <v>835</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>30.049088999999999</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>31.275894000000001</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>813</v>
       </c>
-      <c r="E3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" t="s">
         <v>45</v>
       </c>
       <c r="Q3" s="1">
         <v>44809</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" t="s">
         <v>46</v>
       </c>
       <c r="S3" s="1">
         <v>45424</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AC3" t="s">
         <v>53</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>30.047742</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>31.275178</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4">
         <v>4</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" t="s">
         <v>58</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" t="s">
         <v>59</v>
       </c>
       <c r="Q4" s="1">
         <v>44805</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" t="s">
         <v>46</v>
       </c>
       <c r="S4" s="1">
         <v>45424</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" t="s">
         <v>836</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" t="s">
         <v>837</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" t="s">
         <v>838</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Y4" t="s">
         <v>62</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AC4" t="s">
         <v>63</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AD4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>30.041149000000001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>31.273807999999999</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" t="s">
         <v>839</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="1">
         <v>44791</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" t="s">
         <v>46</v>
       </c>
       <c r="S5" s="1">
         <v>45424</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" t="s">
         <v>69</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" t="s">
         <v>840</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="X5" t="s">
         <v>71</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Y5" t="s">
         <v>72</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AC5" t="s">
         <v>73</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AD5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>30.045597000000001</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>31.273371999999998</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6">
         <v>2</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" t="s">
         <v>59</v>
       </c>
       <c r="Q6" s="1">
         <v>44791</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" t="s">
         <v>79</v>
       </c>
       <c r="S6" s="1">
         <v>45431</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" t="s">
         <v>80</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="U6" t="s">
         <v>81</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="W6" t="s">
         <v>83</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Y6" t="s">
         <v>84</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AC6" t="s">
         <v>85</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AD6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>30.045117000000001</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>31.274014000000001</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7">
         <v>2</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" t="s">
         <v>90</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" t="s">
         <v>68</v>
       </c>
       <c r="Q7" s="1">
         <v>44791</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" t="s">
         <v>79</v>
       </c>
       <c r="S7" s="1">
         <v>45431</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" t="s">
         <v>91</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" t="s">
         <v>841</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" t="s">
         <v>92</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" t="s">
         <v>93</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Y7" t="s">
         <v>94</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AC7" t="s">
         <v>95</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AD7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>30.045406</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>31.273382000000002</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
         <v>98</v>
       </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>99</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" t="s">
         <v>100</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" t="s">
         <v>59</v>
       </c>
       <c r="Q8" s="1">
         <v>44791</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" t="s">
         <v>46</v>
       </c>
       <c r="S8" s="1">
         <v>45424</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" t="s">
         <v>101</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="V8" t="s">
         <v>103</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="W8" t="s">
         <v>104</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Y8" t="s">
         <v>105</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AC8" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AD8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>30.044741999999999</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>31.273924999999998</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" t="s">
         <v>110</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" t="s">
         <v>111</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" t="s">
         <v>68</v>
       </c>
       <c r="Q9" s="1">
         <v>44791</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" t="s">
         <v>46</v>
       </c>
       <c r="S9" s="1">
         <v>45424</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9" t="s">
         <v>112</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="U9" t="s">
         <v>113</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="V9" t="s">
         <v>114</v>
       </c>
-      <c r="W9" s="2" t="s">
+      <c r="W9" t="s">
         <v>115</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Y9" t="s">
         <v>116</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AC9" t="s">
         <v>110</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AD9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>30.045463999999999</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>31.272703</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10">
         <v>2</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" t="s">
         <v>119</v>
       </c>
       <c r="Q10" s="1">
         <v>44791</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" t="s">
         <v>46</v>
       </c>
       <c r="S10" s="1">
         <v>45424</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" t="s">
         <v>120</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" t="s">
         <v>842</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="V10" t="s">
         <v>121</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="W10" t="s">
         <v>122</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="X10" t="s">
         <v>843</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Y10" t="s">
         <v>123</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AC10" t="s">
         <v>124</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AD10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>30.044899999999998</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>31.272991999999999</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>255</v>
       </c>
-      <c r="E11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>257</v>
       </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
         <v>258</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11">
         <v>2</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" t="s">
         <v>259</v>
       </c>
       <c r="Q11" s="1">
         <v>44788</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" t="s">
         <v>46</v>
       </c>
       <c r="S11" s="1">
         <v>45424</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" t="s">
         <v>260</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="U11" t="s">
         <v>844</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="V11" t="s">
         <v>261</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="W11" t="s">
         <v>845</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="X11" t="s">
         <v>846</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Y11" t="s">
         <v>262</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AC11" t="s">
         <v>263</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AD11" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>30.044955999999999</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>31.272646999999999</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
         <v>266</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
         <v>267</v>
       </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2" t="s">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>268</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" t="s">
         <v>269</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" t="s">
         <v>259</v>
       </c>
       <c r="Q12" s="1">
         <v>44803</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" t="s">
         <v>79</v>
       </c>
       <c r="S12" s="1">
         <v>45413</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" t="s">
         <v>270</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="U12" t="s">
         <v>271</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="V12" t="s">
         <v>272</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="W12" t="s">
         <v>273</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="Y12" t="s">
         <v>274</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AC12" t="s">
         <v>275</v>
       </c>
-      <c r="AD12" s="2" t="s">
+      <c r="AD12" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>30.044741999999999</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>31.273002999999999</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>277</v>
       </c>
-      <c r="E13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
         <v>278</v>
       </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
         <v>279</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13">
         <v>2</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" t="s">
         <v>68</v>
       </c>
       <c r="Q13" s="1">
         <v>44803</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" t="s">
         <v>79</v>
       </c>
       <c r="S13" s="1">
         <v>45414</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="T13" t="s">
         <v>280</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="U13" t="s">
         <v>281</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="V13" t="s">
         <v>282</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="W13" t="s">
         <v>283</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="Y13" t="s">
         <v>284</v>
       </c>
-      <c r="AC13" s="2" t="s">
+      <c r="AC13" t="s">
         <v>285</v>
       </c>
-      <c r="AD13" s="2" t="s">
+      <c r="AD13" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>30.044543999999998</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>31.273399999999999</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>287</v>
       </c>
-      <c r="E14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
         <v>288</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
         <v>279</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14">
         <v>2</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" t="s">
         <v>288</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" t="s">
         <v>289</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" t="s">
         <v>259</v>
       </c>
       <c r="Q14" s="1">
         <v>44788</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" t="s">
         <v>79</v>
       </c>
       <c r="S14" s="1">
         <v>45428</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="T14" t="s">
         <v>290</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="U14" t="s">
         <v>291</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="V14" t="s">
         <v>292</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="W14" t="s">
         <v>293</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="X14" t="s">
         <v>294</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="Y14" t="s">
         <v>295</v>
       </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AC14" t="s">
         <v>296</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AD14" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>30.044457999999999</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>31.273219000000001</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>298</v>
       </c>
-      <c r="E15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>299</v>
       </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="P15" s="2" t="s">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
         <v>259</v>
       </c>
       <c r="Q15" s="1">
         <v>44788</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" t="s">
         <v>79</v>
       </c>
       <c r="S15" s="1">
         <v>45428</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T15" t="s">
         <v>300</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="U15" t="s">
         <v>847</v>
       </c>
-      <c r="V15" s="2" t="s">
+      <c r="V15" t="s">
         <v>301</v>
       </c>
-      <c r="W15" s="2" t="s">
+      <c r="W15" t="s">
         <v>302</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Y15" t="s">
         <v>303</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AC15" t="s">
         <v>304</v>
       </c>
-      <c r="AD15" s="2" t="s">
+      <c r="AD15" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>30.044053000000002</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>31.273717000000001</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>306</v>
       </c>
-      <c r="E16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16">
         <v>4</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" t="s">
         <v>307</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" t="s">
         <v>308</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" t="s">
         <v>309</v>
       </c>
       <c r="Q16" s="1">
         <v>45153</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" t="s">
         <v>79</v>
       </c>
       <c r="S16" s="1">
         <v>45440</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" t="s">
         <v>310</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="U16" t="s">
         <v>848</v>
       </c>
-      <c r="V16" s="2" t="s">
+      <c r="V16" t="s">
         <v>311</v>
       </c>
-      <c r="W16" s="2" t="s">
+      <c r="W16" t="s">
         <v>312</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="Y16" t="s">
         <v>313</v>
       </c>
-      <c r="AC16" s="2" t="s">
+      <c r="AC16" t="s">
         <v>314</v>
       </c>
-      <c r="AD16" s="2" t="s">
+      <c r="AD16" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>30.042839000000001</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>31.274850000000001</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>316</v>
       </c>
-      <c r="E17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>317</v>
       </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="2" t="s">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17">
         <v>3</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P17" t="s">
         <v>318</v>
       </c>
       <c r="Q17" s="1">
         <v>44798</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" t="s">
         <v>79</v>
       </c>
       <c r="S17" s="1">
         <v>45414</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="T17" t="s">
         <v>849</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="U17" t="s">
         <v>319</v>
       </c>
-      <c r="V17" s="2" t="s">
+      <c r="V17" t="s">
         <v>320</v>
       </c>
-      <c r="W17" s="2" t="s">
+      <c r="W17" t="s">
         <v>850</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="X17" t="s">
         <v>321</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Y17" t="s">
         <v>322</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AC17" t="s">
         <v>323</v>
       </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AD17" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>30.044647000000001</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>31.272618999999999</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>325</v>
       </c>
-      <c r="E18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>326</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" t="s">
         <v>327</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18">
         <v>2</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" t="s">
         <v>328</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" t="s">
         <v>329</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" t="s">
         <v>259</v>
       </c>
       <c r="Q18" s="1">
         <v>44795</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="R18" t="s">
         <v>46</v>
       </c>
       <c r="S18" s="1">
         <v>45426</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="U18" t="s">
         <v>330</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="V18" t="s">
         <v>331</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="W18" t="s">
         <v>332</v>
       </c>
-      <c r="Y18" s="2" t="s">
+      <c r="Y18" t="s">
         <v>333</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="AC18" t="s">
         <v>334</v>
       </c>
-      <c r="AD18" s="2" t="s">
+      <c r="AD18" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>30.043946999999999</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>31.272347</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="E19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
         <v>336</v>
       </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="2" t="s">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
         <v>337</v>
       </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="2" t="s">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>338</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" t="s">
         <v>339</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P19" t="s">
         <v>340</v>
       </c>
       <c r="Q19" s="1">
         <v>44795</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" t="s">
         <v>341</v>
       </c>
       <c r="S19" s="1">
         <v>45426</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="T19" t="s">
         <v>342</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="U19" t="s">
         <v>343</v>
       </c>
-      <c r="V19" s="2" t="s">
+      <c r="V19" t="s">
         <v>344</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="Y19" t="s">
         <v>345</v>
       </c>
-      <c r="AC19" s="2" t="s">
+      <c r="AC19" t="s">
         <v>346</v>
       </c>
-      <c r="AD19" s="2" t="s">
+      <c r="AD19" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>30.042556000000001</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>31.274581000000001</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>851</v>
       </c>
-      <c r="E20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>348</v>
       </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2" t="s">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>349</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P20" t="s">
         <v>350</v>
       </c>
       <c r="Q20" s="1">
         <v>44798</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R20" t="s">
         <v>79</v>
       </c>
       <c r="S20" s="1">
         <v>45420</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" t="s">
         <v>351</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="U20" t="s">
         <v>352</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="V20" t="s">
         <v>353</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="W20" t="s">
         <v>852</v>
       </c>
-      <c r="Y20" s="2" t="s">
+      <c r="Y20" t="s">
         <v>354</v>
       </c>
-      <c r="AC20" s="2" t="s">
+      <c r="AC20" t="s">
         <v>355</v>
       </c>
-      <c r="AD20" s="2" t="s">
+      <c r="AD20" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>30.043880999999999</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>31.272400000000001</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>357</v>
       </c>
-      <c r="E21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
         <v>358</v>
       </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21">
         <v>2</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" t="s">
         <v>359</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" t="s">
         <v>360</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" t="s">
         <v>259</v>
       </c>
       <c r="Q21" s="1">
         <v>44803</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" t="s">
         <v>79</v>
       </c>
       <c r="S21" s="1">
         <v>45420</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" t="s">
         <v>361</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="U21" t="s">
         <v>362</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="V21" t="s">
         <v>363</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="W21" t="s">
         <v>364</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="X21" t="s">
         <v>853</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Y21" t="s">
         <v>365</v>
       </c>
-      <c r="AC21" s="2" t="s">
+      <c r="AC21" t="s">
         <v>366</v>
       </c>
-      <c r="AD21" s="2" t="s">
+      <c r="AD21" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>30.043486000000001</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>31.272478</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>368</v>
       </c>
-      <c r="E22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
         <v>369</v>
       </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>370</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" t="s">
         <v>370</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22">
         <v>2</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P22" t="s">
         <v>259</v>
       </c>
       <c r="Q22" s="1">
         <v>44803</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R22" t="s">
         <v>46</v>
       </c>
       <c r="S22" s="1">
         <v>45426</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T22" t="s">
         <v>371</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="U22" t="s">
         <v>854</v>
       </c>
-      <c r="V22" s="2" t="s">
+      <c r="V22" t="s">
         <v>372</v>
       </c>
-      <c r="W22" s="2" t="s">
+      <c r="W22" t="s">
         <v>373</v>
       </c>
-      <c r="Y22" s="2" t="s">
+      <c r="Y22" t="s">
         <v>374</v>
       </c>
-      <c r="AC22" s="2" t="s">
+      <c r="AC22" t="s">
         <v>375</v>
       </c>
-      <c r="AD22" s="2" t="s">
+      <c r="AD22" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>30.043347000000001</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>31.271993999999999</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="E23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>358</v>
       </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
         <v>370</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" t="s">
         <v>370</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23">
         <v>2</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P23" t="s">
         <v>259</v>
       </c>
       <c r="Q23" s="1">
         <v>44809</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R23" t="s">
         <v>46</v>
       </c>
       <c r="S23" s="1">
         <v>45421</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="U23" t="s">
         <v>855</v>
       </c>
-      <c r="V23" s="2" t="s">
+      <c r="V23" t="s">
         <v>376</v>
       </c>
-      <c r="W23" s="2" t="s">
+      <c r="W23" t="s">
         <v>377</v>
       </c>
-      <c r="Y23" s="2" t="s">
+      <c r="Y23" t="s">
         <v>378</v>
       </c>
-      <c r="AC23" s="2" t="s">
+      <c r="AC23" t="s">
         <v>379</v>
       </c>
-      <c r="AD23" s="2" t="s">
+      <c r="AD23" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>30.042867000000001</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>31.271961000000001</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="E24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
         <v>381</v>
       </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
         <v>382</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" t="s">
         <v>382</v>
       </c>
-      <c r="M24" s="2">
-        <v>1</v>
-      </c>
-      <c r="P24" s="2" t="s">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
         <v>383</v>
       </c>
       <c r="Q24" s="1">
         <v>44809</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="R24" t="s">
         <v>79</v>
       </c>
       <c r="S24" s="1">
         <v>45420</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="T24" t="s">
         <v>384</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="U24" t="s">
         <v>385</v>
       </c>
-      <c r="V24" s="2" t="s">
+      <c r="V24" t="s">
         <v>386</v>
       </c>
-      <c r="W24" s="2" t="s">
+      <c r="W24" t="s">
         <v>387</v>
       </c>
-      <c r="Y24" s="2" t="s">
+      <c r="Y24" t="s">
         <v>388</v>
       </c>
-      <c r="AC24" s="2" t="s">
+      <c r="AC24" t="s">
         <v>389</v>
       </c>
-      <c r="AD24" s="2" t="s">
+      <c r="AD24" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>30.042408000000002</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>31.272082999999999</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
         <v>391</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="2">
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25">
         <v>2</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N25" t="s">
         <v>163</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" t="s">
         <v>392</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P25" t="s">
         <v>259</v>
       </c>
       <c r="Q25" s="1">
         <v>44809</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="R25" t="s">
         <v>79</v>
       </c>
       <c r="S25" s="1">
         <v>45420</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="T25" t="s">
         <v>393</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="U25" t="s">
         <v>856</v>
       </c>
-      <c r="V25" s="2" t="s">
+      <c r="V25" t="s">
         <v>394</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="W25" t="s">
         <v>395</v>
       </c>
-      <c r="Y25" s="2" t="s">
+      <c r="Y25" t="s">
         <v>396</v>
       </c>
-      <c r="AC25" s="2" t="s">
+      <c r="AC25" t="s">
         <v>163</v>
       </c>
-      <c r="AD25" s="2" t="s">
+      <c r="AD25" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>30.043431999999999</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>31.269936999999999</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="E26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="2">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2" t="s">
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
         <v>163</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" t="s">
         <v>392</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="P26" t="s">
         <v>398</v>
       </c>
       <c r="Q26" s="1">
         <v>44777</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="R26" t="s">
         <v>79</v>
       </c>
       <c r="S26" s="1">
         <v>45420</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="T26" t="s">
         <v>399</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="U26" t="s">
         <v>400</v>
       </c>
-      <c r="V26" s="2" t="s">
+      <c r="V26" t="s">
         <v>401</v>
       </c>
-      <c r="W26" s="2" t="s">
+      <c r="W26" t="s">
         <v>402</v>
       </c>
-      <c r="Y26" s="2" t="s">
+      <c r="Y26" t="s">
         <v>403</v>
       </c>
-      <c r="AC26" s="2" t="s">
+      <c r="AC26" t="s">
         <v>163</v>
       </c>
-      <c r="AD26" s="2" t="s">
+      <c r="AD26" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>30.043298</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>31.269832000000001</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>405</v>
       </c>
-      <c r="E27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
         <v>406</v>
       </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
         <v>407</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" t="s">
         <v>408</v>
       </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2" t="s">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
         <v>409</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" t="s">
         <v>410</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="P27" t="s">
         <v>411</v>
       </c>
       <c r="Q27" s="1">
         <v>44777</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="R27" t="s">
         <v>79</v>
       </c>
       <c r="S27" s="1">
         <v>45421</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="T27" t="s">
         <v>412</v>
       </c>
-      <c r="U27" s="2" t="s">
+      <c r="U27" t="s">
         <v>857</v>
       </c>
-      <c r="V27" s="2" t="s">
+      <c r="V27" t="s">
         <v>413</v>
       </c>
-      <c r="W27" s="2" t="s">
+      <c r="W27" t="s">
         <v>858</v>
       </c>
-      <c r="Y27" s="2" t="s">
+      <c r="Y27" t="s">
         <v>414</v>
       </c>
-      <c r="AC27" s="2" t="s">
+      <c r="AC27" t="s">
         <v>415</v>
       </c>
-      <c r="AD27" s="2" t="s">
+      <c r="AD27" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>30.041399999999999</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>31.272991999999999</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>859</v>
       </c>
-      <c r="E28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
         <v>416</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" t="s">
         <v>417</v>
       </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
         <v>418</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" t="s">
         <v>418</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28">
         <v>2</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N28" t="s">
         <v>163</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" t="s">
         <v>419</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="P28" t="s">
         <v>420</v>
       </c>
       <c r="Q28" s="1">
         <v>44809</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="R28" t="s">
         <v>79</v>
       </c>
       <c r="S28" s="1">
         <v>45440</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="T28" t="s">
         <v>421</v>
       </c>
-      <c r="U28" s="2" t="s">
+      <c r="U28" t="s">
         <v>860</v>
       </c>
-      <c r="V28" s="2" t="s">
+      <c r="V28" t="s">
         <v>422</v>
       </c>
-      <c r="W28" s="2" t="s">
+      <c r="W28" t="s">
         <v>861</v>
       </c>
-      <c r="X28" s="2" t="s">
+      <c r="X28" t="s">
         <v>423</v>
       </c>
-      <c r="Y28" s="2" t="s">
+      <c r="Y28" t="s">
         <v>424</v>
       </c>
-      <c r="AC28" s="2" t="s">
+      <c r="AC28" t="s">
         <v>425</v>
       </c>
-      <c r="AD28" s="2" t="s">
+      <c r="AD28" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>30.041128</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>31.273016999999999</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>427</v>
       </c>
-      <c r="E29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
         <v>428</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" t="s">
         <v>429</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29">
         <v>2</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="N29" t="s">
         <v>430</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" t="s">
         <v>431</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="P29" t="s">
         <v>68</v>
       </c>
       <c r="Q29" s="1">
         <v>44798</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="R29" t="s">
         <v>79</v>
       </c>
       <c r="S29" s="1">
         <v>45421</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="T29" t="s">
         <v>432</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="U29" t="s">
         <v>433</v>
       </c>
-      <c r="V29" s="2" t="s">
+      <c r="V29" t="s">
         <v>862</v>
       </c>
-      <c r="W29" s="2" t="s">
+      <c r="W29" t="s">
         <v>434</v>
       </c>
-      <c r="X29" s="2" t="s">
+      <c r="X29" t="s">
         <v>435</v>
       </c>
-      <c r="Y29" s="2" t="s">
+      <c r="Y29" t="s">
         <v>436</v>
       </c>
-      <c r="AC29" s="2" t="s">
+      <c r="AC29" t="s">
         <v>430</v>
       </c>
-      <c r="AD29" s="2" t="s">
+      <c r="AD29" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>30.040744</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>31.27355</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>818</v>
       </c>
-      <c r="E30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
         <v>438</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
         <v>439</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" t="s">
         <v>56</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30">
         <v>2</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="P30" t="s">
         <v>68</v>
       </c>
       <c r="Q30" s="1">
         <v>44798</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="R30" t="s">
         <v>79</v>
       </c>
       <c r="S30" s="1">
         <v>45428</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="T30" t="s">
         <v>440</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="U30" t="s">
         <v>441</v>
       </c>
-      <c r="V30" s="2" t="s">
+      <c r="V30" t="s">
         <v>442</v>
       </c>
-      <c r="W30" s="2" t="s">
+      <c r="W30" t="s">
         <v>443</v>
       </c>
-      <c r="X30" s="2" t="s">
+      <c r="X30" t="s">
         <v>444</v>
       </c>
-      <c r="Y30" s="2" t="s">
+      <c r="Y30" t="s">
         <v>445</v>
       </c>
-      <c r="AC30" s="2" t="s">
+      <c r="AC30" t="s">
         <v>446</v>
       </c>
-      <c r="AD30" s="2" t="s">
+      <c r="AD30" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>30.041798</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>31.271045000000001</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="E31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
         <v>448</v>
       </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
         <v>449</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" t="s">
         <v>449</v>
       </c>
-      <c r="M31" s="2">
-        <v>1</v>
-      </c>
-      <c r="P31" s="2" t="s">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
         <v>450</v>
       </c>
       <c r="Q31" s="1">
         <v>44784</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R31" t="s">
         <v>79</v>
       </c>
       <c r="S31" s="1">
         <v>45428</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="T31" t="s">
         <v>451</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="U31" t="s">
         <v>863</v>
       </c>
-      <c r="V31" s="2" t="s">
+      <c r="V31" t="s">
         <v>452</v>
       </c>
-      <c r="W31" s="2" t="s">
+      <c r="W31" t="s">
         <v>453</v>
       </c>
-      <c r="Y31" s="2" t="s">
+      <c r="Y31" t="s">
         <v>454</v>
       </c>
-      <c r="AC31" s="2" t="s">
+      <c r="AC31" t="s">
         <v>455</v>
       </c>
-      <c r="AD31" s="2" t="s">
+      <c r="AD31" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>30.040438999999999</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>31.272559000000001</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>457</v>
       </c>
-      <c r="E32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
         <v>381</v>
       </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L32" s="2" t="s">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" t="s">
         <v>181</v>
       </c>
-      <c r="M32" s="2">
-        <v>1</v>
-      </c>
-      <c r="N32" s="2" t="s">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
         <v>458</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O32" t="s">
         <v>459</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="P32" t="s">
         <v>460</v>
       </c>
       <c r="Q32" s="1">
         <v>44782</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="R32" t="s">
         <v>79</v>
       </c>
       <c r="S32" s="1">
         <v>45428</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="T32" t="s">
         <v>461</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="U32" t="s">
         <v>462</v>
       </c>
-      <c r="V32" s="2" t="s">
+      <c r="V32" t="s">
         <v>463</v>
       </c>
-      <c r="W32" s="2" t="s">
+      <c r="W32" t="s">
         <v>864</v>
       </c>
-      <c r="Y32" s="2" t="s">
+      <c r="Y32" t="s">
         <v>464</v>
       </c>
-      <c r="AC32" s="2" t="s">
+      <c r="AC32" t="s">
         <v>465</v>
       </c>
-      <c r="AD32" s="2" t="s">
+      <c r="AD32" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>30.042361</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>31.269033</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>467</v>
       </c>
-      <c r="E33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" s="2">
-        <v>1</v>
-      </c>
-      <c r="N33" s="2" t="s">
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
         <v>468</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O33" t="s">
         <v>469</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="P33" t="s">
         <v>470</v>
       </c>
       <c r="Q33" s="1">
         <v>44777</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="R33" t="s">
         <v>46</v>
       </c>
       <c r="S33" s="1">
         <v>45421</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="T33" t="s">
         <v>471</v>
       </c>
-      <c r="U33" s="2" t="s">
+      <c r="U33" t="s">
         <v>472</v>
       </c>
-      <c r="V33" s="2" t="s">
+      <c r="V33" t="s">
         <v>473</v>
       </c>
-      <c r="W33" s="2" t="s">
+      <c r="W33" t="s">
         <v>474</v>
       </c>
-      <c r="X33" s="2" t="s">
+      <c r="X33" t="s">
         <v>475</v>
       </c>
-      <c r="Y33" s="2" t="s">
+      <c r="Y33" t="s">
         <v>476</v>
       </c>
-      <c r="AC33" s="2" t="s">
+      <c r="AC33" t="s">
         <v>477</v>
       </c>
-      <c r="AD33" s="2" t="s">
+      <c r="AD33" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>30.042365</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>31.268958999999999</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>820</v>
       </c>
-      <c r="E34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1</v>
-      </c>
-      <c r="N34" s="2" t="s">
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
         <v>479</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="O34" t="s">
         <v>865</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="P34" t="s">
         <v>480</v>
       </c>
       <c r="Q34" s="1">
         <v>44776</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="R34" t="s">
         <v>46</v>
       </c>
       <c r="S34" s="1">
         <v>45421</v>
       </c>
-      <c r="T34" s="2" t="s">
+      <c r="T34" t="s">
         <v>481</v>
       </c>
-      <c r="U34" s="2" t="s">
+      <c r="U34" t="s">
         <v>866</v>
       </c>
-      <c r="V34" s="2" t="s">
+      <c r="V34" t="s">
         <v>482</v>
       </c>
-      <c r="W34" s="2" t="s">
+      <c r="W34" t="s">
         <v>867</v>
       </c>
-      <c r="Y34" s="2" t="s">
+      <c r="Y34" t="s">
         <v>483</v>
       </c>
-      <c r="AC34" s="2" t="s">
+      <c r="AC34" t="s">
         <v>484</v>
       </c>
-      <c r="AD34" s="2" t="s">
+      <c r="AD34" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>30.042031999999999</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>31.269379000000001</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>486</v>
       </c>
-      <c r="E35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
         <v>487</v>
       </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="2" t="s">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" t="s">
         <v>181</v>
       </c>
-      <c r="M35" s="2">
-        <v>1</v>
-      </c>
-      <c r="P35" s="2" t="s">
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
         <v>488</v>
       </c>
       <c r="Q35" s="1">
         <v>44784</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="R35" t="s">
         <v>79</v>
       </c>
       <c r="S35" s="1">
         <v>45440</v>
       </c>
-      <c r="T35" s="2" t="s">
+      <c r="T35" t="s">
         <v>489</v>
       </c>
-      <c r="U35" s="2" t="s">
+      <c r="U35" t="s">
         <v>868</v>
       </c>
-      <c r="V35" s="2" t="s">
+      <c r="V35" t="s">
         <v>490</v>
       </c>
-      <c r="W35" s="2" t="s">
+      <c r="W35" t="s">
         <v>869</v>
       </c>
-      <c r="X35" s="2" t="s">
+      <c r="X35" t="s">
         <v>491</v>
       </c>
-      <c r="Y35" s="2" t="s">
+      <c r="Y35" t="s">
         <v>492</v>
       </c>
-      <c r="AC35" s="2" t="s">
+      <c r="AC35" t="s">
         <v>493</v>
       </c>
-      <c r="AD35" s="2" t="s">
+      <c r="AD35" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>30.041796999999999</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>31.269607000000001</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>495</v>
       </c>
-      <c r="E36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
         <v>496</v>
       </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" s="2">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36">
         <v>2</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="N36" t="s">
         <v>497</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="O36" t="s">
         <v>498</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="P36" t="s">
         <v>488</v>
       </c>
       <c r="Q36" s="1">
         <v>44781</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="R36" t="s">
         <v>79</v>
       </c>
       <c r="S36" s="1">
         <v>45428</v>
       </c>
-      <c r="T36" s="2" t="s">
+      <c r="T36" t="s">
         <v>499</v>
       </c>
-      <c r="U36" s="2" t="s">
+      <c r="U36" t="s">
         <v>500</v>
       </c>
-      <c r="V36" s="2" t="s">
+      <c r="V36" t="s">
         <v>501</v>
       </c>
-      <c r="W36" s="2" t="s">
+      <c r="W36" t="s">
         <v>870</v>
       </c>
-      <c r="Y36" s="2" t="s">
+      <c r="Y36" t="s">
         <v>502</v>
       </c>
-      <c r="AC36" s="2" t="s">
+      <c r="AC36" t="s">
         <v>503</v>
       </c>
-      <c r="AD36" s="2" t="s">
+      <c r="AD36" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>30.041184999999999</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>31.27065</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>821</v>
       </c>
-      <c r="E37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
         <v>505</v>
       </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
         <v>506</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" t="s">
         <v>506</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37">
         <v>3</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="N37" t="s">
         <v>163</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="O37" t="s">
         <v>507</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="P37" t="s">
         <v>508</v>
       </c>
       <c r="Q37" s="1">
         <v>44784</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="R37" t="s">
         <v>509</v>
       </c>
       <c r="S37" s="1">
         <v>45419</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="T37" t="s">
         <v>510</v>
       </c>
-      <c r="U37" s="2" t="s">
+      <c r="U37" t="s">
         <v>511</v>
       </c>
-      <c r="V37" s="2" t="s">
+      <c r="V37" t="s">
         <v>512</v>
       </c>
-      <c r="Y37" s="2" t="s">
+      <c r="Y37" t="s">
         <v>513</v>
       </c>
-      <c r="AC37" s="2" t="s">
+      <c r="AC37" t="s">
         <v>163</v>
       </c>
-      <c r="AD37" s="2" t="s">
+      <c r="AD37" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>30.041149000000001</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>31.270697999999999</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="E38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
         <v>515</v>
       </c>
-      <c r="H38" s="2">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
         <v>506</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" t="s">
         <v>337</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38">
         <v>2</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="P38" t="s">
         <v>450</v>
       </c>
       <c r="Q38" s="1">
         <v>44784</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="R38" t="s">
         <v>509</v>
       </c>
       <c r="S38" s="1">
         <v>45420</v>
       </c>
-      <c r="T38" s="2" t="s">
+      <c r="T38" t="s">
         <v>516</v>
       </c>
-      <c r="U38" s="2" t="s">
+      <c r="U38" t="s">
         <v>517</v>
       </c>
-      <c r="V38" s="2" t="s">
+      <c r="V38" t="s">
         <v>518</v>
       </c>
-      <c r="W38" s="2" t="s">
+      <c r="W38" t="s">
         <v>519</v>
       </c>
-      <c r="Y38" s="2" t="s">
+      <c r="Y38" t="s">
         <v>520</v>
       </c>
-      <c r="AC38" s="2" t="s">
+      <c r="AC38" t="s">
         <v>521</v>
       </c>
-      <c r="AD38" s="2" t="s">
+      <c r="AD38" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>30.041086</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>31.273382000000002</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>523</v>
       </c>
-      <c r="E39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
         <v>524</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" t="s">
         <v>524</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39">
         <v>2</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="N39" t="s">
         <v>525</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" t="s">
         <v>339</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="P39" t="s">
         <v>470</v>
       </c>
       <c r="Q39" s="1">
         <v>44784</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="R39" t="s">
         <v>509</v>
       </c>
       <c r="S39" s="1">
         <v>45420</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="T39" t="s">
         <v>871</v>
       </c>
-      <c r="U39" s="2" t="s">
+      <c r="U39" t="s">
         <v>526</v>
       </c>
-      <c r="V39" s="2" t="s">
+      <c r="V39" t="s">
         <v>527</v>
       </c>
-      <c r="X39" s="2" t="s">
+      <c r="X39" t="s">
         <v>853</v>
       </c>
-      <c r="Y39" s="2" t="s">
+      <c r="Y39" t="s">
         <v>528</v>
       </c>
-      <c r="AC39" s="2" t="s">
+      <c r="AC39" t="s">
         <v>529</v>
       </c>
-      <c r="AD39" s="2" t="s">
+      <c r="AD39" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>30.040908999999999</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>31.27103</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>823</v>
       </c>
-      <c r="E40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
         <v>278</v>
       </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" s="2">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40">
         <v>5</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="P40" t="s">
         <v>450</v>
       </c>
       <c r="Q40" s="1">
         <v>44784</v>
       </c>
-      <c r="R40" s="2" t="s">
+      <c r="R40" t="s">
         <v>509</v>
       </c>
       <c r="S40" s="1">
         <v>45420</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="T40" t="s">
         <v>531</v>
       </c>
-      <c r="U40" s="2" t="s">
+      <c r="U40" t="s">
         <v>532</v>
       </c>
-      <c r="V40" s="2" t="s">
+      <c r="V40" t="s">
         <v>533</v>
       </c>
-      <c r="W40" s="2" t="s">
+      <c r="W40" t="s">
         <v>534</v>
       </c>
-      <c r="Y40" s="2" t="s">
+      <c r="Y40" t="s">
         <v>535</v>
       </c>
-      <c r="AC40" s="2" t="s">
+      <c r="AC40" t="s">
         <v>536</v>
       </c>
-      <c r="AD40" s="2" t="s">
+      <c r="AD40" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>30.041781</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>31.268961000000001</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>824</v>
       </c>
-      <c r="E41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
         <v>538</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" t="s">
         <v>539</v>
       </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" s="2" t="s">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" t="s">
         <v>540</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41">
         <v>2</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="N41" t="s">
         <v>541</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="O41" t="s">
         <v>542</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="P41" t="s">
         <v>59</v>
       </c>
       <c r="Q41" s="1">
         <v>44781</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="R41" t="s">
         <v>509</v>
       </c>
       <c r="S41" s="1">
         <v>45420</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="T41" t="s">
         <v>543</v>
       </c>
-      <c r="U41" s="2" t="s">
+      <c r="U41" t="s">
         <v>872</v>
       </c>
-      <c r="V41" s="2" t="s">
+      <c r="V41" t="s">
         <v>544</v>
       </c>
-      <c r="W41" s="2" t="s">
+      <c r="W41" t="s">
         <v>873</v>
       </c>
-      <c r="Y41" s="2" t="s">
+      <c r="Y41" t="s">
         <v>545</v>
       </c>
-      <c r="AC41" s="2" t="s">
+      <c r="AC41" t="s">
         <v>546</v>
       </c>
-      <c r="AD41" s="2" t="s">
+      <c r="AD41" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>30.041201999999998</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>31.269784999999999</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s">
         <v>548</v>
       </c>
-      <c r="E42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2" t="s">
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
         <v>549</v>
       </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
         <v>550</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" t="s">
         <v>550</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42">
         <v>2</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="N42" t="s">
         <v>551</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="O42" t="s">
         <v>552</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="P42" t="s">
         <v>553</v>
       </c>
       <c r="Q42" s="1">
         <v>44784</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="R42" t="s">
         <v>197</v>
       </c>
       <c r="S42" s="1">
         <v>45431</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="T42" t="s">
         <v>554</v>
       </c>
-      <c r="U42" s="2" t="s">
+      <c r="U42" t="s">
         <v>555</v>
       </c>
-      <c r="V42" s="2" t="s">
+      <c r="V42" t="s">
         <v>556</v>
       </c>
-      <c r="W42" s="2" t="s">
+      <c r="W42" t="s">
         <v>874</v>
       </c>
-      <c r="Y42" s="2" t="s">
+      <c r="Y42" t="s">
         <v>557</v>
       </c>
-      <c r="AC42" s="2" t="s">
+      <c r="AC42" t="s">
         <v>558</v>
       </c>
-      <c r="AD42" s="2" t="s">
+      <c r="AD42" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>30.041014000000001</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>31.269717</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s">
         <v>560</v>
       </c>
-      <c r="E43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
         <v>561</v>
       </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43" s="2">
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43">
         <v>2</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="N43" t="s">
         <v>562</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="O43" t="s">
         <v>563</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="P43" t="s">
         <v>59</v>
       </c>
       <c r="Q43" s="1">
         <v>44781</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="R43" t="s">
         <v>509</v>
       </c>
       <c r="S43" s="1">
         <v>45420</v>
       </c>
-      <c r="U43" s="2" t="s">
+      <c r="U43" t="s">
         <v>564</v>
       </c>
-      <c r="V43" s="2" t="s">
+      <c r="V43" t="s">
         <v>565</v>
       </c>
-      <c r="W43" s="2" t="s">
+      <c r="W43" t="s">
         <v>566</v>
       </c>
-      <c r="Y43" s="2" t="s">
+      <c r="Y43" t="s">
         <v>567</v>
       </c>
-      <c r="AC43" s="2" t="s">
+      <c r="AC43" t="s">
         <v>568</v>
       </c>
-      <c r="AD43" s="2" t="s">
+      <c r="AD43" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>30.040949000000001</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>31.270219999999998</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>825</v>
       </c>
-      <c r="E44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
         <v>381</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" t="s">
         <v>570</v>
       </c>
-      <c r="H44" s="2">
-        <v>1</v>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" s="2" t="s">
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" t="s">
         <v>181</v>
       </c>
-      <c r="M44" s="2">
-        <v>1</v>
-      </c>
-      <c r="N44" s="2" t="s">
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
         <v>571</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="O44" t="s">
         <v>572</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="P44" t="s">
         <v>450</v>
       </c>
       <c r="Q44" s="1">
         <v>44795</v>
       </c>
-      <c r="R44" s="2" t="s">
+      <c r="R44" t="s">
         <v>509</v>
       </c>
       <c r="S44" s="1">
         <v>45421</v>
       </c>
-      <c r="U44" s="2" t="s">
+      <c r="U44" t="s">
         <v>573</v>
       </c>
-      <c r="V44" s="2" t="s">
+      <c r="V44" t="s">
         <v>574</v>
       </c>
-      <c r="W44" s="2" t="s">
+      <c r="W44" t="s">
         <v>575</v>
       </c>
-      <c r="Y44" s="2" t="s">
+      <c r="Y44" t="s">
         <v>576</v>
       </c>
-      <c r="AC44" s="2" t="s">
+      <c r="AC44" t="s">
         <v>577</v>
       </c>
-      <c r="AD44" s="2" t="s">
+      <c r="AD44" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>30.040687999999999</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>31.270517999999999</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>171</v>
       </c>
-      <c r="E45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
         <v>382</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" t="s">
         <v>382</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45">
         <v>3</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="N45" t="s">
         <v>579</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="O45" t="s">
         <v>339</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="P45" t="s">
         <v>259</v>
       </c>
       <c r="Q45" s="1">
         <v>44784</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="R45" t="s">
         <v>509</v>
       </c>
       <c r="S45" s="1">
         <v>44784</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="T45" t="s">
         <v>580</v>
       </c>
-      <c r="U45" s="2" t="s">
+      <c r="U45" t="s">
         <v>581</v>
       </c>
-      <c r="V45" s="2" t="s">
+      <c r="V45" t="s">
         <v>582</v>
       </c>
-      <c r="W45" s="2" t="s">
+      <c r="W45" t="s">
         <v>583</v>
       </c>
-      <c r="Y45" s="2" t="s">
+      <c r="Y45" t="s">
         <v>584</v>
       </c>
-      <c r="AC45" s="2" t="s">
+      <c r="AC45" t="s">
         <v>529</v>
       </c>
-      <c r="AD45" s="2" t="s">
+      <c r="AD45" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>30.040407999999999</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>31.270600000000002</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>586</v>
       </c>
-      <c r="E46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
         <v>326</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" t="s">
         <v>326</v>
       </c>
-      <c r="M46" s="2">
-        <v>1</v>
-      </c>
-      <c r="N46" s="2" t="s">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
         <v>587</v>
       </c>
-      <c r="O46" s="2" t="s">
+      <c r="O46" t="s">
         <v>588</v>
       </c>
-      <c r="P46" s="2" t="s">
+      <c r="P46" t="s">
         <v>318</v>
       </c>
       <c r="Q46" s="1">
         <v>44781</v>
       </c>
-      <c r="R46" s="2" t="s">
+      <c r="R46" t="s">
         <v>509</v>
       </c>
       <c r="S46" s="1">
         <v>45421</v>
       </c>
-      <c r="U46" s="2" t="s">
+      <c r="U46" t="s">
         <v>875</v>
       </c>
-      <c r="V46" s="2" t="s">
+      <c r="V46" t="s">
         <v>876</v>
       </c>
-      <c r="W46" s="2" t="s">
+      <c r="W46" t="s">
         <v>589</v>
       </c>
-      <c r="Y46" s="2" t="s">
+      <c r="Y46" t="s">
         <v>590</v>
       </c>
-      <c r="AC46" s="2" t="s">
+      <c r="AC46" t="s">
         <v>591</v>
       </c>
-      <c r="AD46" s="2" t="s">
+      <c r="AD46" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>30.040424999999999</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>31.269731</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" t="s">
         <v>593</v>
       </c>
-      <c r="E47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" s="2" t="s">
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" t="s">
         <v>181</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47">
         <v>2</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="N47" t="s">
         <v>594</v>
       </c>
-      <c r="P47" s="2" t="s">
+      <c r="P47" t="s">
         <v>318</v>
       </c>
       <c r="Q47" s="1">
         <v>44781</v>
       </c>
-      <c r="R47" s="2" t="s">
+      <c r="R47" t="s">
         <v>46</v>
       </c>
       <c r="S47" s="1">
         <v>45426</v>
       </c>
-      <c r="U47" s="2" t="s">
+      <c r="U47" t="s">
         <v>595</v>
       </c>
-      <c r="V47" s="2" t="s">
+      <c r="V47" t="s">
         <v>596</v>
       </c>
-      <c r="W47" s="2" t="s">
+      <c r="W47" t="s">
         <v>597</v>
       </c>
-      <c r="Y47" s="2" t="s">
+      <c r="Y47" t="s">
         <v>598</v>
       </c>
-      <c r="AC47" s="2" t="s">
+      <c r="AC47" t="s">
         <v>599</v>
       </c>
-      <c r="AD47" s="2" t="s">
+      <c r="AD47" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>30.041453000000001</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>31.268401999999998</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" t="s">
         <v>826</v>
       </c>
-      <c r="E48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" s="2">
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48">
         <v>2</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="N48" t="s">
         <v>601</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="O48" t="s">
         <v>602</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="P48" t="s">
         <v>603</v>
       </c>
       <c r="Q48" s="1">
         <v>44776</v>
       </c>
-      <c r="R48" s="2" t="s">
+      <c r="R48" t="s">
         <v>509</v>
       </c>
       <c r="S48" s="1">
         <v>45421</v>
       </c>
-      <c r="U48" s="2" t="s">
+      <c r="U48" t="s">
         <v>604</v>
       </c>
-      <c r="V48" s="2" t="s">
+      <c r="V48" t="s">
         <v>605</v>
       </c>
-      <c r="Y48" s="2" t="s">
+      <c r="Y48" t="s">
         <v>606</v>
       </c>
-      <c r="AC48" s="2" t="s">
+      <c r="AC48" t="s">
         <v>607</v>
       </c>
-      <c r="AD48" s="2" t="s">
+      <c r="AD48" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>30.040946000000002</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>31.268138</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="E49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" s="2">
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49">
         <v>2</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="N49" t="s">
         <v>163</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="O49" t="s">
         <v>602</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="P49" t="s">
         <v>470</v>
       </c>
       <c r="Q49" s="1">
         <v>44777</v>
       </c>
-      <c r="R49" s="2" t="s">
+      <c r="R49" t="s">
         <v>509</v>
       </c>
       <c r="S49" s="1">
         <v>45421</v>
       </c>
-      <c r="U49" s="2" t="s">
+      <c r="U49" t="s">
         <v>609</v>
       </c>
-      <c r="V49" s="2" t="s">
+      <c r="V49" t="s">
         <v>610</v>
       </c>
-      <c r="W49" s="2" t="s">
+      <c r="W49" t="s">
         <v>611</v>
       </c>
-      <c r="Y49" s="2" t="s">
+      <c r="Y49" t="s">
         <v>612</v>
       </c>
-      <c r="AC49" s="2" t="s">
+      <c r="AC49" t="s">
         <v>163</v>
       </c>
-      <c r="AD49" s="2" t="s">
+      <c r="AD49" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>30.040645000000001</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>31.267776999999999</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" t="s">
         <v>614</v>
       </c>
-      <c r="E50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
         <v>615</v>
       </c>
-      <c r="H50" s="2">
-        <v>1</v>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" s="2">
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50">
         <v>2</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="P50" t="s">
         <v>508</v>
       </c>
       <c r="Q50" s="1">
         <v>44777</v>
       </c>
-      <c r="R50" s="2" t="s">
+      <c r="R50" t="s">
         <v>509</v>
       </c>
       <c r="S50" s="1">
         <v>45421</v>
       </c>
-      <c r="U50" s="2" t="s">
+      <c r="U50" t="s">
         <v>616</v>
       </c>
-      <c r="V50" s="2" t="s">
+      <c r="V50" t="s">
         <v>617</v>
       </c>
-      <c r="W50" s="2" t="s">
+      <c r="W50" t="s">
         <v>618</v>
       </c>
-      <c r="Y50" s="2" t="s">
+      <c r="Y50" t="s">
         <v>619</v>
       </c>
-      <c r="AC50" s="2" t="s">
+      <c r="AC50" t="s">
         <v>620</v>
       </c>
-      <c r="AD50" s="2" t="s">
+      <c r="AD50" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+    <row r="51" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="5">
         <v>30.039878000000002</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="5">
         <v>31.269283000000001</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="E51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" s="2">
+      <c r="E51" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="5">
         <v>3</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="N51" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="O51" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="P51" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51" s="6">
         <v>44659</v>
       </c>
-      <c r="R51" s="2" t="s">
+      <c r="R51" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="S51" s="1">
+      <c r="S51" s="6">
         <v>45409</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="T51" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="U51" s="2" t="s">
+      <c r="U51" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="V51" s="2" t="s">
+      <c r="V51" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="Y51" s="2" t="s">
+      <c r="Y51" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="AC51" s="2" t="s">
+      <c r="AC51" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="AD51" s="2" t="s">
+      <c r="AD51" s="5" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+    <row r="52" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="5">
         <v>30.039878000000002</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="5">
         <v>31.269283000000001</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="E52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="E52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="H52" s="2">
-        <v>1</v>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L52" s="2" t="s">
+      <c r="H52" s="5">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="M52" s="2">
-        <v>1</v>
-      </c>
-      <c r="P52" s="2" t="s">
+      <c r="M52" s="5">
+        <v>1</v>
+      </c>
+      <c r="P52" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52" s="6">
         <v>44795</v>
       </c>
-      <c r="R52" s="2" t="s">
+      <c r="R52" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="S52" s="1">
+      <c r="S52" s="6">
         <v>45425</v>
       </c>
-      <c r="T52" s="2" t="s">
+      <c r="T52" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="U52" s="2" t="s">
+      <c r="U52" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="V52" s="2" t="s">
+      <c r="V52" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="W52" s="2" t="s">
+      <c r="W52" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="X52" s="2" t="s">
+      <c r="X52" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="Y52" s="2" t="s">
+      <c r="Y52" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="AC52" s="2" t="s">
+      <c r="AC52" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="AD52" s="2" t="s">
+      <c r="AD52" s="5" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
         <v>30.043914999999998</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
         <v>31.273475000000001</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" t="s">
         <v>640</v>
       </c>
-      <c r="E53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
         <v>641</v>
       </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="2" t="s">
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" t="s">
         <v>642</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53">
         <v>3</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="N53" t="s">
         <v>643</v>
       </c>
-      <c r="O53" s="2" t="s">
+      <c r="O53" t="s">
         <v>644</v>
       </c>
-      <c r="P53" s="2" t="s">
+      <c r="P53" t="s">
         <v>645</v>
       </c>
       <c r="Q53" s="1">
         <v>44578</v>
       </c>
-      <c r="R53" s="2" t="s">
+      <c r="R53" t="s">
         <v>79</v>
       </c>
       <c r="S53" s="1">
         <v>45425</v>
       </c>
-      <c r="T53" s="2" t="s">
+      <c r="T53" t="s">
         <v>646</v>
       </c>
-      <c r="U53" s="2" t="s">
+      <c r="U53" t="s">
         <v>647</v>
       </c>
-      <c r="V53" s="2" t="s">
+      <c r="V53" t="s">
         <v>648</v>
       </c>
-      <c r="W53" s="2" t="s">
+      <c r="W53" t="s">
         <v>649</v>
       </c>
-      <c r="Y53" s="2" t="s">
+      <c r="Y53" t="s">
         <v>650</v>
       </c>
-      <c r="AC53" s="2" t="s">
+      <c r="AC53" t="s">
         <v>651</v>
       </c>
-      <c r="AD53" s="2" t="s">
+      <c r="AD53" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
         <v>30.049703000000001</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54">
         <v>31.276494</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" t="s">
         <v>126</v>
       </c>
-      <c r="E54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M54" s="2">
-        <v>1</v>
-      </c>
-      <c r="N54" s="2" t="s">
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
         <v>127</v>
       </c>
-      <c r="O54" s="2" t="s">
+      <c r="O54" t="s">
         <v>128</v>
       </c>
-      <c r="P54" s="2" t="s">
+      <c r="P54" t="s">
         <v>129</v>
       </c>
       <c r="Q54" s="1">
         <v>45146</v>
       </c>
-      <c r="R54" s="2" t="s">
+      <c r="R54" t="s">
         <v>79</v>
       </c>
       <c r="S54" s="1">
         <v>45425</v>
       </c>
-      <c r="T54" s="2" t="s">
+      <c r="T54" t="s">
         <v>130</v>
       </c>
-      <c r="U54" s="2" t="s">
+      <c r="U54" t="s">
         <v>131</v>
       </c>
-      <c r="V54" s="2" t="s">
+      <c r="V54" t="s">
         <v>132</v>
       </c>
-      <c r="W54" s="2" t="s">
+      <c r="W54" t="s">
         <v>133</v>
       </c>
-      <c r="X54" s="2" t="s">
+      <c r="X54" t="s">
         <v>134</v>
       </c>
-      <c r="Y54" s="2" t="s">
+      <c r="Y54" t="s">
         <v>135</v>
       </c>
-      <c r="AC54" s="2" t="s">
+      <c r="AC54" t="s">
         <v>136</v>
       </c>
-      <c r="AD54" s="2" t="s">
+      <c r="AD54" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
         <v>30.04805</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55">
         <v>31.275400000000001</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" t="s">
         <v>138</v>
       </c>
-      <c r="E55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" s="2">
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55">
         <v>2</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="N55" t="s">
         <v>139</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="O55" t="s">
         <v>140</v>
       </c>
-      <c r="P55" s="2" t="s">
+      <c r="P55" t="s">
         <v>129</v>
       </c>
       <c r="Q55" s="1">
         <v>45139</v>
       </c>
-      <c r="R55" s="2" t="s">
+      <c r="R55" t="s">
         <v>79</v>
       </c>
       <c r="S55" s="1">
         <v>45425</v>
       </c>
-      <c r="U55" s="2" t="s">
+      <c r="U55" t="s">
         <v>141</v>
       </c>
-      <c r="V55" s="2" t="s">
+      <c r="V55" t="s">
         <v>142</v>
       </c>
-      <c r="Y55" s="2" t="s">
+      <c r="Y55" t="s">
         <v>143</v>
       </c>
-      <c r="AC55" s="2" t="s">
+      <c r="AC55" t="s">
         <v>144</v>
       </c>
-      <c r="AD55" s="2" t="s">
+      <c r="AD55" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
         <v>30.048078</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56">
         <v>31.275151000000001</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" t="s">
         <v>146</v>
       </c>
-      <c r="E56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2" t="s">
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
         <v>147</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" t="s">
         <v>148</v>
       </c>
-      <c r="H56" s="2">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" s="2" t="s">
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" t="s">
         <v>56</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56">
         <v>2</v>
       </c>
-      <c r="P56" s="2" t="s">
+      <c r="P56" t="s">
         <v>129</v>
       </c>
       <c r="Q56" s="1">
         <v>45139</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="R56" t="s">
         <v>79</v>
       </c>
       <c r="S56" s="1">
         <v>45425</v>
       </c>
-      <c r="U56" s="2" t="s">
+      <c r="U56" t="s">
         <v>149</v>
       </c>
-      <c r="V56" s="2" t="s">
+      <c r="V56" t="s">
         <v>150</v>
       </c>
-      <c r="Y56" s="2" t="s">
+      <c r="Y56" t="s">
         <v>151</v>
       </c>
-      <c r="AC56" s="2" t="s">
+      <c r="AC56" t="s">
         <v>152</v>
       </c>
-      <c r="AD56" s="2" t="s">
+      <c r="AD56" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="57" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <v>30.044965000000001</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="3">
         <v>31.274262</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="E57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H57" s="2">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L57" s="2" t="s">
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+      <c r="I57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L57" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M57" s="3">
         <v>2</v>
       </c>
-      <c r="P57" s="2" t="s">
+      <c r="P57" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q57" s="4">
         <v>45139</v>
       </c>
-      <c r="R57" s="2" t="s">
+      <c r="R57" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="S57" s="1">
+      <c r="S57" s="4">
         <v>45433</v>
       </c>
-      <c r="T57" s="2" t="s">
+      <c r="T57" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="U57" s="2" t="s">
+      <c r="U57" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="V57" s="2" t="s">
+      <c r="V57" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="W57" s="2" t="s">
+      <c r="W57" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="X57" s="2" t="s">
+      <c r="X57" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="Y57" s="2" t="s">
+      <c r="Y57" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AC57" s="2" t="s">
+      <c r="AC57" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AD57" s="2" t="s">
+      <c r="AD57" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58">
         <v>30.047775000000001</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58">
         <v>31.275089000000001</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" t="s">
         <v>828</v>
       </c>
-      <c r="E58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" s="2">
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58">
         <v>3</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="N58" t="s">
         <v>163</v>
       </c>
-      <c r="O58" s="2" t="s">
+      <c r="O58" t="s">
         <v>140</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="P58" t="s">
         <v>164</v>
       </c>
       <c r="Q58" s="1">
         <v>45146</v>
       </c>
-      <c r="R58" s="2" t="s">
+      <c r="R58" t="s">
         <v>79</v>
       </c>
       <c r="S58" s="1">
         <v>45433</v>
       </c>
-      <c r="T58" s="2" t="s">
+      <c r="T58" t="s">
         <v>165</v>
       </c>
-      <c r="U58" s="2" t="s">
+      <c r="U58" t="s">
         <v>166</v>
       </c>
-      <c r="V58" s="2" t="s">
+      <c r="V58" t="s">
         <v>167</v>
       </c>
-      <c r="W58" s="2" t="s">
+      <c r="W58" t="s">
         <v>168</v>
       </c>
-      <c r="Y58" s="2" t="s">
+      <c r="Y58" t="s">
         <v>169</v>
       </c>
-      <c r="AC58" s="2" t="s">
+      <c r="AC58" t="s">
         <v>163</v>
       </c>
-      <c r="AD58" s="2" t="s">
+      <c r="AD58" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
         <v>30.047443999999999</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59">
         <v>31.274978000000001</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="2" t="s">
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" t="s">
         <v>172</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M59">
         <v>3</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="N59" t="s">
         <v>173</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="O59" t="s">
         <v>140</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="P59" t="s">
         <v>129</v>
       </c>
       <c r="Q59" s="1">
         <v>45146</v>
       </c>
-      <c r="R59" s="2" t="s">
+      <c r="R59" t="s">
         <v>79</v>
       </c>
       <c r="S59" s="1">
         <v>45433</v>
       </c>
-      <c r="U59" s="2" t="s">
+      <c r="U59" t="s">
         <v>174</v>
       </c>
-      <c r="V59" s="2" t="s">
+      <c r="V59" t="s">
         <v>175</v>
       </c>
-      <c r="Y59" s="2" t="s">
+      <c r="Y59" t="s">
         <v>176</v>
       </c>
-      <c r="AC59" s="2" t="s">
+      <c r="AC59" t="s">
         <v>173</v>
       </c>
-      <c r="AD59" s="2" t="s">
+      <c r="AD59" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60">
         <v>30.047055</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60">
         <v>31.274771999999999</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" t="s">
         <v>178</v>
       </c>
-      <c r="E60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
         <v>118</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" t="s">
         <v>179</v>
       </c>
-      <c r="H60" s="2">
-        <v>1</v>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
         <v>180</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="L60" t="s">
         <v>181</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60">
         <v>2</v>
       </c>
-      <c r="N60" s="2" t="s">
+      <c r="N60" t="s">
         <v>173</v>
       </c>
-      <c r="O60" s="2" t="s">
+      <c r="O60" t="s">
         <v>140</v>
       </c>
-      <c r="P60" s="2" t="s">
+      <c r="P60" t="s">
         <v>182</v>
       </c>
       <c r="Q60" s="1">
         <v>45146</v>
       </c>
-      <c r="R60" s="2" t="s">
+      <c r="R60" t="s">
         <v>79</v>
       </c>
       <c r="S60" s="1">
         <v>45433</v>
       </c>
-      <c r="U60" s="2" t="s">
+      <c r="U60" t="s">
         <v>880</v>
       </c>
-      <c r="V60" s="2" t="s">
+      <c r="V60" t="s">
         <v>183</v>
       </c>
-      <c r="W60" s="2" t="s">
+      <c r="W60" t="s">
         <v>184</v>
       </c>
-      <c r="Y60" s="2" t="s">
+      <c r="Y60" t="s">
         <v>185</v>
       </c>
-      <c r="AC60" s="2" t="s">
+      <c r="AC60" t="s">
         <v>173</v>
       </c>
-      <c r="AD60" s="2" t="s">
+      <c r="AD60" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
         <v>30.047097000000001</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61">
         <v>31.274588999999999</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" t="s">
         <v>187</v>
       </c>
-      <c r="E61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
         <v>31</v>
       </c>
-      <c r="H61" s="2">
-        <v>1</v>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="2" t="s">
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" t="s">
         <v>188</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M61">
         <v>2</v>
       </c>
-      <c r="P61" s="2" t="s">
+      <c r="P61" t="s">
         <v>189</v>
       </c>
       <c r="Q61" s="1">
         <v>45141</v>
       </c>
-      <c r="R61" s="2" t="s">
+      <c r="R61" t="s">
         <v>79</v>
       </c>
       <c r="S61" s="1">
         <v>45433</v>
       </c>
-      <c r="U61" s="2" t="s">
+      <c r="U61" t="s">
         <v>881</v>
       </c>
-      <c r="V61" s="2" t="s">
+      <c r="V61" t="s">
         <v>190</v>
       </c>
-      <c r="W61" s="2" t="s">
+      <c r="W61" t="s">
         <v>191</v>
       </c>
-      <c r="Y61" s="2" t="s">
+      <c r="Y61" t="s">
         <v>192</v>
       </c>
-      <c r="AC61" s="2" t="s">
+      <c r="AC61" t="s">
         <v>193</v>
       </c>
-      <c r="AD61" s="2" t="s">
+      <c r="AD61" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62">
         <v>30.046392999999998</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62">
         <v>31.274982000000001</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" t="s">
         <v>829</v>
       </c>
-      <c r="E62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62" s="2">
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>32</v>
+      </c>
+      <c r="L62" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62">
         <v>3</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="N62" t="s">
         <v>195</v>
       </c>
-      <c r="O62" s="2" t="s">
+      <c r="O62" t="s">
         <v>196</v>
       </c>
-      <c r="P62" s="2" t="s">
+      <c r="P62" t="s">
         <v>197</v>
       </c>
       <c r="Q62" s="1">
         <v>45186</v>
       </c>
-      <c r="R62" s="2" t="s">
+      <c r="R62" t="s">
         <v>79</v>
       </c>
       <c r="S62" s="1">
         <v>45433</v>
       </c>
-      <c r="U62" s="2" t="s">
+      <c r="U62" t="s">
         <v>198</v>
       </c>
-      <c r="V62" s="2" t="s">
+      <c r="V62" t="s">
         <v>199</v>
       </c>
-      <c r="Y62" s="2" t="s">
+      <c r="Y62" t="s">
         <v>200</v>
       </c>
-      <c r="AC62" s="2" t="s">
+      <c r="AC62" t="s">
         <v>201</v>
       </c>
-      <c r="AD62" s="2" t="s">
+      <c r="AD62" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
         <v>30.046755999999998</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63">
         <v>31.274531</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" t="s">
         <v>171</v>
       </c>
-      <c r="E63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" s="2">
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63">
         <v>3</v>
       </c>
-      <c r="N63" s="2" t="s">
+      <c r="N63" t="s">
         <v>163</v>
       </c>
-      <c r="O63" s="2" t="s">
+      <c r="O63" t="s">
         <v>196</v>
       </c>
-      <c r="P63" s="2" t="s">
+      <c r="P63" t="s">
         <v>203</v>
       </c>
       <c r="Q63" s="1">
         <v>44776</v>
       </c>
-      <c r="R63" s="2" t="s">
+      <c r="R63" t="s">
         <v>79</v>
       </c>
       <c r="S63" s="1">
         <v>45433</v>
       </c>
-      <c r="U63" s="2" t="s">
+      <c r="U63" t="s">
         <v>204</v>
       </c>
-      <c r="V63" s="2" t="s">
+      <c r="V63" t="s">
         <v>205</v>
       </c>
-      <c r="W63" s="2" t="s">
+      <c r="W63" t="s">
         <v>206</v>
       </c>
-      <c r="Y63" s="2" t="s">
+      <c r="Y63" t="s">
         <v>207</v>
       </c>
-      <c r="AC63" s="2" t="s">
+      <c r="AC63" t="s">
         <v>163</v>
       </c>
-      <c r="AD63" s="2" t="s">
+      <c r="AD63" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64">
         <v>30.046789</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64">
         <v>31.274363999999998</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" t="s">
         <v>209</v>
       </c>
-      <c r="E64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" s="2" t="s">
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" t="s">
         <v>56</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64">
         <v>2</v>
       </c>
-      <c r="P64" s="2" t="s">
+      <c r="P64" t="s">
         <v>210</v>
       </c>
       <c r="Q64" s="1">
         <v>45141</v>
       </c>
-      <c r="R64" s="2" t="s">
+      <c r="R64" t="s">
         <v>46</v>
       </c>
       <c r="S64" s="1">
         <v>45421</v>
       </c>
-      <c r="T64" s="2" t="s">
+      <c r="T64" t="s">
         <v>211</v>
       </c>
-      <c r="U64" s="2" t="s">
+      <c r="U64" t="s">
         <v>212</v>
       </c>
-      <c r="V64" s="2" t="s">
+      <c r="V64" t="s">
         <v>213</v>
       </c>
-      <c r="Y64" s="2" t="s">
+      <c r="Y64" t="s">
         <v>214</v>
       </c>
-      <c r="AC64" s="2" t="s">
+      <c r="AC64" t="s">
         <v>215</v>
       </c>
-      <c r="AD64" s="2" t="s">
+      <c r="AD64" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65">
         <v>30.046519</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65">
         <v>31.274325000000001</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" t="s">
         <v>830</v>
       </c>
-      <c r="E65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L65" s="2" t="s">
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65" t="s">
         <v>56</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65">
         <v>2</v>
       </c>
-      <c r="N65" s="2" t="s">
+      <c r="N65" t="s">
         <v>217</v>
       </c>
-      <c r="O65" s="2" t="s">
+      <c r="O65" t="s">
         <v>218</v>
       </c>
-      <c r="P65" s="2" t="s">
+      <c r="P65" t="s">
         <v>219</v>
       </c>
       <c r="Q65" s="1">
         <v>45141</v>
       </c>
-      <c r="R65" s="2" t="s">
+      <c r="R65" t="s">
         <v>46</v>
       </c>
       <c r="S65" s="1">
         <v>45420</v>
       </c>
-      <c r="U65" s="2" t="s">
+      <c r="U65" t="s">
         <v>220</v>
       </c>
-      <c r="V65" s="2" t="s">
+      <c r="V65" t="s">
         <v>221</v>
       </c>
-      <c r="W65" s="2" t="s">
+      <c r="W65" t="s">
         <v>222</v>
       </c>
-      <c r="Y65" s="2" t="s">
+      <c r="Y65" t="s">
         <v>223</v>
       </c>
-      <c r="AC65" s="2" t="s">
+      <c r="AC65" t="s">
         <v>224</v>
       </c>
-      <c r="AD65" s="2" t="s">
+      <c r="AD65" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66">
         <v>30.046493999999999</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66">
         <v>31.274139000000002</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" t="s">
         <v>226</v>
       </c>
-      <c r="E66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M66" s="2">
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66">
         <v>4</v>
       </c>
-      <c r="N66" s="2" t="s">
+      <c r="N66" t="s">
         <v>173</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="O66" t="s">
         <v>140</v>
       </c>
-      <c r="P66" s="2" t="s">
+      <c r="P66" t="s">
         <v>227</v>
       </c>
       <c r="Q66" s="1">
         <v>44776</v>
       </c>
-      <c r="R66" s="2" t="s">
+      <c r="R66" t="s">
         <v>79</v>
       </c>
       <c r="S66" s="1">
         <v>45433</v>
       </c>
-      <c r="U66" s="2" t="s">
+      <c r="U66" t="s">
         <v>228</v>
       </c>
-      <c r="V66" s="2" t="s">
+      <c r="V66" t="s">
         <v>229</v>
       </c>
-      <c r="Y66" s="2" t="s">
+      <c r="Y66" t="s">
         <v>230</v>
       </c>
-      <c r="AC66" s="2" t="s">
+      <c r="AC66" t="s">
         <v>173</v>
       </c>
-      <c r="AD66" s="2" t="s">
+      <c r="AD66" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
         <v>30.049792</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67">
         <v>31.277014000000001</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" t="s">
         <v>232</v>
       </c>
-      <c r="E67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
         <v>233</v>
       </c>
-      <c r="H67" s="2">
-        <v>1</v>
-      </c>
-      <c r="I67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L67" s="2" t="s">
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>32</v>
+      </c>
+      <c r="L67" t="s">
         <v>234</v>
       </c>
-      <c r="M67" s="2">
-        <v>1</v>
-      </c>
-      <c r="N67" s="2" t="s">
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
         <v>58</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="P67" t="s">
         <v>235</v>
       </c>
       <c r="Q67" s="1">
         <v>44776</v>
       </c>
-      <c r="R67" s="2" t="s">
+      <c r="R67" t="s">
         <v>79</v>
       </c>
       <c r="S67" s="1">
         <v>45433</v>
       </c>
-      <c r="T67" s="2" t="s">
+      <c r="T67" t="s">
         <v>236</v>
       </c>
-      <c r="U67" s="2" t="s">
+      <c r="U67" t="s">
         <v>237</v>
       </c>
-      <c r="V67" s="2" t="s">
+      <c r="V67" t="s">
         <v>238</v>
       </c>
-      <c r="W67" s="2" t="s">
+      <c r="W67" t="s">
         <v>239</v>
       </c>
-      <c r="X67" s="2" t="s">
+      <c r="X67" t="s">
         <v>240</v>
       </c>
-      <c r="Y67" s="2" t="s">
+      <c r="Y67" t="s">
         <v>241</v>
       </c>
-      <c r="AC67" s="2" t="s">
+      <c r="AC67" t="s">
         <v>242</v>
       </c>
-      <c r="AD67" s="2" t="s">
+      <c r="AD67" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68">
         <v>30.045048999999999</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68">
         <v>31.274334</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" t="s">
         <v>171</v>
       </c>
-      <c r="E68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
         <v>233</v>
       </c>
-      <c r="H68" s="2">
-        <v>0</v>
-      </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M68" s="2">
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>32</v>
+      </c>
+      <c r="L68" t="s">
+        <v>32</v>
+      </c>
+      <c r="M68">
         <v>2</v>
       </c>
-      <c r="P68" s="2" t="s">
+      <c r="P68" t="s">
         <v>219</v>
       </c>
       <c r="Q68" s="1">
         <v>45146</v>
       </c>
-      <c r="R68" s="2" t="s">
+      <c r="R68" t="s">
         <v>46</v>
       </c>
       <c r="S68" s="1">
         <v>45414</v>
       </c>
-      <c r="U68" s="2" t="s">
+      <c r="U68" t="s">
         <v>244</v>
       </c>
-      <c r="V68" s="2" t="s">
+      <c r="V68" t="s">
         <v>245</v>
       </c>
-      <c r="W68" s="2" t="s">
+      <c r="W68" t="s">
         <v>246</v>
       </c>
-      <c r="Y68" s="2" t="s">
+      <c r="Y68" t="s">
         <v>247</v>
       </c>
-      <c r="AC68" s="2" t="s">
+      <c r="AC68" t="s">
         <v>163</v>
       </c>
-      <c r="AD68" s="2" t="s">
+      <c r="AD68" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+    <row r="69" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="3">
         <v>30.044965000000001</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="3">
         <v>31.274262</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="E69" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H69" s="2">
-        <v>1</v>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L69" s="2" t="s">
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L69" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="3">
         <v>2</v>
       </c>
-      <c r="N69" s="2" t="s">
+      <c r="N69" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="O69" s="2" t="s">
+      <c r="O69" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="P69" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="Q69" s="4">
         <v>45146</v>
       </c>
-      <c r="R69" s="2" t="s">
+      <c r="R69" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="S69" s="1">
+      <c r="S69" s="4">
         <v>45419</v>
       </c>
-      <c r="T69" s="2" t="s">
+      <c r="T69" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="U69" s="2" t="s">
+      <c r="U69" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="V69" s="2" t="s">
+      <c r="V69" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="W69" s="2" t="s">
+      <c r="W69" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="Y69" s="2" t="s">
+      <c r="Y69" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AC69" s="2" t="s">
+      <c r="AC69" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="AD69" s="2" t="s">
+      <c r="AD69" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70">
         <v>30.044308999999998</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70">
         <v>31.273057999999999</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" t="s">
         <v>171</v>
       </c>
-      <c r="E70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" s="2">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M70" s="2">
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>32</v>
+      </c>
+      <c r="L70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M70">
         <v>3</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="N70" t="s">
         <v>173</v>
       </c>
-      <c r="O70" s="2" t="s">
+      <c r="O70" t="s">
         <v>140</v>
       </c>
-      <c r="P70" s="2" t="s">
+      <c r="P70" t="s">
         <v>227</v>
       </c>
       <c r="Q70" s="1">
         <v>44774</v>
       </c>
-      <c r="R70" s="2" t="s">
+      <c r="R70" t="s">
         <v>79</v>
       </c>
       <c r="S70" s="1">
         <v>45433</v>
       </c>
-      <c r="U70" s="2" t="s">
+      <c r="U70" t="s">
         <v>653</v>
       </c>
-      <c r="V70" s="2" t="s">
+      <c r="V70" t="s">
         <v>654</v>
       </c>
-      <c r="Y70" s="2" t="s">
+      <c r="Y70" t="s">
         <v>655</v>
       </c>
-      <c r="AC70" s="2" t="s">
+      <c r="AC70" t="s">
         <v>173</v>
       </c>
-      <c r="AD70" s="2" t="s">
+      <c r="AD70" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71">
         <v>30.042936999999998</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71">
         <v>31.274581000000001</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" t="s">
         <v>831</v>
       </c>
-      <c r="E71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2">
-        <v>0</v>
-      </c>
-      <c r="I71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M71" s="2">
-        <v>1</v>
-      </c>
-      <c r="N71" s="2" t="s">
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>32</v>
+      </c>
+      <c r="L71" t="s">
+        <v>32</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
         <v>657</v>
       </c>
-      <c r="O71" s="2" t="s">
+      <c r="O71" t="s">
         <v>658</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="P71" t="s">
         <v>659</v>
       </c>
       <c r="Q71" s="1">
         <v>45201</v>
       </c>
-      <c r="R71" s="2" t="s">
+      <c r="R71" t="s">
         <v>46</v>
       </c>
       <c r="S71" s="1">
         <v>45413</v>
       </c>
-      <c r="U71" s="2" t="s">
+      <c r="U71" t="s">
         <v>885</v>
       </c>
-      <c r="V71" s="2" t="s">
+      <c r="V71" t="s">
         <v>660</v>
       </c>
-      <c r="W71" s="2" t="s">
+      <c r="W71" t="s">
         <v>661</v>
       </c>
-      <c r="X71" s="2" t="s">
+      <c r="X71" t="s">
         <v>662</v>
       </c>
-      <c r="Y71" s="2" t="s">
+      <c r="Y71" t="s">
         <v>663</v>
       </c>
-      <c r="AC71" s="2" t="s">
+      <c r="AC71" t="s">
         <v>664</v>
       </c>
-      <c r="AD71" s="2" t="s">
+      <c r="AD71" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72">
         <v>30.044944000000001</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72">
         <v>31.271142000000001</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" t="s">
         <v>666</v>
       </c>
-      <c r="E72" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2">
-        <v>0</v>
-      </c>
-      <c r="I72" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L72" s="2" t="s">
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>32</v>
+      </c>
+      <c r="L72" t="s">
         <v>667</v>
       </c>
-      <c r="M72" s="2">
-        <v>1</v>
-      </c>
-      <c r="N72" s="2" t="s">
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
         <v>668</v>
       </c>
-      <c r="O72" s="2" t="s">
+      <c r="O72" t="s">
         <v>669</v>
       </c>
-      <c r="P72" s="2" t="s">
+      <c r="P72" t="s">
         <v>197</v>
       </c>
       <c r="Q72" s="1">
         <v>45239</v>
       </c>
-      <c r="R72" s="2" t="s">
+      <c r="R72" t="s">
         <v>46</v>
       </c>
       <c r="S72" s="1">
         <v>45413</v>
       </c>
-      <c r="T72" s="2" t="s">
+      <c r="T72" t="s">
         <v>670</v>
       </c>
-      <c r="U72" s="2" t="s">
+      <c r="U72" t="s">
         <v>886</v>
       </c>
-      <c r="V72" s="2" t="s">
+      <c r="V72" t="s">
         <v>887</v>
       </c>
-      <c r="W72" s="2" t="s">
+      <c r="W72" t="s">
         <v>888</v>
       </c>
-      <c r="X72" s="2" t="s">
+      <c r="X72" t="s">
         <v>671</v>
       </c>
-      <c r="Y72" s="2" t="s">
+      <c r="Y72" t="s">
         <v>672</v>
       </c>
-      <c r="AC72" s="2" t="s">
+      <c r="AC72" t="s">
         <v>668</v>
       </c>
-      <c r="AD72" s="2" t="s">
+      <c r="AD72" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
         <v>30.043256</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73">
         <v>31.271837000000001</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" t="s">
         <v>674</v>
       </c>
-      <c r="E73" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2">
-        <v>0</v>
-      </c>
-      <c r="I73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
         <v>675</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="L73" t="s">
         <v>675</v>
       </c>
-      <c r="M73" s="2">
-        <v>1</v>
-      </c>
-      <c r="N73" s="2" t="s">
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
         <v>676</v>
       </c>
-      <c r="O73" s="2" t="s">
+      <c r="O73" t="s">
         <v>677</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="P73" t="s">
         <v>197</v>
       </c>
       <c r="Q73" s="1">
         <v>45420</v>
       </c>
-      <c r="R73" s="2" t="s">
+      <c r="R73" t="s">
         <v>79</v>
       </c>
       <c r="S73" s="1">
         <v>45435</v>
       </c>
-      <c r="T73" s="2" t="s">
+      <c r="T73" t="s">
         <v>678</v>
       </c>
-      <c r="U73" s="2" t="s">
+      <c r="U73" t="s">
         <v>679</v>
       </c>
-      <c r="V73" s="2" t="s">
+      <c r="V73" t="s">
         <v>680</v>
       </c>
-      <c r="Y73" s="2" t="s">
+      <c r="Y73" t="s">
         <v>681</v>
       </c>
-      <c r="AC73" s="2" t="s">
+      <c r="AC73" t="s">
         <v>682</v>
       </c>
-      <c r="AD73" s="2" t="s">
+      <c r="AD73" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
         <v>30.041091999999999</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74">
         <v>31.273053000000001</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" t="s">
         <v>684</v>
       </c>
-      <c r="E74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" s="2">
-        <v>0</v>
-      </c>
-      <c r="I74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M74" s="2">
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74">
         <v>3</v>
       </c>
-      <c r="N74" s="2" t="s">
+      <c r="N74" t="s">
         <v>173</v>
       </c>
-      <c r="O74" s="2" t="s">
+      <c r="O74" t="s">
         <v>685</v>
       </c>
-      <c r="P74" s="2" t="s">
+      <c r="P74" t="s">
         <v>686</v>
       </c>
       <c r="Q74" s="1">
         <v>44787</v>
       </c>
-      <c r="R74" s="2" t="s">
+      <c r="R74" t="s">
         <v>46</v>
       </c>
       <c r="S74" s="1">
         <v>45413</v>
       </c>
-      <c r="T74" s="2" t="s">
+      <c r="T74" t="s">
         <v>687</v>
       </c>
-      <c r="U74" s="2" t="s">
+      <c r="U74" t="s">
         <v>688</v>
       </c>
-      <c r="V74" s="2" t="s">
+      <c r="V74" t="s">
         <v>689</v>
       </c>
-      <c r="Y74" s="2" t="s">
+      <c r="Y74" t="s">
         <v>690</v>
       </c>
-      <c r="AC74" s="2" t="s">
+      <c r="AC74" t="s">
         <v>173</v>
       </c>
-      <c r="AD74" s="2" t="s">
+      <c r="AD74" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75">
         <v>30.041989000000001</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75">
         <v>31.271526000000001</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" t="s">
         <v>692</v>
       </c>
-      <c r="E75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
         <v>693</v>
       </c>
-      <c r="H75" s="2">
-        <v>1</v>
-      </c>
-      <c r="I75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
         <v>694</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="L75" t="s">
         <v>695</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M75">
         <v>2</v>
       </c>
-      <c r="P75" s="2" t="s">
+      <c r="P75" t="s">
         <v>696</v>
       </c>
       <c r="Q75" s="1">
         <v>44787</v>
       </c>
-      <c r="R75" s="2" t="s">
+      <c r="R75" t="s">
         <v>79</v>
       </c>
       <c r="S75" s="1">
         <v>45435</v>
       </c>
-      <c r="U75" s="2" t="s">
+      <c r="U75" t="s">
         <v>697</v>
       </c>
-      <c r="V75" s="2" t="s">
+      <c r="V75" t="s">
         <v>698</v>
       </c>
-      <c r="Y75" s="2" t="s">
+      <c r="Y75" t="s">
         <v>699</v>
       </c>
-      <c r="AC75" s="2" t="s">
+      <c r="AC75" t="s">
         <v>700</v>
       </c>
-      <c r="AD75" s="2" t="s">
+      <c r="AD75" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76">
         <v>30.042127000000001</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76">
         <v>31.271336000000002</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" t="s">
         <v>702</v>
       </c>
-      <c r="E76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" s="2" t="s">
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
         <v>448</v>
       </c>
-      <c r="H76" s="2">
-        <v>1</v>
-      </c>
-      <c r="I76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M76" s="2">
-        <v>1</v>
-      </c>
-      <c r="P76" s="2" t="s">
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="P76" t="s">
         <v>686</v>
       </c>
       <c r="Q76" s="1">
         <v>45152</v>
       </c>
-      <c r="R76" s="2" t="s">
+      <c r="R76" t="s">
         <v>46</v>
       </c>
       <c r="S76" s="1">
         <v>45414</v>
       </c>
-      <c r="U76" s="2" t="s">
+      <c r="U76" t="s">
         <v>889</v>
       </c>
-      <c r="V76" s="2" t="s">
+      <c r="V76" t="s">
         <v>703</v>
       </c>
-      <c r="Y76" s="2" t="s">
+      <c r="Y76" t="s">
         <v>704</v>
       </c>
-      <c r="AC76" s="2" t="s">
+      <c r="AC76" t="s">
         <v>455</v>
       </c>
-      <c r="AD76" s="2" t="s">
+      <c r="AD76" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77">
         <v>30.041036999999999</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77">
         <v>31.270205000000001</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" t="s">
         <v>706</v>
       </c>
-      <c r="E77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" s="2">
-        <v>0</v>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M77" s="2">
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>32</v>
+      </c>
+      <c r="L77" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77">
         <v>2</v>
       </c>
-      <c r="N77" s="2" t="s">
+      <c r="N77" t="s">
         <v>707</v>
       </c>
-      <c r="P77" s="2" t="s">
+      <c r="P77" t="s">
         <v>197</v>
       </c>
       <c r="Q77" s="1">
         <v>45250</v>
       </c>
-      <c r="R77" s="2" t="s">
+      <c r="R77" t="s">
         <v>79</v>
       </c>
       <c r="S77" s="1">
         <v>45435</v>
       </c>
-      <c r="T77" s="2" t="s">
+      <c r="T77" t="s">
         <v>708</v>
       </c>
-      <c r="U77" s="2" t="s">
+      <c r="U77" t="s">
         <v>709</v>
       </c>
-      <c r="V77" s="2" t="s">
+      <c r="V77" t="s">
         <v>710</v>
       </c>
-      <c r="W77" s="2" t="s">
+      <c r="W77" t="s">
         <v>711</v>
       </c>
-      <c r="Y77" s="2" t="s">
+      <c r="Y77" t="s">
         <v>712</v>
       </c>
-      <c r="AC77" s="2" t="s">
+      <c r="AC77" t="s">
         <v>713</v>
       </c>
-      <c r="AD77" s="2" t="s">
+      <c r="AD77" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78">
         <v>30.04195</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78">
         <v>31.278656999999999</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" t="s">
         <v>715</v>
       </c>
-      <c r="E78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
         <v>179</v>
       </c>
-      <c r="H78" s="2">
-        <v>1</v>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M78" s="2">
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78">
         <v>2</v>
       </c>
-      <c r="P78" s="2" t="s">
+      <c r="P78" t="s">
         <v>716</v>
       </c>
       <c r="Q78" s="1">
         <v>45148</v>
       </c>
-      <c r="R78" s="2" t="s">
+      <c r="R78" t="s">
         <v>46</v>
       </c>
       <c r="S78" s="1">
         <v>45419</v>
       </c>
-      <c r="U78" s="2" t="s">
+      <c r="U78" t="s">
         <v>717</v>
       </c>
-      <c r="V78" s="2" t="s">
+      <c r="V78" t="s">
         <v>718</v>
       </c>
-      <c r="Y78" s="2" t="s">
+      <c r="Y78" t="s">
         <v>719</v>
       </c>
-      <c r="AC78" s="2" t="s">
+      <c r="AC78" t="s">
         <v>720</v>
       </c>
-      <c r="AD78" s="2" t="s">
+      <c r="AD78" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79">
         <v>30.039505999999999</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79">
         <v>31.271972000000002</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" t="s">
         <v>832</v>
       </c>
-      <c r="E79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" s="2" t="s">
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
         <v>406</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" t="s">
         <v>722</v>
       </c>
-      <c r="H79" s="2">
-        <v>1</v>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L79" s="2" t="s">
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79" t="s">
         <v>181</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79">
         <v>3</v>
       </c>
-      <c r="P79" s="2" t="s">
+      <c r="P79" t="s">
         <v>723</v>
       </c>
       <c r="Q79" s="1">
         <v>45152</v>
       </c>
-      <c r="R79" s="2" t="s">
+      <c r="R79" t="s">
         <v>46</v>
       </c>
       <c r="S79" s="1">
         <v>45419</v>
       </c>
-      <c r="U79" s="2" t="s">
+      <c r="U79" t="s">
         <v>724</v>
       </c>
-      <c r="V79" s="2" t="s">
+      <c r="V79" t="s">
         <v>725</v>
       </c>
-      <c r="W79" s="2" t="s">
+      <c r="W79" t="s">
         <v>726</v>
       </c>
-      <c r="Y79" s="2" t="s">
+      <c r="Y79" t="s">
         <v>727</v>
       </c>
-      <c r="AC79" s="2" t="s">
+      <c r="AC79" t="s">
         <v>728</v>
       </c>
-      <c r="AD79" s="2" t="s">
+      <c r="AD79" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80">
         <v>30.039335999999999</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80">
         <v>31.271692000000002</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" t="s">
         <v>730</v>
       </c>
-      <c r="E80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" s="2" t="s">
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
         <v>731</v>
       </c>
-      <c r="H80" s="2">
-        <v>1</v>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="2" t="s">
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" t="s">
         <v>181</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80">
         <v>3</v>
       </c>
-      <c r="P80" s="2" t="s">
+      <c r="P80" t="s">
         <v>732</v>
       </c>
       <c r="Q80" s="1">
         <v>45152</v>
       </c>
-      <c r="R80" s="2" t="s">
+      <c r="R80" t="s">
         <v>79</v>
       </c>
       <c r="S80" s="1">
         <v>45440</v>
       </c>
-      <c r="U80" s="2" t="s">
+      <c r="U80" t="s">
         <v>890</v>
       </c>
-      <c r="V80" s="2" t="s">
+      <c r="V80" t="s">
         <v>733</v>
       </c>
-      <c r="W80" s="2" t="s">
+      <c r="W80" t="s">
         <v>734</v>
       </c>
-      <c r="X80" s="2" t="s">
+      <c r="X80" t="s">
         <v>735</v>
       </c>
-      <c r="Y80" s="2" t="s">
+      <c r="Y80" t="s">
         <v>736</v>
       </c>
-      <c r="AC80" s="2" t="s">
+      <c r="AC80" t="s">
         <v>737</v>
       </c>
-      <c r="AD80" s="2" t="s">
+      <c r="AD80" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81">
         <v>30.038891</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81">
         <v>31.271498999999999</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" t="s">
         <v>739</v>
       </c>
-      <c r="E81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81" s="2" t="s">
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
         <v>740</v>
       </c>
-      <c r="H81" s="2">
-        <v>1</v>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M81" s="2">
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81">
         <v>3</v>
       </c>
-      <c r="P81" s="2" t="s">
+      <c r="P81" t="s">
         <v>732</v>
       </c>
       <c r="Q81" s="1">
         <v>45152</v>
       </c>
-      <c r="R81" s="2" t="s">
+      <c r="R81" t="s">
         <v>79</v>
       </c>
       <c r="S81" s="1">
         <v>45440</v>
       </c>
-      <c r="T81" s="2" t="s">
+      <c r="T81" t="s">
         <v>741</v>
       </c>
-      <c r="U81" s="2" t="s">
+      <c r="U81" t="s">
         <v>742</v>
       </c>
-      <c r="V81" s="2" t="s">
+      <c r="V81" t="s">
         <v>743</v>
       </c>
-      <c r="Y81" s="2" t="s">
+      <c r="Y81" t="s">
         <v>744</v>
       </c>
-      <c r="AC81" s="2" t="s">
+      <c r="AC81" t="s">
         <v>745</v>
       </c>
-      <c r="AD81" s="2" t="s">
+      <c r="AD81" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82">
         <v>30.038667</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82">
         <v>31.271186</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" t="s">
         <v>833</v>
       </c>
-      <c r="E82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" s="2">
-        <v>0</v>
-      </c>
-      <c r="I82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L82" s="2" t="s">
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" t="s">
         <v>747</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M82">
         <v>2</v>
       </c>
-      <c r="N82" s="2" t="s">
+      <c r="N82" t="s">
         <v>173</v>
       </c>
-      <c r="O82" s="2" t="s">
+      <c r="O82" t="s">
         <v>748</v>
       </c>
-      <c r="P82" s="2" t="s">
+      <c r="P82" t="s">
         <v>749</v>
       </c>
       <c r="Q82" s="1">
         <v>45152</v>
       </c>
-      <c r="R82" s="2" t="s">
+      <c r="R82" t="s">
         <v>79</v>
       </c>
       <c r="S82" s="1">
         <v>45435</v>
       </c>
-      <c r="U82" s="2" t="s">
+      <c r="U82" t="s">
         <v>750</v>
       </c>
-      <c r="V82" s="2" t="s">
+      <c r="V82" t="s">
         <v>751</v>
       </c>
-      <c r="Y82" s="2" t="s">
+      <c r="Y82" t="s">
         <v>752</v>
       </c>
-      <c r="AC82" s="2" t="s">
+      <c r="AC82" t="s">
         <v>173</v>
       </c>
-      <c r="AD82" s="2" t="s">
+      <c r="AD82" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>30.038992</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83">
         <v>31.270686000000001</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" t="s">
         <v>754</v>
       </c>
-      <c r="E83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
         <v>406</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" t="s">
         <v>722</v>
       </c>
-      <c r="H83" s="2">
-        <v>0</v>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L83" s="2" t="s">
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>32</v>
+      </c>
+      <c r="L83" t="s">
         <v>181</v>
       </c>
-      <c r="M83" s="2">
+      <c r="M83">
         <v>3</v>
       </c>
-      <c r="P83" s="2" t="s">
+      <c r="P83" t="s">
         <v>755</v>
       </c>
       <c r="Q83" s="1">
         <v>45152</v>
       </c>
-      <c r="R83" s="2" t="s">
+      <c r="R83" t="s">
         <v>46</v>
       </c>
       <c r="S83" s="1">
         <v>45419</v>
       </c>
-      <c r="U83" s="2" t="s">
+      <c r="U83" t="s">
         <v>756</v>
       </c>
-      <c r="V83" s="2" t="s">
+      <c r="V83" t="s">
         <v>891</v>
       </c>
-      <c r="W83" s="2" t="s">
+      <c r="W83" t="s">
         <v>757</v>
       </c>
-      <c r="Y83" s="2" t="s">
+      <c r="Y83" t="s">
         <v>758</v>
       </c>
-      <c r="AC83" s="2" t="s">
+      <c r="AC83" t="s">
         <v>728</v>
       </c>
-      <c r="AD83" s="2" t="s">
+      <c r="AD83" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84">
         <v>30.040644</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84">
         <v>31.269933000000002</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" t="s">
         <v>171</v>
       </c>
-      <c r="E84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" s="2">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
         <v>180</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L84" t="s">
         <v>181</v>
       </c>
-      <c r="M84" s="2">
+      <c r="M84">
         <v>4</v>
       </c>
-      <c r="N84" s="2" t="s">
+      <c r="N84" t="s">
         <v>163</v>
       </c>
-      <c r="O84" s="2" t="s">
+      <c r="O84" t="s">
         <v>140</v>
       </c>
-      <c r="P84" s="2" t="s">
+      <c r="P84" t="s">
         <v>732</v>
       </c>
       <c r="Q84" s="1">
         <v>45152</v>
       </c>
-      <c r="R84" s="2" t="s">
+      <c r="R84" t="s">
         <v>79</v>
       </c>
       <c r="S84" s="1">
         <v>45435</v>
       </c>
-      <c r="T84" s="2" t="s">
+      <c r="T84" t="s">
         <v>760</v>
       </c>
-      <c r="U84" s="2" t="s">
+      <c r="U84" t="s">
         <v>892</v>
       </c>
-      <c r="V84" s="2" t="s">
+      <c r="V84" t="s">
         <v>761</v>
       </c>
-      <c r="W84" s="2" t="s">
+      <c r="W84" t="s">
         <v>762</v>
       </c>
-      <c r="Y84" s="2" t="s">
+      <c r="Y84" t="s">
         <v>763</v>
       </c>
-      <c r="AC84" s="2" t="s">
+      <c r="AC84" t="s">
         <v>163</v>
       </c>
-      <c r="AD84" s="2" t="s">
+      <c r="AD84" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85">
         <v>30.041369</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85">
         <v>31.268246000000001</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" t="s">
         <v>765</v>
       </c>
-      <c r="E85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" s="2">
-        <v>0</v>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M85" s="2">
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>32</v>
+      </c>
+      <c r="L85" t="s">
+        <v>32</v>
+      </c>
+      <c r="M85">
         <v>2</v>
       </c>
-      <c r="N85" s="2" t="s">
+      <c r="N85" t="s">
         <v>766</v>
       </c>
-      <c r="O85" s="2" t="s">
+      <c r="O85" t="s">
         <v>767</v>
       </c>
-      <c r="P85" s="2" t="s">
+      <c r="P85" t="s">
         <v>716</v>
       </c>
       <c r="Q85" s="1">
         <v>45148</v>
       </c>
-      <c r="R85" s="2" t="s">
+      <c r="R85" t="s">
         <v>768</v>
       </c>
       <c r="S85" s="1">
         <v>45419</v>
       </c>
-      <c r="U85" s="2" t="s">
+      <c r="U85" t="s">
         <v>893</v>
       </c>
-      <c r="V85" s="2" t="s">
+      <c r="V85" t="s">
         <v>769</v>
       </c>
-      <c r="Y85" s="2" t="s">
+      <c r="Y85" t="s">
         <v>770</v>
       </c>
-      <c r="AC85" s="2" t="s">
+      <c r="AC85" t="s">
         <v>771</v>
       </c>
-      <c r="AD85" s="2" t="s">
+      <c r="AD85" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86">
         <v>30.041322999999998</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86">
         <v>31.268204000000001</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" t="s">
         <v>773</v>
       </c>
-      <c r="E86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" s="2">
-        <v>0</v>
-      </c>
-      <c r="I86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M86" s="2">
-        <v>1</v>
-      </c>
-      <c r="N86" s="2" t="s">
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>32</v>
+      </c>
+      <c r="L86" t="s">
+        <v>32</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
         <v>766</v>
       </c>
-      <c r="O86" s="2" t="s">
+      <c r="O86" t="s">
         <v>767</v>
       </c>
-      <c r="P86" s="2" t="s">
+      <c r="P86" t="s">
         <v>716</v>
       </c>
       <c r="Q86" s="1">
         <v>45148</v>
       </c>
-      <c r="R86" s="2" t="s">
+      <c r="R86" t="s">
         <v>46</v>
       </c>
       <c r="S86" s="1">
         <v>45420</v>
       </c>
-      <c r="U86" s="2" t="s">
+      <c r="U86" t="s">
         <v>894</v>
       </c>
-      <c r="V86" s="2" t="s">
+      <c r="V86" t="s">
         <v>774</v>
       </c>
-      <c r="Y86" s="2" t="s">
+      <c r="Y86" t="s">
         <v>775</v>
       </c>
-      <c r="AC86" s="2" t="s">
+      <c r="AC86" t="s">
         <v>771</v>
       </c>
-      <c r="AD86" s="2" t="s">
+      <c r="AD86" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
         <v>30.041108999999999</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87">
         <v>31.268107000000001</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" t="s">
         <v>777</v>
       </c>
-      <c r="E87" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87" s="2">
-        <v>0</v>
-      </c>
-      <c r="I87" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M87" s="2">
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>32</v>
+      </c>
+      <c r="L87" t="s">
+        <v>32</v>
+      </c>
+      <c r="M87">
         <v>2</v>
       </c>
-      <c r="N87" s="2" t="s">
+      <c r="N87" t="s">
         <v>778</v>
       </c>
-      <c r="O87" s="2" t="s">
+      <c r="O87" t="s">
         <v>767</v>
       </c>
-      <c r="P87" s="2" t="s">
+      <c r="P87" t="s">
         <v>716</v>
       </c>
       <c r="Q87" s="1">
         <v>45148</v>
       </c>
-      <c r="R87" s="2" t="s">
+      <c r="R87" t="s">
         <v>46</v>
       </c>
       <c r="S87" s="1">
         <v>45420</v>
       </c>
-      <c r="U87" s="2" t="s">
+      <c r="U87" t="s">
         <v>779</v>
       </c>
-      <c r="V87" s="2" t="s">
+      <c r="V87" t="s">
         <v>780</v>
       </c>
-      <c r="Y87" s="2" t="s">
+      <c r="Y87" t="s">
         <v>781</v>
       </c>
-      <c r="AC87" s="2" t="s">
+      <c r="AC87" t="s">
         <v>778</v>
       </c>
-      <c r="AD87" s="2" t="s">
+      <c r="AD87" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
         <v>30.041042999999998</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88">
         <v>31.267969999999998</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="E88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" s="2">
-        <v>0</v>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L88" s="2" t="s">
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>32</v>
+      </c>
+      <c r="L88" t="s">
         <v>181</v>
       </c>
-      <c r="M88" s="2">
+      <c r="M88">
         <v>2</v>
       </c>
-      <c r="N88" s="2" t="s">
+      <c r="N88" t="s">
         <v>778</v>
       </c>
-      <c r="O88" s="2" t="s">
+      <c r="O88" t="s">
         <v>767</v>
       </c>
-      <c r="P88" s="2" t="s">
+      <c r="P88" t="s">
         <v>716</v>
       </c>
       <c r="Q88" s="1">
         <v>45141</v>
       </c>
-      <c r="R88" s="2" t="s">
+      <c r="R88" t="s">
         <v>46</v>
       </c>
       <c r="S88" s="1">
         <v>45420</v>
       </c>
-      <c r="U88" s="2" t="s">
+      <c r="U88" t="s">
         <v>783</v>
       </c>
-      <c r="V88" s="2" t="s">
+      <c r="V88" t="s">
         <v>784</v>
       </c>
-      <c r="W88" s="2" t="s">
+      <c r="W88" t="s">
         <v>785</v>
       </c>
-      <c r="Y88" s="2" t="s">
+      <c r="Y88" t="s">
         <v>786</v>
       </c>
-      <c r="AC88" s="2" t="s">
+      <c r="AC88" t="s">
         <v>778</v>
       </c>
-      <c r="AD88" s="2" t="s">
+      <c r="AD88" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89">
         <v>30.040773999999999</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89">
         <v>31.267911000000002</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" t="s">
         <v>788</v>
       </c>
-      <c r="E89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" s="2">
-        <v>0</v>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M89" s="2">
-        <v>1</v>
-      </c>
-      <c r="N89" s="2" t="s">
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>32</v>
+      </c>
+      <c r="L89" t="s">
+        <v>32</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
         <v>789</v>
       </c>
-      <c r="O89" s="2" t="s">
+      <c r="O89" t="s">
         <v>767</v>
       </c>
-      <c r="P89" s="2" t="s">
+      <c r="P89" t="s">
         <v>716</v>
       </c>
       <c r="Q89" s="1">
         <v>45148</v>
       </c>
-      <c r="R89" s="2" t="s">
+      <c r="R89" t="s">
         <v>46</v>
       </c>
       <c r="S89" s="1">
         <v>45420</v>
       </c>
-      <c r="T89" s="2" t="s">
+      <c r="T89" t="s">
         <v>790</v>
       </c>
-      <c r="U89" s="2" t="s">
+      <c r="U89" t="s">
         <v>895</v>
       </c>
-      <c r="V89" s="2" t="s">
+      <c r="V89" t="s">
         <v>791</v>
       </c>
-      <c r="Y89" s="2" t="s">
+      <c r="Y89" t="s">
         <v>792</v>
       </c>
-      <c r="AC89" s="2" t="s">
+      <c r="AC89" t="s">
         <v>163</v>
       </c>
-      <c r="AD89" s="2" t="s">
+      <c r="AD89" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90">
         <v>30.039460999999999</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90">
         <v>31.268969999999999</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" t="s">
         <v>794</v>
       </c>
-      <c r="E90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" s="2">
-        <v>0</v>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L90" s="2" t="s">
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>32</v>
+      </c>
+      <c r="L90" t="s">
         <v>98</v>
       </c>
-      <c r="M90" s="2">
+      <c r="M90">
         <v>3</v>
       </c>
-      <c r="N90" s="2" t="s">
+      <c r="N90" t="s">
         <v>163</v>
       </c>
-      <c r="O90" s="2" t="s">
+      <c r="O90" t="s">
         <v>588</v>
       </c>
-      <c r="P90" s="2" t="s">
+      <c r="P90" t="s">
         <v>723</v>
       </c>
       <c r="Q90" s="1">
         <v>45159</v>
       </c>
-      <c r="R90" s="2" t="s">
+      <c r="R90" t="s">
         <v>46</v>
       </c>
       <c r="S90" s="1">
         <v>45420</v>
       </c>
-      <c r="U90" s="2" t="s">
+      <c r="U90" t="s">
         <v>896</v>
       </c>
-      <c r="V90" s="2" t="s">
+      <c r="V90" t="s">
         <v>795</v>
       </c>
-      <c r="W90" s="2" t="s">
+      <c r="W90" t="s">
         <v>796</v>
       </c>
-      <c r="Y90" s="2" t="s">
+      <c r="Y90" t="s">
         <v>797</v>
       </c>
-      <c r="AC90" s="2" t="s">
+      <c r="AC90" t="s">
         <v>173</v>
       </c>
-      <c r="AD90" s="2" t="s">
+      <c r="AD90" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91">
         <v>30.041015999999999</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91">
         <v>31.270945000000001</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" t="s">
         <v>799</v>
       </c>
-      <c r="E91" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" s="2">
-        <v>0</v>
-      </c>
-      <c r="I91" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
         <v>800</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="L91" t="s">
         <v>800</v>
       </c>
-      <c r="M91" s="2">
+      <c r="M91">
         <v>3</v>
       </c>
-      <c r="N91" s="2" t="s">
+      <c r="N91" t="s">
         <v>173</v>
       </c>
-      <c r="O91" s="2" t="s">
+      <c r="O91" t="s">
         <v>677</v>
       </c>
-      <c r="P91" s="2" t="s">
+      <c r="P91" t="s">
         <v>197</v>
       </c>
       <c r="Q91" s="1">
         <v>45250</v>
       </c>
-      <c r="R91" s="2" t="s">
+      <c r="R91" t="s">
         <v>79</v>
       </c>
       <c r="S91" s="1">
         <v>45440</v>
       </c>
-      <c r="T91" s="2" t="s">
+      <c r="T91" t="s">
         <v>801</v>
       </c>
-      <c r="U91" s="2" t="s">
+      <c r="U91" t="s">
         <v>802</v>
       </c>
-      <c r="V91" s="2" t="s">
+      <c r="V91" t="s">
         <v>803</v>
       </c>
-      <c r="Y91" s="2" t="s">
+      <c r="Y91" t="s">
         <v>804</v>
       </c>
-      <c r="AC91" s="2" t="s">
+      <c r="AC91" t="s">
         <v>173</v>
       </c>
-      <c r="AD91" s="2" t="s">
+      <c r="AD91" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92">
         <v>30.043880999999999</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92">
         <v>31.273619</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" t="s">
         <v>806</v>
       </c>
-      <c r="E92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
         <v>807</v>
       </c>
-      <c r="H92" s="2">
-        <v>1</v>
-      </c>
-      <c r="I92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M92" s="2">
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>32</v>
+      </c>
+      <c r="L92" t="s">
+        <v>32</v>
+      </c>
+      <c r="M92">
         <v>2</v>
       </c>
-      <c r="P92" s="2" t="s">
+      <c r="P92" t="s">
         <v>645</v>
       </c>
       <c r="Q92" s="1">
         <v>44578</v>
       </c>
-      <c r="R92" s="2" t="s">
+      <c r="R92" t="s">
         <v>79</v>
       </c>
       <c r="S92" s="1">
         <v>45440</v>
       </c>
-      <c r="U92" s="2" t="s">
+      <c r="U92" t="s">
         <v>897</v>
       </c>
-      <c r="V92" s="2" t="s">
+      <c r="V92" t="s">
         <v>808</v>
       </c>
-      <c r="W92" s="2" t="s">
+      <c r="W92" t="s">
         <v>809</v>
       </c>
-      <c r="Y92" s="2" t="s">
+      <c r="Y92" t="s">
         <v>810</v>
       </c>
-      <c r="AC92" s="2" t="s">
+      <c r="AC92" t="s">
         <v>811</v>
       </c>
-      <c r="AD92" s="2" t="s">
+      <c r="AD92" t="s">
         <v>812</v>
       </c>
     </row>
